--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cos\Desktop\Software\editor031\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2517E-0BB6-4E42-82DA-91C8B9E9207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="3334" yWindow="1174" windowWidth="22217" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,393 +36,377 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vector3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[][]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slotMaterials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stagePosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stageName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NameCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stageImageGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recommandedLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficultyhp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firstRewardPerfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">followRewardPerfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firstRewardNormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">followRewardNormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">failReward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">索引</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预制体guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放置区域材质</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡名备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡图</t>
-  </si>
-  <si>
-    <t xml:space="preserve">推荐等级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">难度怪物血量倍数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">首次完美通关奖励，关联道具表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">后续通关完美奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">首次通关奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">后续通关奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失败奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4489848440A02ABB1B11F8AE067715EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0143A94E4F41C44CCE3F2CA73F433DEA|2C47B8A848AA497877FCCFAC8097DD15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|30000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引导</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001|1||1|250||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界1-简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1002|1||1|200||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|100||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1002|1||1|150||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|50||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|25||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界1-普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|240||2|240||3|24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|192||2|192||3|19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|120||2|120||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|96||2|96||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|30||2|30||3|3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界1-困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|330||2|330||3|33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|264||2|264||3|26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|165||2|165||3|17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|132||2|132||3|14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|40||2|40||3|4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22C5750F4CDFF4363A3C3E9C5B5E9EE8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|40000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界2-简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|180||2|180||3|18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|144||2|144||3|14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|105||2|105||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|84||2|84||3|8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|25||2|25||3|5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界2-普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|270||2|270||3|27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|216||2|216||3|22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|30||2|30||3|5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界2-困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|360||2|360||3|36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|288||2|288||3|29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|45||2|45||3|6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFBB6BDD4D1D246C9B021F99C2E6B368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|50000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界3-简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|210||2|210||3|21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|168||2|168||3|17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|30||2|30||3|7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界3-普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|300||2|300||3|30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|150||2|150||3|15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|35||2|35||3|8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界3-困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|390||2|390||3|39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|312||2|312||3|31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|195||2|195||3|20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|156||2|156||3|16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|45||2|45||3|9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01BFBD824DAD4195BB656182F8683C83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|60000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界4-简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界4-普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界4-困难</t>
-  </si>
-  <si>
-    <t xml:space="preserve">836427244F85AC34DE722C82E976607A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|70000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界5-简单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界5-普通</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage_stageName_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界5-困难</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="119">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>slotMaterials</t>
+  </si>
+  <si>
+    <t>stagePosition</t>
+  </si>
+  <si>
+    <t>stageName</t>
+  </si>
+  <si>
+    <t>NameCN</t>
+  </si>
+  <si>
+    <t>stageImageGuid</t>
+  </si>
+  <si>
+    <t>recommandedLevel</t>
+  </si>
+  <si>
+    <t>difficultyhp</t>
+  </si>
+  <si>
+    <t>firstRewardPerfect</t>
+  </si>
+  <si>
+    <t>followRewardPerfect</t>
+  </si>
+  <si>
+    <t>firstRewardNormal</t>
+  </si>
+  <si>
+    <t>followRewardNormal</t>
+  </si>
+  <si>
+    <t>failReward</t>
+  </si>
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>预制体guid</t>
+  </si>
+  <si>
+    <t>放置区域材质</t>
+  </si>
+  <si>
+    <t>关卡位置</t>
+  </si>
+  <si>
+    <t>关卡名字</t>
+  </si>
+  <si>
+    <t>关卡名备注</t>
+  </si>
+  <si>
+    <t>关卡图</t>
+  </si>
+  <si>
+    <t>推荐等级</t>
+  </si>
+  <si>
+    <t>难度怪物血量倍数</t>
+  </si>
+  <si>
+    <t>首次完美通关奖励，关联道具表</t>
+  </si>
+  <si>
+    <t>后续通关完美奖励</t>
+  </si>
+  <si>
+    <t>首次通关奖励</t>
+  </si>
+  <si>
+    <t>后续通关奖励</t>
+  </si>
+  <si>
+    <t>失败奖励</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>4489848440A02ABB1B11F8AE067715EA</t>
+  </si>
+  <si>
+    <t>0143A94E4F41C44CCE3F2CA73F433DEA|2C47B8A848AA497877FCCFAC8097DD15</t>
+  </si>
+  <si>
+    <t>0|0|30000</t>
+  </si>
+  <si>
+    <t>引导</t>
+  </si>
+  <si>
+    <t>2001|1||1|250||3|10</t>
+  </si>
+  <si>
+    <t>Stage_stageName_1</t>
+  </si>
+  <si>
+    <t>世界1-简单</t>
+  </si>
+  <si>
+    <t>1002|1||1|200||3|12</t>
+  </si>
+  <si>
+    <t>1|100||3|12</t>
+  </si>
+  <si>
+    <t>1002|1||1|150||3|12</t>
+  </si>
+  <si>
+    <t>1|50||3|10</t>
+  </si>
+  <si>
+    <t>1|25||3|10</t>
+  </si>
+  <si>
+    <t>Stage_stageName_2</t>
+  </si>
+  <si>
+    <t>世界1-普通</t>
+  </si>
+  <si>
+    <t>1|240||2|240||3|24</t>
+  </si>
+  <si>
+    <t>1|192||2|192||3|19</t>
+  </si>
+  <si>
+    <t>1|120||2|120||3|12</t>
+  </si>
+  <si>
+    <t>1|96||2|96||3|10</t>
+  </si>
+  <si>
+    <t>1|30||2|30||3|3</t>
+  </si>
+  <si>
+    <t>Stage_stageName_3</t>
+  </si>
+  <si>
+    <t>世界1-困难</t>
+  </si>
+  <si>
+    <t>1|330||2|330||3|33</t>
+  </si>
+  <si>
+    <t>1|264||2|264||3|26</t>
+  </si>
+  <si>
+    <t>1|165||2|165||3|17</t>
+  </si>
+  <si>
+    <t>1|132||2|132||3|14</t>
+  </si>
+  <si>
+    <t>1|40||2|40||3|4</t>
+  </si>
+  <si>
+    <t>22C5750F4CDFF4363A3C3E9C5B5E9EE8</t>
+  </si>
+  <si>
+    <t>0|0|40000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_4</t>
+  </si>
+  <si>
+    <t>世界2-简单</t>
+  </si>
+  <si>
+    <t>1|180||2|180||3|18</t>
+  </si>
+  <si>
+    <t>1|144||2|144||3|14</t>
+  </si>
+  <si>
+    <t>1|105||2|105||3|10</t>
+  </si>
+  <si>
+    <t>1|84||2|84||3|8</t>
+  </si>
+  <si>
+    <t>1|25||2|25||3|5</t>
+  </si>
+  <si>
+    <t>Stage_stageName_5</t>
+  </si>
+  <si>
+    <t>世界2-普通</t>
+  </si>
+  <si>
+    <t>1|270||2|270||3|27</t>
+  </si>
+  <si>
+    <t>1|216||2|216||3|22</t>
+  </si>
+  <si>
+    <t>1|30||2|30||3|5</t>
+  </si>
+  <si>
+    <t>Stage_stageName_6</t>
+  </si>
+  <si>
+    <t>世界2-困难</t>
+  </si>
+  <si>
+    <t>1|360||2|360||3|36</t>
+  </si>
+  <si>
+    <t>1|288||2|288||3|29</t>
+  </si>
+  <si>
+    <t>1|45||2|45||3|6</t>
+  </si>
+  <si>
+    <t>BFBB6BDD4D1D246C9B021F99C2E6B368</t>
+  </si>
+  <si>
+    <t>0|0|50000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_7</t>
+  </si>
+  <si>
+    <t>世界3-简单</t>
+  </si>
+  <si>
+    <t>1|210||2|210||3|21</t>
+  </si>
+  <si>
+    <t>1|168||2|168||3|17</t>
+  </si>
+  <si>
+    <t>1|30||2|30||3|7</t>
+  </si>
+  <si>
+    <t>Stage_stageName_8</t>
+  </si>
+  <si>
+    <t>世界3-普通</t>
+  </si>
+  <si>
+    <t>1|300||2|300||3|30</t>
+  </si>
+  <si>
+    <t>1|150||2|150||3|15</t>
+  </si>
+  <si>
+    <t>1|35||2|35||3|8</t>
+  </si>
+  <si>
+    <t>Stage_stageName_9</t>
+  </si>
+  <si>
+    <t>世界3-困难</t>
+  </si>
+  <si>
+    <t>1|390||2|390||3|39</t>
+  </si>
+  <si>
+    <t>1|312||2|312||3|31</t>
+  </si>
+  <si>
+    <t>1|195||2|195||3|20</t>
+  </si>
+  <si>
+    <t>1|156||2|156||3|16</t>
+  </si>
+  <si>
+    <t>1|45||2|45||3|9</t>
+  </si>
+  <si>
+    <t>01BFBD824DAD4195BB656182F8683C83</t>
+  </si>
+  <si>
+    <t>0|0|60000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_10</t>
+  </si>
+  <si>
+    <t>世界4-简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_11</t>
+  </si>
+  <si>
+    <t>世界4-普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_12</t>
+  </si>
+  <si>
+    <t>世界4-困难</t>
+  </si>
+  <si>
+    <t>836427244F85AC34DE722C82E976607A</t>
+  </si>
+  <si>
+    <t>0|0|70000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_13</t>
+  </si>
+  <si>
+    <t>世界5-简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_14</t>
+  </si>
+  <si>
+    <t>世界5-普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_15</t>
+  </si>
+  <si>
+    <t>世界5-困难</t>
+  </si>
+  <si>
+    <t>sceneEnvId</t>
+  </si>
+  <si>
+    <t>场景环境 ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -424,14 +424,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -450,84 +456,58 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -586,40 +566,367 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="35.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.06"/>
+    <col min="2" max="2" width="7.07421875" customWidth="1"/>
+    <col min="3" max="3" width="41.53515625" customWidth="1"/>
+    <col min="4" max="4" width="71.3046875" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" customWidth="1"/>
+    <col min="9" max="9" width="22.23046875" customWidth="1"/>
+    <col min="10" max="10" width="17.3046875" customWidth="1"/>
+    <col min="11" max="11" width="35.23046875" customWidth="1"/>
+    <col min="12" max="12" width="26.23046875" customWidth="1"/>
+    <col min="13" max="13" width="20.3828125" customWidth="1"/>
+    <col min="14" max="14" width="23.15234375" customWidth="1"/>
+    <col min="15" max="15" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +972,11 @@
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,8 +1022,11 @@
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -759,8 +1072,11 @@
       <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -774,17 +1090,17 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -794,42 +1110,45 @@
         <v>40</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>267079</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>1001</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -841,42 +1160,45 @@
       <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>267079</v>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
         <v>1002</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -888,42 +1210,45 @@
       <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>267079</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
         <v>1003</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -935,42 +1260,45 @@
       <c r="G8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>267079</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
         <v>2001</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -982,42 +1310,45 @@
       <c r="G9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>267204</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="P9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>2002</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1029,42 +1360,45 @@
       <c r="G10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>267204</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>7</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
         <v>2003</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1076,42 +1410,45 @@
       <c r="G11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>267204</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>13</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>3001</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1123,42 +1460,45 @@
       <c r="G12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>267212</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>3002</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1170,42 +1510,45 @@
       <c r="G13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>267212</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>9</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>3003</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1217,42 +1560,45 @@
       <c r="G14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>267212</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>99</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>4001</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1264,42 +1610,45 @@
       <c r="G15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>286353</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>15</v>
       </c>
-      <c r="J15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>4002</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1311,42 +1660,45 @@
       <c r="G16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>286353</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>17</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>4003</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1358,42 +1710,45 @@
       <c r="G17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>286353</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>19</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>5001</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1405,42 +1760,45 @@
       <c r="G18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>286352</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>21</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>5002</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1452,42 +1810,45 @@
       <c r="G19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>286352</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>23</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" t="s">
         <v>92</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>5003</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1499,38 +1860,37 @@
       <c r="G20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>286352</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>25</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="3">
         <v>3</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" t="s">
         <v>98</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" t="s">
         <v>99</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="O20" t="s">
         <v>100</v>
       </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -796,7 +796,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,7 +1044,9 @@
       <c r="B6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1097,9 @@
       <c r="B7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1150,9 @@
       <c r="B8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1197,7 +1203,9 @@
       <c r="B9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1248,7 +1256,9 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
@@ -1299,7 +1309,9 @@
       <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
@@ -1350,6 +1362,9 @@
       <c r="B12" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1400,6 +1415,9 @@
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C13" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
@@ -1450,6 +1468,9 @@
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C14" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
@@ -1500,6 +1521,9 @@
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C15" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1550,6 +1574,9 @@
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>105</v>
       </c>
@@ -1600,6 +1627,9 @@
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C17" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1650,6 +1680,9 @@
       <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C18" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>113</v>
       </c>
@@ -1700,6 +1733,9 @@
       <c r="B19" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C19" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>113</v>
       </c>
@@ -1750,6 +1786,9 @@
       <c r="B20" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C20" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>113</v>
       </c>
@@ -1800,7 +1839,9 @@
       <c r="B21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1851,7 +1892,9 @@
       <c r="B22" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1902,7 +1945,9 @@
       <c r="B23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cos\Desktop\Software\editor031\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35217051-4E84-4402-99F6-1685DD413DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5896B147-80B8-4BC1-9E44-644C4BCB8696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1509" yWindow="1509" windowWidth="22217" windowHeight="13594" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8366" yWindow="2889" windowWidth="22217" windowHeight="13637" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="124">
   <si>
     <t>int</t>
   </si>
@@ -48,350 +48,361 @@
     <t>id</t>
   </si>
   <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>slotMaterials</t>
+  </si>
+  <si>
+    <t>stagePosition</t>
+  </si>
+  <si>
+    <t>stageName</t>
+  </si>
+  <si>
+    <t>NameCN</t>
+  </si>
+  <si>
+    <t>stageImageGuid</t>
+  </si>
+  <si>
+    <t>recommandedLevel</t>
+  </si>
+  <si>
+    <t>firstRewardPerfect</t>
+  </si>
+  <si>
+    <t>followRewardPerfect</t>
+  </si>
+  <si>
+    <t>firstRewardNormal</t>
+  </si>
+  <si>
+    <t>followRewardNormal</t>
+  </si>
+  <si>
+    <t>failReward</t>
+  </si>
+  <si>
+    <t>sceneEnvId</t>
+  </si>
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>预制体guid</t>
+  </si>
+  <si>
+    <t>放置区域材质</t>
+  </si>
+  <si>
+    <t>关卡位置</t>
+  </si>
+  <si>
+    <t>关卡名字</t>
+  </si>
+  <si>
+    <t>关卡名备注</t>
+  </si>
+  <si>
+    <t>关卡图</t>
+  </si>
+  <si>
+    <t>推荐等级</t>
+  </si>
+  <si>
+    <t>难度怪物血量倍数</t>
+  </si>
+  <si>
+    <t>首次完美通关奖励，关联道具表</t>
+  </si>
+  <si>
+    <t>后续通关完美奖励</t>
+  </si>
+  <si>
+    <t>首次通关奖励</t>
+  </si>
+  <si>
+    <t>后续通关奖励</t>
+  </si>
+  <si>
+    <t>失败奖励</t>
+  </si>
+  <si>
+    <t>场景环境 ID</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>4489848440A02ABB1B11F8AE067715EA</t>
+  </si>
+  <si>
+    <t>0143A94E4F41C44CCE3F2CA73F433DEA|2C47B8A848AA497877FCCFAC8097DD15</t>
+  </si>
+  <si>
+    <t>0|0|30000</t>
+  </si>
+  <si>
+    <t>引导</t>
+  </si>
+  <si>
+    <t>2001|1||1|250||3|10</t>
+  </si>
+  <si>
+    <t>Stage_stageName_1</t>
+  </si>
+  <si>
+    <t>世界1-简单</t>
+  </si>
+  <si>
+    <t>1002|1||1|200||3|12</t>
+  </si>
+  <si>
+    <t>1|100||3|12</t>
+  </si>
+  <si>
+    <t>1002|1||1|150||3|12</t>
+  </si>
+  <si>
+    <t>1|50||3|10</t>
+  </si>
+  <si>
+    <t>1|25||3|10</t>
+  </si>
+  <si>
+    <t>Stage_stageName_2</t>
+  </si>
+  <si>
+    <t>世界1-普通</t>
+  </si>
+  <si>
+    <t>1|240||2|240||3|24</t>
+  </si>
+  <si>
+    <t>1|192||2|192||3|19</t>
+  </si>
+  <si>
+    <t>1|120||2|120||3|12</t>
+  </si>
+  <si>
+    <t>1|96||2|96||3|10</t>
+  </si>
+  <si>
+    <t>1|30||2|30||3|3</t>
+  </si>
+  <si>
+    <t>Stage_stageName_3</t>
+  </si>
+  <si>
+    <t>世界1-困难</t>
+  </si>
+  <si>
+    <t>1|330||2|330||3|33</t>
+  </si>
+  <si>
+    <t>1|264||2|264||3|26</t>
+  </si>
+  <si>
+    <t>1|165||2|165||3|17</t>
+  </si>
+  <si>
+    <t>1|132||2|132||3|14</t>
+  </si>
+  <si>
+    <t>1|40||2|40||3|4</t>
+  </si>
+  <si>
+    <t>22C5750F4CDFF4363A3C3E9C5B5E9EE8</t>
+  </si>
+  <si>
+    <t>0|0|40000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_4</t>
+  </si>
+  <si>
+    <t>世界2-简单</t>
+  </si>
+  <si>
+    <t>1|180||2|180||3|18</t>
+  </si>
+  <si>
+    <t>1|144||2|144||3|14</t>
+  </si>
+  <si>
+    <t>1|105||2|105||3|10</t>
+  </si>
+  <si>
+    <t>1|84||2|84||3|8</t>
+  </si>
+  <si>
+    <t>1|25||2|25||3|5</t>
+  </si>
+  <si>
+    <t>Stage_stageName_5</t>
+  </si>
+  <si>
+    <t>世界2-普通</t>
+  </si>
+  <si>
+    <t>1|270||2|270||3|27</t>
+  </si>
+  <si>
+    <t>1|216||2|216||3|22</t>
+  </si>
+  <si>
+    <t>1|30||2|30||3|5</t>
+  </si>
+  <si>
+    <t>Stage_stageName_6</t>
+  </si>
+  <si>
+    <t>世界2-困难</t>
+  </si>
+  <si>
+    <t>1|360||2|360||3|36</t>
+  </si>
+  <si>
+    <t>1|288||2|288||3|29</t>
+  </si>
+  <si>
+    <t>1|45||2|45||3|6</t>
+  </si>
+  <si>
+    <t>BFBB6BDD4D1D246C9B021F99C2E6B368</t>
+  </si>
+  <si>
+    <t>0|0|50000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_7</t>
+  </si>
+  <si>
+    <t>世界3-简单</t>
+  </si>
+  <si>
+    <t>1|210||2|210||3|21</t>
+  </si>
+  <si>
+    <t>1|168||2|168||3|17</t>
+  </si>
+  <si>
+    <t>1|30||2|30||3|7</t>
+  </si>
+  <si>
+    <t>Stage_stageName_8</t>
+  </si>
+  <si>
+    <t>世界3-普通</t>
+  </si>
+  <si>
+    <t>1|300||2|300||3|30</t>
+  </si>
+  <si>
+    <t>1|150||2|150||3|15</t>
+  </si>
+  <si>
+    <t>1|35||2|35||3|8</t>
+  </si>
+  <si>
+    <t>Stage_stageName_9</t>
+  </si>
+  <si>
+    <t>世界3-困难</t>
+  </si>
+  <si>
+    <t>1|390||2|390||3|39</t>
+  </si>
+  <si>
+    <t>1|312||2|312||3|31</t>
+  </si>
+  <si>
+    <t>1|195||2|195||3|20</t>
+  </si>
+  <si>
+    <t>1|156||2|156||3|16</t>
+  </si>
+  <si>
+    <t>1|45||2|45||3|9</t>
+  </si>
+  <si>
+    <t>01BFBD824DAD4195BB656182F8683C83</t>
+  </si>
+  <si>
+    <t>0|0|60000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_10</t>
+  </si>
+  <si>
+    <t>世界4-简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_11</t>
+  </si>
+  <si>
+    <t>世界4-普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_12</t>
+  </si>
+  <si>
+    <t>世界4-困难</t>
+  </si>
+  <si>
+    <t>836427244F85AC34DE722C82E976607A</t>
+  </si>
+  <si>
+    <t>0|0|70000</t>
+  </si>
+  <si>
+    <t>Stage_stageName_13</t>
+  </si>
+  <si>
+    <t>世界5-简单</t>
+  </si>
+  <si>
+    <t>Stage_stageName_14</t>
+  </si>
+  <si>
+    <t>世界5-普通</t>
+  </si>
+  <si>
+    <t>Stage_stageName_15</t>
+  </si>
+  <si>
+    <t>世界5-困难</t>
+  </si>
+  <si>
+    <t>17878.6|96475.7|-35.78</t>
+  </si>
+  <si>
+    <t>关卡配置索引（0—4对应世界1——5）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficultyhp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>guid</t>
-  </si>
-  <si>
-    <t>slotMaterials</t>
-  </si>
-  <si>
-    <t>stagePosition</t>
-  </si>
-  <si>
-    <t>stageName</t>
-  </si>
-  <si>
-    <t>NameCN</t>
-  </si>
-  <si>
-    <t>stageImageGuid</t>
-  </si>
-  <si>
-    <t>recommandedLevel</t>
-  </si>
-  <si>
-    <t>difficultyhp</t>
-  </si>
-  <si>
-    <t>firstRewardPerfect</t>
-  </si>
-  <si>
-    <t>followRewardPerfect</t>
-  </si>
-  <si>
-    <t>firstRewardNormal</t>
-  </si>
-  <si>
-    <t>followRewardNormal</t>
-  </si>
-  <si>
-    <t>failReward</t>
-  </si>
-  <si>
-    <t>sceneEnvId</t>
-  </si>
-  <si>
-    <t>关卡id</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>预制体guid</t>
-  </si>
-  <si>
-    <t>放置区域材质</t>
-  </si>
-  <si>
-    <t>关卡位置</t>
-  </si>
-  <si>
-    <t>关卡名字</t>
-  </si>
-  <si>
-    <t>关卡名备注</t>
-  </si>
-  <si>
-    <t>关卡图</t>
-  </si>
-  <si>
-    <t>推荐等级</t>
-  </si>
-  <si>
-    <t>难度怪物血量倍数</t>
-  </si>
-  <si>
-    <t>首次完美通关奖励，关联道具表</t>
-  </si>
-  <si>
-    <t>后续通关完美奖励</t>
-  </si>
-  <si>
-    <t>首次通关奖励</t>
-  </si>
-  <si>
-    <t>后续通关奖励</t>
-  </si>
-  <si>
-    <t>失败奖励</t>
-  </si>
-  <si>
-    <t>场景环境 ID</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>4489848440A02ABB1B11F8AE067715EA</t>
-  </si>
-  <si>
-    <t>0143A94E4F41C44CCE3F2CA73F433DEA|2C47B8A848AA497877FCCFAC8097DD15</t>
-  </si>
-  <si>
-    <t>0|0|30000</t>
-  </si>
-  <si>
-    <t>引导</t>
-  </si>
-  <si>
-    <t>2001|1||1|250||3|10</t>
-  </si>
-  <si>
-    <t>Stage_stageName_1</t>
-  </si>
-  <si>
-    <t>世界1-简单</t>
-  </si>
-  <si>
-    <t>1002|1||1|200||3|12</t>
-  </si>
-  <si>
-    <t>1|100||3|12</t>
-  </si>
-  <si>
-    <t>1002|1||1|150||3|12</t>
-  </si>
-  <si>
-    <t>1|50||3|10</t>
-  </si>
-  <si>
-    <t>1|25||3|10</t>
-  </si>
-  <si>
-    <t>Stage_stageName_2</t>
-  </si>
-  <si>
-    <t>世界1-普通</t>
-  </si>
-  <si>
-    <t>1|240||2|240||3|24</t>
-  </si>
-  <si>
-    <t>1|192||2|192||3|19</t>
-  </si>
-  <si>
-    <t>1|120||2|120||3|12</t>
-  </si>
-  <si>
-    <t>1|96||2|96||3|10</t>
-  </si>
-  <si>
-    <t>1|30||2|30||3|3</t>
-  </si>
-  <si>
-    <t>Stage_stageName_3</t>
-  </si>
-  <si>
-    <t>世界1-困难</t>
-  </si>
-  <si>
-    <t>1|330||2|330||3|33</t>
-  </si>
-  <si>
-    <t>1|264||2|264||3|26</t>
-  </si>
-  <si>
-    <t>1|165||2|165||3|17</t>
-  </si>
-  <si>
-    <t>1|132||2|132||3|14</t>
-  </si>
-  <si>
-    <t>1|40||2|40||3|4</t>
-  </si>
-  <si>
-    <t>22C5750F4CDFF4363A3C3E9C5B5E9EE8</t>
-  </si>
-  <si>
-    <t>0|0|40000</t>
-  </si>
-  <si>
-    <t>Stage_stageName_4</t>
-  </si>
-  <si>
-    <t>世界2-简单</t>
-  </si>
-  <si>
-    <t>1|180||2|180||3|18</t>
-  </si>
-  <si>
-    <t>1|144||2|144||3|14</t>
-  </si>
-  <si>
-    <t>1|105||2|105||3|10</t>
-  </si>
-  <si>
-    <t>1|84||2|84||3|8</t>
-  </si>
-  <si>
-    <t>1|25||2|25||3|5</t>
-  </si>
-  <si>
-    <t>Stage_stageName_5</t>
-  </si>
-  <si>
-    <t>世界2-普通</t>
-  </si>
-  <si>
-    <t>1|270||2|270||3|27</t>
-  </si>
-  <si>
-    <t>1|216||2|216||3|22</t>
-  </si>
-  <si>
-    <t>1|30||2|30||3|5</t>
-  </si>
-  <si>
-    <t>Stage_stageName_6</t>
-  </si>
-  <si>
-    <t>世界2-困难</t>
-  </si>
-  <si>
-    <t>1|360||2|360||3|36</t>
-  </si>
-  <si>
-    <t>1|288||2|288||3|29</t>
-  </si>
-  <si>
-    <t>1|45||2|45||3|6</t>
-  </si>
-  <si>
-    <t>BFBB6BDD4D1D246C9B021F99C2E6B368</t>
-  </si>
-  <si>
-    <t>0|0|50000</t>
-  </si>
-  <si>
-    <t>Stage_stageName_7</t>
-  </si>
-  <si>
-    <t>世界3-简单</t>
-  </si>
-  <si>
-    <t>1|210||2|210||3|21</t>
-  </si>
-  <si>
-    <t>1|168||2|168||3|17</t>
-  </si>
-  <si>
-    <t>1|30||2|30||3|7</t>
-  </si>
-  <si>
-    <t>Stage_stageName_8</t>
-  </si>
-  <si>
-    <t>世界3-普通</t>
-  </si>
-  <si>
-    <t>1|300||2|300||3|30</t>
-  </si>
-  <si>
-    <t>1|150||2|150||3|15</t>
-  </si>
-  <si>
-    <t>1|35||2|35||3|8</t>
-  </si>
-  <si>
-    <t>Stage_stageName_9</t>
-  </si>
-  <si>
-    <t>世界3-困难</t>
-  </si>
-  <si>
-    <t>1|390||2|390||3|39</t>
-  </si>
-  <si>
-    <t>1|312||2|312||3|31</t>
-  </si>
-  <si>
-    <t>1|195||2|195||3|20</t>
-  </si>
-  <si>
-    <t>1|156||2|156||3|16</t>
-  </si>
-  <si>
-    <t>1|45||2|45||3|9</t>
-  </si>
-  <si>
-    <t>01BFBD824DAD4195BB656182F8683C83</t>
-  </si>
-  <si>
-    <t>0|0|60000</t>
-  </si>
-  <si>
-    <t>Stage_stageName_10</t>
-  </si>
-  <si>
-    <t>世界4-简单</t>
-  </si>
-  <si>
-    <t>Stage_stageName_11</t>
-  </si>
-  <si>
-    <t>世界4-普通</t>
-  </si>
-  <si>
-    <t>Stage_stageName_12</t>
-  </si>
-  <si>
-    <t>世界4-困难</t>
-  </si>
-  <si>
-    <t>836427244F85AC34DE722C82E976607A</t>
-  </si>
-  <si>
-    <t>0|0|70000</t>
-  </si>
-  <si>
-    <t>Stage_stageName_13</t>
-  </si>
-  <si>
-    <t>世界5-简单</t>
-  </si>
-  <si>
-    <t>Stage_stageName_14</t>
-  </si>
-  <si>
-    <t>世界5-普通</t>
-  </si>
-  <si>
-    <t>Stage_stageName_15</t>
-  </si>
-  <si>
-    <t>世界5-困难</t>
-  </si>
-  <si>
-    <t>17878.6|96475.7|-35.78</t>
-  </si>
-  <si>
-    <t>lvIndex</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>关卡配置索引（0—4对应世界1——5）</t>
+    <t>difficulty</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">难度 0 1 2 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一groupIndex是一个场景的不同难度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -763,29 +774,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.07421875" customWidth="1"/>
-    <col min="3" max="4" width="41.53515625" customWidth="1"/>
+    <col min="2" max="2" width="21.921875" customWidth="1"/>
+    <col min="3" max="3" width="18.61328125" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
     <col min="5" max="5" width="71.3046875" customWidth="1"/>
     <col min="6" max="6" width="15.61328125" customWidth="1"/>
-    <col min="10" max="10" width="22.23046875" customWidth="1"/>
-    <col min="11" max="11" width="17.3046875" customWidth="1"/>
-    <col min="12" max="12" width="35.23046875" customWidth="1"/>
-    <col min="13" max="13" width="26.23046875" customWidth="1"/>
-    <col min="14" max="14" width="20.3828125" customWidth="1"/>
-    <col min="15" max="15" width="23.15234375" customWidth="1"/>
-    <col min="16" max="16" width="12.07421875" customWidth="1"/>
+    <col min="10" max="11" width="22.23046875" customWidth="1"/>
+    <col min="12" max="12" width="17.3046875" customWidth="1"/>
+    <col min="13" max="13" width="35.23046875" customWidth="1"/>
+    <col min="14" max="14" width="26.23046875" customWidth="1"/>
+    <col min="15" max="15" width="20.3828125" customWidth="1"/>
+    <col min="16" max="16" width="23.15234375" customWidth="1"/>
+    <col min="17" max="17" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -835,149 +847,160 @@
         <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="10.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>99</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4">
+        <v>10000</v>
+      </c>
       <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -987,28 +1010,31 @@
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1001</v>
       </c>
@@ -1016,22 +1042,22 @@
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3">
         <v>267079</v>
@@ -1040,28 +1066,31 @@
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>47</v>
       </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1002</v>
       </c>
@@ -1069,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3">
         <v>267079</v>
@@ -1093,28 +1122,31 @@
         <v>5</v>
       </c>
       <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>54</v>
       </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1003</v>
       </c>
@@ -1122,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="3">
         <v>267079</v>
@@ -1146,28 +1178,31 @@
         <v>10</v>
       </c>
       <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
         <v>60</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
@@ -1175,22 +1210,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="3">
         <v>267204</v>
@@ -1199,28 +1234,31 @@
         <v>3</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s">
         <v>69</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>70</v>
       </c>
-      <c r="N9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9">
+      <c r="R9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -1228,22 +1266,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" s="3">
         <v>267204</v>
@@ -1252,28 +1290,31 @@
         <v>7</v>
       </c>
       <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
-        <v>76</v>
-      </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>2003</v>
       </c>
@@ -1281,22 +1322,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I11" s="3">
         <v>267204</v>
@@ -1305,51 +1346,54 @@
         <v>13</v>
       </c>
       <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
-        <v>81</v>
-      </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3001</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="C12" s="4">
+        <v>10003</v>
       </c>
       <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="I12">
         <v>267212</v>
@@ -1358,51 +1402,54 @@
         <v>5</v>
       </c>
       <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3002</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="C13" s="4">
+        <v>10003</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I13">
         <v>267212</v>
@@ -1411,51 +1458,54 @@
         <v>9</v>
       </c>
       <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
-        <v>93</v>
-      </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3003</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>2</v>
+      <c r="C14" s="4">
+        <v>10003</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I14">
         <v>267212</v>
@@ -1464,51 +1514,54 @@
         <v>15</v>
       </c>
       <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s">
         <v>98</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>99</v>
       </c>
-      <c r="N14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4001</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="C15" s="4">
+        <v>10004</v>
       </c>
       <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="I15">
         <v>286353</v>
@@ -1517,51 +1570,54 @@
         <v>15</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4002</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" s="4">
+        <v>10004</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16">
         <v>286353</v>
@@ -1570,51 +1626,54 @@
         <v>17</v>
       </c>
       <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
         <v>2</v>
       </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4003</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>3</v>
+      <c r="C17" s="4">
+        <v>10004</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I17">
         <v>286353</v>
@@ -1623,51 +1682,54 @@
         <v>19</v>
       </c>
       <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
         <v>98</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
         <v>99</v>
       </c>
-      <c r="N17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>5001</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>4</v>
+      <c r="C18" s="4">
+        <v>10005</v>
       </c>
       <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="I18">
         <v>286352</v>
@@ -1676,51 +1738,54 @@
         <v>21</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5002</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19">
-        <v>4</v>
+      <c r="C19" s="4">
+        <v>10005</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I19">
         <v>286352</v>
@@ -1729,51 +1794,54 @@
         <v>23</v>
       </c>
       <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
         <v>2</v>
       </c>
-      <c r="L19" t="s">
-        <v>93</v>
-      </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.3" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5003</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20">
-        <v>4</v>
+      <c r="C20" s="4">
+        <v>10005</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I20">
         <v>286352</v>
@@ -1782,51 +1850,54 @@
         <v>25</v>
       </c>
       <c r="K20" s="3">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
         <v>98</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Q20" t="s">
         <v>99</v>
       </c>
-      <c r="N20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>1004</v>
       </c>
       <c r="B21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3">
         <v>267079</v>
@@ -1835,51 +1906,54 @@
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s">
         <v>46</v>
       </c>
-      <c r="M21" t="s">
+      <c r="Q21" t="s">
         <v>47</v>
       </c>
-      <c r="N21" t="s">
-        <v>48</v>
-      </c>
-      <c r="O21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>1005</v>
       </c>
       <c r="B22" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I22" s="3">
         <v>267079</v>
@@ -1888,51 +1962,54 @@
         <v>5</v>
       </c>
       <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
         <v>53</v>
       </c>
-      <c r="M22" t="s">
+      <c r="Q22" t="s">
         <v>54</v>
       </c>
-      <c r="N22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>1006</v>
       </c>
       <c r="B23" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>10006</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I23" s="3">
         <v>267079</v>
@@ -1941,24 +2018,27 @@
         <v>10</v>
       </c>
       <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s">
         <v>60</v>
       </c>
-      <c r="M23" t="s">
+      <c r="Q23" t="s">
         <v>61</v>
       </c>
-      <c r="N23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2</v>
       </c>
     </row>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="147">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -403,13 +403,64 @@
     <t xml:space="preserve">世界5-困难</t>
   </si>
   <si>
-    <t xml:space="preserve">17878.6|96475.7|-35.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11294.6|97950.5|1.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|-20</t>
+    <t xml:space="preserve">17878.6|96401.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17878.6|101663.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15525|106466.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10990|108592.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5831|107580.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2366|103016.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2077|97657.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4203|93659.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8811|91573.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13943|92886.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|307</t>
   </si>
 </sst>
 </file>
@@ -529,37 +580,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -811,1516 +870,2932 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="71.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="71.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="35.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="26.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="n">
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="n">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="K5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>1001</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>10001</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="K6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>1002</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>10001</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="L7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>1003</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>10001</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="L8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3" t="n">
+      <c r="L8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>2001</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>10002</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="4" t="n">
         <v>267204</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="L9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>2002</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>10002</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="4" t="n">
         <v>267204</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="L10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="L10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>2003</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>10002</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="4" t="n">
         <v>267204</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="L11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="3" t="n">
+      <c r="L11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>3001</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>10003</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>267212</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5" t="s">
+      <c r="L12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>3002</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>10003</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>267212</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="L13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="n">
+      <c r="B14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>10003</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>267212</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3" t="n">
+      <c r="L14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>4001</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>10004</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>286353</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="L15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>4002</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>10004</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>286353</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="L16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>4003</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>10004</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>286353</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="L17" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3" t="n">
+      <c r="L17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>5001</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>10005</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>286352</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="L18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="L18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>5002</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>10005</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>286352</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="L19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="L19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>5003</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>10005</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>286352</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" s="3" t="n">
+      <c r="L20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>1004</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="n">
+      <c r="B21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="n">
         <v>10006</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="K21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>1005</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="n">
+      <c r="B22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="n">
         <v>10006</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="J22" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="L22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="L22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>1006</v>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="n">
+      <c r="B23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="n">
         <v>10006</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="G23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="L23" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" s="3" t="n">
+      <c r="L23" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>1007</v>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="n">
+      <c r="B24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="n">
         <v>10007</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="K24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>1008</v>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4" t="n">
+      <c r="B25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="n">
         <v>10007</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K25" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="L25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" s="5" t="s">
+      <c r="L25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <v>1009</v>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="n">
+      <c r="B26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="n">
         <v>10007</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="4" t="n">
         <v>267079</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="L26" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" s="3" t="n">
+      <c r="L26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>10008</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>10008</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>10008</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>10009</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>10010</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>10010</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>10010</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>10011</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>10011</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>10011</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>10012</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>10012</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>10012</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>10013</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>10013</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K43" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>10013</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K44" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>10014</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>10014</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>10014</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>10015</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>10015</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K49" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>10015</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K50" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S50" s="1" t="n">
         <v>2</v>
       </c>
     </row>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="225">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -461,16 +461,251 @@
   </si>
   <si>
     <t xml:space="preserve">0|0|307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14395.04|203487.12|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11485.08|205321.58|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|71.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8067.18|205202.95|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|107.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5365.98|203093.27|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-216.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4460.22|199779.59|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|180.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5629.85|196534.45|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|216.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8508.22|194630.44|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-107.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11936.52|194733.62|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-72.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14653.42|196898.38|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-35.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15538.79|200233.52|84.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9893.00|305835.00|196.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.20|-0.30|-85.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6641.74|304750.47|196.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56|0.03|-55.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4494.63|301917.09|177.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56|0.03|-22.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4421.88|298298.25|167.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56|0.03|15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6424.18|295340.69|194.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50|0.03|48.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9956.96|294211.09|205.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65|0.01|89.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13400.72|295276.69|211.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10|-0.28|125.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15505.27|298107.12|245.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56|0.03|158.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15555.32|301786.81|204.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56|-0.10|-162.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13536.24|304677.91|182.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56|-0.30|-128.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16733.71|400301.16|128.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90|1.50|-91.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15269.37|404190.94|58.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00|0.20|-55.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11812.3|406487.94|12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80|-0.50|-19.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7660.08|406326.56|71.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00|-0.90|16.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4387.78|403746.88|151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00|-1.00|52.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3269.96|399735.53|283.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50|-1.20|88.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4719.15|395824.03|376.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40|-0.50|124.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8181.61|393506.19|392.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.56|0.00|160.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345.48|393684.56|344.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.30|0.50|-163.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15609.29|396263.47|265.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.80|0.50|-127.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143495.16|401828.53|241.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10|0.00|72.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143643.09|397651.84|245.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30|0.26|107.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146231.41|394356.38|243.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00|0.00|144.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150270.92|393240.81|242.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|180.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154194.56|394697.00|254.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-143.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156506.27|398148.97|242.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-108.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156357.08|402333.88|245.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-72.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153757.66|405612.53|254.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|-36.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149726.83|406776.31|242.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145800.02|405327.19|245.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|35.66</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -524,8 +759,15 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +778,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -580,7 +828,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -617,8 +865,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -681,7 +977,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -870,12 +1166,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E172" activeCellId="0" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,62 +2325,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>1004</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="9" t="n">
         <v>10006</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="4" t="n">
+      <c r="J21" s="10" t="n">
         <v>267079</v>
       </c>
-      <c r="K21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4" t="n">
+      <c r="K21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="M21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="M21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="S21" s="14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2579,7 +2875,7 @@
       <c r="F30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -2638,7 +2934,7 @@
       <c r="F31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -2697,7 +2993,7 @@
       <c r="F32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="16" t="s">
         <v>134</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -2756,7 +3052,7 @@
       <c r="F33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -2815,7 +3111,7 @@
       <c r="F34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -2874,7 +3170,7 @@
       <c r="F35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -2933,7 +3229,7 @@
       <c r="F36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="16" t="s">
         <v>138</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -2992,7 +3288,7 @@
       <c r="F37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="16" t="s">
         <v>138</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -3051,7 +3347,7 @@
       <c r="F38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="16" t="s">
         <v>138</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -3110,7 +3406,7 @@
       <c r="F39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -3169,7 +3465,7 @@
       <c r="F40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -3228,7 +3524,7 @@
       <c r="F41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -3287,7 +3583,7 @@
       <c r="F42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="16" t="s">
         <v>142</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -3346,7 +3642,7 @@
       <c r="F43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="16" t="s">
         <v>142</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -3405,7 +3701,7 @@
       <c r="F44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="16" t="s">
         <v>142</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -3464,7 +3760,7 @@
       <c r="F45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -3523,7 +3819,7 @@
       <c r="F46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -3582,7 +3878,7 @@
       <c r="F47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -3641,7 +3937,7 @@
       <c r="F48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="16" t="s">
         <v>146</v>
       </c>
       <c r="H48" s="7" t="s">
@@ -3700,7 +3996,7 @@
       <c r="F49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="16" t="s">
         <v>146</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -3740,63 +4036,7143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+    <row r="50" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
         <v>1033</v>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="9" t="n">
         <v>10015</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="4" t="n">
+      <c r="J50" s="10" t="n">
         <v>267079</v>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="K50" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="L50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" s="4" t="n">
+      <c r="L50" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="N50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="P50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="S50" s="1" t="n">
-        <v>2</v>
+      <c r="S50" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>10016</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K51" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>10016</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>10016</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K53" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L53" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>10017</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>10017</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>10017</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K56" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>10018</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>10018</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>10018</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K59" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L59" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>10019</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K60" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>10019</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K61" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>10019</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J62" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K62" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L62" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>10020</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>10020</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K64" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>10020</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K65" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>10021</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K66" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>10021</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J67" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K67" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>10021</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K68" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L68" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>10022</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K69" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>10022</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K70" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L70" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>10022</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K71" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L71" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>10023</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J72" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K72" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>10023</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J73" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K73" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L73" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>10023</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J74" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K74" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L74" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>10024</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J75" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K75" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>10024</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J76" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K76" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L76" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>10024</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J77" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K77" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L77" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>10025</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K78" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>10025</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" s="4" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K79" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L79" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B80" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="9" t="n">
+        <v>10025</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J80" s="10" t="n">
+        <v>267204</v>
+      </c>
+      <c r="K80" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="L80" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="S80" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>10026</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>3005</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>10026</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L82" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>3006</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>10026</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L83" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>10027</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L84" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>3008</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>10027</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L85" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>3009</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>10027</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L86" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>10028</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L87" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>10028</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L88" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>10028</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L89" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>10029</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>10029</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>10029</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L92" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>10030</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L93" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>3017</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>10030</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L94" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>3018</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>10030</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L95" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S95" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>10031</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L96" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S96" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>10031</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L97" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S97" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>10031</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L98" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S98" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>10032</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L99" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S99" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>3023</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>10032</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L100" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>3024</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>10032</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L101" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S101" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>10033</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L102" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S102" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>3026</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>10033</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L103" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S103" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>3027</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>10033</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L104" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S104" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>3028</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>10034</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L105" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>3029</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>10034</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L106" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S106" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>10034</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L107" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q107" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>10035</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L108" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q108" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>3032</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>10035</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L109" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S109" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" s="15" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="14" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B110" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" s="9" t="n">
+        <v>10035</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J110" s="14" t="n">
+        <v>267212</v>
+      </c>
+      <c r="K110" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="L110" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P110" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q110" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S110" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>4004</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>10036</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q111" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S111" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>4005</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>10036</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L112" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q112" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S112" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>4006</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>10036</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L113" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q113" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R113" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S113" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>4007</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>10037</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K114" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S114" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>4008</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>10037</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J115" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L115" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q115" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S115" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>4009</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>10037</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J116" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K116" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L116" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O116" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S116" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>4010</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>10038</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J117" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K117" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L117" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q117" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S117" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>10038</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J118" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K118" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L118" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O118" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q118" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S118" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>4012</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>10038</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J119" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K119" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L119" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O119" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q119" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S119" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>4013</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>10039</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J120" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K120" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L120" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O120" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q120" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S120" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>4014</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>10039</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K121" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L121" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q121" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S121" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>4015</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>10039</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K122" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L122" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S122" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>4016</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>10040</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K123" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L123" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S123" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>4017</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>10040</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K124" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L124" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O124" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S124" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>4018</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>10040</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K125" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L125" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O125" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R125" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S125" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>4019</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>10041</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K126" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O126" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q126" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R126" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S126" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>4020</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>10041</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K127" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L127" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S127" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>4021</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>10041</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K128" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L128" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O128" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S128" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>4022</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>10042</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J129" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K129" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O129" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S129" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>4023</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>10042</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J130" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K130" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L130" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q130" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R130" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S130" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>4024</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>10042</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J131" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K131" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L131" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O131" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P131" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q131" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R131" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S131" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>4025</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>10043</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J132" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K132" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O132" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q132" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R132" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S132" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>4026</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>10043</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J133" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K133" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L133" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O133" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q133" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R133" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S133" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>4027</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>10043</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K134" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L134" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q134" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S134" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>4028</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>10044</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J135" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K135" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P135" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q135" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R135" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S135" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>4029</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>10044</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G136" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J136" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K136" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L136" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q136" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R136" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S136" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>4030</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>10044</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J137" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K137" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L137" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q137" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S137" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>4031</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>10045</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J138" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K138" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q138" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R138" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S138" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>4032</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" s="5" t="n">
+        <v>10045</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J139" s="1" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K139" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L139" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q139" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R139" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S139" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" s="15" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="14" t="n">
+        <v>4033</v>
+      </c>
+      <c r="B140" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" s="9" t="n">
+        <v>10045</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J140" s="14" t="n">
+        <v>286353</v>
+      </c>
+      <c r="K140" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="L140" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O140" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P140" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q140" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="R140" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S140" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>5004</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>10046</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J141" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K141" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L141" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P141" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q141" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R141" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S141" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>5005</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>10046</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J142" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K142" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L142" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q142" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R142" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>5006</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>10046</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K143" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L143" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q143" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R143" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>5007</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>10047</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J144" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K144" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L144" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q144" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R144" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>5008</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>10047</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K145" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L145" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R145" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S145" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>5009</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>10047</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J146" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K146" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L146" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P146" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q146" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R146" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S146" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>5010</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>10048</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J147" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K147" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L147" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R147" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S147" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>5011</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>10048</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J148" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K148" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L148" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P148" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q148" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R148" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S148" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>5012</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>10048</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J149" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K149" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L149" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q149" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R149" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S149" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>5013</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <v>10049</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J150" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K150" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L150" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P150" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q150" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R150" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S150" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>5014</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <v>10049</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J151" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K151" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L151" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P151" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q151" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R151" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S151" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>5015</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>10049</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J152" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K152" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L152" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P152" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q152" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R152" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S152" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>5016</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>10050</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F153" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G153" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K153" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L153" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P153" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q153" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R153" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S153" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>5017</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>10050</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J154" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K154" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L154" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P154" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q154" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R154" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S154" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>5018</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>10050</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L155" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P155" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q155" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R155" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S155" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>5019</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>10051</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L156" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P156" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q156" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R156" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S156" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>5020</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>10051</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K157" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L157" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P157" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q157" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R157" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S157" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>5021</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>10051</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L158" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O158" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P158" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q158" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R158" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S158" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>5022</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>10052</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G159" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K159" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L159" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O159" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P159" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q159" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R159" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S159" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>5023</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>10052</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J160" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K160" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L160" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q160" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R160" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S160" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>5024</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>10052</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J161" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K161" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L161" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P161" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q161" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R161" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>5025</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>10053</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K162" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L162" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P162" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q162" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R162" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S162" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>5026</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>10053</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J163" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K163" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L163" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q163" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R163" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S163" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>5027</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>10053</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J164" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K164" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L164" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O164" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P164" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q164" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R164" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S164" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>5028</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>10054</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J165" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K165" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L165" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P165" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q165" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R165" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S165" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>5029</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>10054</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J166" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K166" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L166" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q166" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R166" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S166" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>5030</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>10054</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J167" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K167" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L167" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P167" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q167" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R167" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S167" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>5031</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>10055</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J168" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K168" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L168" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q168" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R168" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S168" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>5032</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>10055</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J169" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K169" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L169" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P169" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q169" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R169" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S169" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>5033</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>10055</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G170" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J170" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K170" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L170" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O170" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P170" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q170" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R170" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S170" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="229">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t xml:space="preserve">0|0|35.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36DE41A64E48B8A609CB8D836F967CBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300740.56|101293.78|333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无尽关卡</t>
   </si>
 </sst>
 </file>
@@ -828,7 +840,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -889,10 +901,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -901,19 +909,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1166,12 +1174,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S170"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E172" activeCellId="0" sqref="E172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="T174" activeCellId="0" sqref="T174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2325,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="14" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
         <v>1004</v>
       </c>
@@ -2875,7 +2883,7 @@
       <c r="F30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>134</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -2934,7 +2942,7 @@
       <c r="F31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>134</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -2993,7 +3001,7 @@
       <c r="F32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>134</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -3052,7 +3060,7 @@
       <c r="F33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -3111,7 +3119,7 @@
       <c r="F34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -3170,7 +3178,7 @@
       <c r="F35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -3229,7 +3237,7 @@
       <c r="F36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -3288,7 +3296,7 @@
       <c r="F37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -3347,7 +3355,7 @@
       <c r="F38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -3406,7 +3414,7 @@
       <c r="F39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>140</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -3465,7 +3473,7 @@
       <c r="F40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>140</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -3524,7 +3532,7 @@
       <c r="F41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>140</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -3583,7 +3591,7 @@
       <c r="F42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>142</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -3642,7 +3650,7 @@
       <c r="F43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>142</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -3701,7 +3709,7 @@
       <c r="F44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>142</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -3760,7 +3768,7 @@
       <c r="F45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>144</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -3819,7 +3827,7 @@
       <c r="F46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>144</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -3878,7 +3886,7 @@
       <c r="F47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>144</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -3937,7 +3945,7 @@
       <c r="F48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>146</v>
       </c>
       <c r="H48" s="7" t="s">
@@ -3996,7 +4004,7 @@
       <c r="F49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>146</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -4036,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
         <v>1033</v>
       </c>
@@ -4055,7 +4063,7 @@
       <c r="F50" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>146</v>
       </c>
       <c r="H50" s="12" t="s">
@@ -4111,10 +4119,10 @@
       <c r="E51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -4151,7 +4159,7 @@
         <v>81</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4170,10 +4178,10 @@
       <c r="E52" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H52" s="7" t="s">
@@ -4210,7 +4218,7 @@
         <v>86</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4229,10 +4237,10 @@
       <c r="E53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H53" s="7" t="s">
@@ -4269,7 +4277,7 @@
         <v>91</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4288,10 +4296,10 @@
       <c r="E54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>150</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -4328,7 +4336,7 @@
         <v>81</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4347,10 +4355,10 @@
       <c r="E55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>150</v>
       </c>
       <c r="H55" s="7" t="s">
@@ -4387,7 +4395,7 @@
         <v>86</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4406,10 +4414,10 @@
       <c r="E56" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="18" t="s">
         <v>150</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -4446,7 +4454,7 @@
         <v>91</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4465,10 +4473,10 @@
       <c r="E57" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="18" t="s">
         <v>152</v>
       </c>
       <c r="H57" s="7" t="s">
@@ -4505,7 +4513,7 @@
         <v>81</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4524,10 +4532,10 @@
       <c r="E58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>152</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -4564,7 +4572,7 @@
         <v>86</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4583,10 +4591,10 @@
       <c r="E59" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>152</v>
       </c>
       <c r="H59" s="7" t="s">
@@ -4623,7 +4631,7 @@
         <v>91</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4642,10 +4650,10 @@
       <c r="E60" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H60" s="7" t="s">
@@ -4682,7 +4690,7 @@
         <v>81</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4701,10 +4709,10 @@
       <c r="E61" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H61" s="7" t="s">
@@ -4741,7 +4749,7 @@
         <v>86</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4760,10 +4768,10 @@
       <c r="E62" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H62" s="7" t="s">
@@ -4800,7 +4808,7 @@
         <v>91</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4819,10 +4827,10 @@
       <c r="E63" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -4859,7 +4867,7 @@
         <v>81</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4878,10 +4886,10 @@
       <c r="E64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H64" s="7" t="s">
@@ -4918,7 +4926,7 @@
         <v>86</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4937,10 +4945,10 @@
       <c r="E65" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H65" s="7" t="s">
@@ -4977,7 +4985,7 @@
         <v>91</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4996,10 +5004,10 @@
       <c r="E66" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>158</v>
       </c>
       <c r="H66" s="7" t="s">
@@ -5036,7 +5044,7 @@
         <v>81</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5055,10 +5063,10 @@
       <c r="E67" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>158</v>
       </c>
       <c r="H67" s="7" t="s">
@@ -5095,7 +5103,7 @@
         <v>86</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5114,10 +5122,10 @@
       <c r="E68" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="18" t="s">
         <v>158</v>
       </c>
       <c r="H68" s="7" t="s">
@@ -5154,7 +5162,7 @@
         <v>91</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5173,10 +5181,10 @@
       <c r="E69" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H69" s="7" t="s">
@@ -5213,7 +5221,7 @@
         <v>81</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5232,10 +5240,10 @@
       <c r="E70" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H70" s="7" t="s">
@@ -5272,7 +5280,7 @@
         <v>86</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5291,10 +5299,10 @@
       <c r="E71" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H71" s="7" t="s">
@@ -5331,7 +5339,7 @@
         <v>91</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5350,10 +5358,10 @@
       <c r="E72" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="18" t="s">
         <v>162</v>
       </c>
       <c r="H72" s="7" t="s">
@@ -5390,7 +5398,7 @@
         <v>81</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5409,10 +5417,10 @@
       <c r="E73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="18" t="s">
         <v>162</v>
       </c>
       <c r="H73" s="7" t="s">
@@ -5449,7 +5457,7 @@
         <v>86</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5468,10 +5476,10 @@
       <c r="E74" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="18" t="s">
         <v>162</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -5508,7 +5516,7 @@
         <v>91</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5527,10 +5535,10 @@
       <c r="E75" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="18" t="s">
         <v>164</v>
       </c>
       <c r="H75" s="7" t="s">
@@ -5567,7 +5575,7 @@
         <v>81</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5586,10 +5594,10 @@
       <c r="E76" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="18" t="s">
         <v>164</v>
       </c>
       <c r="H76" s="7" t="s">
@@ -5626,7 +5634,7 @@
         <v>86</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5645,10 +5653,10 @@
       <c r="E77" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="18" t="s">
         <v>164</v>
       </c>
       <c r="H77" s="7" t="s">
@@ -5685,7 +5693,7 @@
         <v>91</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5704,10 +5712,10 @@
       <c r="E78" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="18" t="s">
         <v>65</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -5744,7 +5752,7 @@
         <v>81</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5763,10 +5771,10 @@
       <c r="E79" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="18" t="s">
         <v>65</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -5803,10 +5811,10 @@
         <v>86</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" s="14" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="n">
         <v>2033</v>
       </c>
@@ -5822,10 +5830,10 @@
       <c r="E80" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="20" t="s">
         <v>65</v>
       </c>
       <c r="H80" s="12" t="s">
@@ -5862,7 +5870,7 @@
         <v>91</v>
       </c>
       <c r="S80" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,10 +5889,10 @@
       <c r="E81" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H81" s="7" t="s">
@@ -5921,7 +5929,7 @@
         <v>98</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,10 +5948,10 @@
       <c r="E82" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H82" s="7" t="s">
@@ -5980,7 +5988,7 @@
         <v>103</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,10 +6007,10 @@
       <c r="E83" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H83" s="7" t="s">
@@ -6039,7 +6047,7 @@
         <v>110</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,10 +6066,10 @@
       <c r="E84" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="18" t="s">
         <v>169</v>
       </c>
       <c r="H84" s="7" t="s">
@@ -6098,7 +6106,7 @@
         <v>98</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,10 +6125,10 @@
       <c r="E85" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="18" t="s">
         <v>169</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -6157,7 +6165,7 @@
         <v>103</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,10 +6184,10 @@
       <c r="E86" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="G86" s="19" t="s">
+      <c r="G86" s="18" t="s">
         <v>169</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -6216,7 +6224,7 @@
         <v>110</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,10 +6243,10 @@
       <c r="E87" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -6275,7 +6283,7 @@
         <v>98</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6294,10 +6302,10 @@
       <c r="E88" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H88" s="7" t="s">
@@ -6334,7 +6342,7 @@
         <v>103</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6353,10 +6361,10 @@
       <c r="E89" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="18" t="s">
         <v>171</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -6393,7 +6401,7 @@
         <v>110</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,10 +6420,10 @@
       <c r="E90" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="18" t="s">
         <v>173</v>
       </c>
       <c r="H90" s="7" t="s">
@@ -6452,7 +6460,7 @@
         <v>98</v>
       </c>
       <c r="S90" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,10 +6479,10 @@
       <c r="E91" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="18" t="s">
         <v>173</v>
       </c>
       <c r="H91" s="7" t="s">
@@ -6511,7 +6519,7 @@
         <v>103</v>
       </c>
       <c r="S91" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,10 +6538,10 @@
       <c r="E92" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="18" t="s">
         <v>173</v>
       </c>
       <c r="H92" s="7" t="s">
@@ -6570,7 +6578,7 @@
         <v>110</v>
       </c>
       <c r="S92" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,10 +6597,10 @@
       <c r="E93" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F93" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="18" t="s">
         <v>175</v>
       </c>
       <c r="H93" s="7" t="s">
@@ -6629,7 +6637,7 @@
         <v>98</v>
       </c>
       <c r="S93" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,10 +6656,10 @@
       <c r="E94" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="18" t="s">
         <v>175</v>
       </c>
       <c r="H94" s="7" t="s">
@@ -6688,7 +6696,7 @@
         <v>103</v>
       </c>
       <c r="S94" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,10 +6715,10 @@
       <c r="E95" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="18" t="s">
         <v>175</v>
       </c>
       <c r="H95" s="7" t="s">
@@ -6747,7 +6755,7 @@
         <v>110</v>
       </c>
       <c r="S95" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,10 +6774,10 @@
       <c r="E96" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="18" t="s">
         <v>177</v>
       </c>
       <c r="H96" s="7" t="s">
@@ -6806,7 +6814,7 @@
         <v>98</v>
       </c>
       <c r="S96" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6825,10 +6833,10 @@
       <c r="E97" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="18" t="s">
         <v>177</v>
       </c>
       <c r="H97" s="7" t="s">
@@ -6865,7 +6873,7 @@
         <v>103</v>
       </c>
       <c r="S97" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,10 +6892,10 @@
       <c r="E98" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="18" t="s">
         <v>177</v>
       </c>
       <c r="H98" s="7" t="s">
@@ -6924,7 +6932,7 @@
         <v>110</v>
       </c>
       <c r="S98" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,10 +6951,10 @@
       <c r="E99" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="18" t="s">
         <v>179</v>
       </c>
       <c r="H99" s="7" t="s">
@@ -6983,7 +6991,7 @@
         <v>98</v>
       </c>
       <c r="S99" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7002,10 +7010,10 @@
       <c r="E100" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="18" t="s">
         <v>179</v>
       </c>
       <c r="H100" s="7" t="s">
@@ -7042,7 +7050,7 @@
         <v>103</v>
       </c>
       <c r="S100" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,10 +7069,10 @@
       <c r="E101" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="18" t="s">
         <v>179</v>
       </c>
       <c r="H101" s="7" t="s">
@@ -7101,7 +7109,7 @@
         <v>110</v>
       </c>
       <c r="S101" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,10 +7128,10 @@
       <c r="E102" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="F102" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="18" t="s">
         <v>181</v>
       </c>
       <c r="H102" s="7" t="s">
@@ -7160,7 +7168,7 @@
         <v>98</v>
       </c>
       <c r="S102" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,10 +7187,10 @@
       <c r="E103" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F103" s="18" t="s">
+      <c r="F103" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="18" t="s">
         <v>181</v>
       </c>
       <c r="H103" s="7" t="s">
@@ -7219,7 +7227,7 @@
         <v>103</v>
       </c>
       <c r="S103" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,10 +7246,10 @@
       <c r="E104" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="F104" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="G104" s="19" t="s">
+      <c r="G104" s="18" t="s">
         <v>181</v>
       </c>
       <c r="H104" s="7" t="s">
@@ -7278,7 +7286,7 @@
         <v>110</v>
       </c>
       <c r="S104" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,10 +7305,10 @@
       <c r="E105" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="18" t="s">
         <v>183</v>
       </c>
       <c r="H105" s="7" t="s">
@@ -7337,7 +7345,7 @@
         <v>98</v>
       </c>
       <c r="S105" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,10 +7364,10 @@
       <c r="E106" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="F106" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="18" t="s">
         <v>183</v>
       </c>
       <c r="H106" s="7" t="s">
@@ -7396,7 +7404,7 @@
         <v>103</v>
       </c>
       <c r="S106" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,10 +7423,10 @@
       <c r="E107" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="F107" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="18" t="s">
         <v>183</v>
       </c>
       <c r="H107" s="7" t="s">
@@ -7455,7 +7463,7 @@
         <v>110</v>
       </c>
       <c r="S107" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,10 +7482,10 @@
       <c r="E108" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G108" s="19" t="s">
+      <c r="G108" s="18" t="s">
         <v>185</v>
       </c>
       <c r="H108" s="7" t="s">
@@ -7514,7 +7522,7 @@
         <v>98</v>
       </c>
       <c r="S108" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,10 +7541,10 @@
       <c r="E109" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F109" s="18" t="s">
+      <c r="F109" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="18" t="s">
         <v>185</v>
       </c>
       <c r="H109" s="7" t="s">
@@ -7573,10 +7581,10 @@
         <v>103</v>
       </c>
       <c r="S109" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" s="15" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" s="14" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14" t="n">
         <v>3033</v>
       </c>
@@ -7592,10 +7600,10 @@
       <c r="E110" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F110" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G110" s="20" t="s">
         <v>185</v>
       </c>
       <c r="H110" s="12" t="s">
@@ -7632,7 +7640,7 @@
         <v>110</v>
       </c>
       <c r="S110" s="14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,10 +7659,10 @@
       <c r="E111" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="18" t="s">
+      <c r="F111" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G111" s="19" t="s">
+      <c r="G111" s="18" t="s">
         <v>187</v>
       </c>
       <c r="H111" s="7" t="s">
@@ -7691,7 +7699,7 @@
         <v>98</v>
       </c>
       <c r="S111" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,10 +7718,10 @@
       <c r="E112" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F112" s="18" t="s">
+      <c r="F112" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G112" s="19" t="s">
+      <c r="G112" s="18" t="s">
         <v>187</v>
       </c>
       <c r="H112" s="7" t="s">
@@ -7750,7 +7758,7 @@
         <v>103</v>
       </c>
       <c r="S112" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,10 +7777,10 @@
       <c r="E113" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="F113" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="18" t="s">
         <v>187</v>
       </c>
       <c r="H113" s="7" t="s">
@@ -7809,7 +7817,7 @@
         <v>110</v>
       </c>
       <c r="S113" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7828,10 +7836,10 @@
       <c r="E114" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F114" s="18" t="s">
+      <c r="F114" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G114" s="19" t="s">
+      <c r="G114" s="18" t="s">
         <v>189</v>
       </c>
       <c r="H114" s="7" t="s">
@@ -7868,7 +7876,7 @@
         <v>98</v>
       </c>
       <c r="S114" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,10 +7895,10 @@
       <c r="E115" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F115" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="18" t="s">
         <v>189</v>
       </c>
       <c r="H115" s="7" t="s">
@@ -7927,7 +7935,7 @@
         <v>103</v>
       </c>
       <c r="S115" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,10 +7954,10 @@
       <c r="E116" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G116" s="19" t="s">
+      <c r="G116" s="18" t="s">
         <v>189</v>
       </c>
       <c r="H116" s="7" t="s">
@@ -7986,7 +7994,7 @@
         <v>110</v>
       </c>
       <c r="S116" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,10 +8013,10 @@
       <c r="E117" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F117" s="18" t="s">
+      <c r="F117" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="G117" s="18" t="s">
         <v>191</v>
       </c>
       <c r="H117" s="7" t="s">
@@ -8045,7 +8053,7 @@
         <v>98</v>
       </c>
       <c r="S117" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,10 +8072,10 @@
       <c r="E118" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F118" s="18" t="s">
+      <c r="F118" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G118" s="19" t="s">
+      <c r="G118" s="18" t="s">
         <v>191</v>
       </c>
       <c r="H118" s="7" t="s">
@@ -8104,7 +8112,7 @@
         <v>103</v>
       </c>
       <c r="S118" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,10 +8131,10 @@
       <c r="E119" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F119" s="18" t="s">
+      <c r="F119" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="18" t="s">
         <v>191</v>
       </c>
       <c r="H119" s="7" t="s">
@@ -8163,7 +8171,7 @@
         <v>110</v>
       </c>
       <c r="S119" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8182,10 +8190,10 @@
       <c r="E120" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F120" s="18" t="s">
+      <c r="F120" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G120" s="19" t="s">
+      <c r="G120" s="18" t="s">
         <v>193</v>
       </c>
       <c r="H120" s="7" t="s">
@@ -8222,7 +8230,7 @@
         <v>98</v>
       </c>
       <c r="S120" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,10 +8249,10 @@
       <c r="E121" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="18" t="s">
+      <c r="F121" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G121" s="19" t="s">
+      <c r="G121" s="18" t="s">
         <v>193</v>
       </c>
       <c r="H121" s="7" t="s">
@@ -8281,7 +8289,7 @@
         <v>103</v>
       </c>
       <c r="S121" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,10 +8308,10 @@
       <c r="E122" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F122" s="18" t="s">
+      <c r="F122" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="18" t="s">
         <v>193</v>
       </c>
       <c r="H122" s="7" t="s">
@@ -8340,7 +8348,7 @@
         <v>110</v>
       </c>
       <c r="S122" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8359,10 +8367,10 @@
       <c r="E123" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="18" t="s">
         <v>195</v>
       </c>
       <c r="H123" s="7" t="s">
@@ -8399,7 +8407,7 @@
         <v>98</v>
       </c>
       <c r="S123" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,10 +8426,10 @@
       <c r="E124" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F124" s="18" t="s">
+      <c r="F124" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="18" t="s">
         <v>195</v>
       </c>
       <c r="H124" s="7" t="s">
@@ -8458,7 +8466,7 @@
         <v>103</v>
       </c>
       <c r="S124" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8477,10 +8485,10 @@
       <c r="E125" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F125" s="18" t="s">
+      <c r="F125" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="18" t="s">
         <v>195</v>
       </c>
       <c r="H125" s="7" t="s">
@@ -8517,7 +8525,7 @@
         <v>110</v>
       </c>
       <c r="S125" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,10 +8544,10 @@
       <c r="E126" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="F126" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="G126" s="19" t="s">
+      <c r="G126" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H126" s="7" t="s">
@@ -8576,7 +8584,7 @@
         <v>98</v>
       </c>
       <c r="S126" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,10 +8603,10 @@
       <c r="E127" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F127" s="18" t="s">
+      <c r="F127" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H127" s="7" t="s">
@@ -8635,7 +8643,7 @@
         <v>103</v>
       </c>
       <c r="S127" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,10 +8662,10 @@
       <c r="E128" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F128" s="18" t="s">
+      <c r="F128" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="G128" s="19" t="s">
+      <c r="G128" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H128" s="7" t="s">
@@ -8694,7 +8702,7 @@
         <v>110</v>
       </c>
       <c r="S128" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,10 +8721,10 @@
       <c r="E129" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F129" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G129" s="19" t="s">
+      <c r="G129" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H129" s="7" t="s">
@@ -8753,7 +8761,7 @@
         <v>98</v>
       </c>
       <c r="S129" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8772,10 +8780,10 @@
       <c r="E130" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F130" s="18" t="s">
+      <c r="F130" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G130" s="19" t="s">
+      <c r="G130" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H130" s="7" t="s">
@@ -8812,7 +8820,7 @@
         <v>103</v>
       </c>
       <c r="S130" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8831,10 +8839,10 @@
       <c r="E131" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F131" s="18" t="s">
+      <c r="F131" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G131" s="19" t="s">
+      <c r="G131" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H131" s="7" t="s">
@@ -8871,7 +8879,7 @@
         <v>110</v>
       </c>
       <c r="S131" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,10 +8898,10 @@
       <c r="E132" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F132" s="18" t="s">
+      <c r="F132" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G132" s="19" t="s">
+      <c r="G132" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H132" s="7" t="s">
@@ -8930,7 +8938,7 @@
         <v>98</v>
       </c>
       <c r="S132" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,10 +8957,10 @@
       <c r="E133" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F133" s="18" t="s">
+      <c r="F133" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G133" s="19" t="s">
+      <c r="G133" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H133" s="7" t="s">
@@ -8989,7 +8997,7 @@
         <v>103</v>
       </c>
       <c r="S133" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9008,10 +9016,10 @@
       <c r="E134" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F134" s="18" t="s">
+      <c r="F134" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G134" s="19" t="s">
+      <c r="G134" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H134" s="7" t="s">
@@ -9048,7 +9056,7 @@
         <v>110</v>
       </c>
       <c r="S134" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9067,10 +9075,10 @@
       <c r="E135" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F135" s="18" t="s">
+      <c r="F135" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G135" s="19" t="s">
+      <c r="G135" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H135" s="7" t="s">
@@ -9107,7 +9115,7 @@
         <v>98</v>
       </c>
       <c r="S135" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9126,10 +9134,10 @@
       <c r="E136" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F136" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G136" s="19" t="s">
+      <c r="G136" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H136" s="7" t="s">
@@ -9166,7 +9174,7 @@
         <v>103</v>
       </c>
       <c r="S136" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9185,10 +9193,10 @@
       <c r="E137" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F137" s="18" t="s">
+      <c r="F137" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G137" s="19" t="s">
+      <c r="G137" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H137" s="7" t="s">
@@ -9225,7 +9233,7 @@
         <v>110</v>
       </c>
       <c r="S137" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9244,10 +9252,10 @@
       <c r="E138" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F138" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G138" s="19" t="s">
+      <c r="G138" s="18" t="s">
         <v>205</v>
       </c>
       <c r="H138" s="7" t="s">
@@ -9284,7 +9292,7 @@
         <v>98</v>
       </c>
       <c r="S138" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,10 +9311,10 @@
       <c r="E139" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F139" s="18" t="s">
+      <c r="F139" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G139" s="18" t="s">
         <v>205</v>
       </c>
       <c r="H139" s="7" t="s">
@@ -9343,10 +9351,10 @@
         <v>103</v>
       </c>
       <c r="S139" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" s="15" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" s="14" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="n">
         <v>4033</v>
       </c>
@@ -9362,10 +9370,10 @@
       <c r="E140" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F140" s="20" t="s">
+      <c r="F140" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G140" s="20" t="s">
         <v>205</v>
       </c>
       <c r="H140" s="12" t="s">
@@ -9402,7 +9410,7 @@
         <v>110</v>
       </c>
       <c r="S140" s="14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9421,10 +9429,10 @@
       <c r="E141" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F141" s="18" t="s">
+      <c r="F141" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G141" s="19" t="s">
+      <c r="G141" s="18" t="s">
         <v>207</v>
       </c>
       <c r="H141" s="7" t="s">
@@ -9461,7 +9469,7 @@
         <v>98</v>
       </c>
       <c r="S141" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9480,10 +9488,10 @@
       <c r="E142" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="18" t="s">
+      <c r="F142" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G142" s="19" t="s">
+      <c r="G142" s="18" t="s">
         <v>207</v>
       </c>
       <c r="H142" s="7" t="s">
@@ -9520,7 +9528,7 @@
         <v>103</v>
       </c>
       <c r="S142" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9539,10 +9547,10 @@
       <c r="E143" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F143" s="18" t="s">
+      <c r="F143" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G143" s="19" t="s">
+      <c r="G143" s="18" t="s">
         <v>207</v>
       </c>
       <c r="H143" s="7" t="s">
@@ -9579,7 +9587,7 @@
         <v>110</v>
       </c>
       <c r="S143" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9598,10 +9606,10 @@
       <c r="E144" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G144" s="19" t="s">
+      <c r="G144" s="18" t="s">
         <v>209</v>
       </c>
       <c r="H144" s="7" t="s">
@@ -9638,7 +9646,7 @@
         <v>98</v>
       </c>
       <c r="S144" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,10 +9665,10 @@
       <c r="E145" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F145" s="18" t="s">
+      <c r="F145" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="19" t="s">
+      <c r="G145" s="18" t="s">
         <v>209</v>
       </c>
       <c r="H145" s="7" t="s">
@@ -9697,7 +9705,7 @@
         <v>103</v>
       </c>
       <c r="S145" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,10 +9724,10 @@
       <c r="E146" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F146" s="18" t="s">
+      <c r="F146" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G146" s="19" t="s">
+      <c r="G146" s="18" t="s">
         <v>209</v>
       </c>
       <c r="H146" s="7" t="s">
@@ -9756,7 +9764,7 @@
         <v>110</v>
       </c>
       <c r="S146" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9775,10 +9783,10 @@
       <c r="E147" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F147" s="18" t="s">
+      <c r="F147" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="18" t="s">
         <v>211</v>
       </c>
       <c r="H147" s="7" t="s">
@@ -9815,7 +9823,7 @@
         <v>98</v>
       </c>
       <c r="S147" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9834,10 +9842,10 @@
       <c r="E148" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F148" s="18" t="s">
+      <c r="F148" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G148" s="19" t="s">
+      <c r="G148" s="18" t="s">
         <v>211</v>
       </c>
       <c r="H148" s="7" t="s">
@@ -9874,7 +9882,7 @@
         <v>103</v>
       </c>
       <c r="S148" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9893,10 +9901,10 @@
       <c r="E149" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F149" s="18" t="s">
+      <c r="F149" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G149" s="19" t="s">
+      <c r="G149" s="18" t="s">
         <v>211</v>
       </c>
       <c r="H149" s="7" t="s">
@@ -9933,7 +9941,7 @@
         <v>110</v>
       </c>
       <c r="S149" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9952,10 +9960,10 @@
       <c r="E150" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F150" s="18" t="s">
+      <c r="F150" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G150" s="19" t="s">
+      <c r="G150" s="18" t="s">
         <v>213</v>
       </c>
       <c r="H150" s="7" t="s">
@@ -9992,7 +10000,7 @@
         <v>98</v>
       </c>
       <c r="S150" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10011,10 +10019,10 @@
       <c r="E151" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G151" s="19" t="s">
+      <c r="G151" s="18" t="s">
         <v>213</v>
       </c>
       <c r="H151" s="7" t="s">
@@ -10051,7 +10059,7 @@
         <v>103</v>
       </c>
       <c r="S151" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10070,10 +10078,10 @@
       <c r="E152" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F152" s="18" t="s">
+      <c r="F152" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G152" s="18" t="s">
         <v>213</v>
       </c>
       <c r="H152" s="7" t="s">
@@ -10110,7 +10118,7 @@
         <v>110</v>
       </c>
       <c r="S152" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10129,10 +10137,10 @@
       <c r="E153" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G153" s="19" t="s">
+      <c r="G153" s="18" t="s">
         <v>215</v>
       </c>
       <c r="H153" s="7" t="s">
@@ -10169,7 +10177,7 @@
         <v>98</v>
       </c>
       <c r="S153" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10188,10 +10196,10 @@
       <c r="E154" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F154" s="18" t="s">
+      <c r="F154" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G154" s="19" t="s">
+      <c r="G154" s="18" t="s">
         <v>215</v>
       </c>
       <c r="H154" s="7" t="s">
@@ -10228,7 +10236,7 @@
         <v>103</v>
       </c>
       <c r="S154" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10247,10 +10255,10 @@
       <c r="E155" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F155" s="18" t="s">
+      <c r="F155" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="G155" s="19" t="s">
+      <c r="G155" s="18" t="s">
         <v>215</v>
       </c>
       <c r="H155" s="7" t="s">
@@ -10287,7 +10295,7 @@
         <v>110</v>
       </c>
       <c r="S155" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10306,10 +10314,10 @@
       <c r="E156" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F156" s="18" t="s">
+      <c r="F156" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G156" s="17" t="s">
         <v>217</v>
       </c>
       <c r="H156" s="7" t="s">
@@ -10346,7 +10354,7 @@
         <v>98</v>
       </c>
       <c r="S156" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10365,10 +10373,10 @@
       <c r="E157" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F157" s="18" t="s">
+      <c r="F157" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G157" s="18" t="s">
+      <c r="G157" s="17" t="s">
         <v>217</v>
       </c>
       <c r="H157" s="7" t="s">
@@ -10405,7 +10413,7 @@
         <v>103</v>
       </c>
       <c r="S157" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,10 +10432,10 @@
       <c r="E158" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F158" s="18" t="s">
+      <c r="F158" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G158" s="17" t="s">
         <v>217</v>
       </c>
       <c r="H158" s="7" t="s">
@@ -10464,7 +10472,7 @@
         <v>110</v>
       </c>
       <c r="S158" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10483,10 +10491,10 @@
       <c r="E159" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F159" s="18" t="s">
+      <c r="F159" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G159" s="18" t="s">
+      <c r="G159" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H159" s="7" t="s">
@@ -10523,7 +10531,7 @@
         <v>98</v>
       </c>
       <c r="S159" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10542,10 +10550,10 @@
       <c r="E160" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F160" s="18" t="s">
+      <c r="F160" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G160" s="18" t="s">
+      <c r="G160" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H160" s="7" t="s">
@@ -10582,7 +10590,7 @@
         <v>103</v>
       </c>
       <c r="S160" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,10 +10609,10 @@
       <c r="E161" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F161" s="18" t="s">
+      <c r="F161" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G161" s="18" t="s">
+      <c r="G161" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H161" s="7" t="s">
@@ -10641,7 +10649,7 @@
         <v>110</v>
       </c>
       <c r="S161" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,10 +10668,10 @@
       <c r="E162" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F162" s="18" t="s">
+      <c r="F162" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G162" s="17" t="s">
         <v>221</v>
       </c>
       <c r="H162" s="7" t="s">
@@ -10700,7 +10708,7 @@
         <v>98</v>
       </c>
       <c r="S162" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10719,10 +10727,10 @@
       <c r="E163" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F163" s="18" t="s">
+      <c r="F163" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G163" s="18" t="s">
+      <c r="G163" s="17" t="s">
         <v>221</v>
       </c>
       <c r="H163" s="7" t="s">
@@ -10759,7 +10767,7 @@
         <v>103</v>
       </c>
       <c r="S163" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10778,10 +10786,10 @@
       <c r="E164" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F164" s="18" t="s">
+      <c r="F164" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G164" s="18" t="s">
+      <c r="G164" s="17" t="s">
         <v>221</v>
       </c>
       <c r="H164" s="7" t="s">
@@ -10818,7 +10826,7 @@
         <v>110</v>
       </c>
       <c r="S164" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10837,10 +10845,10 @@
       <c r="E165" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F165" s="18" t="s">
+      <c r="F165" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G165" s="18" t="s">
+      <c r="G165" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H165" s="7" t="s">
@@ -10877,7 +10885,7 @@
         <v>98</v>
       </c>
       <c r="S165" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10896,10 +10904,10 @@
       <c r="E166" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F166" s="18" t="s">
+      <c r="F166" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G166" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H166" s="7" t="s">
@@ -10936,7 +10944,7 @@
         <v>103</v>
       </c>
       <c r="S166" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10955,10 +10963,10 @@
       <c r="E167" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F167" s="18" t="s">
+      <c r="F167" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G167" s="18" t="s">
+      <c r="G167" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H167" s="7" t="s">
@@ -10995,7 +11003,7 @@
         <v>110</v>
       </c>
       <c r="S167" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11014,10 +11022,10 @@
       <c r="E168" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F168" s="18" t="s">
+      <c r="F168" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G168" s="18" t="s">
+      <c r="G168" s="17" t="s">
         <v>224</v>
       </c>
       <c r="H168" s="7" t="s">
@@ -11054,7 +11062,7 @@
         <v>98</v>
       </c>
       <c r="S168" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11073,10 +11081,10 @@
       <c r="E169" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F169" s="18" t="s">
+      <c r="F169" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G169" s="18" t="s">
+      <c r="G169" s="17" t="s">
         <v>224</v>
       </c>
       <c r="H169" s="7" t="s">
@@ -11113,7 +11121,7 @@
         <v>103</v>
       </c>
       <c r="S169" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11132,10 +11140,10 @@
       <c r="E170" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F170" s="18" t="s">
+      <c r="F170" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G170" s="18" t="s">
+      <c r="G170" s="17" t="s">
         <v>224</v>
       </c>
       <c r="H170" s="7" t="s">
@@ -11172,7 +11180,66 @@
         <v>110</v>
       </c>
       <c r="S170" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>6001</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>10056</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J171" s="1" t="n">
+        <v>286352</v>
+      </c>
+      <c r="K171" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L171" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O171" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P171" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q171" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R171" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S171" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1221,10 +1221,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="W76" activeCellId="0" sqref="W76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2571,7 +2571,7 @@
         <v>404268</v>
       </c>
       <c r="V21" s="14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2639,7 +2639,7 @@
         <v>404268</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2707,7 +2707,7 @@
         <v>404268</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +2775,7 @@
         <v>404268</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,7 +2843,7 @@
         <v>404268</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,7 +2911,7 @@
         <v>404268</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,7 +2979,7 @@
         <v>404268</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,7 +3047,7 @@
         <v>404268</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +3115,7 @@
         <v>404268</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3183,7 @@
         <v>404268</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +3251,7 @@
         <v>404268</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3319,7 @@
         <v>404268</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3387,7 @@
         <v>404268</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3455,7 @@
         <v>404268</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3523,7 @@
         <v>404268</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,7 +3591,7 @@
         <v>404268</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,7 +3659,7 @@
         <v>404268</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,7 +3727,7 @@
         <v>404268</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +3795,7 @@
         <v>404268</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3863,7 @@
         <v>404268</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +3931,7 @@
         <v>404268</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,7 +3999,7 @@
         <v>404268</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4067,7 @@
         <v>404268</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4135,7 @@
         <v>404268</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,7 +4203,7 @@
         <v>404268</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4271,7 @@
         <v>404268</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +4339,7 @@
         <v>404268</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4407,7 @@
         <v>404268</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,7 +4475,7 @@
         <v>404268</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,7 +4543,7 @@
         <v>404268</v>
       </c>
       <c r="V50" s="14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4611,7 +4611,7 @@
         <v>404267</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4679,7 +4679,7 @@
         <v>404267</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4747,7 +4747,7 @@
         <v>404267</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4815,7 +4815,7 @@
         <v>404267</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4883,7 +4883,7 @@
         <v>404267</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4951,7 +4951,7 @@
         <v>404267</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5019,7 +5019,7 @@
         <v>404267</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5087,7 +5087,7 @@
         <v>404267</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5155,7 +5155,7 @@
         <v>404267</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5223,7 +5223,7 @@
         <v>404267</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5291,7 +5291,7 @@
         <v>404267</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5359,7 +5359,7 @@
         <v>404267</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5427,7 +5427,7 @@
         <v>404267</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5495,7 +5495,7 @@
         <v>404267</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5563,7 +5563,7 @@
         <v>404267</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5631,7 +5631,7 @@
         <v>404267</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5699,7 +5699,7 @@
         <v>404267</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5767,7 +5767,7 @@
         <v>404267</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5835,7 +5835,7 @@
         <v>404267</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5903,7 +5903,7 @@
         <v>404267</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5971,7 +5971,7 @@
         <v>404267</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6039,7 +6039,7 @@
         <v>404267</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6107,7 +6107,7 @@
         <v>404267</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6175,7 +6175,7 @@
         <v>404267</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6243,7 +6243,7 @@
         <v>404267</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6311,7 +6311,7 @@
         <v>404267</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6379,7 +6379,7 @@
         <v>404267</v>
       </c>
       <c r="V77" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6447,7 +6447,7 @@
         <v>404267</v>
       </c>
       <c r="V78" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6515,7 +6515,7 @@
         <v>404267</v>
       </c>
       <c r="V79" s="1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80" s="14" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6583,7 +6583,7 @@
         <v>404267</v>
       </c>
       <c r="V80" s="14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="245">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t xml:space="preserve">0|0|-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023|1||1|300||3|12</t>
   </si>
   <si>
     <t xml:space="preserve">1|50||3|10</t>
@@ -1221,10 +1224,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="W76" activeCellId="0" sqref="W76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2553,13 +2556,13 @@
         <v>61</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S21" s="14" t="n">
         <v>2</v>
@@ -2727,10 +2730,10 @@
         <v>53</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>58</v>
@@ -2760,10 +2763,10 @@
         <v>62</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>2</v>
@@ -2795,10 +2798,10 @@
         <v>53</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>66</v>
@@ -2863,10 +2866,10 @@
         <v>53</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>74</v>
@@ -2931,10 +2934,10 @@
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>58</v>
@@ -2964,10 +2967,10 @@
         <v>62</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S27" s="1" t="n">
         <v>2</v>
@@ -2999,10 +3002,10 @@
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>66</v>
@@ -3067,10 +3070,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>74</v>
@@ -3135,10 +3138,10 @@
         <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3168,10 +3171,10 @@
         <v>62</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>2</v>
@@ -3203,10 +3206,10 @@
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>66</v>
@@ -3271,10 +3274,10 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>74</v>
@@ -3339,10 +3342,10 @@
         <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>58</v>
@@ -3372,10 +3375,10 @@
         <v>62</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>2</v>
@@ -3407,10 +3410,10 @@
         <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>66</v>
@@ -3475,10 +3478,10 @@
         <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>74</v>
@@ -3543,10 +3546,10 @@
         <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>58</v>
@@ -3576,10 +3579,10 @@
         <v>62</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>2</v>
@@ -3611,10 +3614,10 @@
         <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>66</v>
@@ -3679,10 +3682,10 @@
         <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>74</v>
@@ -3747,10 +3750,10 @@
         <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>58</v>
@@ -3780,10 +3783,10 @@
         <v>62</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S39" s="1" t="n">
         <v>2</v>
@@ -3815,10 +3818,10 @@
         <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>66</v>
@@ -3883,10 +3886,10 @@
         <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>74</v>
@@ -3951,10 +3954,10 @@
         <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>58</v>
@@ -3984,10 +3987,10 @@
         <v>62</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S42" s="1" t="n">
         <v>2</v>
@@ -4019,10 +4022,10 @@
         <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>66</v>
@@ -4087,10 +4090,10 @@
         <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>74</v>
@@ -4155,10 +4158,10 @@
         <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>58</v>
@@ -4188,10 +4191,10 @@
         <v>62</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>2</v>
@@ -4223,10 +4226,10 @@
         <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>66</v>
@@ -4291,10 +4294,10 @@
         <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>74</v>
@@ -4359,10 +4362,10 @@
         <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>58</v>
@@ -4392,10 +4395,10 @@
         <v>62</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>2</v>
@@ -4427,10 +4430,10 @@
         <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>66</v>
@@ -4495,10 +4498,10 @@
         <v>53</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>74</v>
@@ -4563,10 +4566,10 @@
         <v>53</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>83</v>
@@ -4605,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U51" s="1" t="n">
         <v>404267</v>
@@ -4631,10 +4634,10 @@
         <v>53</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>90</v>
@@ -4673,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U52" s="1" t="n">
         <v>404267</v>
@@ -4699,10 +4702,10 @@
         <v>53</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>95</v>
@@ -4741,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U53" s="1" t="n">
         <v>404267</v>
@@ -4767,10 +4770,10 @@
         <v>53</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>83</v>
@@ -4809,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U54" s="1" t="n">
         <v>404267</v>
@@ -4835,10 +4838,10 @@
         <v>53</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>90</v>
@@ -4877,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U55" s="1" t="n">
         <v>404267</v>
@@ -4903,10 +4906,10 @@
         <v>53</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>95</v>
@@ -4945,7 +4948,7 @@
         <v>3</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U56" s="1" t="n">
         <v>404267</v>
@@ -4971,10 +4974,10 @@
         <v>53</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>83</v>
@@ -5013,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U57" s="1" t="n">
         <v>404267</v>
@@ -5039,10 +5042,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>90</v>
@@ -5081,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U58" s="1" t="n">
         <v>404267</v>
@@ -5107,10 +5110,10 @@
         <v>53</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>95</v>
@@ -5149,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U59" s="1" t="n">
         <v>404267</v>
@@ -5175,10 +5178,10 @@
         <v>53</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>83</v>
@@ -5217,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U60" s="1" t="n">
         <v>404267</v>
@@ -5243,10 +5246,10 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>90</v>
@@ -5285,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U61" s="1" t="n">
         <v>404267</v>
@@ -5311,10 +5314,10 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>95</v>
@@ -5353,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U62" s="1" t="n">
         <v>404267</v>
@@ -5379,10 +5382,10 @@
         <v>53</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>83</v>
@@ -5421,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U63" s="1" t="n">
         <v>404267</v>
@@ -5447,10 +5450,10 @@
         <v>53</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>90</v>
@@ -5489,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U64" s="1" t="n">
         <v>404267</v>
@@ -5515,10 +5518,10 @@
         <v>53</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>95</v>
@@ -5557,7 +5560,7 @@
         <v>3</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U65" s="1" t="n">
         <v>404267</v>
@@ -5583,10 +5586,10 @@
         <v>53</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>83</v>
@@ -5625,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U66" s="1" t="n">
         <v>404267</v>
@@ -5651,10 +5654,10 @@
         <v>53</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>90</v>
@@ -5693,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U67" s="1" t="n">
         <v>404267</v>
@@ -5719,10 +5722,10 @@
         <v>53</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>95</v>
@@ -5761,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U68" s="1" t="n">
         <v>404267</v>
@@ -5787,10 +5790,10 @@
         <v>53</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>83</v>
@@ -5829,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U69" s="1" t="n">
         <v>404267</v>
@@ -5855,10 +5858,10 @@
         <v>53</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>90</v>
@@ -5897,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U70" s="1" t="n">
         <v>404267</v>
@@ -5923,10 +5926,10 @@
         <v>53</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>95</v>
@@ -5965,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U71" s="1" t="n">
         <v>404267</v>
@@ -5991,10 +5994,10 @@
         <v>53</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>83</v>
@@ -6033,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U72" s="1" t="n">
         <v>404267</v>
@@ -6059,10 +6062,10 @@
         <v>53</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>90</v>
@@ -6101,7 +6104,7 @@
         <v>3</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U73" s="1" t="n">
         <v>404267</v>
@@ -6127,10 +6130,10 @@
         <v>53</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>95</v>
@@ -6169,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U74" s="1" t="n">
         <v>404267</v>
@@ -6195,10 +6198,10 @@
         <v>53</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>83</v>
@@ -6237,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U75" s="1" t="n">
         <v>404267</v>
@@ -6263,10 +6266,10 @@
         <v>53</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>90</v>
@@ -6305,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U76" s="1" t="n">
         <v>404267</v>
@@ -6331,10 +6334,10 @@
         <v>53</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>95</v>
@@ -6373,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U77" s="1" t="n">
         <v>404267</v>
@@ -6399,7 +6402,7 @@
         <v>53</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>73</v>
@@ -6441,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U78" s="1" t="n">
         <v>404267</v>
@@ -6467,7 +6470,7 @@
         <v>53</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>73</v>
@@ -6509,7 +6512,7 @@
         <v>3</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U79" s="1" t="n">
         <v>404267</v>
@@ -6535,7 +6538,7 @@
         <v>53</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>73</v>
@@ -6577,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U80" s="14" t="n">
         <v>404267</v>
@@ -6603,10 +6606,10 @@
         <v>53</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>102</v>
@@ -6645,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U81" s="1" t="n">
         <v>404269</v>
@@ -6671,10 +6674,10 @@
         <v>53</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>107</v>
@@ -6713,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U82" s="1" t="n">
         <v>404269</v>
@@ -6739,10 +6742,10 @@
         <v>53</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>112</v>
@@ -6781,7 +6784,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U83" s="1" t="n">
         <v>404269</v>
@@ -6807,10 +6810,10 @@
         <v>53</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>102</v>
@@ -6849,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U84" s="1" t="n">
         <v>404269</v>
@@ -6875,10 +6878,10 @@
         <v>53</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>107</v>
@@ -6917,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U85" s="1" t="n">
         <v>404269</v>
@@ -6943,10 +6946,10 @@
         <v>53</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>112</v>
@@ -6985,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U86" s="1" t="n">
         <v>404269</v>
@@ -7011,10 +7014,10 @@
         <v>53</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>102</v>
@@ -7053,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U87" s="1" t="n">
         <v>404269</v>
@@ -7079,10 +7082,10 @@
         <v>53</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>107</v>
@@ -7121,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U88" s="1" t="n">
         <v>404269</v>
@@ -7147,10 +7150,10 @@
         <v>53</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>112</v>
@@ -7189,7 +7192,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U89" s="1" t="n">
         <v>404269</v>
@@ -7215,10 +7218,10 @@
         <v>53</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>102</v>
@@ -7257,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U90" s="1" t="n">
         <v>404269</v>
@@ -7283,10 +7286,10 @@
         <v>53</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>107</v>
@@ -7325,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U91" s="1" t="n">
         <v>404269</v>
@@ -7351,10 +7354,10 @@
         <v>53</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>112</v>
@@ -7393,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U92" s="1" t="n">
         <v>404269</v>
@@ -7419,10 +7422,10 @@
         <v>53</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>102</v>
@@ -7461,7 +7464,7 @@
         <v>4</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U93" s="1" t="n">
         <v>404269</v>
@@ -7487,10 +7490,10 @@
         <v>53</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>107</v>
@@ -7529,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U94" s="1" t="n">
         <v>404269</v>
@@ -7555,10 +7558,10 @@
         <v>53</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>112</v>
@@ -7597,7 +7600,7 @@
         <v>4</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U95" s="1" t="n">
         <v>404269</v>
@@ -7623,10 +7626,10 @@
         <v>53</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>102</v>
@@ -7665,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U96" s="1" t="n">
         <v>404269</v>
@@ -7691,10 +7694,10 @@
         <v>53</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>107</v>
@@ -7733,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U97" s="1" t="n">
         <v>404269</v>
@@ -7759,10 +7762,10 @@
         <v>53</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>112</v>
@@ -7801,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U98" s="1" t="n">
         <v>404269</v>
@@ -7827,10 +7830,10 @@
         <v>53</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>102</v>
@@ -7869,7 +7872,7 @@
         <v>4</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U99" s="1" t="n">
         <v>404269</v>
@@ -7895,10 +7898,10 @@
         <v>53</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>107</v>
@@ -7937,7 +7940,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U100" s="1" t="n">
         <v>404269</v>
@@ -7963,10 +7966,10 @@
         <v>53</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>112</v>
@@ -8005,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U101" s="1" t="n">
         <v>404269</v>
@@ -8031,10 +8034,10 @@
         <v>53</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>102</v>
@@ -8073,7 +8076,7 @@
         <v>4</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U102" s="1" t="n">
         <v>404269</v>
@@ -8099,10 +8102,10 @@
         <v>53</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>107</v>
@@ -8141,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U103" s="1" t="n">
         <v>404269</v>
@@ -8167,10 +8170,10 @@
         <v>53</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>112</v>
@@ -8209,7 +8212,7 @@
         <v>4</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U104" s="1" t="n">
         <v>404269</v>
@@ -8235,10 +8238,10 @@
         <v>53</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>102</v>
@@ -8277,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U105" s="1" t="n">
         <v>404269</v>
@@ -8303,10 +8306,10 @@
         <v>53</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>107</v>
@@ -8345,7 +8348,7 @@
         <v>4</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U106" s="1" t="n">
         <v>404269</v>
@@ -8371,10 +8374,10 @@
         <v>53</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>112</v>
@@ -8413,7 +8416,7 @@
         <v>4</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U107" s="1" t="n">
         <v>404269</v>
@@ -8439,10 +8442,10 @@
         <v>53</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>102</v>
@@ -8481,7 +8484,7 @@
         <v>4</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>404269</v>
@@ -8507,10 +8510,10 @@
         <v>53</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>107</v>
@@ -8549,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U109" s="1" t="n">
         <v>404269</v>
@@ -8575,10 +8578,10 @@
         <v>53</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>112</v>
@@ -8617,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="T110" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U110" s="14" t="n">
         <v>404269</v>
@@ -8643,10 +8646,10 @@
         <v>53</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>121</v>
@@ -8685,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="T111" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>404266</v>
@@ -8711,10 +8714,10 @@
         <v>53</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>123</v>
@@ -8753,7 +8756,7 @@
         <v>5</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U112" s="1" t="n">
         <v>404266</v>
@@ -8779,10 +8782,10 @@
         <v>53</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>125</v>
@@ -8821,7 +8824,7 @@
         <v>5</v>
       </c>
       <c r="T113" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U113" s="1" t="n">
         <v>404266</v>
@@ -8847,10 +8850,10 @@
         <v>53</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>121</v>
@@ -8889,7 +8892,7 @@
         <v>5</v>
       </c>
       <c r="T114" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U114" s="1" t="n">
         <v>404266</v>
@@ -8915,10 +8918,10 @@
         <v>53</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>123</v>
@@ -8957,7 +8960,7 @@
         <v>5</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U115" s="1" t="n">
         <v>404266</v>
@@ -8983,10 +8986,10 @@
         <v>53</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
@@ -9025,7 +9028,7 @@
         <v>5</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U116" s="1" t="n">
         <v>404266</v>
@@ -9051,10 +9054,10 @@
         <v>53</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>121</v>
@@ -9093,7 +9096,7 @@
         <v>5</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U117" s="1" t="n">
         <v>404266</v>
@@ -9119,10 +9122,10 @@
         <v>53</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>123</v>
@@ -9161,7 +9164,7 @@
         <v>5</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U118" s="1" t="n">
         <v>404266</v>
@@ -9187,10 +9190,10 @@
         <v>53</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>125</v>
@@ -9229,7 +9232,7 @@
         <v>5</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U119" s="1" t="n">
         <v>404266</v>
@@ -9255,10 +9258,10 @@
         <v>53</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>121</v>
@@ -9297,7 +9300,7 @@
         <v>5</v>
       </c>
       <c r="T120" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U120" s="1" t="n">
         <v>404266</v>
@@ -9323,10 +9326,10 @@
         <v>53</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>123</v>
@@ -9365,7 +9368,7 @@
         <v>5</v>
       </c>
       <c r="T121" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U121" s="1" t="n">
         <v>404266</v>
@@ -9391,10 +9394,10 @@
         <v>53</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>125</v>
@@ -9433,7 +9436,7 @@
         <v>5</v>
       </c>
       <c r="T122" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U122" s="1" t="n">
         <v>404266</v>
@@ -9459,10 +9462,10 @@
         <v>53</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>121</v>
@@ -9501,7 +9504,7 @@
         <v>5</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U123" s="1" t="n">
         <v>404266</v>
@@ -9527,10 +9530,10 @@
         <v>53</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>123</v>
@@ -9569,7 +9572,7 @@
         <v>5</v>
       </c>
       <c r="T124" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U124" s="1" t="n">
         <v>404266</v>
@@ -9595,10 +9598,10 @@
         <v>53</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>125</v>
@@ -9637,7 +9640,7 @@
         <v>5</v>
       </c>
       <c r="T125" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U125" s="1" t="n">
         <v>404266</v>
@@ -9663,10 +9666,10 @@
         <v>53</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>121</v>
@@ -9705,7 +9708,7 @@
         <v>5</v>
       </c>
       <c r="T126" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U126" s="1" t="n">
         <v>404266</v>
@@ -9731,10 +9734,10 @@
         <v>53</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>123</v>
@@ -9773,7 +9776,7 @@
         <v>5</v>
       </c>
       <c r="T127" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U127" s="1" t="n">
         <v>404266</v>
@@ -9799,10 +9802,10 @@
         <v>53</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>125</v>
@@ -9841,7 +9844,7 @@
         <v>5</v>
       </c>
       <c r="T128" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U128" s="1" t="n">
         <v>404266</v>
@@ -9867,10 +9870,10 @@
         <v>53</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>121</v>
@@ -9909,7 +9912,7 @@
         <v>5</v>
       </c>
       <c r="T129" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U129" s="1" t="n">
         <v>404266</v>
@@ -9935,10 +9938,10 @@
         <v>53</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>123</v>
@@ -9977,7 +9980,7 @@
         <v>5</v>
       </c>
       <c r="T130" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U130" s="1" t="n">
         <v>404266</v>
@@ -10003,10 +10006,10 @@
         <v>53</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>125</v>
@@ -10045,7 +10048,7 @@
         <v>5</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U131" s="1" t="n">
         <v>404266</v>
@@ -10071,10 +10074,10 @@
         <v>53</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>121</v>
@@ -10113,7 +10116,7 @@
         <v>5</v>
       </c>
       <c r="T132" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U132" s="1" t="n">
         <v>404266</v>
@@ -10139,10 +10142,10 @@
         <v>53</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>123</v>
@@ -10181,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U133" s="1" t="n">
         <v>404266</v>
@@ -10207,10 +10210,10 @@
         <v>53</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>125</v>
@@ -10249,7 +10252,7 @@
         <v>5</v>
       </c>
       <c r="T134" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U134" s="1" t="n">
         <v>404266</v>
@@ -10275,10 +10278,10 @@
         <v>53</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>121</v>
@@ -10317,7 +10320,7 @@
         <v>5</v>
       </c>
       <c r="T135" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U135" s="1" t="n">
         <v>404266</v>
@@ -10343,10 +10346,10 @@
         <v>53</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>123</v>
@@ -10385,7 +10388,7 @@
         <v>5</v>
       </c>
       <c r="T136" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U136" s="1" t="n">
         <v>404266</v>
@@ -10411,10 +10414,10 @@
         <v>53</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>125</v>
@@ -10453,7 +10456,7 @@
         <v>5</v>
       </c>
       <c r="T137" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U137" s="1" t="n">
         <v>404266</v>
@@ -10479,10 +10482,10 @@
         <v>53</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>121</v>
@@ -10521,7 +10524,7 @@
         <v>5</v>
       </c>
       <c r="T138" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U138" s="1" t="n">
         <v>404266</v>
@@ -10547,10 +10550,10 @@
         <v>53</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>123</v>
@@ -10589,7 +10592,7 @@
         <v>5</v>
       </c>
       <c r="T139" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U139" s="1" t="n">
         <v>404266</v>
@@ -10615,10 +10618,10 @@
         <v>53</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>125</v>
@@ -10657,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="T140" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U140" s="14" t="n">
         <v>404266</v>
@@ -10683,10 +10686,10 @@
         <v>53</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>129</v>
@@ -10725,7 +10728,7 @@
         <v>6</v>
       </c>
       <c r="T141" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U141" s="1" t="n">
         <v>404264</v>
@@ -10751,10 +10754,10 @@
         <v>53</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>131</v>
@@ -10793,7 +10796,7 @@
         <v>6</v>
       </c>
       <c r="T142" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U142" s="1" t="n">
         <v>404264</v>
@@ -10819,10 +10822,10 @@
         <v>53</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>133</v>
@@ -10861,7 +10864,7 @@
         <v>6</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U143" s="1" t="n">
         <v>404264</v>
@@ -10887,10 +10890,10 @@
         <v>53</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>129</v>
@@ -10929,7 +10932,7 @@
         <v>6</v>
       </c>
       <c r="T144" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U144" s="1" t="n">
         <v>404264</v>
@@ -10955,10 +10958,10 @@
         <v>53</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>131</v>
@@ -10997,7 +11000,7 @@
         <v>6</v>
       </c>
       <c r="T145" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>404264</v>
@@ -11023,10 +11026,10 @@
         <v>53</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>133</v>
@@ -11065,7 +11068,7 @@
         <v>6</v>
       </c>
       <c r="T146" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>404264</v>
@@ -11091,10 +11094,10 @@
         <v>53</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>129</v>
@@ -11133,7 +11136,7 @@
         <v>6</v>
       </c>
       <c r="T147" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>404264</v>
@@ -11159,10 +11162,10 @@
         <v>53</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>131</v>
@@ -11201,7 +11204,7 @@
         <v>6</v>
       </c>
       <c r="T148" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>404264</v>
@@ -11227,10 +11230,10 @@
         <v>53</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>133</v>
@@ -11269,7 +11272,7 @@
         <v>6</v>
       </c>
       <c r="T149" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>404264</v>
@@ -11295,10 +11298,10 @@
         <v>53</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>129</v>
@@ -11337,7 +11340,7 @@
         <v>6</v>
       </c>
       <c r="T150" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>404264</v>
@@ -11363,10 +11366,10 @@
         <v>53</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>131</v>
@@ -11405,7 +11408,7 @@
         <v>6</v>
       </c>
       <c r="T151" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U151" s="1" t="n">
         <v>404264</v>
@@ -11431,10 +11434,10 @@
         <v>53</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>133</v>
@@ -11473,7 +11476,7 @@
         <v>6</v>
       </c>
       <c r="T152" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U152" s="1" t="n">
         <v>404264</v>
@@ -11499,10 +11502,10 @@
         <v>53</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>129</v>
@@ -11541,7 +11544,7 @@
         <v>6</v>
       </c>
       <c r="T153" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U153" s="1" t="n">
         <v>404264</v>
@@ -11567,10 +11570,10 @@
         <v>53</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>131</v>
@@ -11609,7 +11612,7 @@
         <v>6</v>
       </c>
       <c r="T154" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U154" s="1" t="n">
         <v>404264</v>
@@ -11635,10 +11638,10 @@
         <v>53</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>133</v>
@@ -11677,7 +11680,7 @@
         <v>6</v>
       </c>
       <c r="T155" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U155" s="1" t="n">
         <v>404264</v>
@@ -11703,10 +11706,10 @@
         <v>53</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>129</v>
@@ -11745,7 +11748,7 @@
         <v>6</v>
       </c>
       <c r="T156" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U156" s="1" t="n">
         <v>404264</v>
@@ -11771,10 +11774,10 @@
         <v>53</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>131</v>
@@ -11813,7 +11816,7 @@
         <v>6</v>
       </c>
       <c r="T157" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U157" s="1" t="n">
         <v>404264</v>
@@ -11839,10 +11842,10 @@
         <v>53</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>133</v>
@@ -11881,7 +11884,7 @@
         <v>6</v>
       </c>
       <c r="T158" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U158" s="1" t="n">
         <v>404264</v>
@@ -11907,10 +11910,10 @@
         <v>53</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>129</v>
@@ -11949,7 +11952,7 @@
         <v>6</v>
       </c>
       <c r="T159" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U159" s="1" t="n">
         <v>404264</v>
@@ -11975,10 +11978,10 @@
         <v>53</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>131</v>
@@ -12017,7 +12020,7 @@
         <v>6</v>
       </c>
       <c r="T160" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U160" s="1" t="n">
         <v>404264</v>
@@ -12043,10 +12046,10 @@
         <v>53</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>133</v>
@@ -12085,7 +12088,7 @@
         <v>6</v>
       </c>
       <c r="T161" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U161" s="1" t="n">
         <v>404264</v>
@@ -12111,10 +12114,10 @@
         <v>53</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>129</v>
@@ -12153,7 +12156,7 @@
         <v>6</v>
       </c>
       <c r="T162" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U162" s="1" t="n">
         <v>404264</v>
@@ -12179,10 +12182,10 @@
         <v>53</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>131</v>
@@ -12221,7 +12224,7 @@
         <v>6</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U163" s="1" t="n">
         <v>404264</v>
@@ -12247,10 +12250,10 @@
         <v>53</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>133</v>
@@ -12289,7 +12292,7 @@
         <v>6</v>
       </c>
       <c r="T164" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U164" s="1" t="n">
         <v>404264</v>
@@ -12315,7 +12318,7 @@
         <v>53</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G165" s="17" t="s">
         <v>73</v>
@@ -12357,7 +12360,7 @@
         <v>6</v>
       </c>
       <c r="T165" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U165" s="1" t="n">
         <v>404264</v>
@@ -12383,7 +12386,7 @@
         <v>53</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>73</v>
@@ -12425,7 +12428,7 @@
         <v>6</v>
       </c>
       <c r="T166" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U166" s="1" t="n">
         <v>404264</v>
@@ -12451,7 +12454,7 @@
         <v>53</v>
       </c>
       <c r="F167" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>73</v>
@@ -12493,7 +12496,7 @@
         <v>6</v>
       </c>
       <c r="T167" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U167" s="1" t="n">
         <v>404264</v>
@@ -12519,10 +12522,10 @@
         <v>53</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>129</v>
@@ -12561,7 +12564,7 @@
         <v>6</v>
       </c>
       <c r="T168" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U168" s="1" t="n">
         <v>404264</v>
@@ -12587,10 +12590,10 @@
         <v>53</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>131</v>
@@ -12629,7 +12632,7 @@
         <v>6</v>
       </c>
       <c r="T169" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U169" s="1" t="n">
         <v>404264</v>
@@ -12655,10 +12658,10 @@
         <v>53</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>133</v>
@@ -12697,7 +12700,7 @@
         <v>6</v>
       </c>
       <c r="T170" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U170" s="1" t="n">
         <v>404264</v>
@@ -12717,22 +12720,22 @@
         <v>10056</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>286352</v>
@@ -12765,7 +12768,7 @@
         <v>7</v>
       </c>
       <c r="T171" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U171" s="1" t="n">
         <v>404264</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="246">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t xml:space="preserve">0|0|-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023|1||1|200||3|12</t>
   </si>
   <si>
     <t xml:space="preserve">1023|1||1|300||3|12</t>
@@ -1224,10 +1227,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2550,19 +2553,19 @@
         <v>1</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>61</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S21" s="14" t="n">
         <v>2</v>
@@ -2730,10 +2733,10 @@
         <v>53</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>58</v>
@@ -2763,10 +2766,10 @@
         <v>62</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>2</v>
@@ -2798,10 +2801,10 @@
         <v>53</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>66</v>
@@ -2866,10 +2869,10 @@
         <v>53</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>74</v>
@@ -2934,10 +2937,10 @@
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>58</v>
@@ -2967,10 +2970,10 @@
         <v>62</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S27" s="1" t="n">
         <v>2</v>
@@ -3002,10 +3005,10 @@
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>66</v>
@@ -3070,10 +3073,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>74</v>
@@ -3138,10 +3141,10 @@
         <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3171,10 +3174,10 @@
         <v>62</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>2</v>
@@ -3206,10 +3209,10 @@
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>66</v>
@@ -3274,10 +3277,10 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>74</v>
@@ -3342,10 +3345,10 @@
         <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>58</v>
@@ -3375,10 +3378,10 @@
         <v>62</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>2</v>
@@ -3410,10 +3413,10 @@
         <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>66</v>
@@ -3478,10 +3481,10 @@
         <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>74</v>
@@ -3546,10 +3549,10 @@
         <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>58</v>
@@ -3579,10 +3582,10 @@
         <v>62</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>2</v>
@@ -3614,10 +3617,10 @@
         <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>66</v>
@@ -3682,10 +3685,10 @@
         <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>74</v>
@@ -3750,10 +3753,10 @@
         <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>58</v>
@@ -3783,10 +3786,10 @@
         <v>62</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S39" s="1" t="n">
         <v>2</v>
@@ -3818,10 +3821,10 @@
         <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>66</v>
@@ -3886,10 +3889,10 @@
         <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>74</v>
@@ -3954,10 +3957,10 @@
         <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>58</v>
@@ -3987,10 +3990,10 @@
         <v>62</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S42" s="1" t="n">
         <v>2</v>
@@ -4022,10 +4025,10 @@
         <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>66</v>
@@ -4090,10 +4093,10 @@
         <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>74</v>
@@ -4158,10 +4161,10 @@
         <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>58</v>
@@ -4191,10 +4194,10 @@
         <v>62</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>2</v>
@@ -4226,10 +4229,10 @@
         <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>66</v>
@@ -4294,10 +4297,10 @@
         <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>74</v>
@@ -4362,10 +4365,10 @@
         <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>58</v>
@@ -4395,10 +4398,10 @@
         <v>62</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>2</v>
@@ -4430,10 +4433,10 @@
         <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>66</v>
@@ -4498,10 +4501,10 @@
         <v>53</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>74</v>
@@ -4566,10 +4569,10 @@
         <v>53</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>83</v>
@@ -4608,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U51" s="1" t="n">
         <v>404267</v>
@@ -4634,10 +4637,10 @@
         <v>53</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>90</v>
@@ -4676,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U52" s="1" t="n">
         <v>404267</v>
@@ -4702,10 +4705,10 @@
         <v>53</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>95</v>
@@ -4744,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U53" s="1" t="n">
         <v>404267</v>
@@ -4770,10 +4773,10 @@
         <v>53</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>83</v>
@@ -4812,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U54" s="1" t="n">
         <v>404267</v>
@@ -4838,10 +4841,10 @@
         <v>53</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>90</v>
@@ -4880,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U55" s="1" t="n">
         <v>404267</v>
@@ -4906,10 +4909,10 @@
         <v>53</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>95</v>
@@ -4948,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U56" s="1" t="n">
         <v>404267</v>
@@ -4974,10 +4977,10 @@
         <v>53</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>83</v>
@@ -5016,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U57" s="1" t="n">
         <v>404267</v>
@@ -5042,10 +5045,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>90</v>
@@ -5084,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U58" s="1" t="n">
         <v>404267</v>
@@ -5110,10 +5113,10 @@
         <v>53</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>95</v>
@@ -5152,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U59" s="1" t="n">
         <v>404267</v>
@@ -5178,10 +5181,10 @@
         <v>53</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>83</v>
@@ -5220,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U60" s="1" t="n">
         <v>404267</v>
@@ -5246,10 +5249,10 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>90</v>
@@ -5288,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U61" s="1" t="n">
         <v>404267</v>
@@ -5314,10 +5317,10 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>95</v>
@@ -5356,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U62" s="1" t="n">
         <v>404267</v>
@@ -5382,10 +5385,10 @@
         <v>53</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>83</v>
@@ -5424,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U63" s="1" t="n">
         <v>404267</v>
@@ -5450,10 +5453,10 @@
         <v>53</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>90</v>
@@ -5492,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U64" s="1" t="n">
         <v>404267</v>
@@ -5518,10 +5521,10 @@
         <v>53</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>95</v>
@@ -5560,7 +5563,7 @@
         <v>3</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U65" s="1" t="n">
         <v>404267</v>
@@ -5586,10 +5589,10 @@
         <v>53</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>83</v>
@@ -5628,7 +5631,7 @@
         <v>3</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U66" s="1" t="n">
         <v>404267</v>
@@ -5654,10 +5657,10 @@
         <v>53</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>90</v>
@@ -5696,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U67" s="1" t="n">
         <v>404267</v>
@@ -5722,10 +5725,10 @@
         <v>53</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>95</v>
@@ -5764,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U68" s="1" t="n">
         <v>404267</v>
@@ -5790,10 +5793,10 @@
         <v>53</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>83</v>
@@ -5832,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U69" s="1" t="n">
         <v>404267</v>
@@ -5858,10 +5861,10 @@
         <v>53</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>90</v>
@@ -5900,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U70" s="1" t="n">
         <v>404267</v>
@@ -5926,10 +5929,10 @@
         <v>53</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>95</v>
@@ -5968,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U71" s="1" t="n">
         <v>404267</v>
@@ -5994,10 +5997,10 @@
         <v>53</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>83</v>
@@ -6036,7 +6039,7 @@
         <v>3</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U72" s="1" t="n">
         <v>404267</v>
@@ -6062,10 +6065,10 @@
         <v>53</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>90</v>
@@ -6104,7 +6107,7 @@
         <v>3</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U73" s="1" t="n">
         <v>404267</v>
@@ -6130,10 +6133,10 @@
         <v>53</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>95</v>
@@ -6172,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U74" s="1" t="n">
         <v>404267</v>
@@ -6198,10 +6201,10 @@
         <v>53</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>83</v>
@@ -6240,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U75" s="1" t="n">
         <v>404267</v>
@@ -6266,10 +6269,10 @@
         <v>53</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>90</v>
@@ -6308,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U76" s="1" t="n">
         <v>404267</v>
@@ -6334,10 +6337,10 @@
         <v>53</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>95</v>
@@ -6376,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U77" s="1" t="n">
         <v>404267</v>
@@ -6402,7 +6405,7 @@
         <v>53</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>73</v>
@@ -6444,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U78" s="1" t="n">
         <v>404267</v>
@@ -6470,7 +6473,7 @@
         <v>53</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>73</v>
@@ -6512,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U79" s="1" t="n">
         <v>404267</v>
@@ -6538,7 +6541,7 @@
         <v>53</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>73</v>
@@ -6580,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U80" s="14" t="n">
         <v>404267</v>
@@ -6606,10 +6609,10 @@
         <v>53</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>102</v>
@@ -6648,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U81" s="1" t="n">
         <v>404269</v>
@@ -6674,10 +6677,10 @@
         <v>53</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>107</v>
@@ -6716,7 +6719,7 @@
         <v>4</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U82" s="1" t="n">
         <v>404269</v>
@@ -6742,10 +6745,10 @@
         <v>53</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>112</v>
@@ -6784,7 +6787,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U83" s="1" t="n">
         <v>404269</v>
@@ -6810,10 +6813,10 @@
         <v>53</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>102</v>
@@ -6852,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U84" s="1" t="n">
         <v>404269</v>
@@ -6878,10 +6881,10 @@
         <v>53</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>107</v>
@@ -6920,7 +6923,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U85" s="1" t="n">
         <v>404269</v>
@@ -6946,10 +6949,10 @@
         <v>53</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>112</v>
@@ -6988,7 +6991,7 @@
         <v>4</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U86" s="1" t="n">
         <v>404269</v>
@@ -7014,10 +7017,10 @@
         <v>53</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>102</v>
@@ -7056,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U87" s="1" t="n">
         <v>404269</v>
@@ -7082,10 +7085,10 @@
         <v>53</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>107</v>
@@ -7124,7 +7127,7 @@
         <v>4</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U88" s="1" t="n">
         <v>404269</v>
@@ -7150,10 +7153,10 @@
         <v>53</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>112</v>
@@ -7192,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U89" s="1" t="n">
         <v>404269</v>
@@ -7218,10 +7221,10 @@
         <v>53</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>102</v>
@@ -7260,7 +7263,7 @@
         <v>4</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U90" s="1" t="n">
         <v>404269</v>
@@ -7286,10 +7289,10 @@
         <v>53</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>107</v>
@@ -7328,7 +7331,7 @@
         <v>4</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U91" s="1" t="n">
         <v>404269</v>
@@ -7354,10 +7357,10 @@
         <v>53</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>112</v>
@@ -7396,7 +7399,7 @@
         <v>4</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U92" s="1" t="n">
         <v>404269</v>
@@ -7422,10 +7425,10 @@
         <v>53</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>102</v>
@@ -7464,7 +7467,7 @@
         <v>4</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U93" s="1" t="n">
         <v>404269</v>
@@ -7490,10 +7493,10 @@
         <v>53</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>107</v>
@@ -7532,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U94" s="1" t="n">
         <v>404269</v>
@@ -7558,10 +7561,10 @@
         <v>53</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>112</v>
@@ -7600,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U95" s="1" t="n">
         <v>404269</v>
@@ -7626,10 +7629,10 @@
         <v>53</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>102</v>
@@ -7668,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U96" s="1" t="n">
         <v>404269</v>
@@ -7694,10 +7697,10 @@
         <v>53</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>107</v>
@@ -7736,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U97" s="1" t="n">
         <v>404269</v>
@@ -7762,10 +7765,10 @@
         <v>53</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>112</v>
@@ -7804,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U98" s="1" t="n">
         <v>404269</v>
@@ -7830,10 +7833,10 @@
         <v>53</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>102</v>
@@ -7872,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U99" s="1" t="n">
         <v>404269</v>
@@ -7898,10 +7901,10 @@
         <v>53</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>107</v>
@@ -7940,7 +7943,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U100" s="1" t="n">
         <v>404269</v>
@@ -7966,10 +7969,10 @@
         <v>53</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>112</v>
@@ -8008,7 +8011,7 @@
         <v>4</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U101" s="1" t="n">
         <v>404269</v>
@@ -8034,10 +8037,10 @@
         <v>53</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>102</v>
@@ -8076,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U102" s="1" t="n">
         <v>404269</v>
@@ -8102,10 +8105,10 @@
         <v>53</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>107</v>
@@ -8144,7 +8147,7 @@
         <v>4</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U103" s="1" t="n">
         <v>404269</v>
@@ -8170,10 +8173,10 @@
         <v>53</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>112</v>
@@ -8212,7 +8215,7 @@
         <v>4</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U104" s="1" t="n">
         <v>404269</v>
@@ -8238,10 +8241,10 @@
         <v>53</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>102</v>
@@ -8280,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U105" s="1" t="n">
         <v>404269</v>
@@ -8306,10 +8309,10 @@
         <v>53</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>107</v>
@@ -8348,7 +8351,7 @@
         <v>4</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U106" s="1" t="n">
         <v>404269</v>
@@ -8374,10 +8377,10 @@
         <v>53</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>112</v>
@@ -8416,7 +8419,7 @@
         <v>4</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U107" s="1" t="n">
         <v>404269</v>
@@ -8442,10 +8445,10 @@
         <v>53</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>102</v>
@@ -8484,7 +8487,7 @@
         <v>4</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>404269</v>
@@ -8510,10 +8513,10 @@
         <v>53</v>
       </c>
       <c r="F109" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>107</v>
@@ -8552,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U109" s="1" t="n">
         <v>404269</v>
@@ -8578,10 +8581,10 @@
         <v>53</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>112</v>
@@ -8620,7 +8623,7 @@
         <v>4</v>
       </c>
       <c r="T110" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U110" s="14" t="n">
         <v>404269</v>
@@ -8646,10 +8649,10 @@
         <v>53</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>121</v>
@@ -8688,7 +8691,7 @@
         <v>5</v>
       </c>
       <c r="T111" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>404266</v>
@@ -8714,10 +8717,10 @@
         <v>53</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>123</v>
@@ -8756,7 +8759,7 @@
         <v>5</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U112" s="1" t="n">
         <v>404266</v>
@@ -8782,10 +8785,10 @@
         <v>53</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>125</v>
@@ -8824,7 +8827,7 @@
         <v>5</v>
       </c>
       <c r="T113" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U113" s="1" t="n">
         <v>404266</v>
@@ -8850,10 +8853,10 @@
         <v>53</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>121</v>
@@ -8892,7 +8895,7 @@
         <v>5</v>
       </c>
       <c r="T114" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U114" s="1" t="n">
         <v>404266</v>
@@ -8918,10 +8921,10 @@
         <v>53</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>123</v>
@@ -8960,7 +8963,7 @@
         <v>5</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U115" s="1" t="n">
         <v>404266</v>
@@ -8986,10 +8989,10 @@
         <v>53</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
@@ -9028,7 +9031,7 @@
         <v>5</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U116" s="1" t="n">
         <v>404266</v>
@@ -9054,10 +9057,10 @@
         <v>53</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>121</v>
@@ -9096,7 +9099,7 @@
         <v>5</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U117" s="1" t="n">
         <v>404266</v>
@@ -9122,10 +9125,10 @@
         <v>53</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>123</v>
@@ -9164,7 +9167,7 @@
         <v>5</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U118" s="1" t="n">
         <v>404266</v>
@@ -9190,10 +9193,10 @@
         <v>53</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>125</v>
@@ -9232,7 +9235,7 @@
         <v>5</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U119" s="1" t="n">
         <v>404266</v>
@@ -9258,10 +9261,10 @@
         <v>53</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>121</v>
@@ -9300,7 +9303,7 @@
         <v>5</v>
       </c>
       <c r="T120" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U120" s="1" t="n">
         <v>404266</v>
@@ -9326,10 +9329,10 @@
         <v>53</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>123</v>
@@ -9368,7 +9371,7 @@
         <v>5</v>
       </c>
       <c r="T121" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U121" s="1" t="n">
         <v>404266</v>
@@ -9394,10 +9397,10 @@
         <v>53</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>125</v>
@@ -9436,7 +9439,7 @@
         <v>5</v>
       </c>
       <c r="T122" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U122" s="1" t="n">
         <v>404266</v>
@@ -9462,10 +9465,10 @@
         <v>53</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>121</v>
@@ -9504,7 +9507,7 @@
         <v>5</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U123" s="1" t="n">
         <v>404266</v>
@@ -9530,10 +9533,10 @@
         <v>53</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>123</v>
@@ -9572,7 +9575,7 @@
         <v>5</v>
       </c>
       <c r="T124" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U124" s="1" t="n">
         <v>404266</v>
@@ -9598,10 +9601,10 @@
         <v>53</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>125</v>
@@ -9640,7 +9643,7 @@
         <v>5</v>
       </c>
       <c r="T125" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U125" s="1" t="n">
         <v>404266</v>
@@ -9666,10 +9669,10 @@
         <v>53</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>121</v>
@@ -9708,7 +9711,7 @@
         <v>5</v>
       </c>
       <c r="T126" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U126" s="1" t="n">
         <v>404266</v>
@@ -9734,10 +9737,10 @@
         <v>53</v>
       </c>
       <c r="F127" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>123</v>
@@ -9776,7 +9779,7 @@
         <v>5</v>
       </c>
       <c r="T127" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U127" s="1" t="n">
         <v>404266</v>
@@ -9802,10 +9805,10 @@
         <v>53</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>125</v>
@@ -9844,7 +9847,7 @@
         <v>5</v>
       </c>
       <c r="T128" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U128" s="1" t="n">
         <v>404266</v>
@@ -9870,10 +9873,10 @@
         <v>53</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>121</v>
@@ -9912,7 +9915,7 @@
         <v>5</v>
       </c>
       <c r="T129" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U129" s="1" t="n">
         <v>404266</v>
@@ -9938,10 +9941,10 @@
         <v>53</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>123</v>
@@ -9980,7 +9983,7 @@
         <v>5</v>
       </c>
       <c r="T130" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U130" s="1" t="n">
         <v>404266</v>
@@ -10006,10 +10009,10 @@
         <v>53</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>125</v>
@@ -10048,7 +10051,7 @@
         <v>5</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U131" s="1" t="n">
         <v>404266</v>
@@ -10074,10 +10077,10 @@
         <v>53</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>121</v>
@@ -10116,7 +10119,7 @@
         <v>5</v>
       </c>
       <c r="T132" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U132" s="1" t="n">
         <v>404266</v>
@@ -10142,10 +10145,10 @@
         <v>53</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>123</v>
@@ -10184,7 +10187,7 @@
         <v>5</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U133" s="1" t="n">
         <v>404266</v>
@@ -10210,10 +10213,10 @@
         <v>53</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>125</v>
@@ -10252,7 +10255,7 @@
         <v>5</v>
       </c>
       <c r="T134" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U134" s="1" t="n">
         <v>404266</v>
@@ -10278,10 +10281,10 @@
         <v>53</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>121</v>
@@ -10320,7 +10323,7 @@
         <v>5</v>
       </c>
       <c r="T135" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U135" s="1" t="n">
         <v>404266</v>
@@ -10346,10 +10349,10 @@
         <v>53</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>123</v>
@@ -10388,7 +10391,7 @@
         <v>5</v>
       </c>
       <c r="T136" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U136" s="1" t="n">
         <v>404266</v>
@@ -10414,10 +10417,10 @@
         <v>53</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>125</v>
@@ -10456,7 +10459,7 @@
         <v>5</v>
       </c>
       <c r="T137" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U137" s="1" t="n">
         <v>404266</v>
@@ -10482,10 +10485,10 @@
         <v>53</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>121</v>
@@ -10524,7 +10527,7 @@
         <v>5</v>
       </c>
       <c r="T138" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U138" s="1" t="n">
         <v>404266</v>
@@ -10550,10 +10553,10 @@
         <v>53</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>123</v>
@@ -10592,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="T139" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U139" s="1" t="n">
         <v>404266</v>
@@ -10618,10 +10621,10 @@
         <v>53</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>125</v>
@@ -10660,7 +10663,7 @@
         <v>5</v>
       </c>
       <c r="T140" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U140" s="14" t="n">
         <v>404266</v>
@@ -10686,10 +10689,10 @@
         <v>53</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>129</v>
@@ -10728,7 +10731,7 @@
         <v>6</v>
       </c>
       <c r="T141" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U141" s="1" t="n">
         <v>404264</v>
@@ -10754,10 +10757,10 @@
         <v>53</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>131</v>
@@ -10796,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="T142" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U142" s="1" t="n">
         <v>404264</v>
@@ -10822,10 +10825,10 @@
         <v>53</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>133</v>
@@ -10864,7 +10867,7 @@
         <v>6</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U143" s="1" t="n">
         <v>404264</v>
@@ -10890,10 +10893,10 @@
         <v>53</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>129</v>
@@ -10932,7 +10935,7 @@
         <v>6</v>
       </c>
       <c r="T144" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U144" s="1" t="n">
         <v>404264</v>
@@ -10958,10 +10961,10 @@
         <v>53</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>131</v>
@@ -11000,7 +11003,7 @@
         <v>6</v>
       </c>
       <c r="T145" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>404264</v>
@@ -11026,10 +11029,10 @@
         <v>53</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>133</v>
@@ -11068,7 +11071,7 @@
         <v>6</v>
       </c>
       <c r="T146" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>404264</v>
@@ -11094,10 +11097,10 @@
         <v>53</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>129</v>
@@ -11136,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="T147" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>404264</v>
@@ -11162,10 +11165,10 @@
         <v>53</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>131</v>
@@ -11204,7 +11207,7 @@
         <v>6</v>
       </c>
       <c r="T148" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>404264</v>
@@ -11230,10 +11233,10 @@
         <v>53</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>133</v>
@@ -11272,7 +11275,7 @@
         <v>6</v>
       </c>
       <c r="T149" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>404264</v>
@@ -11298,10 +11301,10 @@
         <v>53</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>129</v>
@@ -11340,7 +11343,7 @@
         <v>6</v>
       </c>
       <c r="T150" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>404264</v>
@@ -11366,10 +11369,10 @@
         <v>53</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>131</v>
@@ -11408,7 +11411,7 @@
         <v>6</v>
       </c>
       <c r="T151" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U151" s="1" t="n">
         <v>404264</v>
@@ -11434,10 +11437,10 @@
         <v>53</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>133</v>
@@ -11476,7 +11479,7 @@
         <v>6</v>
       </c>
       <c r="T152" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U152" s="1" t="n">
         <v>404264</v>
@@ -11502,10 +11505,10 @@
         <v>53</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>129</v>
@@ -11544,7 +11547,7 @@
         <v>6</v>
       </c>
       <c r="T153" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U153" s="1" t="n">
         <v>404264</v>
@@ -11570,10 +11573,10 @@
         <v>53</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>131</v>
@@ -11612,7 +11615,7 @@
         <v>6</v>
       </c>
       <c r="T154" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U154" s="1" t="n">
         <v>404264</v>
@@ -11638,10 +11641,10 @@
         <v>53</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>133</v>
@@ -11680,7 +11683,7 @@
         <v>6</v>
       </c>
       <c r="T155" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U155" s="1" t="n">
         <v>404264</v>
@@ -11706,10 +11709,10 @@
         <v>53</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>129</v>
@@ -11748,7 +11751,7 @@
         <v>6</v>
       </c>
       <c r="T156" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U156" s="1" t="n">
         <v>404264</v>
@@ -11774,10 +11777,10 @@
         <v>53</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>131</v>
@@ -11816,7 +11819,7 @@
         <v>6</v>
       </c>
       <c r="T157" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U157" s="1" t="n">
         <v>404264</v>
@@ -11842,10 +11845,10 @@
         <v>53</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>133</v>
@@ -11884,7 +11887,7 @@
         <v>6</v>
       </c>
       <c r="T158" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U158" s="1" t="n">
         <v>404264</v>
@@ -11910,10 +11913,10 @@
         <v>53</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>129</v>
@@ -11952,7 +11955,7 @@
         <v>6</v>
       </c>
       <c r="T159" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U159" s="1" t="n">
         <v>404264</v>
@@ -11978,10 +11981,10 @@
         <v>53</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>131</v>
@@ -12020,7 +12023,7 @@
         <v>6</v>
       </c>
       <c r="T160" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U160" s="1" t="n">
         <v>404264</v>
@@ -12046,10 +12049,10 @@
         <v>53</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>133</v>
@@ -12088,7 +12091,7 @@
         <v>6</v>
       </c>
       <c r="T161" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U161" s="1" t="n">
         <v>404264</v>
@@ -12114,10 +12117,10 @@
         <v>53</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>129</v>
@@ -12156,7 +12159,7 @@
         <v>6</v>
       </c>
       <c r="T162" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U162" s="1" t="n">
         <v>404264</v>
@@ -12182,10 +12185,10 @@
         <v>53</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>131</v>
@@ -12224,7 +12227,7 @@
         <v>6</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U163" s="1" t="n">
         <v>404264</v>
@@ -12250,10 +12253,10 @@
         <v>53</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>133</v>
@@ -12292,7 +12295,7 @@
         <v>6</v>
       </c>
       <c r="T164" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U164" s="1" t="n">
         <v>404264</v>
@@ -12318,7 +12321,7 @@
         <v>53</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G165" s="17" t="s">
         <v>73</v>
@@ -12360,7 +12363,7 @@
         <v>6</v>
       </c>
       <c r="T165" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U165" s="1" t="n">
         <v>404264</v>
@@ -12386,7 +12389,7 @@
         <v>53</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>73</v>
@@ -12428,7 +12431,7 @@
         <v>6</v>
       </c>
       <c r="T166" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U166" s="1" t="n">
         <v>404264</v>
@@ -12454,7 +12457,7 @@
         <v>53</v>
       </c>
       <c r="F167" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G167" s="17" t="s">
         <v>73</v>
@@ -12496,7 +12499,7 @@
         <v>6</v>
       </c>
       <c r="T167" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U167" s="1" t="n">
         <v>404264</v>
@@ -12522,10 +12525,10 @@
         <v>53</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>129</v>
@@ -12564,7 +12567,7 @@
         <v>6</v>
       </c>
       <c r="T168" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U168" s="1" t="n">
         <v>404264</v>
@@ -12590,10 +12593,10 @@
         <v>53</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>131</v>
@@ -12632,7 +12635,7 @@
         <v>6</v>
       </c>
       <c r="T169" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U169" s="1" t="n">
         <v>404264</v>
@@ -12658,10 +12661,10 @@
         <v>53</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>133</v>
@@ -12700,7 +12703,7 @@
         <v>6</v>
       </c>
       <c r="T170" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U170" s="1" t="n">
         <v>404264</v>
@@ -12720,22 +12723,22 @@
         <v>10056</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F171" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>286352</v>
@@ -12768,7 +12771,7 @@
         <v>7</v>
       </c>
       <c r="T171" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U171" s="1" t="n">
         <v>404264</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="251">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -436,19 +436,34 @@
     <t xml:space="preserve">1023|1||1|200||3|12</t>
   </si>
   <si>
-    <t xml:space="preserve">1023|1||1|300||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|50||3|10</t>
+    <t xml:space="preserve">1|40||3|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|30||3|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|15||3|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|50||2|192||3|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|40||2|96||3|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|60||2|264||3|26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|50||2|132||3|14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17878.6|101663.7|-35.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|10</t>
   </si>
   <si>
     <t xml:space="preserve">1|25||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17878.6|101663.7|-35.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|10</t>
   </si>
   <si>
     <t xml:space="preserve">15525|106466.7|-35.78</t>
@@ -891,7 +906,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -949,6 +964,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1227,10 +1246,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2556,10 +2575,10 @@
         <v>137</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>139</v>
@@ -2621,16 +2640,16 @@
         <v>2</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R22" s="6" t="s">
         <v>72</v>
@@ -2689,16 +2708,16 @@
         <v>3</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>80</v>
@@ -2733,10 +2752,10 @@
         <v>53</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>58</v>
@@ -2757,19 +2776,19 @@
         <v>1</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>2</v>
@@ -2801,10 +2820,10 @@
         <v>53</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>66</v>
@@ -2825,16 +2844,16 @@
         <v>2</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>72</v>
@@ -2869,10 +2888,10 @@
         <v>53</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>74</v>
@@ -2893,16 +2912,16 @@
         <v>3</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>80</v>
@@ -2937,10 +2956,10 @@
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>58</v>
@@ -2961,19 +2980,19 @@
         <v>1</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q27" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S27" s="1" t="n">
         <v>2</v>
@@ -3005,10 +3024,10 @@
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>66</v>
@@ -3029,16 +3048,16 @@
         <v>2</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R28" s="6" t="s">
         <v>72</v>
@@ -3073,10 +3092,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>74</v>
@@ -3097,16 +3116,16 @@
         <v>3</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>80</v>
@@ -3141,10 +3160,10 @@
         <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3165,19 +3184,19 @@
         <v>1</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q30" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>2</v>
@@ -3209,10 +3228,10 @@
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>66</v>
@@ -3233,16 +3252,16 @@
         <v>2</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>72</v>
@@ -3277,10 +3296,10 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>74</v>
@@ -3301,16 +3320,16 @@
         <v>3</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>80</v>
@@ -3345,10 +3364,10 @@
         <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>58</v>
@@ -3369,19 +3388,19 @@
         <v>1</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>2</v>
@@ -3413,10 +3432,10 @@
         <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>66</v>
@@ -3437,16 +3456,16 @@
         <v>2</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R34" s="6" t="s">
         <v>72</v>
@@ -3481,10 +3500,10 @@
         <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>74</v>
@@ -3505,16 +3524,16 @@
         <v>3</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>80</v>
@@ -3549,10 +3568,10 @@
         <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>58</v>
@@ -3573,19 +3592,19 @@
         <v>1</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>2</v>
@@ -3617,10 +3636,10 @@
         <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>66</v>
@@ -3641,16 +3660,16 @@
         <v>2</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>72</v>
@@ -3685,10 +3704,10 @@
         <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>74</v>
@@ -3709,16 +3728,16 @@
         <v>3</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R38" s="6" t="s">
         <v>80</v>
@@ -3753,10 +3772,10 @@
         <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>58</v>
@@ -3777,19 +3796,19 @@
         <v>1</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q39" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S39" s="1" t="n">
         <v>2</v>
@@ -3821,10 +3840,10 @@
         <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>66</v>
@@ -3845,16 +3864,16 @@
         <v>2</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R40" s="6" t="s">
         <v>72</v>
@@ -3889,10 +3908,10 @@
         <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>74</v>
@@ -3913,16 +3932,16 @@
         <v>3</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R41" s="6" t="s">
         <v>80</v>
@@ -3957,10 +3976,10 @@
         <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>58</v>
@@ -3981,19 +4000,19 @@
         <v>1</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q42" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q42" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S42" s="1" t="n">
         <v>2</v>
@@ -4025,10 +4044,10 @@
         <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>66</v>
@@ -4049,16 +4068,16 @@
         <v>2</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R43" s="6" t="s">
         <v>72</v>
@@ -4093,10 +4112,10 @@
         <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>74</v>
@@ -4117,16 +4136,16 @@
         <v>3</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R44" s="6" t="s">
         <v>80</v>
@@ -4161,10 +4180,10 @@
         <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>58</v>
@@ -4185,19 +4204,19 @@
         <v>1</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q45" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>2</v>
@@ -4229,10 +4248,10 @@
         <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>66</v>
@@ -4253,16 +4272,16 @@
         <v>2</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>72</v>
@@ -4297,10 +4316,10 @@
         <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>74</v>
@@ -4321,16 +4340,16 @@
         <v>3</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>80</v>
@@ -4365,10 +4384,10 @@
         <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>58</v>
@@ -4389,19 +4408,19 @@
         <v>1</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q48" s="15" t="s">
         <v>139</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>2</v>
@@ -4433,10 +4452,10 @@
         <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>66</v>
@@ -4457,16 +4476,16 @@
         <v>2</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="R49" s="6" t="s">
         <v>72</v>
@@ -4501,10 +4520,10 @@
         <v>53</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>74</v>
@@ -4525,16 +4544,16 @@
         <v>3</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>80</v>
@@ -4568,11 +4587,11 @@
       <c r="E51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>160</v>
+      <c r="F51" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>83</v>
@@ -4611,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U51" s="1" t="n">
         <v>404267</v>
@@ -4636,11 +4655,11 @@
       <c r="E52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>160</v>
+      <c r="F52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>90</v>
@@ -4679,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U52" s="1" t="n">
         <v>404267</v>
@@ -4704,11 +4723,11 @@
       <c r="E53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>160</v>
+      <c r="F53" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>95</v>
@@ -4747,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U53" s="1" t="n">
         <v>404267</v>
@@ -4772,11 +4791,11 @@
       <c r="E54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>163</v>
+      <c r="F54" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>83</v>
@@ -4815,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U54" s="1" t="n">
         <v>404267</v>
@@ -4840,11 +4859,11 @@
       <c r="E55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>163</v>
+      <c r="F55" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>90</v>
@@ -4883,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U55" s="1" t="n">
         <v>404267</v>
@@ -4908,11 +4927,11 @@
       <c r="E56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>163</v>
+      <c r="F56" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>95</v>
@@ -4951,7 +4970,7 @@
         <v>3</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U56" s="1" t="n">
         <v>404267</v>
@@ -4976,11 +4995,11 @@
       <c r="E57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>165</v>
+      <c r="F57" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>83</v>
@@ -5019,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U57" s="1" t="n">
         <v>404267</v>
@@ -5044,11 +5063,11 @@
       <c r="E58" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>165</v>
+      <c r="F58" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>90</v>
@@ -5087,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U58" s="1" t="n">
         <v>404267</v>
@@ -5112,11 +5131,11 @@
       <c r="E59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>165</v>
+      <c r="F59" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>95</v>
@@ -5155,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U59" s="1" t="n">
         <v>404267</v>
@@ -5180,11 +5199,11 @@
       <c r="E60" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>167</v>
+      <c r="F60" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>83</v>
@@ -5223,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U60" s="1" t="n">
         <v>404267</v>
@@ -5248,11 +5267,11 @@
       <c r="E61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>167</v>
+      <c r="F61" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>90</v>
@@ -5291,7 +5310,7 @@
         <v>3</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U61" s="1" t="n">
         <v>404267</v>
@@ -5316,11 +5335,11 @@
       <c r="E62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>167</v>
+      <c r="F62" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>95</v>
@@ -5359,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U62" s="1" t="n">
         <v>404267</v>
@@ -5384,11 +5403,11 @@
       <c r="E63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>169</v>
+      <c r="F63" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>83</v>
@@ -5427,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U63" s="1" t="n">
         <v>404267</v>
@@ -5452,11 +5471,11 @@
       <c r="E64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>169</v>
+      <c r="F64" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>90</v>
@@ -5495,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U64" s="1" t="n">
         <v>404267</v>
@@ -5520,11 +5539,11 @@
       <c r="E65" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>169</v>
+      <c r="F65" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>95</v>
@@ -5563,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U65" s="1" t="n">
         <v>404267</v>
@@ -5588,11 +5607,11 @@
       <c r="E66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F66" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>171</v>
+      <c r="F66" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>83</v>
@@ -5631,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U66" s="1" t="n">
         <v>404267</v>
@@ -5656,11 +5675,11 @@
       <c r="E67" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>171</v>
+      <c r="F67" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>90</v>
@@ -5699,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U67" s="1" t="n">
         <v>404267</v>
@@ -5724,11 +5743,11 @@
       <c r="E68" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F68" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>171</v>
+      <c r="F68" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>95</v>
@@ -5767,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U68" s="1" t="n">
         <v>404267</v>
@@ -5792,11 +5811,11 @@
       <c r="E69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>173</v>
+      <c r="F69" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>83</v>
@@ -5835,7 +5854,7 @@
         <v>3</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U69" s="1" t="n">
         <v>404267</v>
@@ -5860,11 +5879,11 @@
       <c r="E70" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>173</v>
+      <c r="F70" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>90</v>
@@ -5903,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U70" s="1" t="n">
         <v>404267</v>
@@ -5928,11 +5947,11 @@
       <c r="E71" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>173</v>
+      <c r="F71" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>95</v>
@@ -5971,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U71" s="1" t="n">
         <v>404267</v>
@@ -5996,11 +6015,11 @@
       <c r="E72" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>175</v>
+      <c r="F72" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>83</v>
@@ -6039,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U72" s="1" t="n">
         <v>404267</v>
@@ -6064,11 +6083,11 @@
       <c r="E73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>175</v>
+      <c r="F73" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>90</v>
@@ -6107,7 +6126,7 @@
         <v>3</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U73" s="1" t="n">
         <v>404267</v>
@@ -6132,11 +6151,11 @@
       <c r="E74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>175</v>
+      <c r="F74" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>95</v>
@@ -6175,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U74" s="1" t="n">
         <v>404267</v>
@@ -6200,11 +6219,11 @@
       <c r="E75" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>177</v>
+      <c r="F75" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>83</v>
@@ -6243,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U75" s="1" t="n">
         <v>404267</v>
@@ -6268,11 +6287,11 @@
       <c r="E76" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>177</v>
+      <c r="F76" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>90</v>
@@ -6311,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U76" s="1" t="n">
         <v>404267</v>
@@ -6336,11 +6355,11 @@
       <c r="E77" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F77" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>177</v>
+      <c r="F77" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>95</v>
@@ -6379,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U77" s="1" t="n">
         <v>404267</v>
@@ -6404,10 +6423,10 @@
       <c r="E78" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G78" s="18" t="s">
+      <c r="F78" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" s="19" t="s">
         <v>73</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -6447,7 +6466,7 @@
         <v>3</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U78" s="1" t="n">
         <v>404267</v>
@@ -6472,10 +6491,10 @@
       <c r="E79" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F79" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G79" s="18" t="s">
+      <c r="F79" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="19" t="s">
         <v>73</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -6515,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U79" s="1" t="n">
         <v>404267</v>
@@ -6540,10 +6559,10 @@
       <c r="E80" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F80" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G80" s="20" t="s">
+      <c r="F80" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>73</v>
       </c>
       <c r="H80" s="12" t="s">
@@ -6583,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="U80" s="14" t="n">
         <v>404267</v>
@@ -6608,11 +6627,11 @@
       <c r="E81" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F81" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>180</v>
+      <c r="F81" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>102</v>
@@ -6651,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U81" s="1" t="n">
         <v>404269</v>
@@ -6676,11 +6695,11 @@
       <c r="E82" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>180</v>
+      <c r="F82" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>107</v>
@@ -6719,7 +6738,7 @@
         <v>4</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U82" s="1" t="n">
         <v>404269</v>
@@ -6744,11 +6763,11 @@
       <c r="E83" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>180</v>
+      <c r="F83" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>112</v>
@@ -6787,7 +6806,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U83" s="1" t="n">
         <v>404269</v>
@@ -6812,11 +6831,11 @@
       <c r="E84" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F84" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>183</v>
+      <c r="F84" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>102</v>
@@ -6855,7 +6874,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U84" s="1" t="n">
         <v>404269</v>
@@ -6880,11 +6899,11 @@
       <c r="E85" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>183</v>
+      <c r="F85" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>107</v>
@@ -6923,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U85" s="1" t="n">
         <v>404269</v>
@@ -6948,11 +6967,11 @@
       <c r="E86" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F86" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>183</v>
+      <c r="F86" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>112</v>
@@ -6991,7 +7010,7 @@
         <v>4</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U86" s="1" t="n">
         <v>404269</v>
@@ -7016,11 +7035,11 @@
       <c r="E87" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>185</v>
+      <c r="F87" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>102</v>
@@ -7059,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U87" s="1" t="n">
         <v>404269</v>
@@ -7084,11 +7103,11 @@
       <c r="E88" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>185</v>
+      <c r="F88" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>107</v>
@@ -7127,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U88" s="1" t="n">
         <v>404269</v>
@@ -7152,11 +7171,11 @@
       <c r="E89" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>185</v>
+      <c r="F89" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>112</v>
@@ -7195,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U89" s="1" t="n">
         <v>404269</v>
@@ -7220,11 +7239,11 @@
       <c r="E90" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F90" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>187</v>
+      <c r="F90" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>102</v>
@@ -7263,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U90" s="1" t="n">
         <v>404269</v>
@@ -7288,11 +7307,11 @@
       <c r="E91" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>187</v>
+      <c r="F91" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>107</v>
@@ -7331,7 +7350,7 @@
         <v>4</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U91" s="1" t="n">
         <v>404269</v>
@@ -7356,11 +7375,11 @@
       <c r="E92" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F92" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>187</v>
+      <c r="F92" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>112</v>
@@ -7399,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U92" s="1" t="n">
         <v>404269</v>
@@ -7424,11 +7443,11 @@
       <c r="E93" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>189</v>
+      <c r="F93" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>102</v>
@@ -7467,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U93" s="1" t="n">
         <v>404269</v>
@@ -7492,11 +7511,11 @@
       <c r="E94" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>189</v>
+      <c r="F94" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>107</v>
@@ -7535,7 +7554,7 @@
         <v>4</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U94" s="1" t="n">
         <v>404269</v>
@@ -7560,11 +7579,11 @@
       <c r="E95" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>189</v>
+      <c r="F95" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>112</v>
@@ -7603,7 +7622,7 @@
         <v>4</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U95" s="1" t="n">
         <v>404269</v>
@@ -7628,11 +7647,11 @@
       <c r="E96" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>191</v>
+      <c r="F96" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>102</v>
@@ -7671,7 +7690,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U96" s="1" t="n">
         <v>404269</v>
@@ -7696,11 +7715,11 @@
       <c r="E97" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>191</v>
+      <c r="F97" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>107</v>
@@ -7739,7 +7758,7 @@
         <v>4</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U97" s="1" t="n">
         <v>404269</v>
@@ -7764,11 +7783,11 @@
       <c r="E98" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F98" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>191</v>
+      <c r="F98" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>112</v>
@@ -7807,7 +7826,7 @@
         <v>4</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U98" s="1" t="n">
         <v>404269</v>
@@ -7832,11 +7851,11 @@
       <c r="E99" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F99" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>193</v>
+      <c r="F99" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>102</v>
@@ -7875,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U99" s="1" t="n">
         <v>404269</v>
@@ -7900,11 +7919,11 @@
       <c r="E100" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>193</v>
+      <c r="F100" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>107</v>
@@ -7943,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U100" s="1" t="n">
         <v>404269</v>
@@ -7968,11 +7987,11 @@
       <c r="E101" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>193</v>
+      <c r="F101" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>112</v>
@@ -8011,7 +8030,7 @@
         <v>4</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U101" s="1" t="n">
         <v>404269</v>
@@ -8036,11 +8055,11 @@
       <c r="E102" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F102" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>195</v>
+      <c r="F102" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>102</v>
@@ -8079,7 +8098,7 @@
         <v>4</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U102" s="1" t="n">
         <v>404269</v>
@@ -8104,11 +8123,11 @@
       <c r="E103" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>195</v>
+      <c r="F103" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>107</v>
@@ -8147,7 +8166,7 @@
         <v>4</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U103" s="1" t="n">
         <v>404269</v>
@@ -8172,11 +8191,11 @@
       <c r="E104" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>195</v>
+      <c r="F104" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>112</v>
@@ -8215,7 +8234,7 @@
         <v>4</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U104" s="1" t="n">
         <v>404269</v>
@@ -8240,11 +8259,11 @@
       <c r="E105" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F105" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>197</v>
+      <c r="F105" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>102</v>
@@ -8283,7 +8302,7 @@
         <v>4</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U105" s="1" t="n">
         <v>404269</v>
@@ -8308,11 +8327,11 @@
       <c r="E106" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>197</v>
+      <c r="F106" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>107</v>
@@ -8351,7 +8370,7 @@
         <v>4</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U106" s="1" t="n">
         <v>404269</v>
@@ -8376,11 +8395,11 @@
       <c r="E107" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F107" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>197</v>
+      <c r="F107" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>112</v>
@@ -8419,7 +8438,7 @@
         <v>4</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U107" s="1" t="n">
         <v>404269</v>
@@ -8444,11 +8463,11 @@
       <c r="E108" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F108" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>199</v>
+      <c r="F108" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>102</v>
@@ -8487,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>404269</v>
@@ -8512,11 +8531,11 @@
       <c r="E109" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>199</v>
+      <c r="F109" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>107</v>
@@ -8555,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U109" s="1" t="n">
         <v>404269</v>
@@ -8580,11 +8599,11 @@
       <c r="E110" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F110" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>199</v>
+      <c r="F110" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>112</v>
@@ -8623,7 +8642,7 @@
         <v>4</v>
       </c>
       <c r="T110" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U110" s="14" t="n">
         <v>404269</v>
@@ -8648,11 +8667,11 @@
       <c r="E111" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>201</v>
+      <c r="F111" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>121</v>
@@ -8691,7 +8710,7 @@
         <v>5</v>
       </c>
       <c r="T111" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>404266</v>
@@ -8716,11 +8735,11 @@
       <c r="E112" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F112" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>201</v>
+      <c r="F112" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>123</v>
@@ -8759,7 +8778,7 @@
         <v>5</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U112" s="1" t="n">
         <v>404266</v>
@@ -8784,11 +8803,11 @@
       <c r="E113" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F113" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>201</v>
+      <c r="F113" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>125</v>
@@ -8827,7 +8846,7 @@
         <v>5</v>
       </c>
       <c r="T113" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U113" s="1" t="n">
         <v>404266</v>
@@ -8852,11 +8871,11 @@
       <c r="E114" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F114" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>204</v>
+      <c r="F114" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>121</v>
@@ -8895,7 +8914,7 @@
         <v>5</v>
       </c>
       <c r="T114" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U114" s="1" t="n">
         <v>404266</v>
@@ -8920,11 +8939,11 @@
       <c r="E115" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>204</v>
+      <c r="F115" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>123</v>
@@ -8963,7 +8982,7 @@
         <v>5</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U115" s="1" t="n">
         <v>404266</v>
@@ -8988,11 +9007,11 @@
       <c r="E116" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F116" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>204</v>
+      <c r="F116" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
@@ -9031,7 +9050,7 @@
         <v>5</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U116" s="1" t="n">
         <v>404266</v>
@@ -9056,11 +9075,11 @@
       <c r="E117" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F117" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G117" s="18" t="s">
-        <v>206</v>
+      <c r="F117" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>121</v>
@@ -9099,7 +9118,7 @@
         <v>5</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U117" s="1" t="n">
         <v>404266</v>
@@ -9124,11 +9143,11 @@
       <c r="E118" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F118" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>206</v>
+      <c r="F118" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>123</v>
@@ -9167,7 +9186,7 @@
         <v>5</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U118" s="1" t="n">
         <v>404266</v>
@@ -9192,11 +9211,11 @@
       <c r="E119" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F119" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>206</v>
+      <c r="F119" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>125</v>
@@ -9235,7 +9254,7 @@
         <v>5</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U119" s="1" t="n">
         <v>404266</v>
@@ -9260,11 +9279,11 @@
       <c r="E120" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F120" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>208</v>
+      <c r="F120" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>121</v>
@@ -9303,7 +9322,7 @@
         <v>5</v>
       </c>
       <c r="T120" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U120" s="1" t="n">
         <v>404266</v>
@@ -9328,11 +9347,11 @@
       <c r="E121" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>208</v>
+      <c r="F121" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>123</v>
@@ -9371,7 +9390,7 @@
         <v>5</v>
       </c>
       <c r="T121" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U121" s="1" t="n">
         <v>404266</v>
@@ -9396,11 +9415,11 @@
       <c r="E122" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F122" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G122" s="18" t="s">
-        <v>208</v>
+      <c r="F122" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>125</v>
@@ -9439,7 +9458,7 @@
         <v>5</v>
       </c>
       <c r="T122" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U122" s="1" t="n">
         <v>404266</v>
@@ -9464,11 +9483,11 @@
       <c r="E123" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G123" s="18" t="s">
-        <v>210</v>
+      <c r="F123" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>121</v>
@@ -9507,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U123" s="1" t="n">
         <v>404266</v>
@@ -9532,11 +9551,11 @@
       <c r="E124" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>210</v>
+      <c r="F124" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>123</v>
@@ -9575,7 +9594,7 @@
         <v>5</v>
       </c>
       <c r="T124" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U124" s="1" t="n">
         <v>404266</v>
@@ -9600,11 +9619,11 @@
       <c r="E125" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F125" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>210</v>
+      <c r="F125" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>125</v>
@@ -9643,7 +9662,7 @@
         <v>5</v>
       </c>
       <c r="T125" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U125" s="1" t="n">
         <v>404266</v>
@@ -9668,11 +9687,11 @@
       <c r="E126" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F126" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>212</v>
+      <c r="F126" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>121</v>
@@ -9711,7 +9730,7 @@
         <v>5</v>
       </c>
       <c r="T126" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U126" s="1" t="n">
         <v>404266</v>
@@ -9736,11 +9755,11 @@
       <c r="E127" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F127" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G127" s="18" t="s">
-        <v>212</v>
+      <c r="F127" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>123</v>
@@ -9779,7 +9798,7 @@
         <v>5</v>
       </c>
       <c r="T127" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U127" s="1" t="n">
         <v>404266</v>
@@ -9804,11 +9823,11 @@
       <c r="E128" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F128" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>212</v>
+      <c r="F128" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>125</v>
@@ -9847,7 +9866,7 @@
         <v>5</v>
       </c>
       <c r="T128" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U128" s="1" t="n">
         <v>404266</v>
@@ -9872,11 +9891,11 @@
       <c r="E129" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F129" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G129" s="18" t="s">
-        <v>214</v>
+      <c r="F129" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>121</v>
@@ -9915,7 +9934,7 @@
         <v>5</v>
       </c>
       <c r="T129" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U129" s="1" t="n">
         <v>404266</v>
@@ -9940,11 +9959,11 @@
       <c r="E130" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F130" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>214</v>
+      <c r="F130" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>123</v>
@@ -9983,7 +10002,7 @@
         <v>5</v>
       </c>
       <c r="T130" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U130" s="1" t="n">
         <v>404266</v>
@@ -10008,11 +10027,11 @@
       <c r="E131" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F131" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G131" s="18" t="s">
-        <v>214</v>
+      <c r="F131" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>125</v>
@@ -10051,7 +10070,7 @@
         <v>5</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U131" s="1" t="n">
         <v>404266</v>
@@ -10076,11 +10095,11 @@
       <c r="E132" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F132" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>216</v>
+      <c r="F132" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>121</v>
@@ -10119,7 +10138,7 @@
         <v>5</v>
       </c>
       <c r="T132" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U132" s="1" t="n">
         <v>404266</v>
@@ -10144,11 +10163,11 @@
       <c r="E133" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F133" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>216</v>
+      <c r="F133" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>123</v>
@@ -10187,7 +10206,7 @@
         <v>5</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U133" s="1" t="n">
         <v>404266</v>
@@ -10212,11 +10231,11 @@
       <c r="E134" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F134" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G134" s="18" t="s">
-        <v>216</v>
+      <c r="F134" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>125</v>
@@ -10255,7 +10274,7 @@
         <v>5</v>
       </c>
       <c r="T134" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U134" s="1" t="n">
         <v>404266</v>
@@ -10280,11 +10299,11 @@
       <c r="E135" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F135" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G135" s="18" t="s">
-        <v>218</v>
+      <c r="F135" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>121</v>
@@ -10323,7 +10342,7 @@
         <v>5</v>
       </c>
       <c r="T135" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U135" s="1" t="n">
         <v>404266</v>
@@ -10348,11 +10367,11 @@
       <c r="E136" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F136" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G136" s="18" t="s">
-        <v>218</v>
+      <c r="F136" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G136" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>123</v>
@@ -10391,7 +10410,7 @@
         <v>5</v>
       </c>
       <c r="T136" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U136" s="1" t="n">
         <v>404266</v>
@@ -10416,11 +10435,11 @@
       <c r="E137" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F137" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>218</v>
+      <c r="F137" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>125</v>
@@ -10459,7 +10478,7 @@
         <v>5</v>
       </c>
       <c r="T137" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U137" s="1" t="n">
         <v>404266</v>
@@ -10484,11 +10503,11 @@
       <c r="E138" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F138" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>220</v>
+      <c r="F138" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>121</v>
@@ -10527,7 +10546,7 @@
         <v>5</v>
       </c>
       <c r="T138" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U138" s="1" t="n">
         <v>404266</v>
@@ -10552,11 +10571,11 @@
       <c r="E139" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F139" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>220</v>
+      <c r="F139" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>123</v>
@@ -10595,7 +10614,7 @@
         <v>5</v>
       </c>
       <c r="T139" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U139" s="1" t="n">
         <v>404266</v>
@@ -10620,11 +10639,11 @@
       <c r="E140" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F140" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="G140" s="20" t="s">
-        <v>220</v>
+      <c r="F140" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>125</v>
@@ -10663,7 +10682,7 @@
         <v>5</v>
       </c>
       <c r="T140" s="14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U140" s="14" t="n">
         <v>404266</v>
@@ -10688,11 +10707,11 @@
       <c r="E141" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F141" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>222</v>
+      <c r="F141" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>129</v>
@@ -10731,7 +10750,7 @@
         <v>6</v>
       </c>
       <c r="T141" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U141" s="1" t="n">
         <v>404264</v>
@@ -10756,11 +10775,11 @@
       <c r="E142" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F142" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>222</v>
+      <c r="F142" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>131</v>
@@ -10799,7 +10818,7 @@
         <v>6</v>
       </c>
       <c r="T142" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U142" s="1" t="n">
         <v>404264</v>
@@ -10824,11 +10843,11 @@
       <c r="E143" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F143" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>222</v>
+      <c r="F143" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>133</v>
@@ -10867,7 +10886,7 @@
         <v>6</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U143" s="1" t="n">
         <v>404264</v>
@@ -10892,11 +10911,11 @@
       <c r="E144" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F144" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>225</v>
+      <c r="F144" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>129</v>
@@ -10935,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="T144" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U144" s="1" t="n">
         <v>404264</v>
@@ -10960,11 +10979,11 @@
       <c r="E145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F145" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>225</v>
+      <c r="F145" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>131</v>
@@ -11003,7 +11022,7 @@
         <v>6</v>
       </c>
       <c r="T145" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>404264</v>
@@ -11028,11 +11047,11 @@
       <c r="E146" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F146" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>225</v>
+      <c r="F146" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>133</v>
@@ -11071,7 +11090,7 @@
         <v>6</v>
       </c>
       <c r="T146" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>404264</v>
@@ -11096,11 +11115,11 @@
       <c r="E147" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F147" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>227</v>
+      <c r="F147" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>129</v>
@@ -11139,7 +11158,7 @@
         <v>6</v>
       </c>
       <c r="T147" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>404264</v>
@@ -11164,11 +11183,11 @@
       <c r="E148" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F148" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>227</v>
+      <c r="F148" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>131</v>
@@ -11207,7 +11226,7 @@
         <v>6</v>
       </c>
       <c r="T148" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>404264</v>
@@ -11232,11 +11251,11 @@
       <c r="E149" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F149" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>227</v>
+      <c r="F149" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>133</v>
@@ -11275,7 +11294,7 @@
         <v>6</v>
       </c>
       <c r="T149" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>404264</v>
@@ -11300,11 +11319,11 @@
       <c r="E150" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F150" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>229</v>
+      <c r="F150" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>129</v>
@@ -11343,7 +11362,7 @@
         <v>6</v>
       </c>
       <c r="T150" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>404264</v>
@@ -11368,11 +11387,11 @@
       <c r="E151" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F151" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>229</v>
+      <c r="F151" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>131</v>
@@ -11411,7 +11430,7 @@
         <v>6</v>
       </c>
       <c r="T151" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U151" s="1" t="n">
         <v>404264</v>
@@ -11436,11 +11455,11 @@
       <c r="E152" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F152" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="G152" s="18" t="s">
-        <v>229</v>
+      <c r="F152" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>133</v>
@@ -11479,7 +11498,7 @@
         <v>6</v>
       </c>
       <c r="T152" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U152" s="1" t="n">
         <v>404264</v>
@@ -11504,11 +11523,11 @@
       <c r="E153" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F153" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>231</v>
+      <c r="F153" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G153" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>129</v>
@@ -11547,7 +11566,7 @@
         <v>6</v>
       </c>
       <c r="T153" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U153" s="1" t="n">
         <v>404264</v>
@@ -11572,11 +11591,11 @@
       <c r="E154" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F154" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="G154" s="18" t="s">
-        <v>231</v>
+      <c r="F154" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>131</v>
@@ -11615,7 +11634,7 @@
         <v>6</v>
       </c>
       <c r="T154" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U154" s="1" t="n">
         <v>404264</v>
@@ -11640,11 +11659,11 @@
       <c r="E155" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F155" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="G155" s="18" t="s">
-        <v>231</v>
+      <c r="F155" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>133</v>
@@ -11683,7 +11702,7 @@
         <v>6</v>
       </c>
       <c r="T155" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U155" s="1" t="n">
         <v>404264</v>
@@ -11708,11 +11727,11 @@
       <c r="E156" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F156" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G156" s="17" t="s">
-        <v>233</v>
+      <c r="F156" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>129</v>
@@ -11751,7 +11770,7 @@
         <v>6</v>
       </c>
       <c r="T156" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U156" s="1" t="n">
         <v>404264</v>
@@ -11776,11 +11795,11 @@
       <c r="E157" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F157" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G157" s="17" t="s">
-        <v>233</v>
+      <c r="F157" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>131</v>
@@ -11819,7 +11838,7 @@
         <v>6</v>
       </c>
       <c r="T157" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U157" s="1" t="n">
         <v>404264</v>
@@ -11844,11 +11863,11 @@
       <c r="E158" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F158" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G158" s="17" t="s">
-        <v>233</v>
+      <c r="F158" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>133</v>
@@ -11887,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="T158" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U158" s="1" t="n">
         <v>404264</v>
@@ -11912,11 +11931,11 @@
       <c r="E159" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F159" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G159" s="17" t="s">
-        <v>235</v>
+      <c r="F159" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G159" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>129</v>
@@ -11955,7 +11974,7 @@
         <v>6</v>
       </c>
       <c r="T159" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U159" s="1" t="n">
         <v>404264</v>
@@ -11980,11 +11999,11 @@
       <c r="E160" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F160" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G160" s="17" t="s">
-        <v>235</v>
+      <c r="F160" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G160" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>131</v>
@@ -12023,7 +12042,7 @@
         <v>6</v>
       </c>
       <c r="T160" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U160" s="1" t="n">
         <v>404264</v>
@@ -12048,11 +12067,11 @@
       <c r="E161" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F161" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G161" s="17" t="s">
-        <v>235</v>
+      <c r="F161" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>133</v>
@@ -12091,7 +12110,7 @@
         <v>6</v>
       </c>
       <c r="T161" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U161" s="1" t="n">
         <v>404264</v>
@@ -12116,11 +12135,11 @@
       <c r="E162" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F162" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>237</v>
+      <c r="F162" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>129</v>
@@ -12159,7 +12178,7 @@
         <v>6</v>
       </c>
       <c r="T162" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U162" s="1" t="n">
         <v>404264</v>
@@ -12184,11 +12203,11 @@
       <c r="E163" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F163" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G163" s="17" t="s">
-        <v>237</v>
+      <c r="F163" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>131</v>
@@ -12227,7 +12246,7 @@
         <v>6</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U163" s="1" t="n">
         <v>404264</v>
@@ -12252,11 +12271,11 @@
       <c r="E164" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F164" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G164" s="17" t="s">
-        <v>237</v>
+      <c r="F164" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>133</v>
@@ -12295,7 +12314,7 @@
         <v>6</v>
       </c>
       <c r="T164" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U164" s="1" t="n">
         <v>404264</v>
@@ -12320,10 +12339,10 @@
       <c r="E165" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F165" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G165" s="17" t="s">
+      <c r="F165" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G165" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H165" s="7" t="s">
@@ -12363,7 +12382,7 @@
         <v>6</v>
       </c>
       <c r="T165" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U165" s="1" t="n">
         <v>404264</v>
@@ -12388,10 +12407,10 @@
       <c r="E166" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F166" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G166" s="17" t="s">
+      <c r="F166" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G166" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H166" s="7" t="s">
@@ -12431,7 +12450,7 @@
         <v>6</v>
       </c>
       <c r="T166" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U166" s="1" t="n">
         <v>404264</v>
@@ -12456,10 +12475,10 @@
       <c r="E167" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F167" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G167" s="17" t="s">
+      <c r="F167" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G167" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H167" s="7" t="s">
@@ -12499,7 +12518,7 @@
         <v>6</v>
       </c>
       <c r="T167" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U167" s="1" t="n">
         <v>404264</v>
@@ -12524,11 +12543,11 @@
       <c r="E168" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F168" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G168" s="17" t="s">
-        <v>240</v>
+      <c r="F168" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>129</v>
@@ -12567,7 +12586,7 @@
         <v>6</v>
       </c>
       <c r="T168" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U168" s="1" t="n">
         <v>404264</v>
@@ -12592,11 +12611,11 @@
       <c r="E169" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F169" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G169" s="17" t="s">
-        <v>240</v>
+      <c r="F169" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>131</v>
@@ -12635,7 +12654,7 @@
         <v>6</v>
       </c>
       <c r="T169" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U169" s="1" t="n">
         <v>404264</v>
@@ -12660,11 +12679,11 @@
       <c r="E170" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F170" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G170" s="17" t="s">
-        <v>240</v>
+      <c r="F170" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G170" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>133</v>
@@ -12703,7 +12722,7 @@
         <v>6</v>
       </c>
       <c r="T170" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U170" s="1" t="n">
         <v>404264</v>
@@ -12723,22 +12742,22 @@
         <v>10056</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F171" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G171" s="17" t="s">
-        <v>243</v>
+      <c r="F171" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>286352</v>
@@ -12770,8 +12789,8 @@
       <c r="S171" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="T171" s="17" t="s">
-        <v>245</v>
+      <c r="T171" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="U171" s="1" t="n">
         <v>404264</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="253">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -439,18 +439,27 @@
     <t xml:space="preserve">1|40||3|12</t>
   </si>
   <si>
+    <t xml:space="preserve">1|200||3|12</t>
+  </si>
+  <si>
     <t xml:space="preserve">1|30||3|10</t>
   </si>
   <si>
     <t xml:space="preserve">1|15||3|10</t>
   </si>
   <si>
+    <t xml:space="preserve">1005|1||1|200||3|12</t>
+  </si>
+  <si>
     <t xml:space="preserve">1|50||2|192||3|19</t>
   </si>
   <si>
     <t xml:space="preserve">1|40||2|96||3|10</t>
   </si>
   <si>
+    <t xml:space="preserve">1017|1||1|200||3|12</t>
+  </si>
+  <si>
     <t xml:space="preserve">1|60||2|264||3|26</t>
   </si>
   <si>
@@ -461,9 +470,6 @@
   </si>
   <si>
     <t xml:space="preserve">0|0|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|25||3|10</t>
   </si>
   <si>
     <t xml:space="preserve">15525|106466.7|-35.78</t>
@@ -1246,9 +1252,9 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -2578,13 +2584,13 @@
         <v>138</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S21" s="14" t="n">
         <v>2</v>
@@ -2639,19 +2645,19 @@
       <c r="M22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>137</v>
+      <c r="N22" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S22" s="1" t="n">
@@ -2707,19 +2713,19 @@
       <c r="M23" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>137</v>
+      <c r="N23" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R23" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S23" s="1" t="n">
@@ -2752,10 +2758,10 @@
         <v>53</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>58</v>
@@ -2775,20 +2781,20 @@
       <c r="M24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>2</v>
@@ -2820,10 +2826,10 @@
         <v>53</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>66</v>
@@ -2843,19 +2849,19 @@
       <c r="M25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>137</v>
+      <c r="N25" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R25" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S25" s="1" t="n">
@@ -2888,10 +2894,10 @@
         <v>53</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>74</v>
@@ -2911,19 +2917,19 @@
       <c r="M26" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>137</v>
+      <c r="N26" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R26" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S26" s="1" t="n">
@@ -2956,10 +2962,10 @@
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>58</v>
@@ -2979,20 +2985,20 @@
       <c r="M27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S27" s="1" t="n">
         <v>2</v>
@@ -3024,10 +3030,10 @@
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>66</v>
@@ -3047,19 +3053,19 @@
       <c r="M28" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>137</v>
+      <c r="N28" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S28" s="1" t="n">
@@ -3092,10 +3098,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>74</v>
@@ -3115,19 +3121,19 @@
       <c r="M29" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>137</v>
+      <c r="N29" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R29" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S29" s="1" t="n">
@@ -3160,10 +3166,10 @@
         <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3183,20 +3189,20 @@
       <c r="M30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O30" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>2</v>
@@ -3228,10 +3234,10 @@
         <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>66</v>
@@ -3251,19 +3257,19 @@
       <c r="M31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>137</v>
+      <c r="N31" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R31" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S31" s="1" t="n">
@@ -3296,10 +3302,10 @@
         <v>53</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>74</v>
@@ -3319,19 +3325,19 @@
       <c r="M32" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>137</v>
+      <c r="N32" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R32" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S32" s="1" t="n">
@@ -3364,10 +3370,10 @@
         <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>58</v>
@@ -3387,20 +3393,20 @@
       <c r="M33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O33" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>2</v>
@@ -3432,10 +3438,10 @@
         <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>66</v>
@@ -3455,19 +3461,19 @@
       <c r="M34" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>137</v>
+      <c r="N34" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R34" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S34" s="1" t="n">
@@ -3500,10 +3506,10 @@
         <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>74</v>
@@ -3523,19 +3529,19 @@
       <c r="M35" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>137</v>
+      <c r="N35" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S35" s="1" t="n">
@@ -3568,10 +3574,10 @@
         <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>58</v>
@@ -3591,20 +3597,20 @@
       <c r="M36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>2</v>
@@ -3636,10 +3642,10 @@
         <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>66</v>
@@ -3659,19 +3665,19 @@
       <c r="M37" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>137</v>
+      <c r="N37" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R37" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S37" s="1" t="n">
@@ -3704,10 +3710,10 @@
         <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>74</v>
@@ -3727,19 +3733,19 @@
       <c r="M38" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>137</v>
+      <c r="N38" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R38" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S38" s="1" t="n">
@@ -3772,10 +3778,10 @@
         <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>58</v>
@@ -3795,20 +3801,20 @@
       <c r="M39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O39" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S39" s="1" t="n">
         <v>2</v>
@@ -3840,10 +3846,10 @@
         <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>66</v>
@@ -3863,19 +3869,19 @@
       <c r="M40" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>137</v>
+      <c r="N40" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R40" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S40" s="1" t="n">
@@ -3908,10 +3914,10 @@
         <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>74</v>
@@ -3931,19 +3937,19 @@
       <c r="M41" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>137</v>
+      <c r="N41" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q41" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R41" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S41" s="1" t="n">
@@ -3976,10 +3982,10 @@
         <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>58</v>
@@ -3999,20 +4005,20 @@
       <c r="M42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O42" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S42" s="1" t="n">
         <v>2</v>
@@ -4044,10 +4050,10 @@
         <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>66</v>
@@ -4067,19 +4073,19 @@
       <c r="M43" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>137</v>
+      <c r="N43" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R43" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S43" s="1" t="n">
@@ -4112,10 +4118,10 @@
         <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>74</v>
@@ -4135,19 +4141,19 @@
       <c r="M44" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N44" s="6" t="s">
-        <v>137</v>
+      <c r="N44" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R44" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R44" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S44" s="1" t="n">
@@ -4180,10 +4186,10 @@
         <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>58</v>
@@ -4203,20 +4209,20 @@
       <c r="M45" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q45" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>2</v>
@@ -4248,10 +4254,10 @@
         <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>66</v>
@@ -4271,19 +4277,19 @@
       <c r="M46" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>137</v>
+      <c r="N46" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R46" s="15" t="s">
         <v>72</v>
       </c>
       <c r="S46" s="1" t="n">
@@ -4316,10 +4322,10 @@
         <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>74</v>
@@ -4339,19 +4345,19 @@
       <c r="M47" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N47" s="6" t="s">
-        <v>137</v>
+      <c r="N47" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R47" s="15" t="s">
         <v>80</v>
       </c>
       <c r="S47" s="1" t="n">
@@ -4384,10 +4390,10 @@
         <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>58</v>
@@ -4407,20 +4413,20 @@
       <c r="M48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="N48" s="15" t="s">
         <v>137</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>138</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q48" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>2</v>
@@ -4452,10 +4458,10 @@
         <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>66</v>
@@ -4476,16 +4482,16 @@
         <v>2</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q49" s="15" t="s">
         <v>142</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="R49" s="6" t="s">
         <v>72</v>
@@ -4520,10 +4526,10 @@
         <v>53</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>74</v>
@@ -4544,16 +4550,16 @@
         <v>3</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>80</v>
@@ -4588,10 +4594,10 @@
         <v>53</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>83</v>
@@ -4630,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U51" s="1" t="n">
         <v>404267</v>
@@ -4656,10 +4662,10 @@
         <v>53</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>90</v>
@@ -4698,7 +4704,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U52" s="1" t="n">
         <v>404267</v>
@@ -4724,10 +4730,10 @@
         <v>53</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>95</v>
@@ -4766,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U53" s="1" t="n">
         <v>404267</v>
@@ -4792,10 +4798,10 @@
         <v>53</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>83</v>
@@ -4834,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U54" s="1" t="n">
         <v>404267</v>
@@ -4860,10 +4866,10 @@
         <v>53</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>90</v>
@@ -4902,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U55" s="1" t="n">
         <v>404267</v>
@@ -4928,10 +4934,10 @@
         <v>53</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>95</v>
@@ -4970,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U56" s="1" t="n">
         <v>404267</v>
@@ -4996,10 +5002,10 @@
         <v>53</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>83</v>
@@ -5038,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U57" s="1" t="n">
         <v>404267</v>
@@ -5064,10 +5070,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>90</v>
@@ -5106,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U58" s="1" t="n">
         <v>404267</v>
@@ -5132,10 +5138,10 @@
         <v>53</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>95</v>
@@ -5174,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U59" s="1" t="n">
         <v>404267</v>
@@ -5200,10 +5206,10 @@
         <v>53</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>83</v>
@@ -5242,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U60" s="1" t="n">
         <v>404267</v>
@@ -5268,10 +5274,10 @@
         <v>53</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>90</v>
@@ -5310,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U61" s="1" t="n">
         <v>404267</v>
@@ -5336,10 +5342,10 @@
         <v>53</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>95</v>
@@ -5378,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U62" s="1" t="n">
         <v>404267</v>
@@ -5404,10 +5410,10 @@
         <v>53</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>83</v>
@@ -5446,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U63" s="1" t="n">
         <v>404267</v>
@@ -5472,10 +5478,10 @@
         <v>53</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>90</v>
@@ -5514,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U64" s="1" t="n">
         <v>404267</v>
@@ -5540,10 +5546,10 @@
         <v>53</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>95</v>
@@ -5582,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U65" s="1" t="n">
         <v>404267</v>
@@ -5608,10 +5614,10 @@
         <v>53</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>83</v>
@@ -5650,7 +5656,7 @@
         <v>3</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U66" s="1" t="n">
         <v>404267</v>
@@ -5676,10 +5682,10 @@
         <v>53</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>90</v>
@@ -5718,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U67" s="1" t="n">
         <v>404267</v>
@@ -5744,10 +5750,10 @@
         <v>53</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>95</v>
@@ -5786,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U68" s="1" t="n">
         <v>404267</v>
@@ -5812,10 +5818,10 @@
         <v>53</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>83</v>
@@ -5854,7 +5860,7 @@
         <v>3</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U69" s="1" t="n">
         <v>404267</v>
@@ -5880,10 +5886,10 @@
         <v>53</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>90</v>
@@ -5922,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U70" s="1" t="n">
         <v>404267</v>
@@ -5948,10 +5954,10 @@
         <v>53</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>95</v>
@@ -5990,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U71" s="1" t="n">
         <v>404267</v>
@@ -6016,10 +6022,10 @@
         <v>53</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>83</v>
@@ -6058,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U72" s="1" t="n">
         <v>404267</v>
@@ -6084,10 +6090,10 @@
         <v>53</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>90</v>
@@ -6126,7 +6132,7 @@
         <v>3</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U73" s="1" t="n">
         <v>404267</v>
@@ -6152,10 +6158,10 @@
         <v>53</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>95</v>
@@ -6194,7 +6200,7 @@
         <v>3</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U74" s="1" t="n">
         <v>404267</v>
@@ -6220,10 +6226,10 @@
         <v>53</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>83</v>
@@ -6262,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U75" s="1" t="n">
         <v>404267</v>
@@ -6288,10 +6294,10 @@
         <v>53</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>90</v>
@@ -6330,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U76" s="1" t="n">
         <v>404267</v>
@@ -6356,10 +6362,10 @@
         <v>53</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>95</v>
@@ -6398,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U77" s="1" t="n">
         <v>404267</v>
@@ -6424,7 +6430,7 @@
         <v>53</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>73</v>
@@ -6466,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U78" s="1" t="n">
         <v>404267</v>
@@ -6492,7 +6498,7 @@
         <v>53</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>73</v>
@@ -6534,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U79" s="1" t="n">
         <v>404267</v>
@@ -6560,7 +6566,7 @@
         <v>53</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>73</v>
@@ -6602,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U80" s="14" t="n">
         <v>404267</v>
@@ -6628,10 +6634,10 @@
         <v>53</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>102</v>
@@ -6670,7 +6676,7 @@
         <v>4</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U81" s="1" t="n">
         <v>404269</v>
@@ -6696,10 +6702,10 @@
         <v>53</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>107</v>
@@ -6738,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U82" s="1" t="n">
         <v>404269</v>
@@ -6764,10 +6770,10 @@
         <v>53</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>112</v>
@@ -6806,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U83" s="1" t="n">
         <v>404269</v>
@@ -6832,10 +6838,10 @@
         <v>53</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>102</v>
@@ -6874,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U84" s="1" t="n">
         <v>404269</v>
@@ -6900,10 +6906,10 @@
         <v>53</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>107</v>
@@ -6942,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U85" s="1" t="n">
         <v>404269</v>
@@ -6968,10 +6974,10 @@
         <v>53</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>112</v>
@@ -7010,7 +7016,7 @@
         <v>4</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U86" s="1" t="n">
         <v>404269</v>
@@ -7036,10 +7042,10 @@
         <v>53</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>102</v>
@@ -7078,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U87" s="1" t="n">
         <v>404269</v>
@@ -7104,10 +7110,10 @@
         <v>53</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>107</v>
@@ -7146,7 +7152,7 @@
         <v>4</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U88" s="1" t="n">
         <v>404269</v>
@@ -7172,10 +7178,10 @@
         <v>53</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>112</v>
@@ -7214,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U89" s="1" t="n">
         <v>404269</v>
@@ -7240,10 +7246,10 @@
         <v>53</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>102</v>
@@ -7282,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U90" s="1" t="n">
         <v>404269</v>
@@ -7308,10 +7314,10 @@
         <v>53</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>107</v>
@@ -7350,7 +7356,7 @@
         <v>4</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U91" s="1" t="n">
         <v>404269</v>
@@ -7376,10 +7382,10 @@
         <v>53</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>112</v>
@@ -7418,7 +7424,7 @@
         <v>4</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U92" s="1" t="n">
         <v>404269</v>
@@ -7444,10 +7450,10 @@
         <v>53</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>102</v>
@@ -7486,7 +7492,7 @@
         <v>4</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U93" s="1" t="n">
         <v>404269</v>
@@ -7512,10 +7518,10 @@
         <v>53</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>107</v>
@@ -7554,7 +7560,7 @@
         <v>4</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U94" s="1" t="n">
         <v>404269</v>
@@ -7580,10 +7586,10 @@
         <v>53</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>112</v>
@@ -7622,7 +7628,7 @@
         <v>4</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U95" s="1" t="n">
         <v>404269</v>
@@ -7648,10 +7654,10 @@
         <v>53</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>102</v>
@@ -7690,7 +7696,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U96" s="1" t="n">
         <v>404269</v>
@@ -7716,10 +7722,10 @@
         <v>53</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>107</v>
@@ -7758,7 +7764,7 @@
         <v>4</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U97" s="1" t="n">
         <v>404269</v>
@@ -7784,10 +7790,10 @@
         <v>53</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>112</v>
@@ -7826,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U98" s="1" t="n">
         <v>404269</v>
@@ -7852,10 +7858,10 @@
         <v>53</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>102</v>
@@ -7894,7 +7900,7 @@
         <v>4</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U99" s="1" t="n">
         <v>404269</v>
@@ -7920,10 +7926,10 @@
         <v>53</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>107</v>
@@ -7962,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U100" s="1" t="n">
         <v>404269</v>
@@ -7988,10 +7994,10 @@
         <v>53</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>112</v>
@@ -8030,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U101" s="1" t="n">
         <v>404269</v>
@@ -8056,10 +8062,10 @@
         <v>53</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>102</v>
@@ -8098,7 +8104,7 @@
         <v>4</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U102" s="1" t="n">
         <v>404269</v>
@@ -8124,10 +8130,10 @@
         <v>53</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>107</v>
@@ -8166,7 +8172,7 @@
         <v>4</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U103" s="1" t="n">
         <v>404269</v>
@@ -8192,10 +8198,10 @@
         <v>53</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>112</v>
@@ -8234,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U104" s="1" t="n">
         <v>404269</v>
@@ -8260,10 +8266,10 @@
         <v>53</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>102</v>
@@ -8302,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U105" s="1" t="n">
         <v>404269</v>
@@ -8328,10 +8334,10 @@
         <v>53</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>107</v>
@@ -8370,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U106" s="1" t="n">
         <v>404269</v>
@@ -8396,10 +8402,10 @@
         <v>53</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>112</v>
@@ -8438,7 +8444,7 @@
         <v>4</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U107" s="1" t="n">
         <v>404269</v>
@@ -8464,10 +8470,10 @@
         <v>53</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>102</v>
@@ -8506,7 +8512,7 @@
         <v>4</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>404269</v>
@@ -8532,10 +8538,10 @@
         <v>53</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>107</v>
@@ -8574,7 +8580,7 @@
         <v>4</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U109" s="1" t="n">
         <v>404269</v>
@@ -8600,10 +8606,10 @@
         <v>53</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>112</v>
@@ -8642,7 +8648,7 @@
         <v>4</v>
       </c>
       <c r="T110" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U110" s="14" t="n">
         <v>404269</v>
@@ -8668,10 +8674,10 @@
         <v>53</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>121</v>
@@ -8710,7 +8716,7 @@
         <v>5</v>
       </c>
       <c r="T111" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>404266</v>
@@ -8736,10 +8742,10 @@
         <v>53</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>123</v>
@@ -8778,7 +8784,7 @@
         <v>5</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U112" s="1" t="n">
         <v>404266</v>
@@ -8804,10 +8810,10 @@
         <v>53</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>125</v>
@@ -8846,7 +8852,7 @@
         <v>5</v>
       </c>
       <c r="T113" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U113" s="1" t="n">
         <v>404266</v>
@@ -8872,10 +8878,10 @@
         <v>53</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>121</v>
@@ -8914,7 +8920,7 @@
         <v>5</v>
       </c>
       <c r="T114" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U114" s="1" t="n">
         <v>404266</v>
@@ -8940,10 +8946,10 @@
         <v>53</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>123</v>
@@ -8982,7 +8988,7 @@
         <v>5</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U115" s="1" t="n">
         <v>404266</v>
@@ -9008,10 +9014,10 @@
         <v>53</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
@@ -9050,7 +9056,7 @@
         <v>5</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U116" s="1" t="n">
         <v>404266</v>
@@ -9076,10 +9082,10 @@
         <v>53</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>121</v>
@@ -9118,7 +9124,7 @@
         <v>5</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U117" s="1" t="n">
         <v>404266</v>
@@ -9144,10 +9150,10 @@
         <v>53</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>123</v>
@@ -9186,7 +9192,7 @@
         <v>5</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U118" s="1" t="n">
         <v>404266</v>
@@ -9212,10 +9218,10 @@
         <v>53</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>125</v>
@@ -9254,7 +9260,7 @@
         <v>5</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U119" s="1" t="n">
         <v>404266</v>
@@ -9280,10 +9286,10 @@
         <v>53</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>121</v>
@@ -9322,7 +9328,7 @@
         <v>5</v>
       </c>
       <c r="T120" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U120" s="1" t="n">
         <v>404266</v>
@@ -9348,10 +9354,10 @@
         <v>53</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>123</v>
@@ -9390,7 +9396,7 @@
         <v>5</v>
       </c>
       <c r="T121" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U121" s="1" t="n">
         <v>404266</v>
@@ -9416,10 +9422,10 @@
         <v>53</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>125</v>
@@ -9458,7 +9464,7 @@
         <v>5</v>
       </c>
       <c r="T122" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U122" s="1" t="n">
         <v>404266</v>
@@ -9484,10 +9490,10 @@
         <v>53</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>121</v>
@@ -9526,7 +9532,7 @@
         <v>5</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U123" s="1" t="n">
         <v>404266</v>
@@ -9552,10 +9558,10 @@
         <v>53</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>123</v>
@@ -9594,7 +9600,7 @@
         <v>5</v>
       </c>
       <c r="T124" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U124" s="1" t="n">
         <v>404266</v>
@@ -9620,10 +9626,10 @@
         <v>53</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>125</v>
@@ -9662,7 +9668,7 @@
         <v>5</v>
       </c>
       <c r="T125" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U125" s="1" t="n">
         <v>404266</v>
@@ -9688,10 +9694,10 @@
         <v>53</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>121</v>
@@ -9730,7 +9736,7 @@
         <v>5</v>
       </c>
       <c r="T126" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U126" s="1" t="n">
         <v>404266</v>
@@ -9756,10 +9762,10 @@
         <v>53</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>123</v>
@@ -9798,7 +9804,7 @@
         <v>5</v>
       </c>
       <c r="T127" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U127" s="1" t="n">
         <v>404266</v>
@@ -9824,10 +9830,10 @@
         <v>53</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>125</v>
@@ -9866,7 +9872,7 @@
         <v>5</v>
       </c>
       <c r="T128" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U128" s="1" t="n">
         <v>404266</v>
@@ -9892,10 +9898,10 @@
         <v>53</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>121</v>
@@ -9934,7 +9940,7 @@
         <v>5</v>
       </c>
       <c r="T129" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U129" s="1" t="n">
         <v>404266</v>
@@ -9960,10 +9966,10 @@
         <v>53</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>123</v>
@@ -10002,7 +10008,7 @@
         <v>5</v>
       </c>
       <c r="T130" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U130" s="1" t="n">
         <v>404266</v>
@@ -10028,10 +10034,10 @@
         <v>53</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>125</v>
@@ -10070,7 +10076,7 @@
         <v>5</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U131" s="1" t="n">
         <v>404266</v>
@@ -10096,10 +10102,10 @@
         <v>53</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>121</v>
@@ -10138,7 +10144,7 @@
         <v>5</v>
       </c>
       <c r="T132" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U132" s="1" t="n">
         <v>404266</v>
@@ -10164,10 +10170,10 @@
         <v>53</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>123</v>
@@ -10206,7 +10212,7 @@
         <v>5</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U133" s="1" t="n">
         <v>404266</v>
@@ -10232,10 +10238,10 @@
         <v>53</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>125</v>
@@ -10274,7 +10280,7 @@
         <v>5</v>
       </c>
       <c r="T134" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U134" s="1" t="n">
         <v>404266</v>
@@ -10300,10 +10306,10 @@
         <v>53</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>121</v>
@@ -10342,7 +10348,7 @@
         <v>5</v>
       </c>
       <c r="T135" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U135" s="1" t="n">
         <v>404266</v>
@@ -10368,10 +10374,10 @@
         <v>53</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>123</v>
@@ -10410,7 +10416,7 @@
         <v>5</v>
       </c>
       <c r="T136" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U136" s="1" t="n">
         <v>404266</v>
@@ -10436,10 +10442,10 @@
         <v>53</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>125</v>
@@ -10478,7 +10484,7 @@
         <v>5</v>
       </c>
       <c r="T137" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U137" s="1" t="n">
         <v>404266</v>
@@ -10504,10 +10510,10 @@
         <v>53</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>121</v>
@@ -10546,7 +10552,7 @@
         <v>5</v>
       </c>
       <c r="T138" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U138" s="1" t="n">
         <v>404266</v>
@@ -10572,10 +10578,10 @@
         <v>53</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>123</v>
@@ -10614,7 +10620,7 @@
         <v>5</v>
       </c>
       <c r="T139" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U139" s="1" t="n">
         <v>404266</v>
@@ -10640,10 +10646,10 @@
         <v>53</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>125</v>
@@ -10682,7 +10688,7 @@
         <v>5</v>
       </c>
       <c r="T140" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U140" s="14" t="n">
         <v>404266</v>
@@ -10708,10 +10714,10 @@
         <v>53</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>129</v>
@@ -10750,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="T141" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U141" s="1" t="n">
         <v>404264</v>
@@ -10776,10 +10782,10 @@
         <v>53</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>131</v>
@@ -10818,7 +10824,7 @@
         <v>6</v>
       </c>
       <c r="T142" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U142" s="1" t="n">
         <v>404264</v>
@@ -10844,10 +10850,10 @@
         <v>53</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>133</v>
@@ -10886,7 +10892,7 @@
         <v>6</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U143" s="1" t="n">
         <v>404264</v>
@@ -10912,10 +10918,10 @@
         <v>53</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>129</v>
@@ -10954,7 +10960,7 @@
         <v>6</v>
       </c>
       <c r="T144" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U144" s="1" t="n">
         <v>404264</v>
@@ -10980,10 +10986,10 @@
         <v>53</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>131</v>
@@ -11022,7 +11028,7 @@
         <v>6</v>
       </c>
       <c r="T145" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>404264</v>
@@ -11048,10 +11054,10 @@
         <v>53</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>133</v>
@@ -11090,7 +11096,7 @@
         <v>6</v>
       </c>
       <c r="T146" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>404264</v>
@@ -11116,10 +11122,10 @@
         <v>53</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>129</v>
@@ -11158,7 +11164,7 @@
         <v>6</v>
       </c>
       <c r="T147" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>404264</v>
@@ -11184,10 +11190,10 @@
         <v>53</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>131</v>
@@ -11226,7 +11232,7 @@
         <v>6</v>
       </c>
       <c r="T148" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>404264</v>
@@ -11252,10 +11258,10 @@
         <v>53</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>133</v>
@@ -11294,7 +11300,7 @@
         <v>6</v>
       </c>
       <c r="T149" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>404264</v>
@@ -11320,10 +11326,10 @@
         <v>53</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>129</v>
@@ -11362,7 +11368,7 @@
         <v>6</v>
       </c>
       <c r="T150" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>404264</v>
@@ -11388,10 +11394,10 @@
         <v>53</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>131</v>
@@ -11430,7 +11436,7 @@
         <v>6</v>
       </c>
       <c r="T151" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U151" s="1" t="n">
         <v>404264</v>
@@ -11456,10 +11462,10 @@
         <v>53</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>133</v>
@@ -11498,7 +11504,7 @@
         <v>6</v>
       </c>
       <c r="T152" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U152" s="1" t="n">
         <v>404264</v>
@@ -11524,10 +11530,10 @@
         <v>53</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>129</v>
@@ -11566,7 +11572,7 @@
         <v>6</v>
       </c>
       <c r="T153" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U153" s="1" t="n">
         <v>404264</v>
@@ -11592,10 +11598,10 @@
         <v>53</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>131</v>
@@ -11634,7 +11640,7 @@
         <v>6</v>
       </c>
       <c r="T154" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U154" s="1" t="n">
         <v>404264</v>
@@ -11660,10 +11666,10 @@
         <v>53</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>133</v>
@@ -11702,7 +11708,7 @@
         <v>6</v>
       </c>
       <c r="T155" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U155" s="1" t="n">
         <v>404264</v>
@@ -11728,10 +11734,10 @@
         <v>53</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>129</v>
@@ -11770,7 +11776,7 @@
         <v>6</v>
       </c>
       <c r="T156" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U156" s="1" t="n">
         <v>404264</v>
@@ -11796,10 +11802,10 @@
         <v>53</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>131</v>
@@ -11838,7 +11844,7 @@
         <v>6</v>
       </c>
       <c r="T157" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U157" s="1" t="n">
         <v>404264</v>
@@ -11864,10 +11870,10 @@
         <v>53</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>133</v>
@@ -11906,7 +11912,7 @@
         <v>6</v>
       </c>
       <c r="T158" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U158" s="1" t="n">
         <v>404264</v>
@@ -11932,10 +11938,10 @@
         <v>53</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>129</v>
@@ -11974,7 +11980,7 @@
         <v>6</v>
       </c>
       <c r="T159" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U159" s="1" t="n">
         <v>404264</v>
@@ -12000,10 +12006,10 @@
         <v>53</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>131</v>
@@ -12042,7 +12048,7 @@
         <v>6</v>
       </c>
       <c r="T160" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U160" s="1" t="n">
         <v>404264</v>
@@ -12068,10 +12074,10 @@
         <v>53</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>133</v>
@@ -12110,7 +12116,7 @@
         <v>6</v>
       </c>
       <c r="T161" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U161" s="1" t="n">
         <v>404264</v>
@@ -12136,10 +12142,10 @@
         <v>53</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>129</v>
@@ -12178,7 +12184,7 @@
         <v>6</v>
       </c>
       <c r="T162" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U162" s="1" t="n">
         <v>404264</v>
@@ -12204,10 +12210,10 @@
         <v>53</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>131</v>
@@ -12246,7 +12252,7 @@
         <v>6</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U163" s="1" t="n">
         <v>404264</v>
@@ -12272,10 +12278,10 @@
         <v>53</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>133</v>
@@ -12314,7 +12320,7 @@
         <v>6</v>
       </c>
       <c r="T164" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U164" s="1" t="n">
         <v>404264</v>
@@ -12340,7 +12346,7 @@
         <v>53</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G165" s="18" t="s">
         <v>73</v>
@@ -12382,7 +12388,7 @@
         <v>6</v>
       </c>
       <c r="T165" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U165" s="1" t="n">
         <v>404264</v>
@@ -12408,7 +12414,7 @@
         <v>53</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G166" s="18" t="s">
         <v>73</v>
@@ -12450,7 +12456,7 @@
         <v>6</v>
       </c>
       <c r="T166" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U166" s="1" t="n">
         <v>404264</v>
@@ -12476,7 +12482,7 @@
         <v>53</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G167" s="18" t="s">
         <v>73</v>
@@ -12518,7 +12524,7 @@
         <v>6</v>
       </c>
       <c r="T167" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U167" s="1" t="n">
         <v>404264</v>
@@ -12544,10 +12550,10 @@
         <v>53</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>129</v>
@@ -12586,7 +12592,7 @@
         <v>6</v>
       </c>
       <c r="T168" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U168" s="1" t="n">
         <v>404264</v>
@@ -12612,10 +12618,10 @@
         <v>53</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>131</v>
@@ -12654,7 +12660,7 @@
         <v>6</v>
       </c>
       <c r="T169" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U169" s="1" t="n">
         <v>404264</v>
@@ -12680,10 +12686,10 @@
         <v>53</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>133</v>
@@ -12722,7 +12728,7 @@
         <v>6</v>
       </c>
       <c r="T170" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U170" s="1" t="n">
         <v>404264</v>
@@ -12742,22 +12748,22 @@
         <v>10056</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>286352</v>
@@ -12790,7 +12796,7 @@
         <v>7</v>
       </c>
       <c r="T171" s="18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U171" s="1" t="n">
         <v>404264</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -433,34 +433,34 @@
     <t xml:space="preserve">0|0|-16</t>
   </si>
   <si>
-    <t xml:space="preserve">1023|1||1|200||3|12</t>
+    <t xml:space="preserve">1023|1||1|100||3|12</t>
   </si>
   <si>
     <t xml:space="preserve">1|40||3|12</t>
   </si>
   <si>
+    <t xml:space="preserve">1|30||3|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|15||3|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1005|1||1|200||3|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|50||2|192||3|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|40||2|96||3|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1017|1||1|300||3|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1|60||2|264||3|26</t>
+  </si>
+  <si>
     <t xml:space="preserve">1|200||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|30||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|15||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1005|1||1|200||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|50||2|192||3|19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|40||2|96||3|10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1017|1||1|200||3|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|60||2|264||3|26</t>
   </si>
   <si>
     <t xml:space="preserve">1|50||2|132||3|14</t>
@@ -1253,9 +1253,9 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2584,13 +2584,13 @@
         <v>138</v>
       </c>
       <c r="P21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="R21" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="S21" s="14" t="n">
         <v>2</v>
@@ -2646,18 +2646,18 @@
         <v>2</v>
       </c>
       <c r="N22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="P22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S22" s="1" t="n">
@@ -2714,18 +2714,18 @@
         <v>3</v>
       </c>
       <c r="N23" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="P23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P23" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R23" s="15" t="s">
+      <c r="R23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S23" s="1" t="n">
@@ -2788,13 +2788,13 @@
         <v>138</v>
       </c>
       <c r="P24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="R24" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>2</v>
@@ -2850,18 +2850,18 @@
         <v>2</v>
       </c>
       <c r="N25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="P25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S25" s="1" t="n">
@@ -2918,18 +2918,18 @@
         <v>3</v>
       </c>
       <c r="N26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="P26" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S26" s="1" t="n">
@@ -2992,13 +2992,13 @@
         <v>138</v>
       </c>
       <c r="P27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="R27" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S27" s="1" t="n">
         <v>2</v>
@@ -3054,18 +3054,18 @@
         <v>2</v>
       </c>
       <c r="N28" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O28" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="P28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P28" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R28" s="15" t="s">
+      <c r="R28" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S28" s="1" t="n">
@@ -3122,18 +3122,18 @@
         <v>3</v>
       </c>
       <c r="N29" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P29" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R29" s="15" t="s">
+      <c r="R29" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S29" s="1" t="n">
@@ -3196,13 +3196,13 @@
         <v>138</v>
       </c>
       <c r="P30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="R30" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>2</v>
@@ -3258,18 +3258,18 @@
         <v>2</v>
       </c>
       <c r="N31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="P31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P31" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q31" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R31" s="15" t="s">
+      <c r="R31" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S31" s="1" t="n">
@@ -3326,18 +3326,18 @@
         <v>3</v>
       </c>
       <c r="N32" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O32" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P32" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q32" s="15" t="s">
+      <c r="Q32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R32" s="15" t="s">
+      <c r="R32" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S32" s="1" t="n">
@@ -3400,13 +3400,13 @@
         <v>138</v>
       </c>
       <c r="P33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="R33" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>2</v>
@@ -3462,18 +3462,18 @@
         <v>2</v>
       </c>
       <c r="N34" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O34" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="P34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P34" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q34" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R34" s="15" t="s">
+      <c r="R34" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S34" s="1" t="n">
@@ -3530,18 +3530,18 @@
         <v>3</v>
       </c>
       <c r="N35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="P35" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P35" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="R35" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S35" s="1" t="n">
@@ -3604,13 +3604,13 @@
         <v>138</v>
       </c>
       <c r="P36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="R36" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>2</v>
@@ -3666,18 +3666,18 @@
         <v>2</v>
       </c>
       <c r="N37" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O37" s="15" t="s">
+      <c r="P37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P37" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R37" s="15" t="s">
+      <c r="R37" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S37" s="1" t="n">
@@ -3734,18 +3734,18 @@
         <v>3</v>
       </c>
       <c r="N38" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O38" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O38" s="15" t="s">
+      <c r="P38" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P38" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R38" s="15" t="s">
+      <c r="R38" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S38" s="1" t="n">
@@ -3808,13 +3808,13 @@
         <v>138</v>
       </c>
       <c r="P39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="R39" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S39" s="1" t="n">
         <v>2</v>
@@ -3870,18 +3870,18 @@
         <v>2</v>
       </c>
       <c r="N40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O40" s="15" t="s">
+      <c r="P40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P40" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q40" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S40" s="1" t="n">
@@ -3938,18 +3938,18 @@
         <v>3</v>
       </c>
       <c r="N41" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O41" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="P41" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P41" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q41" s="15" t="s">
+      <c r="Q41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R41" s="15" t="s">
+      <c r="R41" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S41" s="1" t="n">
@@ -4012,13 +4012,13 @@
         <v>138</v>
       </c>
       <c r="P42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q42" s="15" t="s">
+      <c r="R42" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R42" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S42" s="1" t="n">
         <v>2</v>
@@ -4074,18 +4074,18 @@
         <v>2</v>
       </c>
       <c r="N43" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O43" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O43" s="15" t="s">
+      <c r="P43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P43" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q43" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R43" s="15" t="s">
+      <c r="R43" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S43" s="1" t="n">
@@ -4142,18 +4142,18 @@
         <v>3</v>
       </c>
       <c r="N44" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="P44" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P44" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q44" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="R44" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S44" s="1" t="n">
@@ -4216,13 +4216,13 @@
         <v>138</v>
       </c>
       <c r="P45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q45" s="15" t="s">
+      <c r="R45" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R45" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>2</v>
@@ -4278,18 +4278,18 @@
         <v>2</v>
       </c>
       <c r="N46" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O46" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O46" s="15" t="s">
+      <c r="P46" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q46" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="P46" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q46" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="R46" s="15" t="s">
+      <c r="R46" s="6" t="s">
         <v>72</v>
       </c>
       <c r="S46" s="1" t="n">
@@ -4346,18 +4346,18 @@
         <v>3</v>
       </c>
       <c r="N47" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O47" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="O47" s="15" t="s">
+      <c r="P47" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="P47" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q47" s="15" t="s">
+      <c r="Q47" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="R47" s="15" t="s">
+      <c r="R47" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S47" s="1" t="n">
@@ -4420,13 +4420,13 @@
         <v>138</v>
       </c>
       <c r="P48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q48" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="R48" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="R48" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>2</v>
@@ -4481,17 +4481,17 @@
       <c r="M49" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="N49" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O49" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="P49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="R49" s="6" t="s">
         <v>72</v>
@@ -4550,13 +4550,13 @@
         <v>3</v>
       </c>
       <c r="N50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O50" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="P50" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>147</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="254">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">0|0|307</t>
   </si>
   <si>
-    <t xml:space="preserve">14395.04|203487.12|84.54</t>
+    <t xml:space="preserve">14395.04|203487.12|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|36</t>
@@ -529,55 +529,58 @@
     <t xml:space="preserve">10491.1|199266.72|284</t>
   </si>
   <si>
+    <t xml:space="preserve">11485.08|205321.58|90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|71.80</t>
+  </si>
+  <si>
     <t xml:space="preserve">11485.08|205321.58|84.54</t>
   </si>
   <si>
-    <t xml:space="preserve">0|0|71.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8067.18|205202.95|84.54</t>
+    <t xml:space="preserve">8067.18|205202.95|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|107.90</t>
   </si>
   <si>
-    <t xml:space="preserve">5365.98|203093.27|84.54</t>
+    <t xml:space="preserve">5365.98|203093.27|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|-216.30</t>
   </si>
   <si>
-    <t xml:space="preserve">4460.22|199779.59|84.54</t>
+    <t xml:space="preserve">4460.22|199779.59|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|180.3</t>
   </si>
   <si>
-    <t xml:space="preserve">5629.85|196534.45|84.54</t>
+    <t xml:space="preserve">5629.85|196534.45|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|216.50</t>
   </si>
   <si>
-    <t xml:space="preserve">8508.22|194630.44|84.54</t>
+    <t xml:space="preserve">8508.22|194630.44|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|-107.80</t>
   </si>
   <si>
-    <t xml:space="preserve">11936.52|194733.62|84.54</t>
+    <t xml:space="preserve">11936.52|194733.62|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|-72.10</t>
   </si>
   <si>
-    <t xml:space="preserve">14653.42|196898.38|84.54</t>
+    <t xml:space="preserve">14653.42|196898.38|90</t>
   </si>
   <si>
     <t xml:space="preserve">0|0|-35.90</t>
   </si>
   <si>
-    <t xml:space="preserve">15538.79|200233.52|84.54</t>
+    <t xml:space="preserve">15538.79|200233.52|90</t>
   </si>
   <si>
     <t xml:space="preserve">9893.00|305835.00|196.01</t>
@@ -912,7 +915,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -970,10 +973,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1252,10 +1251,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2645,13 +2644,13 @@
       <c r="M22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q22" s="6" t="s">
@@ -2713,13 +2712,13 @@
       <c r="M23" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q23" s="6" t="s">
@@ -2781,13 +2780,13 @@
       <c r="M24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q24" s="6" t="s">
@@ -2849,13 +2848,13 @@
       <c r="M25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q25" s="6" t="s">
@@ -2917,13 +2916,13 @@
       <c r="M26" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q26" s="6" t="s">
@@ -2985,13 +2984,13 @@
       <c r="M27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q27" s="6" t="s">
@@ -3053,13 +3052,13 @@
       <c r="M28" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q28" s="6" t="s">
@@ -3121,13 +3120,13 @@
       <c r="M29" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="O29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q29" s="6" t="s">
@@ -3168,7 +3167,7 @@
       <c r="F30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -3189,13 +3188,13 @@
       <c r="M30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q30" s="6" t="s">
@@ -3236,7 +3235,7 @@
       <c r="F31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -3257,13 +3256,13 @@
       <c r="M31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="O31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P31" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q31" s="6" t="s">
@@ -3304,7 +3303,7 @@
       <c r="F32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -3325,13 +3324,13 @@
       <c r="M32" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="O32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="P32" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q32" s="6" t="s">
@@ -3372,7 +3371,7 @@
       <c r="F33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>155</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -3393,13 +3392,13 @@
       <c r="M33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="O33" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="P33" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q33" s="6" t="s">
@@ -3440,7 +3439,7 @@
       <c r="F34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>155</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -3461,13 +3460,13 @@
       <c r="M34" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="O34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P34" s="15" t="s">
+      <c r="P34" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q34" s="6" t="s">
@@ -3508,7 +3507,7 @@
       <c r="F35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>155</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -3529,13 +3528,13 @@
       <c r="M35" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="O35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="P35" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q35" s="6" t="s">
@@ -3576,7 +3575,7 @@
       <c r="F36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -3597,13 +3596,13 @@
       <c r="M36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O36" s="15" t="s">
+      <c r="O36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="P36" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q36" s="6" t="s">
@@ -3644,7 +3643,7 @@
       <c r="F37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -3665,13 +3664,13 @@
       <c r="M37" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O37" s="15" t="s">
+      <c r="O37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q37" s="6" t="s">
@@ -3712,7 +3711,7 @@
       <c r="F38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -3733,13 +3732,13 @@
       <c r="M38" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O38" s="15" t="s">
+      <c r="O38" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q38" s="6" t="s">
@@ -3780,7 +3779,7 @@
       <c r="F39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -3801,13 +3800,13 @@
       <c r="M39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O39" s="15" t="s">
+      <c r="O39" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P39" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q39" s="6" t="s">
@@ -3848,7 +3847,7 @@
       <c r="F40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -3869,13 +3868,13 @@
       <c r="M40" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O40" s="15" t="s">
+      <c r="O40" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q40" s="6" t="s">
@@ -3916,7 +3915,7 @@
       <c r="F41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -3937,13 +3936,13 @@
       <c r="M41" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="O41" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P41" s="15" t="s">
+      <c r="P41" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q41" s="6" t="s">
@@ -3984,7 +3983,7 @@
       <c r="F42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -4005,13 +4004,13 @@
       <c r="M42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O42" s="15" t="s">
+      <c r="O42" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P42" s="15" t="s">
+      <c r="P42" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q42" s="6" t="s">
@@ -4052,7 +4051,7 @@
       <c r="F43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -4073,13 +4072,13 @@
       <c r="M43" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O43" s="15" t="s">
+      <c r="O43" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P43" s="15" t="s">
+      <c r="P43" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q43" s="6" t="s">
@@ -4120,7 +4119,7 @@
       <c r="F44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -4141,13 +4140,13 @@
       <c r="M44" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="O44" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q44" s="6" t="s">
@@ -4188,7 +4187,7 @@
       <c r="F45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>163</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -4209,13 +4208,13 @@
       <c r="M45" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N45" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="O45" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q45" s="6" t="s">
@@ -4256,7 +4255,7 @@
       <c r="F46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>163</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -4277,13 +4276,13 @@
       <c r="M46" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N46" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O46" s="15" t="s">
+      <c r="O46" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="P46" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q46" s="6" t="s">
@@ -4324,7 +4323,7 @@
       <c r="F47" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>163</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -4345,13 +4344,13 @@
       <c r="M47" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O47" s="15" t="s">
+      <c r="O47" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P47" s="15" t="s">
+      <c r="P47" s="6" t="s">
         <v>146</v>
       </c>
       <c r="Q47" s="6" t="s">
@@ -4392,7 +4391,7 @@
       <c r="F48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>165</v>
       </c>
       <c r="H48" s="7" t="s">
@@ -4413,13 +4412,13 @@
       <c r="M48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="N48" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O48" s="15" t="s">
+      <c r="O48" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P48" s="15" t="s">
+      <c r="P48" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q48" s="6" t="s">
@@ -4460,7 +4459,7 @@
       <c r="F49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>165</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -4481,13 +4480,13 @@
       <c r="M49" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="N49" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O49" s="15" t="s">
+      <c r="O49" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="P49" s="15" t="s">
+      <c r="P49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="Q49" s="6" t="s">
@@ -4528,7 +4527,7 @@
       <c r="F50" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>165</v>
       </c>
       <c r="H50" s="12" t="s">
@@ -4593,10 +4592,10 @@
       <c r="E51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -4661,10 +4660,10 @@
       <c r="E52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H52" s="7" t="s">
@@ -4729,10 +4728,10 @@
       <c r="E53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H53" s="7" t="s">
@@ -4797,10 +4796,10 @@
       <c r="E54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -4865,10 +4864,10 @@
       <c r="E55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H55" s="7" t="s">
@@ -4933,10 +4932,10 @@
       <c r="E56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G56" s="19" t="s">
+      <c r="F56" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -5001,11 +5000,11 @@
       <c r="E57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G57" s="19" t="s">
+      <c r="F57" s="17" t="s">
         <v>172</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>83</v>
@@ -5069,11 +5068,11 @@
       <c r="E58" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" s="19" t="s">
+      <c r="F58" s="17" t="s">
         <v>172</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>90</v>
@@ -5137,11 +5136,11 @@
       <c r="E59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="19" t="s">
+      <c r="F59" s="17" t="s">
         <v>172</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>95</v>
@@ -5205,11 +5204,11 @@
       <c r="E60" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G60" s="19" t="s">
+      <c r="F60" s="17" t="s">
         <v>174</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>83</v>
@@ -5273,11 +5272,11 @@
       <c r="E61" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" s="19" t="s">
+      <c r="F61" s="17" t="s">
         <v>174</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>90</v>
@@ -5341,11 +5340,11 @@
       <c r="E62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="19" t="s">
+      <c r="F62" s="17" t="s">
         <v>174</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>95</v>
@@ -5409,11 +5408,11 @@
       <c r="E63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="19" t="s">
+      <c r="F63" s="17" t="s">
         <v>176</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>83</v>
@@ -5477,11 +5476,11 @@
       <c r="E64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G64" s="19" t="s">
+      <c r="F64" s="17" t="s">
         <v>176</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>90</v>
@@ -5545,11 +5544,11 @@
       <c r="E65" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" s="19" t="s">
+      <c r="F65" s="17" t="s">
         <v>176</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>95</v>
@@ -5613,11 +5612,11 @@
       <c r="E66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F66" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G66" s="19" t="s">
+      <c r="F66" s="17" t="s">
         <v>178</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>83</v>
@@ -5681,11 +5680,11 @@
       <c r="E67" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="19" t="s">
+      <c r="F67" s="17" t="s">
         <v>178</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>90</v>
@@ -5749,11 +5748,11 @@
       <c r="E68" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="19" t="s">
+      <c r="F68" s="17" t="s">
         <v>178</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>95</v>
@@ -5817,11 +5816,11 @@
       <c r="E69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="F69" s="17" t="s">
         <v>180</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>83</v>
@@ -5885,11 +5884,11 @@
       <c r="E70" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G70" s="19" t="s">
+      <c r="F70" s="17" t="s">
         <v>180</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>90</v>
@@ -5953,11 +5952,11 @@
       <c r="E71" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" s="19" t="s">
+      <c r="F71" s="17" t="s">
         <v>180</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>95</v>
@@ -6021,11 +6020,11 @@
       <c r="E72" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G72" s="19" t="s">
+      <c r="F72" s="17" t="s">
         <v>182</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>83</v>
@@ -6089,11 +6088,11 @@
       <c r="E73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G73" s="19" t="s">
+      <c r="F73" s="17" t="s">
         <v>182</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>90</v>
@@ -6157,11 +6156,11 @@
       <c r="E74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G74" s="19" t="s">
+      <c r="F74" s="17" t="s">
         <v>182</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>95</v>
@@ -6225,11 +6224,11 @@
       <c r="E75" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F75" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G75" s="19" t="s">
+      <c r="F75" s="17" t="s">
         <v>184</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>83</v>
@@ -6293,11 +6292,11 @@
       <c r="E76" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G76" s="19" t="s">
+      <c r="F76" s="17" t="s">
         <v>184</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>90</v>
@@ -6361,11 +6360,11 @@
       <c r="E77" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F77" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G77" s="19" t="s">
+      <c r="F77" s="17" t="s">
         <v>184</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>95</v>
@@ -6429,10 +6428,10 @@
       <c r="E78" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G78" s="19" t="s">
+      <c r="F78" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -6497,10 +6496,10 @@
       <c r="E79" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F79" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G79" s="19" t="s">
+      <c r="F79" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -6565,10 +6564,10 @@
       <c r="E80" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F80" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G80" s="21" t="s">
+      <c r="F80" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H80" s="12" t="s">
@@ -6633,11 +6632,11 @@
       <c r="E81" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F81" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G81" s="19" t="s">
+      <c r="F81" s="17" t="s">
         <v>187</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>102</v>
@@ -6676,7 +6675,7 @@
         <v>4</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U81" s="1" t="n">
         <v>404269</v>
@@ -6701,11 +6700,11 @@
       <c r="E82" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G82" s="19" t="s">
+      <c r="F82" s="17" t="s">
         <v>187</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>107</v>
@@ -6744,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U82" s="1" t="n">
         <v>404269</v>
@@ -6769,11 +6768,11 @@
       <c r="E83" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" s="19" t="s">
+      <c r="F83" s="17" t="s">
         <v>187</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>112</v>
@@ -6812,7 +6811,7 @@
         <v>4</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U83" s="1" t="n">
         <v>404269</v>
@@ -6837,11 +6836,11 @@
       <c r="E84" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F84" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G84" s="19" t="s">
+      <c r="F84" s="17" t="s">
         <v>190</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>102</v>
@@ -6880,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U84" s="1" t="n">
         <v>404269</v>
@@ -6905,11 +6904,11 @@
       <c r="E85" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G85" s="19" t="s">
+      <c r="F85" s="17" t="s">
         <v>190</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>107</v>
@@ -6948,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U85" s="1" t="n">
         <v>404269</v>
@@ -6973,11 +6972,11 @@
       <c r="E86" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F86" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G86" s="19" t="s">
+      <c r="F86" s="17" t="s">
         <v>190</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>112</v>
@@ -7016,7 +7015,7 @@
         <v>4</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U86" s="1" t="n">
         <v>404269</v>
@@ -7041,11 +7040,11 @@
       <c r="E87" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="G87" s="19" t="s">
+      <c r="F87" s="17" t="s">
         <v>192</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>102</v>
@@ -7084,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U87" s="1" t="n">
         <v>404269</v>
@@ -7109,11 +7108,11 @@
       <c r="E88" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="G88" s="19" t="s">
+      <c r="F88" s="17" t="s">
         <v>192</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>107</v>
@@ -7152,7 +7151,7 @@
         <v>4</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U88" s="1" t="n">
         <v>404269</v>
@@ -7177,11 +7176,11 @@
       <c r="E89" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="G89" s="19" t="s">
+      <c r="F89" s="17" t="s">
         <v>192</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>112</v>
@@ -7220,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U89" s="1" t="n">
         <v>404269</v>
@@ -7245,11 +7244,11 @@
       <c r="E90" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G90" s="19" t="s">
+      <c r="F90" s="17" t="s">
         <v>194</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>102</v>
@@ -7288,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U90" s="1" t="n">
         <v>404269</v>
@@ -7313,11 +7312,11 @@
       <c r="E91" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F91" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G91" s="19" t="s">
+      <c r="F91" s="17" t="s">
         <v>194</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>107</v>
@@ -7356,7 +7355,7 @@
         <v>4</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U91" s="1" t="n">
         <v>404269</v>
@@ -7381,11 +7380,11 @@
       <c r="E92" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F92" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G92" s="19" t="s">
+      <c r="F92" s="17" t="s">
         <v>194</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>112</v>
@@ -7424,7 +7423,7 @@
         <v>4</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U92" s="1" t="n">
         <v>404269</v>
@@ -7449,11 +7448,11 @@
       <c r="E93" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G93" s="19" t="s">
+      <c r="F93" s="17" t="s">
         <v>196</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>102</v>
@@ -7492,7 +7491,7 @@
         <v>4</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U93" s="1" t="n">
         <v>404269</v>
@@ -7517,11 +7516,11 @@
       <c r="E94" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G94" s="19" t="s">
+      <c r="F94" s="17" t="s">
         <v>196</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>107</v>
@@ -7560,7 +7559,7 @@
         <v>4</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U94" s="1" t="n">
         <v>404269</v>
@@ -7585,11 +7584,11 @@
       <c r="E95" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="G95" s="19" t="s">
+      <c r="F95" s="17" t="s">
         <v>196</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>112</v>
@@ -7628,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U95" s="1" t="n">
         <v>404269</v>
@@ -7653,11 +7652,11 @@
       <c r="E96" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F96" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G96" s="19" t="s">
+      <c r="F96" s="17" t="s">
         <v>198</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>102</v>
@@ -7696,7 +7695,7 @@
         <v>4</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U96" s="1" t="n">
         <v>404269</v>
@@ -7721,11 +7720,11 @@
       <c r="E97" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G97" s="19" t="s">
+      <c r="F97" s="17" t="s">
         <v>198</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>107</v>
@@ -7764,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U97" s="1" t="n">
         <v>404269</v>
@@ -7789,11 +7788,11 @@
       <c r="E98" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F98" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G98" s="19" t="s">
+      <c r="F98" s="17" t="s">
         <v>198</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>112</v>
@@ -7832,7 +7831,7 @@
         <v>4</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U98" s="1" t="n">
         <v>404269</v>
@@ -7857,11 +7856,11 @@
       <c r="E99" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F99" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G99" s="19" t="s">
+      <c r="F99" s="17" t="s">
         <v>200</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>102</v>
@@ -7900,7 +7899,7 @@
         <v>4</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U99" s="1" t="n">
         <v>404269</v>
@@ -7925,11 +7924,11 @@
       <c r="E100" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F100" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G100" s="19" t="s">
+      <c r="F100" s="17" t="s">
         <v>200</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>107</v>
@@ -7968,7 +7967,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U100" s="1" t="n">
         <v>404269</v>
@@ -7993,11 +7992,11 @@
       <c r="E101" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F101" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G101" s="19" t="s">
+      <c r="F101" s="17" t="s">
         <v>200</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>112</v>
@@ -8036,7 +8035,7 @@
         <v>4</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U101" s="1" t="n">
         <v>404269</v>
@@ -8061,11 +8060,11 @@
       <c r="E102" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F102" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G102" s="19" t="s">
+      <c r="F102" s="17" t="s">
         <v>202</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>102</v>
@@ -8104,7 +8103,7 @@
         <v>4</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U102" s="1" t="n">
         <v>404269</v>
@@ -8129,11 +8128,11 @@
       <c r="E103" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F103" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G103" s="19" t="s">
+      <c r="F103" s="17" t="s">
         <v>202</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>107</v>
@@ -8172,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U103" s="1" t="n">
         <v>404269</v>
@@ -8197,11 +8196,11 @@
       <c r="E104" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G104" s="19" t="s">
+      <c r="F104" s="17" t="s">
         <v>202</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>112</v>
@@ -8240,7 +8239,7 @@
         <v>4</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U104" s="1" t="n">
         <v>404269</v>
@@ -8265,11 +8264,11 @@
       <c r="E105" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F105" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G105" s="19" t="s">
+      <c r="F105" s="17" t="s">
         <v>204</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>102</v>
@@ -8308,7 +8307,7 @@
         <v>4</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U105" s="1" t="n">
         <v>404269</v>
@@ -8333,11 +8332,11 @@
       <c r="E106" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G106" s="19" t="s">
+      <c r="F106" s="17" t="s">
         <v>204</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>107</v>
@@ -8376,7 +8375,7 @@
         <v>4</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U106" s="1" t="n">
         <v>404269</v>
@@ -8401,11 +8400,11 @@
       <c r="E107" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F107" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G107" s="19" t="s">
+      <c r="F107" s="17" t="s">
         <v>204</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>112</v>
@@ -8444,7 +8443,7 @@
         <v>4</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U107" s="1" t="n">
         <v>404269</v>
@@ -8469,11 +8468,11 @@
       <c r="E108" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F108" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G108" s="19" t="s">
+      <c r="F108" s="17" t="s">
         <v>206</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>102</v>
@@ -8512,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U108" s="1" t="n">
         <v>404269</v>
@@ -8537,11 +8536,11 @@
       <c r="E109" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G109" s="19" t="s">
+      <c r="F109" s="17" t="s">
         <v>206</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>107</v>
@@ -8580,7 +8579,7 @@
         <v>4</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U109" s="1" t="n">
         <v>404269</v>
@@ -8605,11 +8604,11 @@
       <c r="E110" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F110" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G110" s="21" t="s">
+      <c r="F110" s="19" t="s">
         <v>206</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>112</v>
@@ -8648,7 +8647,7 @@
         <v>4</v>
       </c>
       <c r="T110" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U110" s="14" t="n">
         <v>404269</v>
@@ -8673,11 +8672,11 @@
       <c r="E111" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G111" s="19" t="s">
+      <c r="F111" s="17" t="s">
         <v>208</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>121</v>
@@ -8716,7 +8715,7 @@
         <v>5</v>
       </c>
       <c r="T111" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U111" s="1" t="n">
         <v>404266</v>
@@ -8741,11 +8740,11 @@
       <c r="E112" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F112" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G112" s="19" t="s">
+      <c r="F112" s="17" t="s">
         <v>208</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>123</v>
@@ -8784,7 +8783,7 @@
         <v>5</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U112" s="1" t="n">
         <v>404266</v>
@@ -8809,11 +8808,11 @@
       <c r="E113" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F113" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G113" s="19" t="s">
+      <c r="F113" s="17" t="s">
         <v>208</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>125</v>
@@ -8852,7 +8851,7 @@
         <v>5</v>
       </c>
       <c r="T113" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U113" s="1" t="n">
         <v>404266</v>
@@ -8877,11 +8876,11 @@
       <c r="E114" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F114" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G114" s="19" t="s">
+      <c r="F114" s="17" t="s">
         <v>211</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>121</v>
@@ -8920,7 +8919,7 @@
         <v>5</v>
       </c>
       <c r="T114" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U114" s="1" t="n">
         <v>404266</v>
@@ -8945,11 +8944,11 @@
       <c r="E115" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G115" s="19" t="s">
+      <c r="F115" s="17" t="s">
         <v>211</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>123</v>
@@ -8988,7 +8987,7 @@
         <v>5</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U115" s="1" t="n">
         <v>404266</v>
@@ -9013,11 +9012,11 @@
       <c r="E116" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F116" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G116" s="19" t="s">
+      <c r="F116" s="17" t="s">
         <v>211</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
@@ -9056,7 +9055,7 @@
         <v>5</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U116" s="1" t="n">
         <v>404266</v>
@@ -9081,11 +9080,11 @@
       <c r="E117" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F117" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G117" s="19" t="s">
+      <c r="F117" s="17" t="s">
         <v>213</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>121</v>
@@ -9124,7 +9123,7 @@
         <v>5</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U117" s="1" t="n">
         <v>404266</v>
@@ -9149,11 +9148,11 @@
       <c r="E118" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F118" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G118" s="19" t="s">
+      <c r="F118" s="17" t="s">
         <v>213</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>123</v>
@@ -9192,7 +9191,7 @@
         <v>5</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U118" s="1" t="n">
         <v>404266</v>
@@ -9217,11 +9216,11 @@
       <c r="E119" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F119" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G119" s="19" t="s">
+      <c r="F119" s="17" t="s">
         <v>213</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>125</v>
@@ -9260,7 +9259,7 @@
         <v>5</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U119" s="1" t="n">
         <v>404266</v>
@@ -9285,11 +9284,11 @@
       <c r="E120" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F120" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G120" s="19" t="s">
+      <c r="F120" s="17" t="s">
         <v>215</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>121</v>
@@ -9328,7 +9327,7 @@
         <v>5</v>
       </c>
       <c r="T120" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U120" s="1" t="n">
         <v>404266</v>
@@ -9353,11 +9352,11 @@
       <c r="E121" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G121" s="19" t="s">
+      <c r="F121" s="17" t="s">
         <v>215</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>123</v>
@@ -9396,7 +9395,7 @@
         <v>5</v>
       </c>
       <c r="T121" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U121" s="1" t="n">
         <v>404266</v>
@@ -9421,11 +9420,11 @@
       <c r="E122" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F122" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G122" s="19" t="s">
+      <c r="F122" s="17" t="s">
         <v>215</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>125</v>
@@ -9464,7 +9463,7 @@
         <v>5</v>
       </c>
       <c r="T122" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U122" s="1" t="n">
         <v>404266</v>
@@ -9489,11 +9488,11 @@
       <c r="E123" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G123" s="19" t="s">
+      <c r="F123" s="17" t="s">
         <v>217</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>121</v>
@@ -9532,7 +9531,7 @@
         <v>5</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U123" s="1" t="n">
         <v>404266</v>
@@ -9557,11 +9556,11 @@
       <c r="E124" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G124" s="19" t="s">
+      <c r="F124" s="17" t="s">
         <v>217</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>123</v>
@@ -9600,7 +9599,7 @@
         <v>5</v>
       </c>
       <c r="T124" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U124" s="1" t="n">
         <v>404266</v>
@@ -9625,11 +9624,11 @@
       <c r="E125" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F125" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G125" s="19" t="s">
+      <c r="F125" s="17" t="s">
         <v>217</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>125</v>
@@ -9668,7 +9667,7 @@
         <v>5</v>
       </c>
       <c r="T125" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U125" s="1" t="n">
         <v>404266</v>
@@ -9693,11 +9692,11 @@
       <c r="E126" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F126" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G126" s="19" t="s">
+      <c r="F126" s="17" t="s">
         <v>219</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>121</v>
@@ -9736,7 +9735,7 @@
         <v>5</v>
       </c>
       <c r="T126" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U126" s="1" t="n">
         <v>404266</v>
@@ -9761,11 +9760,11 @@
       <c r="E127" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F127" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G127" s="19" t="s">
+      <c r="F127" s="17" t="s">
         <v>219</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>123</v>
@@ -9804,7 +9803,7 @@
         <v>5</v>
       </c>
       <c r="T127" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U127" s="1" t="n">
         <v>404266</v>
@@ -9829,11 +9828,11 @@
       <c r="E128" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F128" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G128" s="19" t="s">
+      <c r="F128" s="17" t="s">
         <v>219</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>125</v>
@@ -9872,7 +9871,7 @@
         <v>5</v>
       </c>
       <c r="T128" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U128" s="1" t="n">
         <v>404266</v>
@@ -9897,11 +9896,11 @@
       <c r="E129" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F129" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G129" s="19" t="s">
+      <c r="F129" s="17" t="s">
         <v>221</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>121</v>
@@ -9940,7 +9939,7 @@
         <v>5</v>
       </c>
       <c r="T129" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U129" s="1" t="n">
         <v>404266</v>
@@ -9965,11 +9964,11 @@
       <c r="E130" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F130" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G130" s="19" t="s">
+      <c r="F130" s="17" t="s">
         <v>221</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>123</v>
@@ -10008,7 +10007,7 @@
         <v>5</v>
       </c>
       <c r="T130" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U130" s="1" t="n">
         <v>404266</v>
@@ -10033,11 +10032,11 @@
       <c r="E131" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F131" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G131" s="19" t="s">
+      <c r="F131" s="17" t="s">
         <v>221</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>125</v>
@@ -10076,7 +10075,7 @@
         <v>5</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U131" s="1" t="n">
         <v>404266</v>
@@ -10101,11 +10100,11 @@
       <c r="E132" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G132" s="19" t="s">
+      <c r="F132" s="17" t="s">
         <v>223</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>121</v>
@@ -10144,7 +10143,7 @@
         <v>5</v>
       </c>
       <c r="T132" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U132" s="1" t="n">
         <v>404266</v>
@@ -10169,11 +10168,11 @@
       <c r="E133" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F133" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G133" s="19" t="s">
+      <c r="F133" s="17" t="s">
         <v>223</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>123</v>
@@ -10212,7 +10211,7 @@
         <v>5</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U133" s="1" t="n">
         <v>404266</v>
@@ -10237,11 +10236,11 @@
       <c r="E134" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F134" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G134" s="19" t="s">
+      <c r="F134" s="17" t="s">
         <v>223</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>125</v>
@@ -10280,7 +10279,7 @@
         <v>5</v>
       </c>
       <c r="T134" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U134" s="1" t="n">
         <v>404266</v>
@@ -10305,11 +10304,11 @@
       <c r="E135" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F135" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="G135" s="19" t="s">
+      <c r="F135" s="17" t="s">
         <v>225</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>121</v>
@@ -10348,7 +10347,7 @@
         <v>5</v>
       </c>
       <c r="T135" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U135" s="1" t="n">
         <v>404266</v>
@@ -10373,11 +10372,11 @@
       <c r="E136" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F136" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="G136" s="19" t="s">
+      <c r="F136" s="17" t="s">
         <v>225</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>123</v>
@@ -10416,7 +10415,7 @@
         <v>5</v>
       </c>
       <c r="T136" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U136" s="1" t="n">
         <v>404266</v>
@@ -10441,11 +10440,11 @@
       <c r="E137" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F137" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="G137" s="19" t="s">
+      <c r="F137" s="17" t="s">
         <v>225</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>125</v>
@@ -10484,7 +10483,7 @@
         <v>5</v>
       </c>
       <c r="T137" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U137" s="1" t="n">
         <v>404266</v>
@@ -10509,11 +10508,11 @@
       <c r="E138" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F138" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="G138" s="19" t="s">
+      <c r="F138" s="17" t="s">
         <v>227</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>121</v>
@@ -10552,7 +10551,7 @@
         <v>5</v>
       </c>
       <c r="T138" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U138" s="1" t="n">
         <v>404266</v>
@@ -10577,11 +10576,11 @@
       <c r="E139" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F139" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="G139" s="19" t="s">
+      <c r="F139" s="17" t="s">
         <v>227</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>123</v>
@@ -10620,7 +10619,7 @@
         <v>5</v>
       </c>
       <c r="T139" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U139" s="1" t="n">
         <v>404266</v>
@@ -10645,11 +10644,11 @@
       <c r="E140" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F140" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G140" s="21" t="s">
+      <c r="F140" s="19" t="s">
         <v>227</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>125</v>
@@ -10688,7 +10687,7 @@
         <v>5</v>
       </c>
       <c r="T140" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U140" s="14" t="n">
         <v>404266</v>
@@ -10713,11 +10712,11 @@
       <c r="E141" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F141" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G141" s="19" t="s">
+      <c r="F141" s="17" t="s">
         <v>229</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>129</v>
@@ -10756,7 +10755,7 @@
         <v>6</v>
       </c>
       <c r="T141" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U141" s="1" t="n">
         <v>404264</v>
@@ -10781,11 +10780,11 @@
       <c r="E142" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F142" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G142" s="19" t="s">
+      <c r="F142" s="17" t="s">
         <v>229</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>131</v>
@@ -10824,7 +10823,7 @@
         <v>6</v>
       </c>
       <c r="T142" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U142" s="1" t="n">
         <v>404264</v>
@@ -10849,11 +10848,11 @@
       <c r="E143" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F143" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G143" s="19" t="s">
+      <c r="F143" s="17" t="s">
         <v>229</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>133</v>
@@ -10892,7 +10891,7 @@
         <v>6</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U143" s="1" t="n">
         <v>404264</v>
@@ -10917,11 +10916,11 @@
       <c r="E144" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F144" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G144" s="19" t="s">
+      <c r="F144" s="17" t="s">
         <v>232</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>129</v>
@@ -10960,7 +10959,7 @@
         <v>6</v>
       </c>
       <c r="T144" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U144" s="1" t="n">
         <v>404264</v>
@@ -10985,11 +10984,11 @@
       <c r="E145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F145" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G145" s="19" t="s">
+      <c r="F145" s="17" t="s">
         <v>232</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>131</v>
@@ -11028,7 +11027,7 @@
         <v>6</v>
       </c>
       <c r="T145" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>404264</v>
@@ -11053,11 +11052,11 @@
       <c r="E146" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F146" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G146" s="19" t="s">
+      <c r="F146" s="17" t="s">
         <v>232</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>133</v>
@@ -11096,7 +11095,7 @@
         <v>6</v>
       </c>
       <c r="T146" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>404264</v>
@@ -11121,11 +11120,11 @@
       <c r="E147" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F147" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="G147" s="19" t="s">
+      <c r="F147" s="17" t="s">
         <v>234</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>129</v>
@@ -11164,7 +11163,7 @@
         <v>6</v>
       </c>
       <c r="T147" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>404264</v>
@@ -11189,11 +11188,11 @@
       <c r="E148" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F148" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="G148" s="19" t="s">
+      <c r="F148" s="17" t="s">
         <v>234</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>131</v>
@@ -11232,7 +11231,7 @@
         <v>6</v>
       </c>
       <c r="T148" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>404264</v>
@@ -11257,11 +11256,11 @@
       <c r="E149" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F149" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="G149" s="19" t="s">
+      <c r="F149" s="17" t="s">
         <v>234</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>133</v>
@@ -11300,7 +11299,7 @@
         <v>6</v>
       </c>
       <c r="T149" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>404264</v>
@@ -11325,11 +11324,11 @@
       <c r="E150" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F150" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G150" s="19" t="s">
+      <c r="F150" s="17" t="s">
         <v>236</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>129</v>
@@ -11368,7 +11367,7 @@
         <v>6</v>
       </c>
       <c r="T150" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>404264</v>
@@ -11393,11 +11392,11 @@
       <c r="E151" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F151" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G151" s="19" t="s">
+      <c r="F151" s="17" t="s">
         <v>236</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>131</v>
@@ -11436,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="T151" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U151" s="1" t="n">
         <v>404264</v>
@@ -11461,11 +11460,11 @@
       <c r="E152" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F152" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G152" s="19" t="s">
+      <c r="F152" s="17" t="s">
         <v>236</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>133</v>
@@ -11504,7 +11503,7 @@
         <v>6</v>
       </c>
       <c r="T152" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U152" s="1" t="n">
         <v>404264</v>
@@ -11529,11 +11528,11 @@
       <c r="E153" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F153" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G153" s="19" t="s">
+      <c r="F153" s="17" t="s">
         <v>238</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>129</v>
@@ -11572,7 +11571,7 @@
         <v>6</v>
       </c>
       <c r="T153" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U153" s="1" t="n">
         <v>404264</v>
@@ -11597,11 +11596,11 @@
       <c r="E154" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F154" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G154" s="19" t="s">
+      <c r="F154" s="17" t="s">
         <v>238</v>
+      </c>
+      <c r="G154" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>131</v>
@@ -11640,7 +11639,7 @@
         <v>6</v>
       </c>
       <c r="T154" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U154" s="1" t="n">
         <v>404264</v>
@@ -11665,11 +11664,11 @@
       <c r="E155" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F155" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G155" s="19" t="s">
+      <c r="F155" s="17" t="s">
         <v>238</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>133</v>
@@ -11708,7 +11707,7 @@
         <v>6</v>
       </c>
       <c r="T155" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U155" s="1" t="n">
         <v>404264</v>
@@ -11733,11 +11732,11 @@
       <c r="E156" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F156" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G156" s="18" t="s">
+      <c r="F156" s="17" t="s">
         <v>240</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>129</v>
@@ -11776,7 +11775,7 @@
         <v>6</v>
       </c>
       <c r="T156" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U156" s="1" t="n">
         <v>404264</v>
@@ -11801,11 +11800,11 @@
       <c r="E157" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F157" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G157" s="18" t="s">
+      <c r="F157" s="17" t="s">
         <v>240</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>131</v>
@@ -11844,7 +11843,7 @@
         <v>6</v>
       </c>
       <c r="T157" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U157" s="1" t="n">
         <v>404264</v>
@@ -11869,11 +11868,11 @@
       <c r="E158" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F158" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G158" s="18" t="s">
+      <c r="F158" s="17" t="s">
         <v>240</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>133</v>
@@ -11912,7 +11911,7 @@
         <v>6</v>
       </c>
       <c r="T158" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U158" s="1" t="n">
         <v>404264</v>
@@ -11937,11 +11936,11 @@
       <c r="E159" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F159" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G159" s="18" t="s">
+      <c r="F159" s="17" t="s">
         <v>242</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>129</v>
@@ -11980,7 +11979,7 @@
         <v>6</v>
       </c>
       <c r="T159" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U159" s="1" t="n">
         <v>404264</v>
@@ -12005,11 +12004,11 @@
       <c r="E160" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F160" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G160" s="18" t="s">
+      <c r="F160" s="17" t="s">
         <v>242</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>131</v>
@@ -12048,7 +12047,7 @@
         <v>6</v>
       </c>
       <c r="T160" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U160" s="1" t="n">
         <v>404264</v>
@@ -12073,11 +12072,11 @@
       <c r="E161" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F161" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G161" s="18" t="s">
+      <c r="F161" s="17" t="s">
         <v>242</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>133</v>
@@ -12116,7 +12115,7 @@
         <v>6</v>
       </c>
       <c r="T161" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U161" s="1" t="n">
         <v>404264</v>
@@ -12141,11 +12140,11 @@
       <c r="E162" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F162" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G162" s="18" t="s">
+      <c r="F162" s="17" t="s">
         <v>244</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>129</v>
@@ -12184,7 +12183,7 @@
         <v>6</v>
       </c>
       <c r="T162" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U162" s="1" t="n">
         <v>404264</v>
@@ -12209,11 +12208,11 @@
       <c r="E163" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F163" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G163" s="18" t="s">
+      <c r="F163" s="17" t="s">
         <v>244</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>131</v>
@@ -12252,7 +12251,7 @@
         <v>6</v>
       </c>
       <c r="T163" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U163" s="1" t="n">
         <v>404264</v>
@@ -12277,11 +12276,11 @@
       <c r="E164" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F164" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G164" s="18" t="s">
+      <c r="F164" s="17" t="s">
         <v>244</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>133</v>
@@ -12320,7 +12319,7 @@
         <v>6</v>
       </c>
       <c r="T164" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U164" s="1" t="n">
         <v>404264</v>
@@ -12345,10 +12344,10 @@
       <c r="E165" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F165" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G165" s="18" t="s">
+      <c r="F165" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G165" s="17" t="s">
         <v>73</v>
       </c>
       <c r="H165" s="7" t="s">
@@ -12388,7 +12387,7 @@
         <v>6</v>
       </c>
       <c r="T165" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U165" s="1" t="n">
         <v>404264</v>
@@ -12413,10 +12412,10 @@
       <c r="E166" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F166" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G166" s="18" t="s">
+      <c r="F166" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G166" s="17" t="s">
         <v>73</v>
       </c>
       <c r="H166" s="7" t="s">
@@ -12456,7 +12455,7 @@
         <v>6</v>
       </c>
       <c r="T166" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U166" s="1" t="n">
         <v>404264</v>
@@ -12481,10 +12480,10 @@
       <c r="E167" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F167" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="G167" s="18" t="s">
+      <c r="F167" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G167" s="17" t="s">
         <v>73</v>
       </c>
       <c r="H167" s="7" t="s">
@@ -12524,7 +12523,7 @@
         <v>6</v>
       </c>
       <c r="T167" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U167" s="1" t="n">
         <v>404264</v>
@@ -12549,11 +12548,11 @@
       <c r="E168" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F168" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="G168" s="18" t="s">
+      <c r="F168" s="17" t="s">
         <v>247</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>129</v>
@@ -12592,7 +12591,7 @@
         <v>6</v>
       </c>
       <c r="T168" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U168" s="1" t="n">
         <v>404264</v>
@@ -12617,11 +12616,11 @@
       <c r="E169" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F169" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="G169" s="18" t="s">
+      <c r="F169" s="17" t="s">
         <v>247</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>131</v>
@@ -12660,7 +12659,7 @@
         <v>6</v>
       </c>
       <c r="T169" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U169" s="1" t="n">
         <v>404264</v>
@@ -12685,11 +12684,11 @@
       <c r="E170" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F170" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="G170" s="18" t="s">
+      <c r="F170" s="17" t="s">
         <v>247</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>133</v>
@@ -12728,7 +12727,7 @@
         <v>6</v>
       </c>
       <c r="T170" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U170" s="1" t="n">
         <v>404264</v>
@@ -12748,22 +12747,22 @@
         <v>10056</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F171" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="G171" s="18" t="s">
+      <c r="F171" s="17" t="s">
         <v>250</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J171" s="1" t="n">
         <v>286352</v>
@@ -12795,8 +12794,8 @@
       <c r="S171" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="T171" s="18" t="s">
-        <v>252</v>
+      <c r="T171" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="U171" s="1" t="n">
         <v>404264</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1251,10 +1251,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1251,10 +1251,10 @@
   </sheetPr>
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="N84" activeCellId="0" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="6" t="s">
         <v>92</v>
@@ -4750,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>97</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>92</v>
@@ -4954,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="M56" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>97</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>92</v>
@@ -5158,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>97</v>
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="M61" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>92</v>
@@ -5362,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="M62" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>97</v>
@@ -5498,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>92</v>
@@ -5566,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="M65" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>97</v>
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>92</v>
@@ -5770,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>97</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>92</v>
@@ -5974,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="M71" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>97</v>
@@ -6110,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>92</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="M74" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74" s="6" t="s">
         <v>97</v>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>92</v>
@@ -6382,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N77" s="6" t="s">
         <v>97</v>
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>92</v>
@@ -6586,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N80" s="11" t="s">
         <v>97</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1252,9 +1252,9 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="N84" activeCellId="0" sqref="N84"/>
+      <selection pane="bottomLeft" activeCell="N110" activeCellId="0" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="M82" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N82" s="6" t="s">
         <v>109</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="M83" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N83" s="6" t="s">
         <v>114</v>
@@ -6926,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>109</v>
@@ -6994,7 +6994,7 @@
         <v>2</v>
       </c>
       <c r="M86" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N86" s="6" t="s">
         <v>114</v>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="M88" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>109</v>
@@ -7198,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="M89" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N89" s="6" t="s">
         <v>114</v>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91" s="6" t="s">
         <v>109</v>
@@ -7402,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="M92" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>114</v>
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94" s="6" t="s">
         <v>109</v>
@@ -7606,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="M95" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N95" s="6" t="s">
         <v>114</v>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="M97" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97" s="6" t="s">
         <v>109</v>
@@ -7810,7 +7810,7 @@
         <v>2</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98" s="6" t="s">
         <v>114</v>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="M100" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100" s="6" t="s">
         <v>109</v>
@@ -8014,7 +8014,7 @@
         <v>2</v>
       </c>
       <c r="M101" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N101" s="6" t="s">
         <v>114</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" s="6" t="s">
         <v>109</v>
@@ -8218,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="M104" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N104" s="6" t="s">
         <v>114</v>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="M106" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>109</v>
@@ -8422,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="M107" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>114</v>
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N109" s="6" t="s">
         <v>109</v>
@@ -8626,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="M110" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N110" s="11" t="s">
         <v>114</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="256">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -782,6 +782,12 @@
   </si>
   <si>
     <t xml:space="preserve">300|300|300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3842.29|-18997.09|-73.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.83|0|29.75</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -998,6 +1004,10 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1249,12 +1259,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="N110" activeCellId="0" sqref="N110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D182" activeCellId="0" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12771,7 +12781,7 @@
         <v>25</v>
       </c>
       <c r="L171" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M171" s="4" t="n">
         <v>3</v>
@@ -12802,6 +12812,74 @@
       </c>
       <c r="V171" s="1" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="n">
+        <v>7001</v>
+      </c>
+      <c r="B172" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>10057</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J172" s="4" t="n">
+        <v>267079</v>
+      </c>
+      <c r="K172" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O172" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P172" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q172" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R172" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="S172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T172" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U172" s="1" t="n">
+        <v>404268</v>
+      </c>
+      <c r="V172" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1261,10 +1261,10 @@
   </sheetPr>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D182" activeCellId="0" sqref="D182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N158" activeCellId="0" sqref="N158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>141</v>
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>144</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>141</v>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>144</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>141</v>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>144</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>141</v>
@@ -3332,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>144</v>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>141</v>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="M35" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>144</v>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>141</v>
@@ -3740,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>144</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>141</v>
@@ -3944,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>144</v>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>141</v>
@@ -4148,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>144</v>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>141</v>
@@ -4352,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>144</v>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>141</v>
@@ -4556,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>144</v>
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="M112" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N112" s="6" t="s">
         <v>109</v>
@@ -8840,7 +8840,7 @@
         <v>2</v>
       </c>
       <c r="M113" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N113" s="6" t="s">
         <v>114</v>
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="M115" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" s="6" t="s">
         <v>109</v>
@@ -9044,7 +9044,7 @@
         <v>2</v>
       </c>
       <c r="M116" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N116" s="6" t="s">
         <v>114</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="M118" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118" s="6" t="s">
         <v>109</v>
@@ -9248,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="M119" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N119" s="6" t="s">
         <v>114</v>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="M121" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N121" s="6" t="s">
         <v>109</v>
@@ -9452,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="M122" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N122" s="6" t="s">
         <v>114</v>
@@ -9588,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="M124" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N124" s="6" t="s">
         <v>109</v>
@@ -9656,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="M125" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N125" s="6" t="s">
         <v>114</v>
@@ -9792,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="M127" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N127" s="6" t="s">
         <v>109</v>
@@ -9860,7 +9860,7 @@
         <v>2</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N128" s="6" t="s">
         <v>114</v>
@@ -9996,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="M130" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N130" s="6" t="s">
         <v>109</v>
@@ -10064,7 +10064,7 @@
         <v>2</v>
       </c>
       <c r="M131" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N131" s="6" t="s">
         <v>114</v>
@@ -10200,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="M133" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133" s="6" t="s">
         <v>109</v>
@@ -10268,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="M134" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N134" s="6" t="s">
         <v>114</v>
@@ -10404,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="M136" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N136" s="6" t="s">
         <v>109</v>
@@ -10472,7 +10472,7 @@
         <v>2</v>
       </c>
       <c r="M137" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N137" s="6" t="s">
         <v>114</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="M139" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N139" s="6" t="s">
         <v>109</v>
@@ -10676,7 +10676,7 @@
         <v>2</v>
       </c>
       <c r="M140" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N140" s="11" t="s">
         <v>114</v>
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="M142" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N142" s="6" t="s">
         <v>109</v>
@@ -10880,7 +10880,7 @@
         <v>2</v>
       </c>
       <c r="M143" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N143" s="6" t="s">
         <v>114</v>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="M145" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N145" s="6" t="s">
         <v>109</v>
@@ -11084,7 +11084,7 @@
         <v>2</v>
       </c>
       <c r="M146" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N146" s="6" t="s">
         <v>114</v>
@@ -11220,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="M148" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N148" s="6" t="s">
         <v>109</v>
@@ -11288,7 +11288,7 @@
         <v>2</v>
       </c>
       <c r="M149" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N149" s="6" t="s">
         <v>114</v>
@@ -11424,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="M151" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N151" s="6" t="s">
         <v>109</v>
@@ -11492,7 +11492,7 @@
         <v>2</v>
       </c>
       <c r="M152" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N152" s="6" t="s">
         <v>114</v>
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="M154" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N154" s="6" t="s">
         <v>109</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="M155" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N155" s="6" t="s">
         <v>114</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="M157" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N157" s="6" t="s">
         <v>109</v>
@@ -11900,7 +11900,7 @@
         <v>2</v>
       </c>
       <c r="M158" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N158" s="6" t="s">
         <v>114</v>
@@ -12036,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="M160" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N160" s="6" t="s">
         <v>109</v>
@@ -12104,7 +12104,7 @@
         <v>2</v>
       </c>
       <c r="M161" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N161" s="6" t="s">
         <v>114</v>
@@ -12240,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="M163" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163" s="6" t="s">
         <v>109</v>
@@ -12308,7 +12308,7 @@
         <v>2</v>
       </c>
       <c r="M164" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N164" s="6" t="s">
         <v>114</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="M166" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N166" s="6" t="s">
         <v>109</v>
@@ -12512,7 +12512,7 @@
         <v>2</v>
       </c>
       <c r="M167" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N167" s="6" t="s">
         <v>114</v>
@@ -12648,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="M169" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N169" s="6" t="s">
         <v>109</v>
@@ -12716,7 +12716,7 @@
         <v>2</v>
       </c>
       <c r="M170" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N170" s="6" t="s">
         <v>114</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1264,7 +1264,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N158" activeCellId="0" sqref="N158"/>
+      <selection pane="bottomLeft" activeCell="M159" activeCellId="0" sqref="M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="257">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -784,10 +784,13 @@
     <t xml:space="preserve">300|300|300</t>
   </si>
   <si>
-    <t xml:space="preserve">3842.29|-18997.09|-73.57</t>
+    <t xml:space="preserve">3753.13|-18832.4|-158.57</t>
   </si>
   <si>
     <t xml:space="preserve">-4.83|0|29.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">训练关卡</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1264,10 @@
   </sheetPr>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M159" activeCellId="0" sqref="M159"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M177" activeCellId="0" sqref="M177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12840,7 +12843,7 @@
         <v>58</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="J172" s="4" t="n">
         <v>267079</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1264,10 +1264,10 @@
   </sheetPr>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M177" activeCellId="0" sqref="M177"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F170" activeCellId="0" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12822,7 +12822,7 @@
         <v>7001</v>
       </c>
       <c r="B172" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" s="5" t="n">
         <v>10057</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -2043,10 +2043,10 @@
   <sheetPr/>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
+      <selection pane="bottomLeft" activeCell="T172" sqref="T172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4916666666667" defaultRowHeight="14.5"/>
@@ -13654,8 +13654,8 @@
       <c r="S172" s="2">
         <v>2</v>
       </c>
-      <c r="T172" s="6" t="s">
-        <v>65</v>
+      <c r="T172" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="U172" s="2">
         <v>404268</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087607F-1A38-4862-B338-A46C5E0B488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -557,24 +551,138 @@
     <t>0|0|107.90</t>
   </si>
   <si>
+    <t>5365.98|203080.27|90</t>
+  </si>
+  <si>
+    <t>0|0|-216</t>
+  </si>
+  <si>
+    <t>4460.22|199769.59|90</t>
+  </si>
+  <si>
+    <t>0|0|180</t>
+  </si>
+  <si>
+    <t>5629.85|196538.45|90</t>
+  </si>
+  <si>
+    <t>0|0|216</t>
+  </si>
+  <si>
+    <t>8502.22|194630.44|90</t>
+  </si>
+  <si>
+    <t>0|0|-108</t>
+  </si>
+  <si>
+    <t>11956.52|194733.62|90</t>
+  </si>
+  <si>
+    <t>0|0|-72</t>
+  </si>
+  <si>
+    <t>14666.42|196898.38|90</t>
+  </si>
+  <si>
+    <t>0|0|-36</t>
+  </si>
+  <si>
     <t>15538.79|200233.52|90</t>
   </si>
   <si>
+    <t>9883.00|305855.00|196.01</t>
+  </si>
+  <si>
+    <t>-0.20|-0.30|-86.40</t>
+  </si>
+  <si>
     <t>10348.29|299135.9|392.2</t>
   </si>
   <si>
+    <t>6631.74|304783.47|196.01</t>
+  </si>
+  <si>
+    <t>-0.56|0.03|-56.30</t>
+  </si>
+  <si>
+    <t>4486.63|301942.09|177.01</t>
+  </si>
+  <si>
     <t>-0.56|0.03|-22.60</t>
   </si>
   <si>
+    <t>4400.88|298307.25|167.82</t>
+  </si>
+  <si>
+    <t>-0.56|0.03|14.80</t>
+  </si>
+  <si>
+    <t>6392.18|295348.69|194.00</t>
+  </si>
+  <si>
+    <t>0.50|0.03|47.70</t>
+  </si>
+  <si>
+    <t>9928.96|294194.09|205.00</t>
+  </si>
+  <si>
+    <t>0.65|0.01|88.00</t>
+  </si>
+  <si>
+    <t>13405.72|295249.69|211.00</t>
+  </si>
+  <si>
+    <t>0.10|-0.28|125.90</t>
+  </si>
+  <si>
+    <t>15515.27|298089.12|245.58</t>
+  </si>
+  <si>
+    <t>-0.56|0.03|157.70</t>
+  </si>
+  <si>
+    <t>15573.32|301758.81|209.77</t>
+  </si>
+  <si>
+    <t>-0.56|-0.10|-163.00</t>
+  </si>
+  <si>
+    <t>13551.24|304689.91|189.77</t>
+  </si>
+  <si>
+    <t>-0.56|-0.30|-129.00</t>
+  </si>
+  <si>
+    <t>16733.71|400274.16|128.48</t>
+  </si>
+  <si>
+    <t>0.90|1.50|-91.50</t>
+  </si>
+  <si>
     <t>9733.68|399408.75|433.39</t>
   </si>
   <si>
+    <t>15269.37|404165.94|58.00</t>
+  </si>
+  <si>
+    <t>1.00|0.20|-55.70</t>
+  </si>
+  <si>
     <t>11812.3|406487.94|12.00</t>
   </si>
   <si>
+    <t>1.80|-0.50|-19.60</t>
+  </si>
+  <si>
+    <t>7669.08|406315.56|71.00</t>
+  </si>
+  <si>
     <t>1.00|-0.90|16.10</t>
   </si>
   <si>
+    <t>4401.78|403746.88|151.00</t>
+  </si>
+  <si>
     <t>1.00|-1.00|52.00</t>
   </si>
   <si>
@@ -584,6 +692,15 @@
     <t>-0.50|-1.20|88.14</t>
   </si>
   <si>
+    <t>4717.15|395831.03|376.98</t>
+  </si>
+  <si>
+    <t>-1.40|-0.50|124.40</t>
+  </si>
+  <si>
+    <t>8181.61|393519.19|392.64</t>
+  </si>
+  <si>
     <t>-1.56|0.00|160.32</t>
   </si>
   <si>
@@ -593,18 +710,30 @@
     <t>-1.30|0.50|-163.50</t>
   </si>
   <si>
+    <t>15600.29|396267.47|265.00</t>
+  </si>
+  <si>
     <t>-0.80|0.50|-127.60</t>
   </si>
   <si>
+    <t>143495.16|401833.53|241.44</t>
+  </si>
+  <si>
     <t>0.10|0.00|72.00</t>
   </si>
   <si>
     <t>149941.8|399465.1|551</t>
   </si>
   <si>
+    <t>143659.09|397676.84|245.44</t>
+  </si>
+  <si>
     <t>0.30|0.26|107.86</t>
   </si>
   <si>
+    <t>146259.41|394383.38|243.44</t>
+  </si>
+  <si>
     <t>0.00|0.00|144.00</t>
   </si>
   <si>
@@ -614,6 +743,21 @@
     <t>0|0|180.00</t>
   </si>
   <si>
+    <t>154178.56|394701.00|254.66</t>
+  </si>
+  <si>
+    <t>0|0|-144.00</t>
+  </si>
+  <si>
+    <t>156496.27|398172.97|242.66</t>
+  </si>
+  <si>
+    <t>0|0|-107.81</t>
+  </si>
+  <si>
+    <t>156337.08|402336.88|245.66</t>
+  </si>
+  <si>
     <t>0|0|-72.19</t>
   </si>
   <si>
@@ -623,6 +767,12 @@
     <t>0|0|-36.00</t>
   </si>
   <si>
+    <t>149734.83|406760.31|242.44</t>
+  </si>
+  <si>
+    <t>145818.02|405320.19|245.44</t>
+  </si>
+  <si>
     <t>0|0|35.66</t>
   </si>
   <si>
@@ -648,169 +798,19 @@
   </si>
   <si>
     <t>训练关卡</t>
-  </si>
-  <si>
-    <t>5365.98|203080.27|90</t>
-  </si>
-  <si>
-    <t>4460.22|199769.59|90</t>
-  </si>
-  <si>
-    <t>5629.85|196538.45|90</t>
-  </si>
-  <si>
-    <t>8502.22|194630.44|90</t>
-  </si>
-  <si>
-    <t>11956.52|194733.62|90</t>
-  </si>
-  <si>
-    <t>14666.42|196898.38|90</t>
-  </si>
-  <si>
-    <t>9883.00|305855.00|196.01</t>
-  </si>
-  <si>
-    <t>6631.74|304783.47|196.01</t>
-  </si>
-  <si>
-    <t>4486.63|301942.09|177.01</t>
-  </si>
-  <si>
-    <t>4400.88|298307.25|167.82</t>
-  </si>
-  <si>
-    <t>6392.18|295348.69|194.00</t>
-  </si>
-  <si>
-    <t>9928.96|294194.09|205.00</t>
-  </si>
-  <si>
-    <t>13405.72|295249.69|211.00</t>
-  </si>
-  <si>
-    <t>15515.27|298089.12|245.58</t>
-  </si>
-  <si>
-    <t>15573.32|301758.81|209.77</t>
-  </si>
-  <si>
-    <t>13551.24|304689.91|189.77</t>
-  </si>
-  <si>
-    <t>16733.71|400274.16|128.48</t>
-  </si>
-  <si>
-    <t>15269.37|404165.94|58.00</t>
-  </si>
-  <si>
-    <t>7669.08|406315.56|71.00</t>
-  </si>
-  <si>
-    <t>4401.78|403746.88|151.00</t>
-  </si>
-  <si>
-    <t>4717.15|395831.03|376.98</t>
-  </si>
-  <si>
-    <t>8181.61|393519.19|392.64</t>
-  </si>
-  <si>
-    <t>15600.29|396267.47|265.00</t>
-  </si>
-  <si>
-    <t>143495.16|401833.53|241.44</t>
-  </si>
-  <si>
-    <t>143659.09|397676.84|245.44</t>
-  </si>
-  <si>
-    <t>146259.41|394383.38|243.44</t>
-  </si>
-  <si>
-    <t>154178.56|394701.00|254.66</t>
-  </si>
-  <si>
-    <t>156496.27|398172.97|242.66</t>
-  </si>
-  <si>
-    <t>156337.08|402336.88|245.66</t>
-  </si>
-  <si>
-    <t>149734.83|406760.31|242.44</t>
-  </si>
-  <si>
-    <t>145818.02|405320.19|245.44</t>
-  </si>
-  <si>
-    <t>0|0|-216</t>
-  </si>
-  <si>
-    <t>0|0|180</t>
-  </si>
-  <si>
-    <t>0|0|216</t>
-  </si>
-  <si>
-    <t>0|0|-108</t>
-  </si>
-  <si>
-    <t>0|0|-72</t>
-  </si>
-  <si>
-    <t>0|0|-36</t>
-  </si>
-  <si>
-    <t>-0.20|-0.30|-86.40</t>
-  </si>
-  <si>
-    <t>-0.56|0.03|-56.30</t>
-  </si>
-  <si>
-    <t>-0.56|0.03|14.80</t>
-  </si>
-  <si>
-    <t>0.50|0.03|47.70</t>
-  </si>
-  <si>
-    <t>0.65|0.01|88.00</t>
-  </si>
-  <si>
-    <t>0.10|-0.28|125.90</t>
-  </si>
-  <si>
-    <t>-0.56|0.03|157.70</t>
-  </si>
-  <si>
-    <t>-0.56|-0.10|-163.00</t>
-  </si>
-  <si>
-    <t>-0.56|-0.30|-129.00</t>
-  </si>
-  <si>
-    <t>0.90|1.50|-91.50</t>
-  </si>
-  <si>
-    <t>1.00|0.20|-55.70</t>
-  </si>
-  <si>
-    <t>1.80|-0.50|-19.60</t>
-  </si>
-  <si>
-    <t>-1.40|-0.50|124.40</t>
-  </si>
-  <si>
-    <t>0|0|-144.00</t>
-  </si>
-  <si>
-    <t>0|0|-107.81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -836,24 +836,170 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,8 +1024,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -902,9 +1234,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -932,175 +1506,106 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1111,7 +1616,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1139,32 +1644,149 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1235,15 +1857,12 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FF00A933"/>
+      <color rgb="0000A933"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1302,7 +1921,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1419,20 +2038,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="3" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -1450,7 +2070,7 @@
     <col min="22" max="22" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="12.75" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="12.75" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +2206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" ht="16.5" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1614,10 +2234,10 @@
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1647,14 +2267,14 @@
       <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="12.75" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1670,7 +2290,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="9.75" customHeight="1" spans="1:22">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1733,7 +2353,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="12.75" customHeight="1" spans="1:22">
       <c r="A6" s="4">
         <v>1001</v>
       </c>
@@ -1758,7 +2378,7 @@
       <c r="H6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="3">
@@ -1801,7 +2421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="12.75" customHeight="1" spans="1:22">
       <c r="A7" s="4">
         <v>1002</v>
       </c>
@@ -1826,7 +2446,7 @@
       <c r="H7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="3">
@@ -1839,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>68</v>
@@ -1866,7 +2486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="12.75" customHeight="1" spans="1:22">
       <c r="A8" s="4">
         <v>1003</v>
       </c>
@@ -1891,7 +2511,7 @@
       <c r="H8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J8" s="3">
@@ -1904,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>76</v>
@@ -1931,7 +2551,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="12.75" customHeight="1" spans="1:22">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
@@ -1956,7 +2576,7 @@
       <c r="H9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J9" s="3">
@@ -1996,7 +2616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="12.75" customHeight="1" spans="1:22">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -2021,7 +2641,7 @@
       <c r="H10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J10" s="3">
@@ -2034,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>92</v>
@@ -2061,7 +2681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="12.75" customHeight="1" spans="1:22">
       <c r="A11" s="4">
         <v>2003</v>
       </c>
@@ -2086,7 +2706,7 @@
       <c r="H11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J11" s="3">
@@ -2099,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
         <v>97</v>
@@ -2126,7 +2746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:22">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -2151,7 +2771,7 @@
       <c r="H12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J12">
@@ -2191,7 +2811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:22">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -2216,7 +2836,7 @@
       <c r="H13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J13">
@@ -2229,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>109</v>
@@ -2256,7 +2876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:22">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -2281,7 +2901,7 @@
       <c r="H14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J14">
@@ -2294,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
         <v>114</v>
@@ -2321,7 +2941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:22">
       <c r="A15">
         <v>4001</v>
       </c>
@@ -2346,7 +2966,7 @@
       <c r="H15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J15">
@@ -2386,7 +3006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:22">
       <c r="A16">
         <v>4002</v>
       </c>
@@ -2411,7 +3031,7 @@
       <c r="H16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J16">
@@ -2424,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
         <v>109</v>
@@ -2451,7 +3071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:22">
       <c r="A17">
         <v>4003</v>
       </c>
@@ -2476,7 +3096,7 @@
       <c r="H17" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J17">
@@ -2489,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
         <v>114</v>
@@ -2516,7 +3136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:22">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -2541,7 +3161,7 @@
       <c r="H18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J18">
@@ -2581,7 +3201,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:22">
       <c r="A19">
         <v>5002</v>
       </c>
@@ -2606,7 +3226,7 @@
       <c r="H19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J19">
@@ -2619,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
         <v>109</v>
@@ -2646,7 +3266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:22">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -2671,7 +3291,7 @@
       <c r="H20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J20">
@@ -2684,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>114</v>
@@ -2711,7 +3331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
       <c r="A21" s="6">
         <v>1004</v>
       </c>
@@ -2736,7 +3356,7 @@
       <c r="H21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="7">
@@ -2748,7 +3368,7 @@
       <c r="L21" s="7">
         <v>0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="3">
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -2779,7 +3399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="12.75" customHeight="1" spans="1:22">
       <c r="A22" s="4">
         <v>1005</v>
       </c>
@@ -2804,7 +3424,7 @@
       <c r="H22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J22" s="3">
@@ -2847,7 +3467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="12.75" customHeight="1" spans="1:22">
       <c r="A23" s="4">
         <v>1006</v>
       </c>
@@ -2872,7 +3492,7 @@
       <c r="H23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J23" s="3">
@@ -2915,7 +3535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:22">
       <c r="A24" s="4">
         <v>1007</v>
       </c>
@@ -2940,7 +3560,7 @@
       <c r="H24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="3">
@@ -2983,7 +3603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:22">
       <c r="A25" s="4">
         <v>1008</v>
       </c>
@@ -3008,7 +3628,7 @@
       <c r="H25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J25" s="3">
@@ -3051,7 +3671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:22">
       <c r="A26" s="4">
         <v>1009</v>
       </c>
@@ -3076,7 +3696,7 @@
       <c r="H26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J26" s="3">
@@ -3119,7 +3739,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:22">
       <c r="A27" s="4">
         <v>1010</v>
       </c>
@@ -3144,7 +3764,7 @@
       <c r="H27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J27" s="3">
@@ -3187,7 +3807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:22">
       <c r="A28" s="4">
         <v>1011</v>
       </c>
@@ -3212,7 +3832,7 @@
       <c r="H28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J28" s="3">
@@ -3255,7 +3875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:22">
       <c r="A29" s="4">
         <v>1012</v>
       </c>
@@ -3280,7 +3900,7 @@
       <c r="H29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J29" s="3">
@@ -3323,7 +3943,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:22">
       <c r="A30" s="4">
         <v>1013</v>
       </c>
@@ -3348,7 +3968,7 @@
       <c r="H30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="3">
@@ -3391,7 +4011,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:22">
       <c r="A31" s="4">
         <v>1014</v>
       </c>
@@ -3416,7 +4036,7 @@
       <c r="H31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J31" s="3">
@@ -3459,7 +4079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" spans="1:22">
       <c r="A32" s="4">
         <v>1015</v>
       </c>
@@ -3484,7 +4104,7 @@
       <c r="H32" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J32" s="3">
@@ -3527,7 +4147,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="33" ht="16.5" spans="1:22">
       <c r="A33" s="4">
         <v>1016</v>
       </c>
@@ -3552,7 +4172,7 @@
       <c r="H33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="3">
@@ -3595,7 +4215,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="34" ht="16.5" spans="1:22">
       <c r="A34" s="4">
         <v>1017</v>
       </c>
@@ -3620,7 +4240,7 @@
       <c r="H34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J34" s="3">
@@ -3663,7 +4283,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="35" ht="16.5" spans="1:22">
       <c r="A35" s="4">
         <v>1018</v>
       </c>
@@ -3688,7 +4308,7 @@
       <c r="H35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J35" s="3">
@@ -3731,7 +4351,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="36" ht="16.5" spans="1:22">
       <c r="A36" s="4">
         <v>1019</v>
       </c>
@@ -3756,7 +4376,7 @@
       <c r="H36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="3">
@@ -3799,7 +4419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="37" ht="16.5" spans="1:22">
       <c r="A37" s="4">
         <v>1020</v>
       </c>
@@ -3824,7 +4444,7 @@
       <c r="H37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J37" s="3">
@@ -3867,7 +4487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="38" ht="16.5" spans="1:22">
       <c r="A38" s="4">
         <v>1021</v>
       </c>
@@ -3892,7 +4512,7 @@
       <c r="H38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J38" s="3">
@@ -3935,7 +4555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="39" ht="16.5" spans="1:22">
       <c r="A39" s="4">
         <v>1022</v>
       </c>
@@ -3960,7 +4580,7 @@
       <c r="H39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J39" s="3">
@@ -4003,7 +4623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="40" ht="16.5" spans="1:22">
       <c r="A40" s="4">
         <v>1023</v>
       </c>
@@ -4028,7 +4648,7 @@
       <c r="H40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J40" s="3">
@@ -4071,7 +4691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="41" ht="16.5" spans="1:22">
       <c r="A41" s="4">
         <v>1024</v>
       </c>
@@ -4096,7 +4716,7 @@
       <c r="H41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J41" s="3">
@@ -4139,7 +4759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="42" ht="16.5" spans="1:22">
       <c r="A42" s="4">
         <v>1025</v>
       </c>
@@ -4164,7 +4784,7 @@
       <c r="H42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J42" s="3">
@@ -4207,7 +4827,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="43" ht="16.5" spans="1:22">
       <c r="A43" s="4">
         <v>1026</v>
       </c>
@@ -4232,7 +4852,7 @@
       <c r="H43" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J43" s="3">
@@ -4275,7 +4895,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="44" ht="16.5" spans="1:22">
       <c r="A44" s="4">
         <v>1027</v>
       </c>
@@ -4300,7 +4920,7 @@
       <c r="H44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J44" s="3">
@@ -4343,7 +4963,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="45" ht="16.5" spans="1:22">
       <c r="A45" s="4">
         <v>1028</v>
       </c>
@@ -4368,7 +4988,7 @@
       <c r="H45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J45" s="3">
@@ -4411,7 +5031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="46" ht="16.5" spans="1:22">
       <c r="A46" s="4">
         <v>1029</v>
       </c>
@@ -4436,7 +5056,7 @@
       <c r="H46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J46" s="3">
@@ -4479,7 +5099,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="47" ht="16.5" spans="1:22">
       <c r="A47" s="4">
         <v>1030</v>
       </c>
@@ -4504,7 +5124,7 @@
       <c r="H47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J47" s="3">
@@ -4547,7 +5167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="48" ht="16.5" spans="1:22">
       <c r="A48" s="4">
         <v>1031</v>
       </c>
@@ -4572,7 +5192,7 @@
       <c r="H48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J48" s="3">
@@ -4615,7 +5235,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="49" ht="16.5" spans="1:22">
       <c r="A49" s="4">
         <v>1032</v>
       </c>
@@ -4640,7 +5260,7 @@
       <c r="H49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J49" s="3">
@@ -4683,7 +5303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A50" s="6">
         <v>1033</v>
       </c>
@@ -4708,7 +5328,7 @@
       <c r="H50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="13" t="s">
         <v>75</v>
       </c>
       <c r="J50" s="7">
@@ -4751,7 +5371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" ht="12.75" customHeight="1" spans="1:22">
       <c r="A51" s="4">
         <v>2004</v>
       </c>
@@ -4776,7 +5396,7 @@
       <c r="H51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J51" s="3">
@@ -4819,7 +5439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" ht="12.75" customHeight="1" spans="1:22">
       <c r="A52" s="4">
         <v>2005</v>
       </c>
@@ -4844,7 +5464,7 @@
       <c r="H52" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J52" s="3">
@@ -4887,7 +5507,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" ht="12.75" customHeight="1" spans="1:22">
       <c r="A53" s="4">
         <v>2006</v>
       </c>
@@ -4912,7 +5532,7 @@
       <c r="H53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J53" s="3">
@@ -4955,7 +5575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" ht="12.75" customHeight="1" spans="1:22">
       <c r="A54" s="4">
         <v>2007</v>
       </c>
@@ -4980,7 +5600,7 @@
       <c r="H54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J54" s="3">
@@ -5023,7 +5643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" ht="12.75" customHeight="1" spans="1:22">
       <c r="A55" s="4">
         <v>2008</v>
       </c>
@@ -5048,7 +5668,7 @@
       <c r="H55" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J55" s="3">
@@ -5091,7 +5711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" ht="12.75" customHeight="1" spans="1:22">
       <c r="A56" s="4">
         <v>2009</v>
       </c>
@@ -5116,7 +5736,7 @@
       <c r="H56" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J56" s="3">
@@ -5159,7 +5779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" ht="12.75" customHeight="1" spans="1:22">
       <c r="A57" s="4">
         <v>2010</v>
       </c>
@@ -5184,7 +5804,7 @@
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J57" s="3">
@@ -5227,7 +5847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" ht="12.75" customHeight="1" spans="1:22">
       <c r="A58" s="4">
         <v>2011</v>
       </c>
@@ -5252,7 +5872,7 @@
       <c r="H58" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J58" s="3">
@@ -5295,7 +5915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" ht="12.75" customHeight="1" spans="1:22">
       <c r="A59" s="4">
         <v>2012</v>
       </c>
@@ -5320,7 +5940,7 @@
       <c r="H59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J59" s="3">
@@ -5363,7 +5983,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" ht="12.75" customHeight="1" spans="1:22">
       <c r="A60" s="4">
         <v>2013</v>
       </c>
@@ -5380,15 +6000,15 @@
         <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J60" s="3">
@@ -5431,7 +6051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" ht="12.75" customHeight="1" spans="1:22">
       <c r="A61" s="4">
         <v>2014</v>
       </c>
@@ -5448,15 +6068,15 @@
         <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J61" s="3">
@@ -5499,7 +6119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" ht="12.75" customHeight="1" spans="1:22">
       <c r="A62" s="4">
         <v>2015</v>
       </c>
@@ -5516,15 +6136,15 @@
         <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J62" s="3">
@@ -5567,7 +6187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" ht="12.75" customHeight="1" spans="1:22">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
@@ -5584,15 +6204,15 @@
         <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J63" s="3">
@@ -5635,7 +6255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" ht="12.75" customHeight="1" spans="1:22">
       <c r="A64" s="4">
         <v>2017</v>
       </c>
@@ -5652,15 +6272,15 @@
         <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J64" s="3">
@@ -5703,7 +6323,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" ht="12.75" customHeight="1" spans="1:22">
       <c r="A65" s="4">
         <v>2018</v>
       </c>
@@ -5720,15 +6340,15 @@
         <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J65" s="3">
@@ -5771,7 +6391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" ht="12.75" customHeight="1" spans="1:22">
       <c r="A66" s="4">
         <v>2019</v>
       </c>
@@ -5788,15 +6408,15 @@
         <v>53</v>
       </c>
       <c r="F66" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J66" s="3">
@@ -5839,7 +6459,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" ht="12.75" customHeight="1" spans="1:22">
       <c r="A67" s="4">
         <v>2020</v>
       </c>
@@ -5856,15 +6476,15 @@
         <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J67" s="3">
@@ -5907,7 +6527,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" ht="12.75" customHeight="1" spans="1:22">
       <c r="A68" s="4">
         <v>2021</v>
       </c>
@@ -5924,15 +6544,15 @@
         <v>53</v>
       </c>
       <c r="F68" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J68" s="3">
@@ -5975,7 +6595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" ht="12.75" customHeight="1" spans="1:22">
       <c r="A69" s="4">
         <v>2022</v>
       </c>
@@ -5992,15 +6612,15 @@
         <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I69" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J69" s="3">
@@ -6043,7 +6663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" ht="12.75" customHeight="1" spans="1:22">
       <c r="A70" s="4">
         <v>2023</v>
       </c>
@@ -6060,15 +6680,15 @@
         <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J70" s="3">
@@ -6111,7 +6731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" ht="12.75" customHeight="1" spans="1:22">
       <c r="A71" s="4">
         <v>2024</v>
       </c>
@@ -6128,15 +6748,15 @@
         <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J71" s="3">
@@ -6179,7 +6799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" ht="12.75" customHeight="1" spans="1:22">
       <c r="A72" s="4">
         <v>2025</v>
       </c>
@@ -6196,15 +6816,15 @@
         <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J72" s="3">
@@ -6247,7 +6867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" ht="12.75" customHeight="1" spans="1:22">
       <c r="A73" s="4">
         <v>2026</v>
       </c>
@@ -6264,15 +6884,15 @@
         <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G73" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J73" s="3">
@@ -6315,7 +6935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" ht="12.75" customHeight="1" spans="1:22">
       <c r="A74" s="4">
         <v>2027</v>
       </c>
@@ -6332,15 +6952,15 @@
         <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G74" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J74" s="3">
@@ -6383,7 +7003,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" ht="12.75" customHeight="1" spans="1:22">
       <c r="A75" s="4">
         <v>2028</v>
       </c>
@@ -6400,15 +7020,15 @@
         <v>53</v>
       </c>
       <c r="F75" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G75" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="I75" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J75" s="3">
@@ -6451,7 +7071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" ht="12.75" customHeight="1" spans="1:22">
       <c r="A76" s="4">
         <v>2029</v>
       </c>
@@ -6468,15 +7088,15 @@
         <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G76" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J76" s="3">
@@ -6519,7 +7139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" ht="12.75" customHeight="1" spans="1:22">
       <c r="A77" s="4">
         <v>2030</v>
       </c>
@@ -6536,15 +7156,15 @@
         <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="12" t="s">
         <v>96</v>
       </c>
       <c r="J77" s="3">
@@ -6587,7 +7207,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" ht="12.75" customHeight="1" spans="1:22">
       <c r="A78" s="4">
         <v>2031</v>
       </c>
@@ -6604,7 +7224,7 @@
         <v>53</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G78" t="s">
         <v>73</v>
@@ -6612,7 +7232,7 @@
       <c r="H78" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J78" s="3">
@@ -6655,7 +7275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" ht="12.75" customHeight="1" spans="1:22">
       <c r="A79" s="4">
         <v>2032</v>
       </c>
@@ -6672,7 +7292,7 @@
         <v>53</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G79" t="s">
         <v>73</v>
@@ -6680,7 +7300,7 @@
       <c r="H79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="12" t="s">
         <v>91</v>
       </c>
       <c r="J79" s="3">
@@ -6723,7 +7343,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
       <c r="A80" s="6">
         <v>2033</v>
       </c>
@@ -6739,16 +7359,16 @@
       <c r="E80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="13" t="s">
         <v>96</v>
       </c>
       <c r="J80" s="7">
@@ -6791,7 +7411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" ht="16.5" spans="1:22">
       <c r="A81">
         <v>3004</v>
       </c>
@@ -6808,15 +7428,15 @@
         <v>53</v>
       </c>
       <c r="F81" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G81" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J81">
@@ -6850,7 +7470,7 @@
         <v>4</v>
       </c>
       <c r="T81" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U81">
         <v>404269</v>
@@ -6859,7 +7479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" ht="16.5" spans="1:22">
       <c r="A82">
         <v>3005</v>
       </c>
@@ -6876,15 +7496,15 @@
         <v>53</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G82" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="I82" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J82">
@@ -6918,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="T82" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U82">
         <v>404269</v>
@@ -6927,7 +7547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" ht="16.5" spans="1:22">
       <c r="A83">
         <v>3006</v>
       </c>
@@ -6944,15 +7564,15 @@
         <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G83" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J83">
@@ -6986,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="T83" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U83">
         <v>404269</v>
@@ -6995,7 +7615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" ht="16.5" spans="1:22">
       <c r="A84">
         <v>3007</v>
       </c>
@@ -7012,15 +7632,15 @@
         <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I84" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J84">
@@ -7054,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="T84" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U84">
         <v>404269</v>
@@ -7063,7 +7683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" ht="16.5" spans="1:22">
       <c r="A85">
         <v>3008</v>
       </c>
@@ -7080,15 +7700,15 @@
         <v>53</v>
       </c>
       <c r="F85" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J85">
@@ -7122,7 +7742,7 @@
         <v>4</v>
       </c>
       <c r="T85" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U85">
         <v>404269</v>
@@ -7131,7 +7751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" ht="16.5" spans="1:22">
       <c r="A86">
         <v>3009</v>
       </c>
@@ -7148,15 +7768,15 @@
         <v>53</v>
       </c>
       <c r="F86" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G86" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J86">
@@ -7190,7 +7810,7 @@
         <v>4</v>
       </c>
       <c r="T86" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U86">
         <v>404269</v>
@@ -7199,7 +7819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" ht="16.5" spans="1:22">
       <c r="A87">
         <v>3010</v>
       </c>
@@ -7216,15 +7836,15 @@
         <v>53</v>
       </c>
       <c r="F87" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G87" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J87">
@@ -7258,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="T87" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U87">
         <v>404269</v>
@@ -7267,7 +7887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" ht="16.5" spans="1:22">
       <c r="A88">
         <v>3011</v>
       </c>
@@ -7284,15 +7904,15 @@
         <v>53</v>
       </c>
       <c r="F88" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G88" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J88">
@@ -7326,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="T88" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U88">
         <v>404269</v>
@@ -7335,7 +7955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" ht="16.5" spans="1:22">
       <c r="A89">
         <v>3012</v>
       </c>
@@ -7352,15 +7972,15 @@
         <v>53</v>
       </c>
       <c r="F89" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G89" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J89">
@@ -7394,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="T89" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U89">
         <v>404269</v>
@@ -7403,7 +8023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" ht="16.5" spans="1:22">
       <c r="A90">
         <v>3013</v>
       </c>
@@ -7420,15 +8040,15 @@
         <v>53</v>
       </c>
       <c r="F90" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G90" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J90">
@@ -7462,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="T90" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U90">
         <v>404269</v>
@@ -7471,7 +8091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" ht="16.5" spans="1:22">
       <c r="A91">
         <v>3014</v>
       </c>
@@ -7488,15 +8108,15 @@
         <v>53</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G91" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I91" s="13" t="s">
+      <c r="I91" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J91">
@@ -7530,7 +8150,7 @@
         <v>4</v>
       </c>
       <c r="T91" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U91">
         <v>404269</v>
@@ -7539,7 +8159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" ht="16.5" spans="1:22">
       <c r="A92">
         <v>3015</v>
       </c>
@@ -7556,15 +8176,15 @@
         <v>53</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="G92" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="I92" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J92">
@@ -7598,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="T92" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U92">
         <v>404269</v>
@@ -7607,7 +8227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" ht="16.5" spans="1:22">
       <c r="A93">
         <v>3016</v>
       </c>
@@ -7624,15 +8244,15 @@
         <v>53</v>
       </c>
       <c r="F93" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="I93" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J93">
@@ -7666,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="T93" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U93">
         <v>404269</v>
@@ -7675,7 +8295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" ht="16.5" spans="1:22">
       <c r="A94">
         <v>3017</v>
       </c>
@@ -7692,15 +8312,15 @@
         <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G94" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="I94" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J94">
@@ -7734,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="T94" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U94">
         <v>404269</v>
@@ -7743,7 +8363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" ht="16.5" spans="1:22">
       <c r="A95">
         <v>3018</v>
       </c>
@@ -7760,15 +8380,15 @@
         <v>53</v>
       </c>
       <c r="F95" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I95" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J95">
@@ -7802,7 +8422,7 @@
         <v>4</v>
       </c>
       <c r="T95" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U95">
         <v>404269</v>
@@ -7811,7 +8431,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" ht="16.5" spans="1:22">
       <c r="A96">
         <v>3019</v>
       </c>
@@ -7828,15 +8448,15 @@
         <v>53</v>
       </c>
       <c r="F96" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G96" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="I96" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J96">
@@ -7870,7 +8490,7 @@
         <v>4</v>
       </c>
       <c r="T96" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U96">
         <v>404269</v>
@@ -7879,7 +8499,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" ht="16.5" spans="1:22">
       <c r="A97">
         <v>3020</v>
       </c>
@@ -7896,15 +8516,15 @@
         <v>53</v>
       </c>
       <c r="F97" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J97">
@@ -7938,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="T97" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U97">
         <v>404269</v>
@@ -7947,7 +8567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="98" ht="16.5" spans="1:22">
       <c r="A98">
         <v>3021</v>
       </c>
@@ -7964,15 +8584,15 @@
         <v>53</v>
       </c>
       <c r="F98" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G98" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J98">
@@ -8006,7 +8626,7 @@
         <v>4</v>
       </c>
       <c r="T98" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U98">
         <v>404269</v>
@@ -8015,7 +8635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" ht="16.5" spans="1:22">
       <c r="A99">
         <v>3022</v>
       </c>
@@ -8032,15 +8652,15 @@
         <v>53</v>
       </c>
       <c r="F99" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G99" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I99" s="13" t="s">
+      <c r="I99" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J99">
@@ -8074,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="T99" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U99">
         <v>404269</v>
@@ -8083,7 +8703,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" ht="16.5" spans="1:22">
       <c r="A100">
         <v>3023</v>
       </c>
@@ -8100,15 +8720,15 @@
         <v>53</v>
       </c>
       <c r="F100" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G100" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="I100" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J100">
@@ -8142,7 +8762,7 @@
         <v>4</v>
       </c>
       <c r="T100" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U100">
         <v>404269</v>
@@ -8151,7 +8771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" ht="16.5" spans="1:22">
       <c r="A101">
         <v>3024</v>
       </c>
@@ -8168,15 +8788,15 @@
         <v>53</v>
       </c>
       <c r="F101" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G101" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I101" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J101">
@@ -8210,7 +8830,7 @@
         <v>4</v>
       </c>
       <c r="T101" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U101">
         <v>404269</v>
@@ -8219,7 +8839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" ht="16.5" spans="1:22">
       <c r="A102">
         <v>3025</v>
       </c>
@@ -8236,15 +8856,15 @@
         <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G102" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J102">
@@ -8278,7 +8898,7 @@
         <v>4</v>
       </c>
       <c r="T102" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U102">
         <v>404269</v>
@@ -8287,7 +8907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" ht="16.5" spans="1:22">
       <c r="A103">
         <v>3026</v>
       </c>
@@ -8304,15 +8924,15 @@
         <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G103" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J103">
@@ -8346,7 +8966,7 @@
         <v>4</v>
       </c>
       <c r="T103" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U103">
         <v>404269</v>
@@ -8355,7 +8975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" ht="16.5" spans="1:22">
       <c r="A104">
         <v>3027</v>
       </c>
@@ -8372,15 +8992,15 @@
         <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G104" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I104" s="13" t="s">
+      <c r="I104" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J104">
@@ -8414,7 +9034,7 @@
         <v>4</v>
       </c>
       <c r="T104" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U104">
         <v>404269</v>
@@ -8423,7 +9043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" ht="16.5" spans="1:22">
       <c r="A105">
         <v>3028</v>
       </c>
@@ -8440,15 +9060,15 @@
         <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G105" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I105" s="13" t="s">
+      <c r="I105" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J105">
@@ -8482,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="T105" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U105">
         <v>404269</v>
@@ -8491,7 +9111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" ht="16.5" spans="1:22">
       <c r="A106">
         <v>3029</v>
       </c>
@@ -8508,15 +9128,15 @@
         <v>53</v>
       </c>
       <c r="F106" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G106" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I106" s="13" t="s">
+      <c r="I106" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J106">
@@ -8550,7 +9170,7 @@
         <v>4</v>
       </c>
       <c r="T106" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U106">
         <v>404269</v>
@@ -8559,7 +9179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" ht="16.5" spans="1:22">
       <c r="A107">
         <v>3030</v>
       </c>
@@ -8576,15 +9196,15 @@
         <v>53</v>
       </c>
       <c r="F107" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G107" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I107" s="13" t="s">
+      <c r="I107" s="12" t="s">
         <v>113</v>
       </c>
       <c r="J107">
@@ -8618,7 +9238,7 @@
         <v>4</v>
       </c>
       <c r="T107" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U107">
         <v>404269</v>
@@ -8627,7 +9247,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" ht="16.5" spans="1:22">
       <c r="A108">
         <v>3031</v>
       </c>
@@ -8644,15 +9264,15 @@
         <v>53</v>
       </c>
       <c r="F108" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G108" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="I108" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J108">
@@ -8686,7 +9306,7 @@
         <v>4</v>
       </c>
       <c r="T108" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U108">
         <v>404269</v>
@@ -8695,7 +9315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" ht="16.5" spans="1:22">
       <c r="A109">
         <v>3032</v>
       </c>
@@ -8712,15 +9332,15 @@
         <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I109" s="13" t="s">
+      <c r="I109" s="12" t="s">
         <v>108</v>
       </c>
       <c r="J109">
@@ -8754,7 +9374,7 @@
         <v>4</v>
       </c>
       <c r="T109" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U109">
         <v>404269</v>
@@ -8763,7 +9383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A110" s="1">
         <v>3033</v>
       </c>
@@ -8779,16 +9399,16 @@
       <c r="E110" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F110" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>250</v>
+      <c r="F110" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I110" s="14" t="s">
+      <c r="I110" s="13" t="s">
         <v>113</v>
       </c>
       <c r="J110" s="1">
@@ -8822,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U110" s="1">
         <v>404269</v>
@@ -8831,7 +9451,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" ht="16.5" spans="1:22">
       <c r="A111">
         <v>4004</v>
       </c>
@@ -8848,15 +9468,15 @@
         <v>53</v>
       </c>
       <c r="F111" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G111" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I111" s="13" t="s">
+      <c r="I111" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J111">
@@ -8890,7 +9510,7 @@
         <v>5</v>
       </c>
       <c r="T111" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U111">
         <v>404266</v>
@@ -8899,7 +9519,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" ht="16.5" spans="1:22">
       <c r="A112">
         <v>4005</v>
       </c>
@@ -8916,15 +9536,15 @@
         <v>53</v>
       </c>
       <c r="F112" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G112" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I112" s="13" t="s">
+      <c r="I112" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J112">
@@ -8958,7 +9578,7 @@
         <v>5</v>
       </c>
       <c r="T112" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U112">
         <v>404266</v>
@@ -8967,7 +9587,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="113" ht="16.5" spans="1:22">
       <c r="A113">
         <v>4006</v>
       </c>
@@ -8984,15 +9604,15 @@
         <v>53</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G113" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I113" s="13" t="s">
+      <c r="I113" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J113">
@@ -9026,7 +9646,7 @@
         <v>5</v>
       </c>
       <c r="T113" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U113">
         <v>404266</v>
@@ -9035,7 +9655,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" ht="16.5" spans="1:22">
       <c r="A114">
         <v>4007</v>
       </c>
@@ -9052,15 +9672,15 @@
         <v>53</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G114" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I114" s="13" t="s">
+      <c r="I114" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J114">
@@ -9094,7 +9714,7 @@
         <v>5</v>
       </c>
       <c r="T114" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U114">
         <v>404266</v>
@@ -9103,7 +9723,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="115" ht="16.5" spans="1:22">
       <c r="A115">
         <v>4008</v>
       </c>
@@ -9120,15 +9740,15 @@
         <v>53</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G115" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I115" s="13" t="s">
+      <c r="I115" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J115">
@@ -9162,7 +9782,7 @@
         <v>5</v>
       </c>
       <c r="T115" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U115">
         <v>404266</v>
@@ -9171,7 +9791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="116" ht="16.5" spans="1:22">
       <c r="A116">
         <v>4009</v>
       </c>
@@ -9188,15 +9808,15 @@
         <v>53</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G116" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I116" s="13" t="s">
+      <c r="I116" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J116">
@@ -9230,7 +9850,7 @@
         <v>5</v>
       </c>
       <c r="T116" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U116">
         <v>404266</v>
@@ -9239,7 +9859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" ht="16.5" spans="1:22">
       <c r="A117">
         <v>4010</v>
       </c>
@@ -9256,15 +9876,15 @@
         <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G117" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I117" s="13" t="s">
+      <c r="I117" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J117">
@@ -9298,7 +9918,7 @@
         <v>5</v>
       </c>
       <c r="T117" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U117">
         <v>404266</v>
@@ -9307,7 +9927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="118" ht="16.5" spans="1:22">
       <c r="A118">
         <v>4011</v>
       </c>
@@ -9324,15 +9944,15 @@
         <v>53</v>
       </c>
       <c r="F118" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G118" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I118" s="13" t="s">
+      <c r="I118" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J118">
@@ -9366,7 +9986,7 @@
         <v>5</v>
       </c>
       <c r="T118" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U118">
         <v>404266</v>
@@ -9375,7 +9995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" ht="16.5" spans="1:22">
       <c r="A119">
         <v>4012</v>
       </c>
@@ -9392,15 +10012,15 @@
         <v>53</v>
       </c>
       <c r="F119" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G119" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="13" t="s">
+      <c r="I119" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J119">
@@ -9434,7 +10054,7 @@
         <v>5</v>
       </c>
       <c r="T119" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U119">
         <v>404266</v>
@@ -9443,7 +10063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="120" ht="16.5" spans="1:22">
       <c r="A120">
         <v>4013</v>
       </c>
@@ -9460,15 +10080,15 @@
         <v>53</v>
       </c>
       <c r="F120" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G120" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I120" s="13" t="s">
+      <c r="I120" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J120">
@@ -9502,7 +10122,7 @@
         <v>5</v>
       </c>
       <c r="T120" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U120">
         <v>404266</v>
@@ -9511,7 +10131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="121" ht="16.5" spans="1:22">
       <c r="A121">
         <v>4014</v>
       </c>
@@ -9528,15 +10148,15 @@
         <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G121" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I121" s="13" t="s">
+      <c r="I121" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J121">
@@ -9570,7 +10190,7 @@
         <v>5</v>
       </c>
       <c r="T121" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U121">
         <v>404266</v>
@@ -9579,7 +10199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="122" ht="16.5" spans="1:22">
       <c r="A122">
         <v>4015</v>
       </c>
@@ -9596,15 +10216,15 @@
         <v>53</v>
       </c>
       <c r="F122" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G122" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I122" s="13" t="s">
+      <c r="I122" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J122">
@@ -9638,7 +10258,7 @@
         <v>5</v>
       </c>
       <c r="T122" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U122">
         <v>404266</v>
@@ -9647,7 +10267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="123" ht="16.5" spans="1:22">
       <c r="A123">
         <v>4016</v>
       </c>
@@ -9664,15 +10284,15 @@
         <v>53</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G123" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I123" s="13" t="s">
+      <c r="I123" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J123">
@@ -9706,7 +10326,7 @@
         <v>5</v>
       </c>
       <c r="T123" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U123">
         <v>404266</v>
@@ -9715,7 +10335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="124" ht="16.5" spans="1:22">
       <c r="A124">
         <v>4017</v>
       </c>
@@ -9732,15 +10352,15 @@
         <v>53</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G124" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I124" s="13" t="s">
+      <c r="I124" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J124">
@@ -9774,7 +10394,7 @@
         <v>5</v>
       </c>
       <c r="T124" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U124">
         <v>404266</v>
@@ -9783,7 +10403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="125" ht="16.5" spans="1:22">
       <c r="A125">
         <v>4018</v>
       </c>
@@ -9800,15 +10420,15 @@
         <v>53</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G125" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I125" s="13" t="s">
+      <c r="I125" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J125">
@@ -9842,7 +10462,7 @@
         <v>5</v>
       </c>
       <c r="T125" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U125">
         <v>404266</v>
@@ -9851,7 +10471,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="126" ht="16.5" spans="1:22">
       <c r="A126">
         <v>4019</v>
       </c>
@@ -9868,15 +10488,15 @@
         <v>53</v>
       </c>
       <c r="F126" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G126" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I126" s="13" t="s">
+      <c r="I126" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J126">
@@ -9910,7 +10530,7 @@
         <v>5</v>
       </c>
       <c r="T126" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U126">
         <v>404266</v>
@@ -9919,7 +10539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="127" ht="16.5" spans="1:22">
       <c r="A127">
         <v>4020</v>
       </c>
@@ -9936,15 +10556,15 @@
         <v>53</v>
       </c>
       <c r="F127" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G127" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I127" s="13" t="s">
+      <c r="I127" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J127">
@@ -9978,7 +10598,7 @@
         <v>5</v>
       </c>
       <c r="T127" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U127">
         <v>404266</v>
@@ -9987,7 +10607,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="128" ht="16.5" spans="1:22">
       <c r="A128">
         <v>4021</v>
       </c>
@@ -10004,15 +10624,15 @@
         <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G128" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I128" s="13" t="s">
+      <c r="I128" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J128">
@@ -10046,7 +10666,7 @@
         <v>5</v>
       </c>
       <c r="T128" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U128">
         <v>404266</v>
@@ -10055,7 +10675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="129" ht="16.5" spans="1:22">
       <c r="A129">
         <v>4022</v>
       </c>
@@ -10072,15 +10692,15 @@
         <v>53</v>
       </c>
       <c r="F129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G129" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I129" s="13" t="s">
+      <c r="I129" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J129">
@@ -10114,7 +10734,7 @@
         <v>5</v>
       </c>
       <c r="T129" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U129">
         <v>404266</v>
@@ -10123,7 +10743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="130" ht="16.5" spans="1:22">
       <c r="A130">
         <v>4023</v>
       </c>
@@ -10140,15 +10760,15 @@
         <v>53</v>
       </c>
       <c r="F130" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G130" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I130" s="13" t="s">
+      <c r="I130" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J130">
@@ -10182,7 +10802,7 @@
         <v>5</v>
       </c>
       <c r="T130" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U130">
         <v>404266</v>
@@ -10191,7 +10811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="131" ht="16.5" spans="1:22">
       <c r="A131">
         <v>4024</v>
       </c>
@@ -10208,15 +10828,15 @@
         <v>53</v>
       </c>
       <c r="F131" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G131" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I131" s="13" t="s">
+      <c r="I131" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J131">
@@ -10250,7 +10870,7 @@
         <v>5</v>
       </c>
       <c r="T131" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U131">
         <v>404266</v>
@@ -10259,7 +10879,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="132" ht="16.5" spans="1:22">
       <c r="A132">
         <v>4025</v>
       </c>
@@ -10276,15 +10896,15 @@
         <v>53</v>
       </c>
       <c r="F132" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G132" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I132" s="13" t="s">
+      <c r="I132" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J132">
@@ -10318,7 +10938,7 @@
         <v>5</v>
       </c>
       <c r="T132" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U132">
         <v>404266</v>
@@ -10327,7 +10947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="133" ht="16.5" spans="1:22">
       <c r="A133">
         <v>4026</v>
       </c>
@@ -10344,15 +10964,15 @@
         <v>53</v>
       </c>
       <c r="F133" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G133" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I133" s="13" t="s">
+      <c r="I133" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J133">
@@ -10386,7 +11006,7 @@
         <v>5</v>
       </c>
       <c r="T133" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U133">
         <v>404266</v>
@@ -10395,7 +11015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="134" ht="16.5" spans="1:22">
       <c r="A134">
         <v>4027</v>
       </c>
@@ -10412,15 +11032,15 @@
         <v>53</v>
       </c>
       <c r="F134" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G134" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I134" s="13" t="s">
+      <c r="I134" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J134">
@@ -10454,7 +11074,7 @@
         <v>5</v>
       </c>
       <c r="T134" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U134">
         <v>404266</v>
@@ -10463,7 +11083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="135" ht="16.5" spans="1:22">
       <c r="A135">
         <v>4028</v>
       </c>
@@ -10480,15 +11100,15 @@
         <v>53</v>
       </c>
       <c r="F135" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="G135" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I135" s="13" t="s">
+      <c r="I135" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J135">
@@ -10522,7 +11142,7 @@
         <v>5</v>
       </c>
       <c r="T135" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U135">
         <v>404266</v>
@@ -10531,7 +11151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="136" ht="16.5" spans="1:22">
       <c r="A136">
         <v>4029</v>
       </c>
@@ -10548,15 +11168,15 @@
         <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="G136" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I136" s="13" t="s">
+      <c r="I136" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J136">
@@ -10590,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="T136" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U136">
         <v>404266</v>
@@ -10599,7 +11219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="137" ht="16.5" spans="1:22">
       <c r="A137">
         <v>4030</v>
       </c>
@@ -10616,15 +11236,15 @@
         <v>53</v>
       </c>
       <c r="F137" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="G137" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I137" s="13" t="s">
+      <c r="I137" s="12" t="s">
         <v>126</v>
       </c>
       <c r="J137">
@@ -10658,7 +11278,7 @@
         <v>5</v>
       </c>
       <c r="T137" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U137">
         <v>404266</v>
@@ -10667,7 +11287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="138" ht="16.5" spans="1:22">
       <c r="A138">
         <v>4031</v>
       </c>
@@ -10687,12 +11307,12 @@
         <v>227</v>
       </c>
       <c r="G138" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I138" s="13" t="s">
+      <c r="I138" s="12" t="s">
         <v>122</v>
       </c>
       <c r="J138">
@@ -10726,7 +11346,7 @@
         <v>5</v>
       </c>
       <c r="T138" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U138">
         <v>404266</v>
@@ -10735,7 +11355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="139" ht="16.5" spans="1:22">
       <c r="A139">
         <v>4032</v>
       </c>
@@ -10755,12 +11375,12 @@
         <v>227</v>
       </c>
       <c r="G139" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I139" s="13" t="s">
+      <c r="I139" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J139">
@@ -10794,7 +11414,7 @@
         <v>5</v>
       </c>
       <c r="T139" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U139">
         <v>404266</v>
@@ -10803,7 +11423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A140" s="1">
         <v>4033</v>
       </c>
@@ -10819,16 +11439,16 @@
       <c r="E140" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G140" s="16" t="s">
-        <v>186</v>
+      <c r="G140" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I140" s="14" t="s">
+      <c r="I140" s="13" t="s">
         <v>126</v>
       </c>
       <c r="J140" s="1">
@@ -10862,7 +11482,7 @@
         <v>5</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="U140" s="1">
         <v>404266</v>
@@ -10871,7 +11491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" ht="16.5" spans="1:22">
       <c r="A141">
         <v>5004</v>
       </c>
@@ -10888,15 +11508,15 @@
         <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G141" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I141" s="13" t="s">
+      <c r="I141" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J141">
@@ -10930,7 +11550,7 @@
         <v>6</v>
       </c>
       <c r="T141" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U141">
         <v>404264</v>
@@ -10939,7 +11559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="142" ht="16.5" spans="1:22">
       <c r="A142">
         <v>5005</v>
       </c>
@@ -10956,15 +11576,15 @@
         <v>53</v>
       </c>
       <c r="F142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G142" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I142" s="13" t="s">
+      <c r="I142" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J142">
@@ -10998,7 +11618,7 @@
         <v>6</v>
       </c>
       <c r="T142" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U142">
         <v>404264</v>
@@ -11007,7 +11627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="143" ht="16.5" spans="1:22">
       <c r="A143">
         <v>5006</v>
       </c>
@@ -11024,15 +11644,15 @@
         <v>53</v>
       </c>
       <c r="F143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G143" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I143" s="13" t="s">
+      <c r="I143" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J143">
@@ -11066,7 +11686,7 @@
         <v>6</v>
       </c>
       <c r="T143" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U143">
         <v>404264</v>
@@ -11075,7 +11695,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="144" ht="16.5" spans="1:22">
       <c r="A144">
         <v>5007</v>
       </c>
@@ -11092,15 +11712,15 @@
         <v>53</v>
       </c>
       <c r="F144" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G144" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I144" s="13" t="s">
+      <c r="I144" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J144">
@@ -11134,7 +11754,7 @@
         <v>6</v>
       </c>
       <c r="T144" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U144">
         <v>404264</v>
@@ -11143,7 +11763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="145" ht="16.5" spans="1:22">
       <c r="A145">
         <v>5008</v>
       </c>
@@ -11160,15 +11780,15 @@
         <v>53</v>
       </c>
       <c r="F145" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G145" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I145" s="13" t="s">
+      <c r="I145" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J145">
@@ -11202,7 +11822,7 @@
         <v>6</v>
       </c>
       <c r="T145" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U145">
         <v>404264</v>
@@ -11211,7 +11831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="146" ht="16.5" spans="1:22">
       <c r="A146">
         <v>5009</v>
       </c>
@@ -11228,15 +11848,15 @@
         <v>53</v>
       </c>
       <c r="F146" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G146" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I146" s="13" t="s">
+      <c r="I146" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J146">
@@ -11270,7 +11890,7 @@
         <v>6</v>
       </c>
       <c r="T146" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U146">
         <v>404264</v>
@@ -11279,7 +11899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="147" ht="16.5" spans="1:22">
       <c r="A147">
         <v>5010</v>
       </c>
@@ -11296,15 +11916,15 @@
         <v>53</v>
       </c>
       <c r="F147" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G147" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I147" s="13" t="s">
+      <c r="I147" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J147">
@@ -11338,7 +11958,7 @@
         <v>6</v>
       </c>
       <c r="T147" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U147">
         <v>404264</v>
@@ -11347,7 +11967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="148" ht="16.5" spans="1:22">
       <c r="A148">
         <v>5011</v>
       </c>
@@ -11364,15 +11984,15 @@
         <v>53</v>
       </c>
       <c r="F148" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G148" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I148" s="13" t="s">
+      <c r="I148" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J148">
@@ -11406,7 +12026,7 @@
         <v>6</v>
       </c>
       <c r="T148" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U148">
         <v>404264</v>
@@ -11415,7 +12035,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="149" ht="16.5" spans="1:22">
       <c r="A149">
         <v>5012</v>
       </c>
@@ -11432,15 +12052,15 @@
         <v>53</v>
       </c>
       <c r="F149" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G149" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I149" s="13" t="s">
+      <c r="I149" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J149">
@@ -11474,7 +12094,7 @@
         <v>6</v>
       </c>
       <c r="T149" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U149">
         <v>404264</v>
@@ -11483,7 +12103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="150" ht="16.5" spans="1:22">
       <c r="A150">
         <v>5013</v>
       </c>
@@ -11500,15 +12120,15 @@
         <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="G150" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I150" s="13" t="s">
+      <c r="I150" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J150">
@@ -11542,7 +12162,7 @@
         <v>6</v>
       </c>
       <c r="T150" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U150">
         <v>404264</v>
@@ -11551,7 +12171,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="151" ht="16.5" spans="1:22">
       <c r="A151">
         <v>5014</v>
       </c>
@@ -11568,15 +12188,15 @@
         <v>53</v>
       </c>
       <c r="F151" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="G151" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I151" s="13" t="s">
+      <c r="I151" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J151">
@@ -11610,7 +12230,7 @@
         <v>6</v>
       </c>
       <c r="T151" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U151">
         <v>404264</v>
@@ -11619,7 +12239,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="152" ht="16.5" spans="1:22">
       <c r="A152">
         <v>5015</v>
       </c>
@@ -11636,15 +12256,15 @@
         <v>53</v>
       </c>
       <c r="F152" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="G152" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I152" s="13" t="s">
+      <c r="I152" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J152">
@@ -11678,7 +12298,7 @@
         <v>6</v>
       </c>
       <c r="T152" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U152">
         <v>404264</v>
@@ -11687,7 +12307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="153" ht="16.5" spans="1:22">
       <c r="A153">
         <v>5016</v>
       </c>
@@ -11704,15 +12324,15 @@
         <v>53</v>
       </c>
       <c r="F153" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G153" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I153" s="13" t="s">
+      <c r="I153" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J153">
@@ -11746,7 +12366,7 @@
         <v>6</v>
       </c>
       <c r="T153" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U153">
         <v>404264</v>
@@ -11755,7 +12375,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="154" ht="16.5" spans="1:22">
       <c r="A154">
         <v>5017</v>
       </c>
@@ -11772,15 +12392,15 @@
         <v>53</v>
       </c>
       <c r="F154" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G154" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I154" s="13" t="s">
+      <c r="I154" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J154">
@@ -11814,7 +12434,7 @@
         <v>6</v>
       </c>
       <c r="T154" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U154">
         <v>404264</v>
@@ -11823,7 +12443,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="155" ht="16.5" spans="1:22">
       <c r="A155">
         <v>5018</v>
       </c>
@@ -11840,15 +12460,15 @@
         <v>53</v>
       </c>
       <c r="F155" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G155" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I155" s="13" t="s">
+      <c r="I155" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J155">
@@ -11882,7 +12502,7 @@
         <v>6</v>
       </c>
       <c r="T155" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U155">
         <v>404264</v>
@@ -11891,7 +12511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="156" ht="16.5" spans="1:22">
       <c r="A156">
         <v>5019</v>
       </c>
@@ -11908,15 +12528,15 @@
         <v>53</v>
       </c>
       <c r="F156" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G156" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I156" s="13" t="s">
+      <c r="I156" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J156">
@@ -11950,7 +12570,7 @@
         <v>6</v>
       </c>
       <c r="T156" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U156">
         <v>404264</v>
@@ -11959,7 +12579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="157" ht="16.5" spans="1:22">
       <c r="A157">
         <v>5020</v>
       </c>
@@ -11976,15 +12596,15 @@
         <v>53</v>
       </c>
       <c r="F157" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G157" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I157" s="13" t="s">
+      <c r="I157" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J157">
@@ -12018,7 +12638,7 @@
         <v>6</v>
       </c>
       <c r="T157" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U157">
         <v>404264</v>
@@ -12027,7 +12647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="158" ht="16.5" spans="1:22">
       <c r="A158">
         <v>5021</v>
       </c>
@@ -12044,15 +12664,15 @@
         <v>53</v>
       </c>
       <c r="F158" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G158" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I158" s="13" t="s">
+      <c r="I158" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J158">
@@ -12086,7 +12706,7 @@
         <v>6</v>
       </c>
       <c r="T158" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U158">
         <v>404264</v>
@@ -12095,7 +12715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="159" ht="16.5" spans="1:22">
       <c r="A159">
         <v>5022</v>
       </c>
@@ -12112,15 +12732,15 @@
         <v>53</v>
       </c>
       <c r="F159" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G159" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I159" s="13" t="s">
+      <c r="I159" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J159">
@@ -12154,7 +12774,7 @@
         <v>6</v>
       </c>
       <c r="T159" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U159">
         <v>404264</v>
@@ -12163,7 +12783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="160" ht="16.5" spans="1:22">
       <c r="A160">
         <v>5023</v>
       </c>
@@ -12180,15 +12800,15 @@
         <v>53</v>
       </c>
       <c r="F160" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G160" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I160" s="13" t="s">
+      <c r="I160" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J160">
@@ -12222,7 +12842,7 @@
         <v>6</v>
       </c>
       <c r="T160" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U160">
         <v>404264</v>
@@ -12231,7 +12851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="161" ht="16.5" spans="1:22">
       <c r="A161">
         <v>5024</v>
       </c>
@@ -12248,15 +12868,15 @@
         <v>53</v>
       </c>
       <c r="F161" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G161" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I161" s="13" t="s">
+      <c r="I161" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J161">
@@ -12290,7 +12910,7 @@
         <v>6</v>
       </c>
       <c r="T161" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U161">
         <v>404264</v>
@@ -12299,7 +12919,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="162" ht="16.5" spans="1:22">
       <c r="A162">
         <v>5025</v>
       </c>
@@ -12316,15 +12936,15 @@
         <v>53</v>
       </c>
       <c r="F162" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G162" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I162" s="13" t="s">
+      <c r="I162" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J162">
@@ -12358,7 +12978,7 @@
         <v>6</v>
       </c>
       <c r="T162" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U162">
         <v>404264</v>
@@ -12367,7 +12987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="163" ht="16.5" spans="1:22">
       <c r="A163">
         <v>5026</v>
       </c>
@@ -12384,15 +13004,15 @@
         <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G163" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I163" s="13" t="s">
+      <c r="I163" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J163">
@@ -12426,7 +13046,7 @@
         <v>6</v>
       </c>
       <c r="T163" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U163">
         <v>404264</v>
@@ -12435,7 +13055,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="164" ht="16.5" spans="1:22">
       <c r="A164">
         <v>5027</v>
       </c>
@@ -12452,15 +13072,15 @@
         <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="G164" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I164" s="13" t="s">
+      <c r="I164" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J164">
@@ -12494,7 +13114,7 @@
         <v>6</v>
       </c>
       <c r="T164" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U164">
         <v>404264</v>
@@ -12503,7 +13123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="165" ht="16.5" spans="1:22">
       <c r="A165">
         <v>5028</v>
       </c>
@@ -12520,7 +13140,7 @@
         <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G165" t="s">
         <v>73</v>
@@ -12528,7 +13148,7 @@
       <c r="H165" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I165" s="13" t="s">
+      <c r="I165" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J165">
@@ -12562,7 +13182,7 @@
         <v>6</v>
       </c>
       <c r="T165" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U165">
         <v>404264</v>
@@ -12571,7 +13191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="166" ht="16.5" spans="1:22">
       <c r="A166">
         <v>5029</v>
       </c>
@@ -12588,7 +13208,7 @@
         <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G166" t="s">
         <v>73</v>
@@ -12596,7 +13216,7 @@
       <c r="H166" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I166" s="13" t="s">
+      <c r="I166" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J166">
@@ -12630,7 +13250,7 @@
         <v>6</v>
       </c>
       <c r="T166" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U166">
         <v>404264</v>
@@ -12639,7 +13259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="167" ht="16.5" spans="1:22">
       <c r="A167">
         <v>5030</v>
       </c>
@@ -12656,7 +13276,7 @@
         <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G167" t="s">
         <v>73</v>
@@ -12664,7 +13284,7 @@
       <c r="H167" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I167" s="13" t="s">
+      <c r="I167" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J167">
@@ -12698,7 +13318,7 @@
         <v>6</v>
       </c>
       <c r="T167" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U167">
         <v>404264</v>
@@ -12707,7 +13327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="168" ht="16.5" spans="1:22">
       <c r="A168">
         <v>5031</v>
       </c>
@@ -12724,15 +13344,15 @@
         <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G168" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I168" s="13" t="s">
+      <c r="I168" s="12" t="s">
         <v>130</v>
       </c>
       <c r="J168">
@@ -12766,7 +13386,7 @@
         <v>6</v>
       </c>
       <c r="T168" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U168">
         <v>404264</v>
@@ -12775,7 +13395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" ht="16.5" spans="1:22">
       <c r="A169">
         <v>5032</v>
       </c>
@@ -12792,15 +13412,15 @@
         <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G169" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I169" s="13" t="s">
+      <c r="I169" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J169">
@@ -12834,7 +13454,7 @@
         <v>6</v>
       </c>
       <c r="T169" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U169">
         <v>404264</v>
@@ -12843,7 +13463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="170" ht="16.5" spans="1:22">
       <c r="A170">
         <v>5033</v>
       </c>
@@ -12860,15 +13480,15 @@
         <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G170" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I170" s="13" t="s">
+      <c r="I170" s="12" t="s">
         <v>134</v>
       </c>
       <c r="J170">
@@ -12902,7 +13522,7 @@
         <v>6</v>
       </c>
       <c r="T170" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="U170">
         <v>404264</v>
@@ -12911,7 +13531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="171" ht="16.5" spans="1:22">
       <c r="A171">
         <v>6001</v>
       </c>
@@ -12922,22 +13542,22 @@
         <v>10056</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="E171" t="s">
         <v>53</v>
       </c>
       <c r="F171" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="G171" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I171" s="13" t="s">
-        <v>200</v>
+      <c r="I171" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="J171">
         <v>286352</v>
@@ -12949,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="M171" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N171" t="s">
         <v>114</v>
@@ -12969,8 +13589,8 @@
       <c r="S171">
         <v>7</v>
       </c>
-      <c r="T171" s="11" t="s">
-        <v>201</v>
+      <c r="T171" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="U171">
         <v>404270</v>
@@ -12979,7 +13599,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="172" ht="16.5" spans="1:22">
       <c r="A172" s="4">
         <v>7001</v>
       </c>
@@ -12996,16 +13616,16 @@
         <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="G172" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I172" s="13" t="s">
-        <v>204</v>
+      <c r="I172" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="J172" s="3">
         <v>267079</v>
@@ -13037,8 +13657,8 @@
       <c r="S172">
         <v>2</v>
       </c>
-      <c r="T172" s="11" t="s">
-        <v>201</v>
+      <c r="T172" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="U172">
         <v>404268</v>
@@ -13048,8 +13668,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A396423-3A57-4217-B7B2-EB0C0BD06A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -803,14 +807,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -848,158 +846,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,194 +876,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1234,251 +900,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1523,89 +947,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1616,7 +1109,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1644,149 +1137,32 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1857,12 +1233,15 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="0000A933"/>
+      <color rgb="FF00A933"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1921,7 +1300,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2038,21 +1417,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5:M26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -2070,7 +1448,7 @@
     <col min="22" max="22" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:22">
+    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:22">
+    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +1584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2274,7 +1652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:13">
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -2290,7 +1668,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" ht="9.75" customHeight="1" spans="1:22">
+    <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2347,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:22">
+    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1001</v>
       </c>
@@ -2415,13 +1793,13 @@
         <v>65</v>
       </c>
       <c r="U6">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:22">
+    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1002</v>
       </c>
@@ -2480,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1003</v>
       </c>
@@ -2545,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
@@ -2610,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="U9">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:22">
+    <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -2675,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:22">
+    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2003</v>
       </c>
@@ -2740,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -2805,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -2870,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -2935,13 +2313,13 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4001</v>
       </c>
@@ -3000,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4002</v>
       </c>
@@ -3065,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4003</v>
       </c>
@@ -3130,13 +2508,13 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -3195,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5002</v>
       </c>
@@ -3260,13 +2638,13 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -3325,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>1004</v>
       </c>
@@ -3392,14 +2770,14 @@
       <c r="T21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="1">
-        <v>404268</v>
+      <c r="U21">
+        <v>434716</v>
       </c>
       <c r="V21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1005</v>
       </c>
@@ -3461,13 +2839,13 @@
         <v>65</v>
       </c>
       <c r="U22">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:22">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>1006</v>
       </c>
@@ -3529,13 +2907,13 @@
         <v>65</v>
       </c>
       <c r="U23">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1007</v>
       </c>
@@ -3597,13 +2975,13 @@
         <v>65</v>
       </c>
       <c r="U24">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>1008</v>
       </c>
@@ -3665,13 +3043,13 @@
         <v>65</v>
       </c>
       <c r="U25">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1009</v>
       </c>
@@ -3733,13 +3111,13 @@
         <v>65</v>
       </c>
       <c r="U26">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1010</v>
       </c>
@@ -3801,13 +3179,13 @@
         <v>65</v>
       </c>
       <c r="U27">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1011</v>
       </c>
@@ -3869,13 +3247,13 @@
         <v>65</v>
       </c>
       <c r="U28">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1012</v>
       </c>
@@ -3937,13 +3315,13 @@
         <v>65</v>
       </c>
       <c r="U29">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:22">
+    <row r="30" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>1013</v>
       </c>
@@ -4005,13 +3383,13 @@
         <v>65</v>
       </c>
       <c r="U30">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:22">
+    <row r="31" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>1014</v>
       </c>
@@ -4073,13 +3451,13 @@
         <v>65</v>
       </c>
       <c r="U31">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:22">
+    <row r="32" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1015</v>
       </c>
@@ -4141,13 +3519,13 @@
         <v>65</v>
       </c>
       <c r="U32">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:22">
+    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>1016</v>
       </c>
@@ -4209,13 +3587,13 @@
         <v>65</v>
       </c>
       <c r="U33">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:22">
+    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>1017</v>
       </c>
@@ -4277,13 +3655,13 @@
         <v>65</v>
       </c>
       <c r="U34">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:22">
+    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>1018</v>
       </c>
@@ -4345,13 +3723,13 @@
         <v>65</v>
       </c>
       <c r="U35">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:22">
+    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>1019</v>
       </c>
@@ -4413,13 +3791,13 @@
         <v>65</v>
       </c>
       <c r="U36">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:22">
+    <row r="37" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>1020</v>
       </c>
@@ -4481,13 +3859,13 @@
         <v>65</v>
       </c>
       <c r="U37">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:22">
+    <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>1021</v>
       </c>
@@ -4549,13 +3927,13 @@
         <v>65</v>
       </c>
       <c r="U38">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:22">
+    <row r="39" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>1022</v>
       </c>
@@ -4617,13 +3995,13 @@
         <v>65</v>
       </c>
       <c r="U39">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:22">
+    <row r="40" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>1023</v>
       </c>
@@ -4685,13 +4063,13 @@
         <v>65</v>
       </c>
       <c r="U40">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:22">
+    <row r="41" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>1024</v>
       </c>
@@ -4753,13 +4131,13 @@
         <v>65</v>
       </c>
       <c r="U41">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:22">
+    <row r="42" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>1025</v>
       </c>
@@ -4821,13 +4199,13 @@
         <v>65</v>
       </c>
       <c r="U42">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:22">
+    <row r="43" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>1026</v>
       </c>
@@ -4889,13 +4267,13 @@
         <v>65</v>
       </c>
       <c r="U43">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:22">
+    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>1027</v>
       </c>
@@ -4957,13 +4335,13 @@
         <v>65</v>
       </c>
       <c r="U44">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:22">
+    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>1028</v>
       </c>
@@ -5025,13 +4403,13 @@
         <v>65</v>
       </c>
       <c r="U45">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:22">
+    <row r="46" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>1029</v>
       </c>
@@ -5093,13 +4471,13 @@
         <v>65</v>
       </c>
       <c r="U46">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:22">
+    <row r="47" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>1030</v>
       </c>
@@ -5161,13 +4539,13 @@
         <v>65</v>
       </c>
       <c r="U47">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:22">
+    <row r="48" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>1031</v>
       </c>
@@ -5229,13 +4607,13 @@
         <v>65</v>
       </c>
       <c r="U48">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V48">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:22">
+    <row r="49" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>1032</v>
       </c>
@@ -5297,13 +4675,13 @@
         <v>65</v>
       </c>
       <c r="U49">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="50" spans="1:22" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>1033</v>
       </c>
@@ -5364,14 +4742,14 @@
       <c r="T50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U50" s="1">
-        <v>404268</v>
+      <c r="U50">
+        <v>434716</v>
       </c>
       <c r="V50">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" spans="1:22">
+    <row r="51" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>2004</v>
       </c>
@@ -5433,13 +4811,13 @@
         <v>168</v>
       </c>
       <c r="U51">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V51">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" spans="1:22">
+    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>2005</v>
       </c>
@@ -5501,13 +4879,13 @@
         <v>168</v>
       </c>
       <c r="U52">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V52">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" spans="1:22">
+    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>2006</v>
       </c>
@@ -5569,13 +4947,13 @@
         <v>168</v>
       </c>
       <c r="U53">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" spans="1:22">
+    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>2007</v>
       </c>
@@ -5637,13 +5015,13 @@
         <v>168</v>
       </c>
       <c r="U54">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" spans="1:22">
+    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>2008</v>
       </c>
@@ -5705,13 +5083,13 @@
         <v>168</v>
       </c>
       <c r="U55">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V55">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" spans="1:22">
+    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>2009</v>
       </c>
@@ -5773,13 +5151,13 @@
         <v>168</v>
       </c>
       <c r="U56">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" spans="1:22">
+    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>2010</v>
       </c>
@@ -5841,13 +5219,13 @@
         <v>168</v>
       </c>
       <c r="U57">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V57">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" spans="1:22">
+    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>2011</v>
       </c>
@@ -5909,13 +5287,13 @@
         <v>168</v>
       </c>
       <c r="U58">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" spans="1:22">
+    <row r="59" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>2012</v>
       </c>
@@ -5977,13 +5355,13 @@
         <v>168</v>
       </c>
       <c r="U59">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V59">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" spans="1:22">
+    <row r="60" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>2013</v>
       </c>
@@ -6045,13 +5423,13 @@
         <v>168</v>
       </c>
       <c r="U60">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" spans="1:22">
+    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>2014</v>
       </c>
@@ -6113,13 +5491,13 @@
         <v>168</v>
       </c>
       <c r="U61">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V61">
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" spans="1:22">
+    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>2015</v>
       </c>
@@ -6181,13 +5559,13 @@
         <v>168</v>
       </c>
       <c r="U62">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V62">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" spans="1:22">
+    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
@@ -6249,13 +5627,13 @@
         <v>168</v>
       </c>
       <c r="U63">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V63">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" spans="1:22">
+    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>2017</v>
       </c>
@@ -6317,13 +5695,13 @@
         <v>168</v>
       </c>
       <c r="U64">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V64">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1" spans="1:22">
+    <row r="65" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>2018</v>
       </c>
@@ -6385,13 +5763,13 @@
         <v>168</v>
       </c>
       <c r="U65">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V65">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1" spans="1:22">
+    <row r="66" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>2019</v>
       </c>
@@ -6453,13 +5831,13 @@
         <v>168</v>
       </c>
       <c r="U66">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1" spans="1:22">
+    <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>2020</v>
       </c>
@@ -6521,13 +5899,13 @@
         <v>168</v>
       </c>
       <c r="U67">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V67">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1" spans="1:22">
+    <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>2021</v>
       </c>
@@ -6589,13 +5967,13 @@
         <v>168</v>
       </c>
       <c r="U68">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V68">
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1" spans="1:22">
+    <row r="69" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>2022</v>
       </c>
@@ -6657,13 +6035,13 @@
         <v>168</v>
       </c>
       <c r="U69">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V69">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1" spans="1:22">
+    <row r="70" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>2023</v>
       </c>
@@ -6725,13 +6103,13 @@
         <v>168</v>
       </c>
       <c r="U70">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V70">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1" spans="1:22">
+    <row r="71" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>2024</v>
       </c>
@@ -6793,13 +6171,13 @@
         <v>168</v>
       </c>
       <c r="U71">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V71">
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1" spans="1:22">
+    <row r="72" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>2025</v>
       </c>
@@ -6861,13 +6239,13 @@
         <v>168</v>
       </c>
       <c r="U72">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V72">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1" spans="1:22">
+    <row r="73" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>2026</v>
       </c>
@@ -6929,13 +6307,13 @@
         <v>168</v>
       </c>
       <c r="U73">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V73">
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1" spans="1:22">
+    <row r="74" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>2027</v>
       </c>
@@ -6997,13 +6375,13 @@
         <v>168</v>
       </c>
       <c r="U74">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V74">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1" spans="1:22">
+    <row r="75" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>2028</v>
       </c>
@@ -7065,13 +6443,13 @@
         <v>168</v>
       </c>
       <c r="U75">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V75">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1" spans="1:22">
+    <row r="76" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>2029</v>
       </c>
@@ -7133,13 +6511,13 @@
         <v>168</v>
       </c>
       <c r="U76">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V76">
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1" spans="1:22">
+    <row r="77" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>2030</v>
       </c>
@@ -7201,13 +6579,13 @@
         <v>168</v>
       </c>
       <c r="U77">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V77">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1" spans="1:22">
+    <row r="78" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>2031</v>
       </c>
@@ -7269,13 +6647,13 @@
         <v>168</v>
       </c>
       <c r="U78">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V78">
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1" spans="1:22">
+    <row r="79" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>2032</v>
       </c>
@@ -7337,13 +6715,13 @@
         <v>168</v>
       </c>
       <c r="U79">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V79">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
+    <row r="80" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>2033</v>
       </c>
@@ -7404,14 +6782,14 @@
       <c r="T80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U80" s="1">
-        <v>404267</v>
+      <c r="U80">
+        <v>434716</v>
       </c>
       <c r="V80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>3004</v>
       </c>
@@ -7473,13 +6851,13 @@
         <v>189</v>
       </c>
       <c r="U81">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V81">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>3005</v>
       </c>
@@ -7541,13 +6919,13 @@
         <v>189</v>
       </c>
       <c r="U82">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V82">
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>3006</v>
       </c>
@@ -7609,13 +6987,13 @@
         <v>189</v>
       </c>
       <c r="U83">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V83">
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3007</v>
       </c>
@@ -7677,13 +7055,13 @@
         <v>189</v>
       </c>
       <c r="U84">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>3008</v>
       </c>
@@ -7745,13 +7123,13 @@
         <v>189</v>
       </c>
       <c r="U85">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V85">
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>3009</v>
       </c>
@@ -7813,13 +7191,13 @@
         <v>189</v>
       </c>
       <c r="U86">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>3010</v>
       </c>
@@ -7881,13 +7259,13 @@
         <v>189</v>
       </c>
       <c r="U87">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>3011</v>
       </c>
@@ -7949,13 +7327,13 @@
         <v>189</v>
       </c>
       <c r="U88">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V88">
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>3012</v>
       </c>
@@ -8017,13 +7395,13 @@
         <v>189</v>
       </c>
       <c r="U89">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V89">
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3013</v>
       </c>
@@ -8085,13 +7463,13 @@
         <v>189</v>
       </c>
       <c r="U90">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V90">
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3014</v>
       </c>
@@ -8153,13 +7531,13 @@
         <v>189</v>
       </c>
       <c r="U91">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V91">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3015</v>
       </c>
@@ -8221,13 +7599,13 @@
         <v>189</v>
       </c>
       <c r="U92">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>3016</v>
       </c>
@@ -8289,13 +7667,13 @@
         <v>189</v>
       </c>
       <c r="U93">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V93">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>3017</v>
       </c>
@@ -8357,13 +7735,13 @@
         <v>189</v>
       </c>
       <c r="U94">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V94">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3018</v>
       </c>
@@ -8425,13 +7803,13 @@
         <v>189</v>
       </c>
       <c r="U95">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V95">
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>3019</v>
       </c>
@@ -8493,13 +7871,13 @@
         <v>189</v>
       </c>
       <c r="U96">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V96">
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>3020</v>
       </c>
@@ -8561,13 +7939,13 @@
         <v>189</v>
       </c>
       <c r="U97">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V97">
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>3021</v>
       </c>
@@ -8629,13 +8007,13 @@
         <v>189</v>
       </c>
       <c r="U98">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V98">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3022</v>
       </c>
@@ -8697,13 +8075,13 @@
         <v>189</v>
       </c>
       <c r="U99">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V99">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>3023</v>
       </c>
@@ -8765,13 +8143,13 @@
         <v>189</v>
       </c>
       <c r="U100">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V100">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>3024</v>
       </c>
@@ -8833,13 +8211,13 @@
         <v>189</v>
       </c>
       <c r="U101">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V101">
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3025</v>
       </c>
@@ -8901,13 +8279,13 @@
         <v>189</v>
       </c>
       <c r="U102">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V102">
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>3026</v>
       </c>
@@ -8969,13 +8347,13 @@
         <v>189</v>
       </c>
       <c r="U103">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V103">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3027</v>
       </c>
@@ -9037,13 +8415,13 @@
         <v>189</v>
       </c>
       <c r="U104">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V104">
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>3028</v>
       </c>
@@ -9105,13 +8483,13 @@
         <v>189</v>
       </c>
       <c r="U105">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V105">
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3029</v>
       </c>
@@ -9173,13 +8551,13 @@
         <v>189</v>
       </c>
       <c r="U106">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V106">
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>3030</v>
       </c>
@@ -9241,13 +8619,13 @@
         <v>189</v>
       </c>
       <c r="U107">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V107">
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3031</v>
       </c>
@@ -9309,13 +8687,13 @@
         <v>189</v>
       </c>
       <c r="U108">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V108">
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>3032</v>
       </c>
@@ -9377,13 +8755,13 @@
         <v>189</v>
       </c>
       <c r="U109">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V109">
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="110" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3033</v>
       </c>
@@ -9444,14 +8822,14 @@
       <c r="T110" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="U110" s="1">
-        <v>404269</v>
+      <c r="U110">
+        <v>434716</v>
       </c>
       <c r="V110">
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4004</v>
       </c>
@@ -9513,13 +8891,13 @@
         <v>210</v>
       </c>
       <c r="U111">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V111">
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>4005</v>
       </c>
@@ -9581,13 +8959,13 @@
         <v>210</v>
       </c>
       <c r="U112">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V112">
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>4006</v>
       </c>
@@ -9649,13 +9027,13 @@
         <v>210</v>
       </c>
       <c r="U113">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V113">
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>4007</v>
       </c>
@@ -9717,13 +9095,13 @@
         <v>210</v>
       </c>
       <c r="U114">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V114">
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>4008</v>
       </c>
@@ -9785,13 +9163,13 @@
         <v>210</v>
       </c>
       <c r="U115">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V115">
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>4009</v>
       </c>
@@ -9853,13 +9231,13 @@
         <v>210</v>
       </c>
       <c r="U116">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V116">
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>4010</v>
       </c>
@@ -9921,13 +9299,13 @@
         <v>210</v>
       </c>
       <c r="U117">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V117">
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>4011</v>
       </c>
@@ -9989,13 +9367,13 @@
         <v>210</v>
       </c>
       <c r="U118">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V118">
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>4012</v>
       </c>
@@ -10057,13 +9435,13 @@
         <v>210</v>
       </c>
       <c r="U119">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V119">
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>4013</v>
       </c>
@@ -10125,13 +9503,13 @@
         <v>210</v>
       </c>
       <c r="U120">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V120">
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>4014</v>
       </c>
@@ -10193,13 +9571,13 @@
         <v>210</v>
       </c>
       <c r="U121">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V121">
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>4015</v>
       </c>
@@ -10261,13 +9639,13 @@
         <v>210</v>
       </c>
       <c r="U122">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V122">
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>4016</v>
       </c>
@@ -10329,13 +9707,13 @@
         <v>210</v>
       </c>
       <c r="U123">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V123">
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>4017</v>
       </c>
@@ -10397,13 +9775,13 @@
         <v>210</v>
       </c>
       <c r="U124">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V124">
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>4018</v>
       </c>
@@ -10465,13 +9843,13 @@
         <v>210</v>
       </c>
       <c r="U125">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V125">
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>4019</v>
       </c>
@@ -10533,13 +9911,13 @@
         <v>210</v>
       </c>
       <c r="U126">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V126">
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>4020</v>
       </c>
@@ -10601,13 +9979,13 @@
         <v>210</v>
       </c>
       <c r="U127">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V127">
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>4021</v>
       </c>
@@ -10669,13 +10047,13 @@
         <v>210</v>
       </c>
       <c r="U128">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V128">
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>4022</v>
       </c>
@@ -10737,13 +10115,13 @@
         <v>210</v>
       </c>
       <c r="U129">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V129">
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>4023</v>
       </c>
@@ -10805,13 +10183,13 @@
         <v>210</v>
       </c>
       <c r="U130">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V130">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>4024</v>
       </c>
@@ -10873,13 +10251,13 @@
         <v>210</v>
       </c>
       <c r="U131">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V131">
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>4025</v>
       </c>
@@ -10941,13 +10319,13 @@
         <v>210</v>
       </c>
       <c r="U132">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V132">
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>4026</v>
       </c>
@@ -11009,13 +10387,13 @@
         <v>210</v>
       </c>
       <c r="U133">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V133">
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>4027</v>
       </c>
@@ -11077,13 +10455,13 @@
         <v>210</v>
       </c>
       <c r="U134">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V134">
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>4028</v>
       </c>
@@ -11145,13 +10523,13 @@
         <v>210</v>
       </c>
       <c r="U135">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V135">
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>4029</v>
       </c>
@@ -11213,13 +10591,13 @@
         <v>210</v>
       </c>
       <c r="U136">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V136">
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>4030</v>
       </c>
@@ -11281,13 +10659,13 @@
         <v>210</v>
       </c>
       <c r="U137">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V137">
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>4031</v>
       </c>
@@ -11349,13 +10727,13 @@
         <v>210</v>
       </c>
       <c r="U138">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V138">
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>4032</v>
       </c>
@@ -11417,13 +10795,13 @@
         <v>210</v>
       </c>
       <c r="U139">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V139">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="140" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>4033</v>
       </c>
@@ -11484,14 +10862,14 @@
       <c r="T140" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U140" s="1">
-        <v>404266</v>
+      <c r="U140">
+        <v>434716</v>
       </c>
       <c r="V140">
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>5004</v>
       </c>
@@ -11553,13 +10931,13 @@
         <v>231</v>
       </c>
       <c r="U141">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V141">
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5005</v>
       </c>
@@ -11621,13 +10999,13 @@
         <v>231</v>
       </c>
       <c r="U142">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V142">
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>5006</v>
       </c>
@@ -11689,13 +11067,13 @@
         <v>231</v>
       </c>
       <c r="U143">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V143">
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>5007</v>
       </c>
@@ -11757,13 +11135,13 @@
         <v>231</v>
       </c>
       <c r="U144">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V144">
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>5008</v>
       </c>
@@ -11825,13 +11203,13 @@
         <v>231</v>
       </c>
       <c r="U145">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V145">
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>5009</v>
       </c>
@@ -11893,13 +11271,13 @@
         <v>231</v>
       </c>
       <c r="U146">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V146">
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>5010</v>
       </c>
@@ -11961,13 +11339,13 @@
         <v>231</v>
       </c>
       <c r="U147">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V147">
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>5011</v>
       </c>
@@ -12029,13 +11407,13 @@
         <v>231</v>
       </c>
       <c r="U148">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V148">
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>5012</v>
       </c>
@@ -12097,13 +11475,13 @@
         <v>231</v>
       </c>
       <c r="U149">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V149">
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>5013</v>
       </c>
@@ -12165,13 +11543,13 @@
         <v>231</v>
       </c>
       <c r="U150">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V150">
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>5014</v>
       </c>
@@ -12233,13 +11611,13 @@
         <v>231</v>
       </c>
       <c r="U151">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V151">
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>5015</v>
       </c>
@@ -12301,13 +11679,13 @@
         <v>231</v>
       </c>
       <c r="U152">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V152">
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>5016</v>
       </c>
@@ -12369,13 +11747,13 @@
         <v>231</v>
       </c>
       <c r="U153">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V153">
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>5017</v>
       </c>
@@ -12437,13 +11815,13 @@
         <v>231</v>
       </c>
       <c r="U154">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V154">
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>5018</v>
       </c>
@@ -12505,13 +11883,13 @@
         <v>231</v>
       </c>
       <c r="U155">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V155">
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>5019</v>
       </c>
@@ -12573,13 +11951,13 @@
         <v>231</v>
       </c>
       <c r="U156">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>5020</v>
       </c>
@@ -12641,13 +12019,13 @@
         <v>231</v>
       </c>
       <c r="U157">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V157">
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>5021</v>
       </c>
@@ -12709,13 +12087,13 @@
         <v>231</v>
       </c>
       <c r="U158">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V158">
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>5022</v>
       </c>
@@ -12777,13 +12155,13 @@
         <v>231</v>
       </c>
       <c r="U159">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V159">
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>5023</v>
       </c>
@@ -12845,13 +12223,13 @@
         <v>231</v>
       </c>
       <c r="U160">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V160">
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>5024</v>
       </c>
@@ -12913,13 +12291,13 @@
         <v>231</v>
       </c>
       <c r="U161">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V161">
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5025</v>
       </c>
@@ -12981,13 +12359,13 @@
         <v>231</v>
       </c>
       <c r="U162">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V162">
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>5026</v>
       </c>
@@ -13049,13 +12427,13 @@
         <v>231</v>
       </c>
       <c r="U163">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V163">
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>5027</v>
       </c>
@@ -13117,13 +12495,13 @@
         <v>231</v>
       </c>
       <c r="U164">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V164">
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>5028</v>
       </c>
@@ -13185,13 +12563,13 @@
         <v>231</v>
       </c>
       <c r="U165">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V165">
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>5029</v>
       </c>
@@ -13253,13 +12631,13 @@
         <v>231</v>
       </c>
       <c r="U166">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V166">
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>5030</v>
       </c>
@@ -13321,13 +12699,13 @@
         <v>231</v>
       </c>
       <c r="U167">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V167">
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>5031</v>
       </c>
@@ -13389,13 +12767,13 @@
         <v>231</v>
       </c>
       <c r="U168">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V168">
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>5032</v>
       </c>
@@ -13457,13 +12835,13 @@
         <v>231</v>
       </c>
       <c r="U169">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V169">
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>5033</v>
       </c>
@@ -13525,13 +12903,13 @@
         <v>231</v>
       </c>
       <c r="U170">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V170">
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>6001</v>
       </c>
@@ -13593,13 +12971,13 @@
         <v>253</v>
       </c>
       <c r="U171">
-        <v>404270</v>
+        <v>434716</v>
       </c>
       <c r="V171">
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>7001</v>
       </c>
@@ -13661,15 +13039,15 @@
         <v>253</v>
       </c>
       <c r="U172">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V172">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A396423-3A57-4217-B7B2-EB0C0BD06A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -807,8 +803,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -846,12 +848,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +1024,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -900,9 +1234,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -947,158 +1523,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1109,7 +1616,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1137,32 +1644,149 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1233,15 +1857,12 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FF00A933"/>
+      <color rgb="0000A933"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1300,7 +1921,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1417,20 +2038,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -1448,7 +2070,7 @@
     <col min="22" max="22" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="12.75" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="12.75" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +2206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" ht="16.5" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1652,7 +2274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="12.75" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1668,7 +2290,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="9.75" customHeight="1" spans="1:22">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1725,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="12.75" customHeight="1" spans="1:22">
       <c r="A6" s="4">
         <v>1001</v>
       </c>
@@ -1793,13 +2415,13 @@
         <v>65</v>
       </c>
       <c r="U6">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="12.75" customHeight="1" spans="1:22">
       <c r="A7" s="4">
         <v>1002</v>
       </c>
@@ -1858,13 +2480,13 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="12.75" customHeight="1" spans="1:22">
       <c r="A8" s="4">
         <v>1003</v>
       </c>
@@ -1923,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="12.75" customHeight="1" spans="1:22">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
@@ -1988,13 +2610,13 @@
         <v>4</v>
       </c>
       <c r="U9">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="12.75" customHeight="1" spans="1:22">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -2053,13 +2675,13 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="12.75" customHeight="1" spans="1:22">
       <c r="A11" s="4">
         <v>2003</v>
       </c>
@@ -2118,13 +2740,13 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:22">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -2183,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:22">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -2248,13 +2870,13 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:22">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -2313,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:22">
       <c r="A15">
         <v>4001</v>
       </c>
@@ -2378,13 +3000,13 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:22">
       <c r="A16">
         <v>4002</v>
       </c>
@@ -2443,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:22">
       <c r="A17">
         <v>4003</v>
       </c>
@@ -2508,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:22">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -2573,13 +3195,13 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:22">
       <c r="A19">
         <v>5002</v>
       </c>
@@ -2638,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:22">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -2703,13 +3325,13 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>434716</v>
+        <v>162450</v>
       </c>
       <c r="V20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
       <c r="A21" s="6">
         <v>1004</v>
       </c>
@@ -2770,14 +3392,14 @@
       <c r="T21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U21">
-        <v>434716</v>
+      <c r="U21" s="1">
+        <v>404268</v>
       </c>
       <c r="V21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="12.75" customHeight="1" spans="1:22">
       <c r="A22" s="4">
         <v>1005</v>
       </c>
@@ -2839,13 +3461,13 @@
         <v>65</v>
       </c>
       <c r="U22">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="12.75" customHeight="1" spans="1:22">
       <c r="A23" s="4">
         <v>1006</v>
       </c>
@@ -2907,13 +3529,13 @@
         <v>65</v>
       </c>
       <c r="U23">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:22">
       <c r="A24" s="4">
         <v>1007</v>
       </c>
@@ -2975,13 +3597,13 @@
         <v>65</v>
       </c>
       <c r="U24">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:22">
       <c r="A25" s="4">
         <v>1008</v>
       </c>
@@ -3043,13 +3665,13 @@
         <v>65</v>
       </c>
       <c r="U25">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:22">
       <c r="A26" s="4">
         <v>1009</v>
       </c>
@@ -3111,13 +3733,13 @@
         <v>65</v>
       </c>
       <c r="U26">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:22">
       <c r="A27" s="4">
         <v>1010</v>
       </c>
@@ -3179,13 +3801,13 @@
         <v>65</v>
       </c>
       <c r="U27">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:22">
       <c r="A28" s="4">
         <v>1011</v>
       </c>
@@ -3247,13 +3869,13 @@
         <v>65</v>
       </c>
       <c r="U28">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:22">
       <c r="A29" s="4">
         <v>1012</v>
       </c>
@@ -3315,13 +3937,13 @@
         <v>65</v>
       </c>
       <c r="U29">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:22">
       <c r="A30" s="4">
         <v>1013</v>
       </c>
@@ -3383,13 +4005,13 @@
         <v>65</v>
       </c>
       <c r="U30">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:22">
       <c r="A31" s="4">
         <v>1014</v>
       </c>
@@ -3451,13 +4073,13 @@
         <v>65</v>
       </c>
       <c r="U31">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" spans="1:22">
       <c r="A32" s="4">
         <v>1015</v>
       </c>
@@ -3519,13 +4141,13 @@
         <v>65</v>
       </c>
       <c r="U32">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="33" ht="16.5" spans="1:22">
       <c r="A33" s="4">
         <v>1016</v>
       </c>
@@ -3587,13 +4209,13 @@
         <v>65</v>
       </c>
       <c r="U33">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="34" ht="16.5" spans="1:22">
       <c r="A34" s="4">
         <v>1017</v>
       </c>
@@ -3655,13 +4277,13 @@
         <v>65</v>
       </c>
       <c r="U34">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="35" ht="16.5" spans="1:22">
       <c r="A35" s="4">
         <v>1018</v>
       </c>
@@ -3723,13 +4345,13 @@
         <v>65</v>
       </c>
       <c r="U35">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="36" ht="16.5" spans="1:22">
       <c r="A36" s="4">
         <v>1019</v>
       </c>
@@ -3791,13 +4413,13 @@
         <v>65</v>
       </c>
       <c r="U36">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="37" ht="16.5" spans="1:22">
       <c r="A37" s="4">
         <v>1020</v>
       </c>
@@ -3859,13 +4481,13 @@
         <v>65</v>
       </c>
       <c r="U37">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="38" ht="16.5" spans="1:22">
       <c r="A38" s="4">
         <v>1021</v>
       </c>
@@ -3927,13 +4549,13 @@
         <v>65</v>
       </c>
       <c r="U38">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="39" ht="16.5" spans="1:22">
       <c r="A39" s="4">
         <v>1022</v>
       </c>
@@ -3995,13 +4617,13 @@
         <v>65</v>
       </c>
       <c r="U39">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="40" ht="16.5" spans="1:22">
       <c r="A40" s="4">
         <v>1023</v>
       </c>
@@ -4063,13 +4685,13 @@
         <v>65</v>
       </c>
       <c r="U40">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="41" ht="16.5" spans="1:22">
       <c r="A41" s="4">
         <v>1024</v>
       </c>
@@ -4131,13 +4753,13 @@
         <v>65</v>
       </c>
       <c r="U41">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="42" ht="16.5" spans="1:22">
       <c r="A42" s="4">
         <v>1025</v>
       </c>
@@ -4199,13 +4821,13 @@
         <v>65</v>
       </c>
       <c r="U42">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="43" ht="16.5" spans="1:22">
       <c r="A43" s="4">
         <v>1026</v>
       </c>
@@ -4267,13 +4889,13 @@
         <v>65</v>
       </c>
       <c r="U43">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="44" ht="16.5" spans="1:22">
       <c r="A44" s="4">
         <v>1027</v>
       </c>
@@ -4335,13 +4957,13 @@
         <v>65</v>
       </c>
       <c r="U44">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="45" ht="16.5" spans="1:22">
       <c r="A45" s="4">
         <v>1028</v>
       </c>
@@ -4403,13 +5025,13 @@
         <v>65</v>
       </c>
       <c r="U45">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="46" ht="16.5" spans="1:22">
       <c r="A46" s="4">
         <v>1029</v>
       </c>
@@ -4471,13 +5093,13 @@
         <v>65</v>
       </c>
       <c r="U46">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="47" ht="16.5" spans="1:22">
       <c r="A47" s="4">
         <v>1030</v>
       </c>
@@ -4539,13 +5161,13 @@
         <v>65</v>
       </c>
       <c r="U47">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="48" ht="16.5" spans="1:22">
       <c r="A48" s="4">
         <v>1031</v>
       </c>
@@ -4607,13 +5229,13 @@
         <v>65</v>
       </c>
       <c r="U48">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V48">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="49" ht="16.5" spans="1:22">
       <c r="A49" s="4">
         <v>1032</v>
       </c>
@@ -4675,13 +5297,13 @@
         <v>65</v>
       </c>
       <c r="U49">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A50" s="6">
         <v>1033</v>
       </c>
@@ -4742,14 +5364,14 @@
       <c r="T50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U50">
-        <v>434716</v>
+      <c r="U50" s="1">
+        <v>404268</v>
       </c>
       <c r="V50">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" ht="12.75" customHeight="1" spans="1:22">
       <c r="A51" s="4">
         <v>2004</v>
       </c>
@@ -4811,13 +5433,13 @@
         <v>168</v>
       </c>
       <c r="U51">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V51">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" ht="12.75" customHeight="1" spans="1:22">
       <c r="A52" s="4">
         <v>2005</v>
       </c>
@@ -4879,13 +5501,13 @@
         <v>168</v>
       </c>
       <c r="U52">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V52">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" ht="12.75" customHeight="1" spans="1:22">
       <c r="A53" s="4">
         <v>2006</v>
       </c>
@@ -4947,13 +5569,13 @@
         <v>168</v>
       </c>
       <c r="U53">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" ht="12.75" customHeight="1" spans="1:22">
       <c r="A54" s="4">
         <v>2007</v>
       </c>
@@ -5015,13 +5637,13 @@
         <v>168</v>
       </c>
       <c r="U54">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" ht="12.75" customHeight="1" spans="1:22">
       <c r="A55" s="4">
         <v>2008</v>
       </c>
@@ -5083,13 +5705,13 @@
         <v>168</v>
       </c>
       <c r="U55">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V55">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" ht="12.75" customHeight="1" spans="1:22">
       <c r="A56" s="4">
         <v>2009</v>
       </c>
@@ -5151,13 +5773,13 @@
         <v>168</v>
       </c>
       <c r="U56">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" ht="12.75" customHeight="1" spans="1:22">
       <c r="A57" s="4">
         <v>2010</v>
       </c>
@@ -5219,13 +5841,13 @@
         <v>168</v>
       </c>
       <c r="U57">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V57">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" ht="12.75" customHeight="1" spans="1:22">
       <c r="A58" s="4">
         <v>2011</v>
       </c>
@@ -5287,13 +5909,13 @@
         <v>168</v>
       </c>
       <c r="U58">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" ht="12.75" customHeight="1" spans="1:22">
       <c r="A59" s="4">
         <v>2012</v>
       </c>
@@ -5355,13 +5977,13 @@
         <v>168</v>
       </c>
       <c r="U59">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V59">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" ht="12.75" customHeight="1" spans="1:22">
       <c r="A60" s="4">
         <v>2013</v>
       </c>
@@ -5423,13 +6045,13 @@
         <v>168</v>
       </c>
       <c r="U60">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" ht="12.75" customHeight="1" spans="1:22">
       <c r="A61" s="4">
         <v>2014</v>
       </c>
@@ -5491,13 +6113,13 @@
         <v>168</v>
       </c>
       <c r="U61">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V61">
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" ht="12.75" customHeight="1" spans="1:22">
       <c r="A62" s="4">
         <v>2015</v>
       </c>
@@ -5559,13 +6181,13 @@
         <v>168</v>
       </c>
       <c r="U62">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V62">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" ht="12.75" customHeight="1" spans="1:22">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
@@ -5627,13 +6249,13 @@
         <v>168</v>
       </c>
       <c r="U63">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V63">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" ht="12.75" customHeight="1" spans="1:22">
       <c r="A64" s="4">
         <v>2017</v>
       </c>
@@ -5695,13 +6317,13 @@
         <v>168</v>
       </c>
       <c r="U64">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V64">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" ht="12.75" customHeight="1" spans="1:22">
       <c r="A65" s="4">
         <v>2018</v>
       </c>
@@ -5763,13 +6385,13 @@
         <v>168</v>
       </c>
       <c r="U65">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V65">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" ht="12.75" customHeight="1" spans="1:22">
       <c r="A66" s="4">
         <v>2019</v>
       </c>
@@ -5831,13 +6453,13 @@
         <v>168</v>
       </c>
       <c r="U66">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" ht="12.75" customHeight="1" spans="1:22">
       <c r="A67" s="4">
         <v>2020</v>
       </c>
@@ -5899,13 +6521,13 @@
         <v>168</v>
       </c>
       <c r="U67">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V67">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" ht="12.75" customHeight="1" spans="1:22">
       <c r="A68" s="4">
         <v>2021</v>
       </c>
@@ -5967,13 +6589,13 @@
         <v>168</v>
       </c>
       <c r="U68">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V68">
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" ht="12.75" customHeight="1" spans="1:22">
       <c r="A69" s="4">
         <v>2022</v>
       </c>
@@ -6035,13 +6657,13 @@
         <v>168</v>
       </c>
       <c r="U69">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V69">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" ht="12.75" customHeight="1" spans="1:22">
       <c r="A70" s="4">
         <v>2023</v>
       </c>
@@ -6103,13 +6725,13 @@
         <v>168</v>
       </c>
       <c r="U70">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V70">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" ht="12.75" customHeight="1" spans="1:22">
       <c r="A71" s="4">
         <v>2024</v>
       </c>
@@ -6171,13 +6793,13 @@
         <v>168</v>
       </c>
       <c r="U71">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V71">
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" ht="12.75" customHeight="1" spans="1:22">
       <c r="A72" s="4">
         <v>2025</v>
       </c>
@@ -6239,13 +6861,13 @@
         <v>168</v>
       </c>
       <c r="U72">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V72">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" ht="12.75" customHeight="1" spans="1:22">
       <c r="A73" s="4">
         <v>2026</v>
       </c>
@@ -6307,13 +6929,13 @@
         <v>168</v>
       </c>
       <c r="U73">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V73">
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" ht="12.75" customHeight="1" spans="1:22">
       <c r="A74" s="4">
         <v>2027</v>
       </c>
@@ -6375,13 +6997,13 @@
         <v>168</v>
       </c>
       <c r="U74">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V74">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" ht="12.75" customHeight="1" spans="1:22">
       <c r="A75" s="4">
         <v>2028</v>
       </c>
@@ -6443,13 +7065,13 @@
         <v>168</v>
       </c>
       <c r="U75">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V75">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" ht="12.75" customHeight="1" spans="1:22">
       <c r="A76" s="4">
         <v>2029</v>
       </c>
@@ -6511,13 +7133,13 @@
         <v>168</v>
       </c>
       <c r="U76">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V76">
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" ht="12.75" customHeight="1" spans="1:22">
       <c r="A77" s="4">
         <v>2030</v>
       </c>
@@ -6579,13 +7201,13 @@
         <v>168</v>
       </c>
       <c r="U77">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V77">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" ht="12.75" customHeight="1" spans="1:22">
       <c r="A78" s="4">
         <v>2031</v>
       </c>
@@ -6647,13 +7269,13 @@
         <v>168</v>
       </c>
       <c r="U78">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V78">
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" ht="12.75" customHeight="1" spans="1:22">
       <c r="A79" s="4">
         <v>2032</v>
       </c>
@@ -6715,13 +7337,13 @@
         <v>168</v>
       </c>
       <c r="U79">
-        <v>434716</v>
+        <v>404267</v>
       </c>
       <c r="V79">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
       <c r="A80" s="6">
         <v>2033</v>
       </c>
@@ -6782,14 +7404,14 @@
       <c r="T80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U80">
-        <v>434716</v>
+      <c r="U80" s="1">
+        <v>404267</v>
       </c>
       <c r="V80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" ht="16.5" spans="1:22">
       <c r="A81">
         <v>3004</v>
       </c>
@@ -6851,13 +7473,13 @@
         <v>189</v>
       </c>
       <c r="U81">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V81">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" ht="16.5" spans="1:22">
       <c r="A82">
         <v>3005</v>
       </c>
@@ -6919,13 +7541,13 @@
         <v>189</v>
       </c>
       <c r="U82">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V82">
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" ht="16.5" spans="1:22">
       <c r="A83">
         <v>3006</v>
       </c>
@@ -6987,13 +7609,13 @@
         <v>189</v>
       </c>
       <c r="U83">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V83">
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" ht="16.5" spans="1:22">
       <c r="A84">
         <v>3007</v>
       </c>
@@ -7055,13 +7677,13 @@
         <v>189</v>
       </c>
       <c r="U84">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" ht="16.5" spans="1:22">
       <c r="A85">
         <v>3008</v>
       </c>
@@ -7123,13 +7745,13 @@
         <v>189</v>
       </c>
       <c r="U85">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V85">
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" ht="16.5" spans="1:22">
       <c r="A86">
         <v>3009</v>
       </c>
@@ -7191,13 +7813,13 @@
         <v>189</v>
       </c>
       <c r="U86">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" ht="16.5" spans="1:22">
       <c r="A87">
         <v>3010</v>
       </c>
@@ -7259,13 +7881,13 @@
         <v>189</v>
       </c>
       <c r="U87">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" ht="16.5" spans="1:22">
       <c r="A88">
         <v>3011</v>
       </c>
@@ -7327,13 +7949,13 @@
         <v>189</v>
       </c>
       <c r="U88">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V88">
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" ht="16.5" spans="1:22">
       <c r="A89">
         <v>3012</v>
       </c>
@@ -7395,13 +8017,13 @@
         <v>189</v>
       </c>
       <c r="U89">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V89">
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" ht="16.5" spans="1:22">
       <c r="A90">
         <v>3013</v>
       </c>
@@ -7463,13 +8085,13 @@
         <v>189</v>
       </c>
       <c r="U90">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V90">
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" ht="16.5" spans="1:22">
       <c r="A91">
         <v>3014</v>
       </c>
@@ -7531,13 +8153,13 @@
         <v>189</v>
       </c>
       <c r="U91">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V91">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" ht="16.5" spans="1:22">
       <c r="A92">
         <v>3015</v>
       </c>
@@ -7599,13 +8221,13 @@
         <v>189</v>
       </c>
       <c r="U92">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" ht="16.5" spans="1:22">
       <c r="A93">
         <v>3016</v>
       </c>
@@ -7667,13 +8289,13 @@
         <v>189</v>
       </c>
       <c r="U93">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V93">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" ht="16.5" spans="1:22">
       <c r="A94">
         <v>3017</v>
       </c>
@@ -7735,13 +8357,13 @@
         <v>189</v>
       </c>
       <c r="U94">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V94">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" ht="16.5" spans="1:22">
       <c r="A95">
         <v>3018</v>
       </c>
@@ -7803,13 +8425,13 @@
         <v>189</v>
       </c>
       <c r="U95">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V95">
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" ht="16.5" spans="1:22">
       <c r="A96">
         <v>3019</v>
       </c>
@@ -7871,13 +8493,13 @@
         <v>189</v>
       </c>
       <c r="U96">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V96">
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" ht="16.5" spans="1:22">
       <c r="A97">
         <v>3020</v>
       </c>
@@ -7939,13 +8561,13 @@
         <v>189</v>
       </c>
       <c r="U97">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V97">
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="98" ht="16.5" spans="1:22">
       <c r="A98">
         <v>3021</v>
       </c>
@@ -8007,13 +8629,13 @@
         <v>189</v>
       </c>
       <c r="U98">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V98">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" ht="16.5" spans="1:22">
       <c r="A99">
         <v>3022</v>
       </c>
@@ -8075,13 +8697,13 @@
         <v>189</v>
       </c>
       <c r="U99">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V99">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" ht="16.5" spans="1:22">
       <c r="A100">
         <v>3023</v>
       </c>
@@ -8143,13 +8765,13 @@
         <v>189</v>
       </c>
       <c r="U100">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V100">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" ht="16.5" spans="1:22">
       <c r="A101">
         <v>3024</v>
       </c>
@@ -8211,13 +8833,13 @@
         <v>189</v>
       </c>
       <c r="U101">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V101">
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" ht="16.5" spans="1:22">
       <c r="A102">
         <v>3025</v>
       </c>
@@ -8279,13 +8901,13 @@
         <v>189</v>
       </c>
       <c r="U102">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V102">
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" ht="16.5" spans="1:22">
       <c r="A103">
         <v>3026</v>
       </c>
@@ -8347,13 +8969,13 @@
         <v>189</v>
       </c>
       <c r="U103">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V103">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" ht="16.5" spans="1:22">
       <c r="A104">
         <v>3027</v>
       </c>
@@ -8415,13 +9037,13 @@
         <v>189</v>
       </c>
       <c r="U104">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V104">
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" ht="16.5" spans="1:22">
       <c r="A105">
         <v>3028</v>
       </c>
@@ -8483,13 +9105,13 @@
         <v>189</v>
       </c>
       <c r="U105">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V105">
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" ht="16.5" spans="1:22">
       <c r="A106">
         <v>3029</v>
       </c>
@@ -8551,13 +9173,13 @@
         <v>189</v>
       </c>
       <c r="U106">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V106">
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" ht="16.5" spans="1:22">
       <c r="A107">
         <v>3030</v>
       </c>
@@ -8619,13 +9241,13 @@
         <v>189</v>
       </c>
       <c r="U107">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V107">
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" ht="16.5" spans="1:22">
       <c r="A108">
         <v>3031</v>
       </c>
@@ -8687,13 +9309,13 @@
         <v>189</v>
       </c>
       <c r="U108">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V108">
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" ht="16.5" spans="1:22">
       <c r="A109">
         <v>3032</v>
       </c>
@@ -8755,13 +9377,13 @@
         <v>189</v>
       </c>
       <c r="U109">
-        <v>434716</v>
+        <v>404269</v>
       </c>
       <c r="V109">
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A110" s="1">
         <v>3033</v>
       </c>
@@ -8822,14 +9444,14 @@
       <c r="T110" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="U110">
-        <v>434716</v>
+      <c r="U110" s="1">
+        <v>404269</v>
       </c>
       <c r="V110">
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" ht="16.5" spans="1:22">
       <c r="A111">
         <v>4004</v>
       </c>
@@ -8891,13 +9513,13 @@
         <v>210</v>
       </c>
       <c r="U111">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V111">
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" ht="16.5" spans="1:22">
       <c r="A112">
         <v>4005</v>
       </c>
@@ -8959,13 +9581,13 @@
         <v>210</v>
       </c>
       <c r="U112">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V112">
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="113" ht="16.5" spans="1:22">
       <c r="A113">
         <v>4006</v>
       </c>
@@ -9027,13 +9649,13 @@
         <v>210</v>
       </c>
       <c r="U113">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V113">
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" ht="16.5" spans="1:22">
       <c r="A114">
         <v>4007</v>
       </c>
@@ -9095,13 +9717,13 @@
         <v>210</v>
       </c>
       <c r="U114">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V114">
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="115" ht="16.5" spans="1:22">
       <c r="A115">
         <v>4008</v>
       </c>
@@ -9163,13 +9785,13 @@
         <v>210</v>
       </c>
       <c r="U115">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V115">
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="116" ht="16.5" spans="1:22">
       <c r="A116">
         <v>4009</v>
       </c>
@@ -9231,13 +9853,13 @@
         <v>210</v>
       </c>
       <c r="U116">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V116">
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" ht="16.5" spans="1:22">
       <c r="A117">
         <v>4010</v>
       </c>
@@ -9299,13 +9921,13 @@
         <v>210</v>
       </c>
       <c r="U117">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V117">
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="118" ht="16.5" spans="1:22">
       <c r="A118">
         <v>4011</v>
       </c>
@@ -9367,13 +9989,13 @@
         <v>210</v>
       </c>
       <c r="U118">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V118">
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" ht="16.5" spans="1:22">
       <c r="A119">
         <v>4012</v>
       </c>
@@ -9435,13 +10057,13 @@
         <v>210</v>
       </c>
       <c r="U119">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V119">
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="120" ht="16.5" spans="1:22">
       <c r="A120">
         <v>4013</v>
       </c>
@@ -9503,13 +10125,13 @@
         <v>210</v>
       </c>
       <c r="U120">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V120">
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="121" ht="16.5" spans="1:22">
       <c r="A121">
         <v>4014</v>
       </c>
@@ -9571,13 +10193,13 @@
         <v>210</v>
       </c>
       <c r="U121">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V121">
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="122" ht="16.5" spans="1:22">
       <c r="A122">
         <v>4015</v>
       </c>
@@ -9639,13 +10261,13 @@
         <v>210</v>
       </c>
       <c r="U122">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V122">
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="123" ht="16.5" spans="1:22">
       <c r="A123">
         <v>4016</v>
       </c>
@@ -9707,13 +10329,13 @@
         <v>210</v>
       </c>
       <c r="U123">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V123">
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="124" ht="16.5" spans="1:22">
       <c r="A124">
         <v>4017</v>
       </c>
@@ -9775,13 +10397,13 @@
         <v>210</v>
       </c>
       <c r="U124">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V124">
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="125" ht="16.5" spans="1:22">
       <c r="A125">
         <v>4018</v>
       </c>
@@ -9843,13 +10465,13 @@
         <v>210</v>
       </c>
       <c r="U125">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V125">
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="126" ht="16.5" spans="1:22">
       <c r="A126">
         <v>4019</v>
       </c>
@@ -9911,13 +10533,13 @@
         <v>210</v>
       </c>
       <c r="U126">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V126">
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="127" ht="16.5" spans="1:22">
       <c r="A127">
         <v>4020</v>
       </c>
@@ -9979,13 +10601,13 @@
         <v>210</v>
       </c>
       <c r="U127">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V127">
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="128" ht="16.5" spans="1:22">
       <c r="A128">
         <v>4021</v>
       </c>
@@ -10047,13 +10669,13 @@
         <v>210</v>
       </c>
       <c r="U128">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V128">
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="129" ht="16.5" spans="1:22">
       <c r="A129">
         <v>4022</v>
       </c>
@@ -10115,13 +10737,13 @@
         <v>210</v>
       </c>
       <c r="U129">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V129">
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="130" ht="16.5" spans="1:22">
       <c r="A130">
         <v>4023</v>
       </c>
@@ -10183,13 +10805,13 @@
         <v>210</v>
       </c>
       <c r="U130">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V130">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="131" ht="16.5" spans="1:22">
       <c r="A131">
         <v>4024</v>
       </c>
@@ -10251,13 +10873,13 @@
         <v>210</v>
       </c>
       <c r="U131">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V131">
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="132" ht="16.5" spans="1:22">
       <c r="A132">
         <v>4025</v>
       </c>
@@ -10319,13 +10941,13 @@
         <v>210</v>
       </c>
       <c r="U132">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V132">
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="133" ht="16.5" spans="1:22">
       <c r="A133">
         <v>4026</v>
       </c>
@@ -10387,13 +11009,13 @@
         <v>210</v>
       </c>
       <c r="U133">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V133">
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="134" ht="16.5" spans="1:22">
       <c r="A134">
         <v>4027</v>
       </c>
@@ -10455,13 +11077,13 @@
         <v>210</v>
       </c>
       <c r="U134">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V134">
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="135" ht="16.5" spans="1:22">
       <c r="A135">
         <v>4028</v>
       </c>
@@ -10523,13 +11145,13 @@
         <v>210</v>
       </c>
       <c r="U135">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V135">
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="136" ht="16.5" spans="1:22">
       <c r="A136">
         <v>4029</v>
       </c>
@@ -10591,13 +11213,13 @@
         <v>210</v>
       </c>
       <c r="U136">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V136">
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="137" ht="16.5" spans="1:22">
       <c r="A137">
         <v>4030</v>
       </c>
@@ -10659,13 +11281,13 @@
         <v>210</v>
       </c>
       <c r="U137">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V137">
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="138" ht="16.5" spans="1:22">
       <c r="A138">
         <v>4031</v>
       </c>
@@ -10727,13 +11349,13 @@
         <v>210</v>
       </c>
       <c r="U138">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V138">
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="139" ht="16.5" spans="1:22">
       <c r="A139">
         <v>4032</v>
       </c>
@@ -10795,13 +11417,13 @@
         <v>210</v>
       </c>
       <c r="U139">
-        <v>434716</v>
+        <v>404266</v>
       </c>
       <c r="V139">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" s="1" customFormat="1" ht="16.5" spans="1:22">
       <c r="A140" s="1">
         <v>4033</v>
       </c>
@@ -10862,14 +11484,14 @@
       <c r="T140" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U140">
-        <v>434716</v>
+      <c r="U140" s="1">
+        <v>404266</v>
       </c>
       <c r="V140">
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" ht="16.5" spans="1:22">
       <c r="A141">
         <v>5004</v>
       </c>
@@ -10931,13 +11553,13 @@
         <v>231</v>
       </c>
       <c r="U141">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V141">
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="142" ht="16.5" spans="1:22">
       <c r="A142">
         <v>5005</v>
       </c>
@@ -10999,13 +11621,13 @@
         <v>231</v>
       </c>
       <c r="U142">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V142">
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="143" ht="16.5" spans="1:22">
       <c r="A143">
         <v>5006</v>
       </c>
@@ -11067,13 +11689,13 @@
         <v>231</v>
       </c>
       <c r="U143">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V143">
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="144" ht="16.5" spans="1:22">
       <c r="A144">
         <v>5007</v>
       </c>
@@ -11135,13 +11757,13 @@
         <v>231</v>
       </c>
       <c r="U144">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V144">
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="145" ht="16.5" spans="1:22">
       <c r="A145">
         <v>5008</v>
       </c>
@@ -11203,13 +11825,13 @@
         <v>231</v>
       </c>
       <c r="U145">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V145">
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="146" ht="16.5" spans="1:22">
       <c r="A146">
         <v>5009</v>
       </c>
@@ -11271,13 +11893,13 @@
         <v>231</v>
       </c>
       <c r="U146">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V146">
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="147" ht="16.5" spans="1:22">
       <c r="A147">
         <v>5010</v>
       </c>
@@ -11339,13 +11961,13 @@
         <v>231</v>
       </c>
       <c r="U147">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V147">
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="148" ht="16.5" spans="1:22">
       <c r="A148">
         <v>5011</v>
       </c>
@@ -11407,13 +12029,13 @@
         <v>231</v>
       </c>
       <c r="U148">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V148">
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="149" ht="16.5" spans="1:22">
       <c r="A149">
         <v>5012</v>
       </c>
@@ -11475,13 +12097,13 @@
         <v>231</v>
       </c>
       <c r="U149">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V149">
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="150" ht="16.5" spans="1:22">
       <c r="A150">
         <v>5013</v>
       </c>
@@ -11543,13 +12165,13 @@
         <v>231</v>
       </c>
       <c r="U150">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V150">
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="151" ht="16.5" spans="1:22">
       <c r="A151">
         <v>5014</v>
       </c>
@@ -11611,13 +12233,13 @@
         <v>231</v>
       </c>
       <c r="U151">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V151">
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="152" ht="16.5" spans="1:22">
       <c r="A152">
         <v>5015</v>
       </c>
@@ -11679,13 +12301,13 @@
         <v>231</v>
       </c>
       <c r="U152">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V152">
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="153" ht="16.5" spans="1:22">
       <c r="A153">
         <v>5016</v>
       </c>
@@ -11747,13 +12369,13 @@
         <v>231</v>
       </c>
       <c r="U153">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V153">
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="154" ht="16.5" spans="1:22">
       <c r="A154">
         <v>5017</v>
       </c>
@@ -11815,13 +12437,13 @@
         <v>231</v>
       </c>
       <c r="U154">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V154">
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="155" ht="16.5" spans="1:22">
       <c r="A155">
         <v>5018</v>
       </c>
@@ -11883,13 +12505,13 @@
         <v>231</v>
       </c>
       <c r="U155">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V155">
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="156" ht="16.5" spans="1:22">
       <c r="A156">
         <v>5019</v>
       </c>
@@ -11951,13 +12573,13 @@
         <v>231</v>
       </c>
       <c r="U156">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="157" ht="16.5" spans="1:22">
       <c r="A157">
         <v>5020</v>
       </c>
@@ -12019,13 +12641,13 @@
         <v>231</v>
       </c>
       <c r="U157">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V157">
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="158" ht="16.5" spans="1:22">
       <c r="A158">
         <v>5021</v>
       </c>
@@ -12087,13 +12709,13 @@
         <v>231</v>
       </c>
       <c r="U158">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V158">
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="159" ht="16.5" spans="1:22">
       <c r="A159">
         <v>5022</v>
       </c>
@@ -12155,13 +12777,13 @@
         <v>231</v>
       </c>
       <c r="U159">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V159">
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="160" ht="16.5" spans="1:22">
       <c r="A160">
         <v>5023</v>
       </c>
@@ -12223,13 +12845,13 @@
         <v>231</v>
       </c>
       <c r="U160">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V160">
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="161" ht="16.5" spans="1:22">
       <c r="A161">
         <v>5024</v>
       </c>
@@ -12291,13 +12913,13 @@
         <v>231</v>
       </c>
       <c r="U161">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V161">
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="162" ht="16.5" spans="1:22">
       <c r="A162">
         <v>5025</v>
       </c>
@@ -12359,13 +12981,13 @@
         <v>231</v>
       </c>
       <c r="U162">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V162">
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="163" ht="16.5" spans="1:22">
       <c r="A163">
         <v>5026</v>
       </c>
@@ -12427,13 +13049,13 @@
         <v>231</v>
       </c>
       <c r="U163">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V163">
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="164" ht="16.5" spans="1:22">
       <c r="A164">
         <v>5027</v>
       </c>
@@ -12495,13 +13117,13 @@
         <v>231</v>
       </c>
       <c r="U164">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V164">
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="165" ht="16.5" spans="1:22">
       <c r="A165">
         <v>5028</v>
       </c>
@@ -12563,13 +13185,13 @@
         <v>231</v>
       </c>
       <c r="U165">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V165">
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="166" ht="16.5" spans="1:22">
       <c r="A166">
         <v>5029</v>
       </c>
@@ -12631,13 +13253,13 @@
         <v>231</v>
       </c>
       <c r="U166">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V166">
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="167" ht="16.5" spans="1:22">
       <c r="A167">
         <v>5030</v>
       </c>
@@ -12699,13 +13321,13 @@
         <v>231</v>
       </c>
       <c r="U167">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V167">
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="168" ht="16.5" spans="1:22">
       <c r="A168">
         <v>5031</v>
       </c>
@@ -12767,13 +13389,13 @@
         <v>231</v>
       </c>
       <c r="U168">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V168">
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="169" ht="16.5" spans="1:22">
       <c r="A169">
         <v>5032</v>
       </c>
@@ -12835,13 +13457,13 @@
         <v>231</v>
       </c>
       <c r="U169">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V169">
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="170" ht="16.5" spans="1:22">
       <c r="A170">
         <v>5033</v>
       </c>
@@ -12903,13 +13525,13 @@
         <v>231</v>
       </c>
       <c r="U170">
-        <v>434716</v>
+        <v>404264</v>
       </c>
       <c r="V170">
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="171" ht="16.5" spans="1:22">
       <c r="A171">
         <v>6001</v>
       </c>
@@ -12971,13 +13593,13 @@
         <v>253</v>
       </c>
       <c r="U171">
-        <v>434716</v>
+        <v>404270</v>
       </c>
       <c r="V171">
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="172" ht="16.5" spans="1:22">
       <c r="A172" s="4">
         <v>7001</v>
       </c>
@@ -13039,15 +13661,15 @@
         <v>253</v>
       </c>
       <c r="U172">
-        <v>434716</v>
+        <v>404268</v>
       </c>
       <c r="V172">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A3AF95-8A68-4814-9CD6-D7C2FEDEAAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -803,14 +807,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -848,158 +846,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,194 +876,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1234,251 +900,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1523,89 +947,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1616,7 +1109,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1644,149 +1137,32 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1857,12 +1233,15 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="0000A933"/>
+      <color rgb="FF00A933"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1921,7 +1300,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2038,21 +1417,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5:M26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -2070,7 +1448,7 @@
     <col min="22" max="22" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:22">
+    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:22">
+    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +1584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2274,7 +1652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:13">
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -2290,7 +1668,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" ht="9.75" customHeight="1" spans="1:22">
+    <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2347,13 +1725,13 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:22">
+    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1001</v>
       </c>
@@ -2415,13 +1793,13 @@
         <v>65</v>
       </c>
       <c r="U6">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:22">
+    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1002</v>
       </c>
@@ -2480,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1003</v>
       </c>
@@ -2545,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2001</v>
       </c>
@@ -2610,13 +1988,13 @@
         <v>4</v>
       </c>
       <c r="U9">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:22">
+    <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2002</v>
       </c>
@@ -2675,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:22">
+    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2003</v>
       </c>
@@ -2740,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -2805,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -2870,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -2935,13 +2313,13 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4001</v>
       </c>
@@ -3000,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4002</v>
       </c>
@@ -3065,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4003</v>
       </c>
@@ -3130,13 +2508,13 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -3195,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5002</v>
       </c>
@@ -3260,13 +2638,13 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -3325,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>162450</v>
+        <v>434716</v>
       </c>
       <c r="V20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>1004</v>
       </c>
@@ -3392,14 +2770,14 @@
       <c r="T21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="1">
-        <v>404268</v>
+      <c r="U21">
+        <v>434716</v>
       </c>
       <c r="V21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1005</v>
       </c>
@@ -3461,13 +2839,13 @@
         <v>65</v>
       </c>
       <c r="U22">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:22">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>1006</v>
       </c>
@@ -3529,13 +2907,13 @@
         <v>65</v>
       </c>
       <c r="U23">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1007</v>
       </c>
@@ -3597,13 +2975,13 @@
         <v>65</v>
       </c>
       <c r="U24">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>1008</v>
       </c>
@@ -3665,13 +3043,13 @@
         <v>65</v>
       </c>
       <c r="U25">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1009</v>
       </c>
@@ -3733,13 +3111,13 @@
         <v>65</v>
       </c>
       <c r="U26">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1010</v>
       </c>
@@ -3801,13 +3179,13 @@
         <v>65</v>
       </c>
       <c r="U27">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1011</v>
       </c>
@@ -3869,13 +3247,13 @@
         <v>65</v>
       </c>
       <c r="U28">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1012</v>
       </c>
@@ -3937,13 +3315,13 @@
         <v>65</v>
       </c>
       <c r="U29">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:22">
+    <row r="30" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>1013</v>
       </c>
@@ -4005,13 +3383,13 @@
         <v>65</v>
       </c>
       <c r="U30">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:22">
+    <row r="31" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>1014</v>
       </c>
@@ -4073,13 +3451,13 @@
         <v>65</v>
       </c>
       <c r="U31">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:22">
+    <row r="32" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1015</v>
       </c>
@@ -4141,13 +3519,13 @@
         <v>65</v>
       </c>
       <c r="U32">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:22">
+    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>1016</v>
       </c>
@@ -4209,13 +3587,13 @@
         <v>65</v>
       </c>
       <c r="U33">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:22">
+    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>1017</v>
       </c>
@@ -4277,13 +3655,13 @@
         <v>65</v>
       </c>
       <c r="U34">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:22">
+    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>1018</v>
       </c>
@@ -4345,13 +3723,13 @@
         <v>65</v>
       </c>
       <c r="U35">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:22">
+    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>1019</v>
       </c>
@@ -4413,13 +3791,13 @@
         <v>65</v>
       </c>
       <c r="U36">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:22">
+    <row r="37" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>1020</v>
       </c>
@@ -4481,13 +3859,13 @@
         <v>65</v>
       </c>
       <c r="U37">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:22">
+    <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>1021</v>
       </c>
@@ -4549,13 +3927,13 @@
         <v>65</v>
       </c>
       <c r="U38">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:22">
+    <row r="39" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>1022</v>
       </c>
@@ -4617,13 +3995,13 @@
         <v>65</v>
       </c>
       <c r="U39">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:22">
+    <row r="40" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>1023</v>
       </c>
@@ -4685,13 +4063,13 @@
         <v>65</v>
       </c>
       <c r="U40">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:22">
+    <row r="41" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>1024</v>
       </c>
@@ -4753,13 +4131,13 @@
         <v>65</v>
       </c>
       <c r="U41">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:22">
+    <row r="42" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>1025</v>
       </c>
@@ -4821,13 +4199,13 @@
         <v>65</v>
       </c>
       <c r="U42">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:22">
+    <row r="43" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>1026</v>
       </c>
@@ -4889,13 +4267,13 @@
         <v>65</v>
       </c>
       <c r="U43">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:22">
+    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>1027</v>
       </c>
@@ -4957,13 +4335,13 @@
         <v>65</v>
       </c>
       <c r="U44">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:22">
+    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>1028</v>
       </c>
@@ -5025,13 +4403,13 @@
         <v>65</v>
       </c>
       <c r="U45">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:22">
+    <row r="46" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>1029</v>
       </c>
@@ -5093,13 +4471,13 @@
         <v>65</v>
       </c>
       <c r="U46">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:22">
+    <row r="47" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>1030</v>
       </c>
@@ -5161,13 +4539,13 @@
         <v>65</v>
       </c>
       <c r="U47">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:22">
+    <row r="48" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>1031</v>
       </c>
@@ -5229,13 +4607,13 @@
         <v>65</v>
       </c>
       <c r="U48">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V48">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:22">
+    <row r="49" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>1032</v>
       </c>
@@ -5297,13 +4675,13 @@
         <v>65</v>
       </c>
       <c r="U49">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="50" spans="1:22" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>1033</v>
       </c>
@@ -5364,14 +4742,14 @@
       <c r="T50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U50" s="1">
-        <v>404268</v>
+      <c r="U50">
+        <v>434716</v>
       </c>
       <c r="V50">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" spans="1:22">
+    <row r="51" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>2004</v>
       </c>
@@ -5433,13 +4811,13 @@
         <v>168</v>
       </c>
       <c r="U51">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V51">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" spans="1:22">
+    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>2005</v>
       </c>
@@ -5501,13 +4879,13 @@
         <v>168</v>
       </c>
       <c r="U52">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V52">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" spans="1:22">
+    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>2006</v>
       </c>
@@ -5569,13 +4947,13 @@
         <v>168</v>
       </c>
       <c r="U53">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" spans="1:22">
+    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>2007</v>
       </c>
@@ -5637,13 +5015,13 @@
         <v>168</v>
       </c>
       <c r="U54">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" spans="1:22">
+    <row r="55" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>2008</v>
       </c>
@@ -5705,13 +5083,13 @@
         <v>168</v>
       </c>
       <c r="U55">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V55">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" spans="1:22">
+    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>2009</v>
       </c>
@@ -5773,13 +5151,13 @@
         <v>168</v>
       </c>
       <c r="U56">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V56">
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" spans="1:22">
+    <row r="57" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>2010</v>
       </c>
@@ -5841,13 +5219,13 @@
         <v>168</v>
       </c>
       <c r="U57">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V57">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" spans="1:22">
+    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>2011</v>
       </c>
@@ -5909,13 +5287,13 @@
         <v>168</v>
       </c>
       <c r="U58">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" spans="1:22">
+    <row r="59" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>2012</v>
       </c>
@@ -5977,13 +5355,13 @@
         <v>168</v>
       </c>
       <c r="U59">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V59">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" spans="1:22">
+    <row r="60" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>2013</v>
       </c>
@@ -6045,13 +5423,13 @@
         <v>168</v>
       </c>
       <c r="U60">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V60">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" spans="1:22">
+    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>2014</v>
       </c>
@@ -6113,13 +5491,13 @@
         <v>168</v>
       </c>
       <c r="U61">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V61">
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" spans="1:22">
+    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>2015</v>
       </c>
@@ -6181,13 +5559,13 @@
         <v>168</v>
       </c>
       <c r="U62">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V62">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" spans="1:22">
+    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
@@ -6249,13 +5627,13 @@
         <v>168</v>
       </c>
       <c r="U63">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V63">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" spans="1:22">
+    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>2017</v>
       </c>
@@ -6317,13 +5695,13 @@
         <v>168</v>
       </c>
       <c r="U64">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V64">
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1" spans="1:22">
+    <row r="65" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>2018</v>
       </c>
@@ -6385,13 +5763,13 @@
         <v>168</v>
       </c>
       <c r="U65">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V65">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1" spans="1:22">
+    <row r="66" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>2019</v>
       </c>
@@ -6453,13 +5831,13 @@
         <v>168</v>
       </c>
       <c r="U66">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1" spans="1:22">
+    <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>2020</v>
       </c>
@@ -6521,13 +5899,13 @@
         <v>168</v>
       </c>
       <c r="U67">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V67">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1" spans="1:22">
+    <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>2021</v>
       </c>
@@ -6589,13 +5967,13 @@
         <v>168</v>
       </c>
       <c r="U68">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V68">
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1" spans="1:22">
+    <row r="69" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>2022</v>
       </c>
@@ -6657,13 +6035,13 @@
         <v>168</v>
       </c>
       <c r="U69">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V69">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1" spans="1:22">
+    <row r="70" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>2023</v>
       </c>
@@ -6725,13 +6103,13 @@
         <v>168</v>
       </c>
       <c r="U70">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V70">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1" spans="1:22">
+    <row r="71" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>2024</v>
       </c>
@@ -6793,13 +6171,13 @@
         <v>168</v>
       </c>
       <c r="U71">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V71">
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1" spans="1:22">
+    <row r="72" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>2025</v>
       </c>
@@ -6861,13 +6239,13 @@
         <v>168</v>
       </c>
       <c r="U72">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V72">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1" spans="1:22">
+    <row r="73" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>2026</v>
       </c>
@@ -6929,13 +6307,13 @@
         <v>168</v>
       </c>
       <c r="U73">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V73">
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1" spans="1:22">
+    <row r="74" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>2027</v>
       </c>
@@ -6997,13 +6375,13 @@
         <v>168</v>
       </c>
       <c r="U74">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V74">
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1" spans="1:22">
+    <row r="75" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>2028</v>
       </c>
@@ -7065,13 +6443,13 @@
         <v>168</v>
       </c>
       <c r="U75">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V75">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1" spans="1:22">
+    <row r="76" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>2029</v>
       </c>
@@ -7133,13 +6511,13 @@
         <v>168</v>
       </c>
       <c r="U76">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V76">
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1" spans="1:22">
+    <row r="77" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>2030</v>
       </c>
@@ -7201,13 +6579,13 @@
         <v>168</v>
       </c>
       <c r="U77">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V77">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1" spans="1:22">
+    <row r="78" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>2031</v>
       </c>
@@ -7269,13 +6647,13 @@
         <v>168</v>
       </c>
       <c r="U78">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V78">
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1" spans="1:22">
+    <row r="79" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>2032</v>
       </c>
@@ -7337,13 +6715,13 @@
         <v>168</v>
       </c>
       <c r="U79">
-        <v>404267</v>
+        <v>434716</v>
       </c>
       <c r="V79">
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:22">
+    <row r="80" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>2033</v>
       </c>
@@ -7404,14 +6782,14 @@
       <c r="T80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U80" s="1">
-        <v>404267</v>
+      <c r="U80">
+        <v>434716</v>
       </c>
       <c r="V80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>3004</v>
       </c>
@@ -7473,13 +6851,13 @@
         <v>189</v>
       </c>
       <c r="U81">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V81">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>3005</v>
       </c>
@@ -7541,13 +6919,13 @@
         <v>189</v>
       </c>
       <c r="U82">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V82">
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>3006</v>
       </c>
@@ -7609,13 +6987,13 @@
         <v>189</v>
       </c>
       <c r="U83">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V83">
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3007</v>
       </c>
@@ -7677,13 +7055,13 @@
         <v>189</v>
       </c>
       <c r="U84">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>3008</v>
       </c>
@@ -7745,13 +7123,13 @@
         <v>189</v>
       </c>
       <c r="U85">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V85">
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>3009</v>
       </c>
@@ -7813,13 +7191,13 @@
         <v>189</v>
       </c>
       <c r="U86">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>3010</v>
       </c>
@@ -7881,13 +7259,13 @@
         <v>189</v>
       </c>
       <c r="U87">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>3011</v>
       </c>
@@ -7949,13 +7327,13 @@
         <v>189</v>
       </c>
       <c r="U88">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V88">
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>3012</v>
       </c>
@@ -8017,13 +7395,13 @@
         <v>189</v>
       </c>
       <c r="U89">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V89">
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3013</v>
       </c>
@@ -8085,13 +7463,13 @@
         <v>189</v>
       </c>
       <c r="U90">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V90">
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3014</v>
       </c>
@@ -8153,13 +7531,13 @@
         <v>189</v>
       </c>
       <c r="U91">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V91">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3015</v>
       </c>
@@ -8221,13 +7599,13 @@
         <v>189</v>
       </c>
       <c r="U92">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>3016</v>
       </c>
@@ -8289,13 +7667,13 @@
         <v>189</v>
       </c>
       <c r="U93">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V93">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>3017</v>
       </c>
@@ -8357,13 +7735,13 @@
         <v>189</v>
       </c>
       <c r="U94">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V94">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3018</v>
       </c>
@@ -8425,13 +7803,13 @@
         <v>189</v>
       </c>
       <c r="U95">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V95">
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>3019</v>
       </c>
@@ -8493,13 +7871,13 @@
         <v>189</v>
       </c>
       <c r="U96">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V96">
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>3020</v>
       </c>
@@ -8561,13 +7939,13 @@
         <v>189</v>
       </c>
       <c r="U97">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V97">
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>3021</v>
       </c>
@@ -8629,13 +8007,13 @@
         <v>189</v>
       </c>
       <c r="U98">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V98">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3022</v>
       </c>
@@ -8697,13 +8075,13 @@
         <v>189</v>
       </c>
       <c r="U99">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V99">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>3023</v>
       </c>
@@ -8765,13 +8143,13 @@
         <v>189</v>
       </c>
       <c r="U100">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V100">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>3024</v>
       </c>
@@ -8833,13 +8211,13 @@
         <v>189</v>
       </c>
       <c r="U101">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V101">
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3025</v>
       </c>
@@ -8901,13 +8279,13 @@
         <v>189</v>
       </c>
       <c r="U102">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V102">
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>3026</v>
       </c>
@@ -8969,13 +8347,13 @@
         <v>189</v>
       </c>
       <c r="U103">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V103">
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3027</v>
       </c>
@@ -9037,13 +8415,13 @@
         <v>189</v>
       </c>
       <c r="U104">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V104">
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>3028</v>
       </c>
@@ -9105,13 +8483,13 @@
         <v>189</v>
       </c>
       <c r="U105">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V105">
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3029</v>
       </c>
@@ -9173,13 +8551,13 @@
         <v>189</v>
       </c>
       <c r="U106">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V106">
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>3030</v>
       </c>
@@ -9241,13 +8619,13 @@
         <v>189</v>
       </c>
       <c r="U107">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V107">
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3031</v>
       </c>
@@ -9309,13 +8687,13 @@
         <v>189</v>
       </c>
       <c r="U108">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V108">
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>3032</v>
       </c>
@@ -9377,13 +8755,13 @@
         <v>189</v>
       </c>
       <c r="U109">
-        <v>404269</v>
+        <v>434716</v>
       </c>
       <c r="V109">
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="110" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3033</v>
       </c>
@@ -9444,14 +8822,14 @@
       <c r="T110" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="U110" s="1">
-        <v>404269</v>
+      <c r="U110">
+        <v>434716</v>
       </c>
       <c r="V110">
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4004</v>
       </c>
@@ -9513,13 +8891,13 @@
         <v>210</v>
       </c>
       <c r="U111">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V111">
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>4005</v>
       </c>
@@ -9581,13 +8959,13 @@
         <v>210</v>
       </c>
       <c r="U112">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V112">
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>4006</v>
       </c>
@@ -9649,13 +9027,13 @@
         <v>210</v>
       </c>
       <c r="U113">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V113">
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>4007</v>
       </c>
@@ -9717,13 +9095,13 @@
         <v>210</v>
       </c>
       <c r="U114">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V114">
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>4008</v>
       </c>
@@ -9785,13 +9163,13 @@
         <v>210</v>
       </c>
       <c r="U115">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V115">
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>4009</v>
       </c>
@@ -9853,13 +9231,13 @@
         <v>210</v>
       </c>
       <c r="U116">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V116">
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>4010</v>
       </c>
@@ -9921,13 +9299,13 @@
         <v>210</v>
       </c>
       <c r="U117">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V117">
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>4011</v>
       </c>
@@ -9989,13 +9367,13 @@
         <v>210</v>
       </c>
       <c r="U118">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V118">
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>4012</v>
       </c>
@@ -10057,13 +9435,13 @@
         <v>210</v>
       </c>
       <c r="U119">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V119">
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>4013</v>
       </c>
@@ -10125,13 +9503,13 @@
         <v>210</v>
       </c>
       <c r="U120">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V120">
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>4014</v>
       </c>
@@ -10193,13 +9571,13 @@
         <v>210</v>
       </c>
       <c r="U121">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V121">
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>4015</v>
       </c>
@@ -10261,13 +9639,13 @@
         <v>210</v>
       </c>
       <c r="U122">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V122">
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>4016</v>
       </c>
@@ -10329,13 +9707,13 @@
         <v>210</v>
       </c>
       <c r="U123">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V123">
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>4017</v>
       </c>
@@ -10397,13 +9775,13 @@
         <v>210</v>
       </c>
       <c r="U124">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V124">
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>4018</v>
       </c>
@@ -10465,13 +9843,13 @@
         <v>210</v>
       </c>
       <c r="U125">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V125">
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>4019</v>
       </c>
@@ -10533,13 +9911,13 @@
         <v>210</v>
       </c>
       <c r="U126">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V126">
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>4020</v>
       </c>
@@ -10601,13 +9979,13 @@
         <v>210</v>
       </c>
       <c r="U127">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V127">
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>4021</v>
       </c>
@@ -10669,13 +10047,13 @@
         <v>210</v>
       </c>
       <c r="U128">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V128">
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>4022</v>
       </c>
@@ -10737,13 +10115,13 @@
         <v>210</v>
       </c>
       <c r="U129">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V129">
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>4023</v>
       </c>
@@ -10805,13 +10183,13 @@
         <v>210</v>
       </c>
       <c r="U130">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V130">
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>4024</v>
       </c>
@@ -10873,13 +10251,13 @@
         <v>210</v>
       </c>
       <c r="U131">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V131">
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>4025</v>
       </c>
@@ -10941,13 +10319,13 @@
         <v>210</v>
       </c>
       <c r="U132">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V132">
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>4026</v>
       </c>
@@ -11009,13 +10387,13 @@
         <v>210</v>
       </c>
       <c r="U133">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V133">
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>4027</v>
       </c>
@@ -11077,13 +10455,13 @@
         <v>210</v>
       </c>
       <c r="U134">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V134">
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>4028</v>
       </c>
@@ -11145,13 +10523,13 @@
         <v>210</v>
       </c>
       <c r="U135">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V135">
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>4029</v>
       </c>
@@ -11213,13 +10591,13 @@
         <v>210</v>
       </c>
       <c r="U136">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V136">
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>4030</v>
       </c>
@@ -11281,13 +10659,13 @@
         <v>210</v>
       </c>
       <c r="U137">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V137">
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>4031</v>
       </c>
@@ -11349,13 +10727,13 @@
         <v>210</v>
       </c>
       <c r="U138">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V138">
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>4032</v>
       </c>
@@ -11417,13 +10795,13 @@
         <v>210</v>
       </c>
       <c r="U139">
-        <v>404266</v>
+        <v>434716</v>
       </c>
       <c r="V139">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="16.5" spans="1:22">
+    <row r="140" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>4033</v>
       </c>
@@ -11484,14 +10862,14 @@
       <c r="T140" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U140" s="1">
-        <v>404266</v>
+      <c r="U140">
+        <v>434716</v>
       </c>
       <c r="V140">
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>5004</v>
       </c>
@@ -11553,13 +10931,13 @@
         <v>231</v>
       </c>
       <c r="U141">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V141">
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5005</v>
       </c>
@@ -11621,13 +10999,13 @@
         <v>231</v>
       </c>
       <c r="U142">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V142">
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>5006</v>
       </c>
@@ -11689,13 +11067,13 @@
         <v>231</v>
       </c>
       <c r="U143">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V143">
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>5007</v>
       </c>
@@ -11757,13 +11135,13 @@
         <v>231</v>
       </c>
       <c r="U144">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V144">
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>5008</v>
       </c>
@@ -11825,13 +11203,13 @@
         <v>231</v>
       </c>
       <c r="U145">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V145">
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>5009</v>
       </c>
@@ -11893,13 +11271,13 @@
         <v>231</v>
       </c>
       <c r="U146">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V146">
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>5010</v>
       </c>
@@ -11961,13 +11339,13 @@
         <v>231</v>
       </c>
       <c r="U147">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V147">
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>5011</v>
       </c>
@@ -12029,13 +11407,13 @@
         <v>231</v>
       </c>
       <c r="U148">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V148">
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>5012</v>
       </c>
@@ -12097,13 +11475,13 @@
         <v>231</v>
       </c>
       <c r="U149">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V149">
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>5013</v>
       </c>
@@ -12165,13 +11543,13 @@
         <v>231</v>
       </c>
       <c r="U150">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V150">
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>5014</v>
       </c>
@@ -12233,13 +11611,13 @@
         <v>231</v>
       </c>
       <c r="U151">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V151">
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>5015</v>
       </c>
@@ -12301,13 +11679,13 @@
         <v>231</v>
       </c>
       <c r="U152">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V152">
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>5016</v>
       </c>
@@ -12369,13 +11747,13 @@
         <v>231</v>
       </c>
       <c r="U153">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V153">
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>5017</v>
       </c>
@@ -12437,13 +11815,13 @@
         <v>231</v>
       </c>
       <c r="U154">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V154">
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>5018</v>
       </c>
@@ -12505,13 +11883,13 @@
         <v>231</v>
       </c>
       <c r="U155">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V155">
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>5019</v>
       </c>
@@ -12573,13 +11951,13 @@
         <v>231</v>
       </c>
       <c r="U156">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>5020</v>
       </c>
@@ -12641,13 +12019,13 @@
         <v>231</v>
       </c>
       <c r="U157">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V157">
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>5021</v>
       </c>
@@ -12709,13 +12087,13 @@
         <v>231</v>
       </c>
       <c r="U158">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V158">
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>5022</v>
       </c>
@@ -12777,13 +12155,13 @@
         <v>231</v>
       </c>
       <c r="U159">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V159">
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>5023</v>
       </c>
@@ -12845,13 +12223,13 @@
         <v>231</v>
       </c>
       <c r="U160">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V160">
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>5024</v>
       </c>
@@ -12913,13 +12291,13 @@
         <v>231</v>
       </c>
       <c r="U161">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V161">
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5025</v>
       </c>
@@ -12981,13 +12359,13 @@
         <v>231</v>
       </c>
       <c r="U162">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V162">
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>5026</v>
       </c>
@@ -13049,13 +12427,13 @@
         <v>231</v>
       </c>
       <c r="U163">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V163">
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>5027</v>
       </c>
@@ -13117,13 +12495,13 @@
         <v>231</v>
       </c>
       <c r="U164">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V164">
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>5028</v>
       </c>
@@ -13185,13 +12563,13 @@
         <v>231</v>
       </c>
       <c r="U165">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V165">
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>5029</v>
       </c>
@@ -13253,13 +12631,13 @@
         <v>231</v>
       </c>
       <c r="U166">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V166">
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>5030</v>
       </c>
@@ -13321,13 +12699,13 @@
         <v>231</v>
       </c>
       <c r="U167">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V167">
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>5031</v>
       </c>
@@ -13389,13 +12767,13 @@
         <v>231</v>
       </c>
       <c r="U168">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V168">
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>5032</v>
       </c>
@@ -13457,13 +12835,13 @@
         <v>231</v>
       </c>
       <c r="U169">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V169">
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>5033</v>
       </c>
@@ -13525,13 +12903,13 @@
         <v>231</v>
       </c>
       <c r="U170">
-        <v>404264</v>
+        <v>434716</v>
       </c>
       <c r="V170">
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>6001</v>
       </c>
@@ -13593,13 +12971,13 @@
         <v>253</v>
       </c>
       <c r="U171">
-        <v>404270</v>
+        <v>434716</v>
       </c>
       <c r="V171">
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>7001</v>
       </c>
@@ -13661,15 +13039,15 @@
         <v>253</v>
       </c>
       <c r="U172">
-        <v>404268</v>
+        <v>434716</v>
       </c>
       <c r="V172">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD594758-B744-40A5-8FB1-7EFFB4616775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B06E210-6592-4196-85E2-632EB89FCA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="323">
   <si>
     <t>int</t>
   </si>
@@ -783,226 +783,224 @@
     <t>训练关卡</t>
   </si>
   <si>
-    <t>1023|1||1|360||3|12</t>
-  </si>
-  <si>
-    <t>1|70||3|12</t>
-  </si>
-  <si>
-    <t>1|240||3|12</t>
-  </si>
-  <si>
-    <t>1|120||3|10</t>
-  </si>
-  <si>
-    <t>1|40||3|10</t>
-  </si>
-  <si>
-    <t>1005|1||1|495||3|12</t>
-  </si>
-  <si>
-    <t>1|100||2|80||3|19</t>
-  </si>
-  <si>
-    <t>1|330||3|12</t>
-  </si>
-  <si>
-    <t>1|165||2|132||3|10</t>
-  </si>
-  <si>
-    <t>1|60||2|40||3|3</t>
-  </si>
-  <si>
-    <t>1017|1||1|570||3|12</t>
-  </si>
-  <si>
-    <t>1|110||2|90||3|26</t>
-  </si>
-  <si>
-    <t>1|380||3|12</t>
-  </si>
-  <si>
-    <t>1|190||2|152||3|14</t>
-  </si>
-  <si>
-    <t>1|60||2|50||3|4</t>
-  </si>
-  <si>
-    <t>1|450||2|360||3|18</t>
-  </si>
-  <si>
-    <t>1|90||2|70||3|14</t>
-  </si>
-  <si>
-    <t>1|300||2|240||3|10</t>
-  </si>
-  <si>
-    <t>1|450||2|360||3|8</t>
-  </si>
-  <si>
-    <t>1|50||2|40||3|5</t>
-  </si>
-  <si>
-    <t>1|630||2|504||3|27</t>
-  </si>
-  <si>
-    <t>1|130||2|100||3|22</t>
-  </si>
-  <si>
-    <t>1|420||2|336||3|12</t>
-  </si>
-  <si>
-    <t>1|630||2|504||3|10</t>
-  </si>
-  <si>
-    <t>1|70||2|60||3|5</t>
-  </si>
-  <si>
-    <t>1|720||2|576||3|36</t>
-  </si>
-  <si>
-    <t>1|140||2|120||3|29</t>
-  </si>
-  <si>
-    <t>1|480||2|384||3|18</t>
-  </si>
-  <si>
-    <t>1|720||2|576||3|14</t>
-  </si>
-  <si>
-    <t>1|80||2|60||3|6</t>
-  </si>
-  <si>
-    <t>1|495||2|396||3|21</t>
-  </si>
-  <si>
-    <t>1|100||2|80||3|17</t>
-  </si>
-  <si>
-    <t>1|330||2|264||3|12</t>
-  </si>
-  <si>
-    <t>1|60||2|40||3|7</t>
-  </si>
-  <si>
-    <t>1|690||2|552||3|30</t>
-  </si>
-  <si>
-    <t>1|140||2|110||3|24</t>
-  </si>
-  <si>
-    <t>1|460||2|368||3|15</t>
-  </si>
-  <si>
-    <t>1|230||2|184||3|12</t>
-  </si>
-  <si>
-    <t>1|80||2|60||3|8</t>
-  </si>
-  <si>
-    <t>1|795||2|636||3|39</t>
-  </si>
-  <si>
-    <t>1|160||2|130||3|31</t>
-  </si>
-  <si>
-    <t>1|530||2|424||3|20</t>
-  </si>
-  <si>
-    <t>1|265||2|212||3|16</t>
-  </si>
-  <si>
-    <t>1|90||2|70||3|9</t>
-  </si>
-  <si>
-    <t>1|645||2|774||3|21</t>
-  </si>
-  <si>
-    <t>1|130||2|150||3|17</t>
-  </si>
-  <si>
-    <t>1|430||2|516||3|12</t>
-  </si>
-  <si>
-    <t>1|215||2|258||3|10</t>
-  </si>
-  <si>
-    <t>1|70||2|90||3|7</t>
-  </si>
-  <si>
-    <t>1|900||2|1080||3|30</t>
-  </si>
-  <si>
-    <t>1|180||2|220||3|24</t>
-  </si>
-  <si>
-    <t>1|600||2|720||3|15</t>
-  </si>
-  <si>
-    <t>1|300||2|360||3|12</t>
-  </si>
-  <si>
-    <t>1|100||2|120||3|8</t>
-  </si>
-  <si>
-    <t>1|1035||2|1242||3|39</t>
-  </si>
-  <si>
-    <t>1|210||2|250||3|31</t>
-  </si>
-  <si>
-    <t>1|690||2|828||3|20</t>
-  </si>
-  <si>
-    <t>1|345||2|414||3|16</t>
-  </si>
-  <si>
-    <t>1|120||2|140||3|9</t>
-  </si>
-  <si>
-    <t>1|810||2|972||3|21</t>
-  </si>
-  <si>
-    <t>1|160||2|190||3|17</t>
-  </si>
-  <si>
-    <t>1|540||2|648||3|12</t>
-  </si>
-  <si>
-    <t>1|270||2|324||3|10</t>
-  </si>
-  <si>
-    <t>1|90||2|110||3|7</t>
-  </si>
-  <si>
-    <t>1|1125||2|1350||3|30</t>
-  </si>
-  <si>
-    <t>1|230||2|270||3|24</t>
-  </si>
-  <si>
-    <t>1|750||2|900||3|15</t>
-  </si>
-  <si>
-    <t>1|375||2|450||3|12</t>
-  </si>
-  <si>
-    <t>1|130||2|150||3|8</t>
-  </si>
-  <si>
-    <t>1|1290||2|1548||3|39</t>
-  </si>
-  <si>
-    <t>1|260||2|310||3|31</t>
-  </si>
-  <si>
-    <t>1|860||2|1032||3|20</t>
-  </si>
-  <si>
-    <t>1|430||2|516||3|16</t>
-  </si>
-  <si>
-    <t>1|140||2|170||3|9</t>
+    <t>2001|1||1|250||3|10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1023|1||1|160||2|24||3|12</t>
+  </si>
+  <si>
+    <t>1|30||2|5||3|12</t>
+  </si>
+  <si>
+    <t>1|80||2|16||3|12</t>
+  </si>
+  <si>
+    <t>1|40||2|8||3|10</t>
+  </si>
+  <si>
+    <t>1|10||2|3||3|5</t>
+  </si>
+  <si>
+    <t>1005|1||1|220||2|33||3|14</t>
+  </si>
+  <si>
+    <t>1|40||2|7||3|12</t>
+  </si>
+  <si>
+    <t>1|110||2|22||3|12</t>
+  </si>
+  <si>
+    <t>1|55||2|11||3|10</t>
+  </si>
+  <si>
+    <t>1|20||2|4||3|5</t>
+  </si>
+  <si>
+    <t>1017|1||1|260||2|39||3|16</t>
+  </si>
+  <si>
+    <t>1|50||2|8||3|12</t>
+  </si>
+  <si>
+    <t>1|130||2|26||3|12</t>
+  </si>
+  <si>
+    <t>1|65||2|13||3|10</t>
+  </si>
+  <si>
+    <t>1|200||2|30||3|18</t>
+  </si>
+  <si>
+    <t>1|40||2|6||3|14</t>
+  </si>
+  <si>
+    <t>1|100||2|20||3|12</t>
+  </si>
+  <si>
+    <t>1|50||2|10||3|12</t>
+  </si>
+  <si>
+    <t>1|20||2|3||3|5</t>
+  </si>
+  <si>
+    <t>1|280||2|42||3|27</t>
+  </si>
+  <si>
+    <t>1|60||2|8||3|22</t>
+  </si>
+  <si>
+    <t>1|140||2|28||3|14</t>
+  </si>
+  <si>
+    <t>1|70||2|14||3|12</t>
+  </si>
+  <si>
+    <t>1|20||2|5||3|5</t>
+  </si>
+  <si>
+    <t>1|320||2|48||3|36</t>
+  </si>
+  <si>
+    <t>1|60||2|10||3|29</t>
+  </si>
+  <si>
+    <t>1|160||2|32||3|18</t>
+  </si>
+  <si>
+    <t>1|30||2|5||3|6</t>
+  </si>
+  <si>
+    <t>1|220||2|33||3|21</t>
+  </si>
+  <si>
+    <t>1|40||2|7||3|17</t>
+  </si>
+  <si>
+    <t>1|55||2|11||3|12</t>
+  </si>
+  <si>
+    <t>1|20||2|4||3|7</t>
+  </si>
+  <si>
+    <t>1|690||2|138||3|30</t>
+  </si>
+  <si>
+    <t>1|140||2|28||3|24</t>
+  </si>
+  <si>
+    <t>1|460||2|92||3|15</t>
+  </si>
+  <si>
+    <t>1|230||2|46||3|14</t>
+  </si>
+  <si>
+    <t>1|80||2|15||3|8</t>
+  </si>
+  <si>
+    <t>1|795||2|159||3|39</t>
+  </si>
+  <si>
+    <t>1|160||2|32||3|31</t>
+  </si>
+  <si>
+    <t>1|530||2|106||3|20</t>
+  </si>
+  <si>
+    <t>1|265||2|53||3|16</t>
+  </si>
+  <si>
+    <t>1|90||2|18||3|9</t>
+  </si>
+  <si>
+    <t>1|645||2|129||3|21</t>
+  </si>
+  <si>
+    <t>1|130||2|26||3|17</t>
+  </si>
+  <si>
+    <t>1|430||2|86||3|12</t>
+  </si>
+  <si>
+    <t>1|215||2|43||3|12</t>
+  </si>
+  <si>
+    <t>1|70||2|14||3|7</t>
+  </si>
+  <si>
+    <t>1|900||2|180||3|30</t>
+  </si>
+  <si>
+    <t>1|180||2|36||3|24</t>
+  </si>
+  <si>
+    <t>1|600||2|120||3|15</t>
+  </si>
+  <si>
+    <t>1|300||2|60||3|14</t>
+  </si>
+  <si>
+    <t>1|100||2|20||3|8</t>
+  </si>
+  <si>
+    <t>1|1035||2|207||3|39</t>
+  </si>
+  <si>
+    <t>1|210||2|41||3|31</t>
+  </si>
+  <si>
+    <t>1|690||2|138||3|20</t>
+  </si>
+  <si>
+    <t>1|345||2|69||3|16</t>
+  </si>
+  <si>
+    <t>1|120||2|23||3|9</t>
+  </si>
+  <si>
+    <t>1|810||2|162||3|21</t>
+  </si>
+  <si>
+    <t>1|160||2|32||3|17</t>
+  </si>
+  <si>
+    <t>1|540||2|108||3|12</t>
+  </si>
+  <si>
+    <t>1|270||2|54||3|12</t>
+  </si>
+  <si>
+    <t>1|90||2|18||3|7</t>
+  </si>
+  <si>
+    <t>1|1125||2|225||3|30</t>
+  </si>
+  <si>
+    <t>1|230||2|45||3|24</t>
+  </si>
+  <si>
+    <t>1|750||2|150||3|15</t>
+  </si>
+  <si>
+    <t>1|375||2|75||3|14</t>
+  </si>
+  <si>
+    <t>1|130||2|25||3|8</t>
+  </si>
+  <si>
+    <t>1|1290||2|258||3|39</t>
+  </si>
+  <si>
+    <t>1|260||2|52||3|31</t>
+  </si>
+  <si>
+    <t>1|860||2|172||3|20</t>
+  </si>
+  <si>
+    <t>1|430||2|86||3|16</t>
+  </si>
+  <si>
+    <t>1|140||2|29||3|9</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1598,8 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1880,8 +1878,8 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>56</v>
+      <c r="N5" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -2924,19 +2922,19 @@
         <v>1</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q21" t="s">
-        <v>253</v>
-      </c>
-      <c r="R21" t="s">
         <v>254</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="S21">
         <v>2</v>
@@ -2992,19 +2990,19 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -3060,19 +3058,19 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
+        <v>261</v>
+      </c>
+      <c r="O23" t="s">
+        <v>262</v>
+      </c>
+      <c r="P23" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R23" t="s">
         <v>260</v>
-      </c>
-      <c r="O23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P23" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>263</v>
-      </c>
-      <c r="R23" t="s">
-        <v>264</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3128,19 +3126,19 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3196,19 +3194,19 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3264,19 +3262,19 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>264</v>
+      </c>
+      <c r="R26" t="s">
         <v>260</v>
-      </c>
-      <c r="O26" t="s">
-        <v>261</v>
-      </c>
-      <c r="P26" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>263</v>
-      </c>
-      <c r="R26" t="s">
-        <v>264</v>
       </c>
       <c r="S26">
         <v>2</v>
@@ -3332,19 +3330,19 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -3400,19 +3398,19 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -3468,19 +3466,19 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>262</v>
+      </c>
+      <c r="P29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>264</v>
+      </c>
+      <c r="R29" t="s">
         <v>260</v>
-      </c>
-      <c r="O29" t="s">
-        <v>261</v>
-      </c>
-      <c r="P29" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>263</v>
-      </c>
-      <c r="R29" t="s">
-        <v>264</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -3536,19 +3534,19 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -3604,19 +3602,19 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -3672,19 +3670,19 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>264</v>
+      </c>
+      <c r="R32" t="s">
         <v>260</v>
-      </c>
-      <c r="O32" t="s">
-        <v>261</v>
-      </c>
-      <c r="P32" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>263</v>
-      </c>
-      <c r="R32" t="s">
-        <v>264</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3740,19 +3738,19 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3808,19 +3806,19 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S34">
         <v>2</v>
@@ -3876,19 +3874,19 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>262</v>
+      </c>
+      <c r="P35" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>264</v>
+      </c>
+      <c r="R35" t="s">
         <v>260</v>
-      </c>
-      <c r="O35" t="s">
-        <v>261</v>
-      </c>
-      <c r="P35" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>263</v>
-      </c>
-      <c r="R35" t="s">
-        <v>264</v>
       </c>
       <c r="S35">
         <v>2</v>
@@ -3944,19 +3942,19 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -4012,19 +4010,19 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -4080,19 +4078,19 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" t="s">
+        <v>262</v>
+      </c>
+      <c r="P38" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>264</v>
+      </c>
+      <c r="R38" t="s">
         <v>260</v>
-      </c>
-      <c r="O38" t="s">
-        <v>261</v>
-      </c>
-      <c r="P38" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>263</v>
-      </c>
-      <c r="R38" t="s">
-        <v>264</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4148,19 +4146,19 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -4216,19 +4214,19 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S40">
         <v>2</v>
@@ -4284,19 +4282,19 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O41" t="s">
+        <v>262</v>
+      </c>
+      <c r="P41" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>264</v>
+      </c>
+      <c r="R41" t="s">
         <v>260</v>
-      </c>
-      <c r="O41" t="s">
-        <v>261</v>
-      </c>
-      <c r="P41" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>263</v>
-      </c>
-      <c r="R41" t="s">
-        <v>264</v>
       </c>
       <c r="S41">
         <v>2</v>
@@ -4352,19 +4350,19 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S42">
         <v>2</v>
@@ -4420,19 +4418,19 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S43">
         <v>2</v>
@@ -4488,19 +4486,19 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
+        <v>261</v>
+      </c>
+      <c r="O44" t="s">
+        <v>262</v>
+      </c>
+      <c r="P44" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>264</v>
+      </c>
+      <c r="R44" t="s">
         <v>260</v>
-      </c>
-      <c r="O44" t="s">
-        <v>261</v>
-      </c>
-      <c r="P44" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>263</v>
-      </c>
-      <c r="R44" t="s">
-        <v>264</v>
       </c>
       <c r="S44">
         <v>2</v>
@@ -4556,19 +4554,19 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S45">
         <v>2</v>
@@ -4624,19 +4622,19 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S46">
         <v>2</v>
@@ -4692,19 +4690,19 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
+        <v>261</v>
+      </c>
+      <c r="O47" t="s">
+        <v>262</v>
+      </c>
+      <c r="P47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>264</v>
+      </c>
+      <c r="R47" t="s">
         <v>260</v>
-      </c>
-      <c r="O47" t="s">
-        <v>261</v>
-      </c>
-      <c r="P47" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>263</v>
-      </c>
-      <c r="R47" t="s">
-        <v>264</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -4760,19 +4758,19 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S48">
         <v>2</v>
@@ -4828,19 +4826,19 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S49">
         <v>2</v>
@@ -4896,19 +4894,19 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
+        <v>261</v>
+      </c>
+      <c r="O50" t="s">
+        <v>262</v>
+      </c>
+      <c r="P50" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>264</v>
+      </c>
+      <c r="R50" t="s">
         <v>260</v>
-      </c>
-      <c r="O50" t="s">
-        <v>261</v>
-      </c>
-      <c r="P50" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>263</v>
-      </c>
-      <c r="R50" t="s">
-        <v>264</v>
       </c>
       <c r="S50">
         <v>2</v>
@@ -4963,13 +4961,13 @@
       <c r="M51" s="2">
         <v>1</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="8" t="s">
         <v>267</v>
       </c>
       <c r="Q51" t="s">
@@ -5031,16 +5029,16 @@
       <c r="M52" s="2">
         <v>1</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="8" t="s">
         <v>273</v>
       </c>
       <c r="R52" t="s">
@@ -5099,20 +5097,20 @@
       <c r="M53" s="2">
         <v>1</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="8" t="s">
         <v>277</v>
       </c>
       <c r="Q53" t="s">
+        <v>253</v>
+      </c>
+      <c r="R53" t="s">
         <v>278</v>
-      </c>
-      <c r="R53" t="s">
-        <v>279</v>
       </c>
       <c r="S53">
         <v>3</v>
@@ -5313,10 +5311,10 @@
         <v>277</v>
       </c>
       <c r="Q56" t="s">
+        <v>253</v>
+      </c>
+      <c r="R56" t="s">
         <v>278</v>
-      </c>
-      <c r="R56" t="s">
-        <v>279</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -5517,10 +5515,10 @@
         <v>277</v>
       </c>
       <c r="Q59" t="s">
+        <v>253</v>
+      </c>
+      <c r="R59" t="s">
         <v>278</v>
-      </c>
-      <c r="R59" t="s">
-        <v>279</v>
       </c>
       <c r="S59">
         <v>3</v>
@@ -5721,10 +5719,10 @@
         <v>277</v>
       </c>
       <c r="Q62" t="s">
+        <v>253</v>
+      </c>
+      <c r="R62" t="s">
         <v>278</v>
-      </c>
-      <c r="R62" t="s">
-        <v>279</v>
       </c>
       <c r="S62">
         <v>3</v>
@@ -5925,10 +5923,10 @@
         <v>277</v>
       </c>
       <c r="Q65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R65" t="s">
         <v>278</v>
-      </c>
-      <c r="R65" t="s">
-        <v>279</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -6129,10 +6127,10 @@
         <v>277</v>
       </c>
       <c r="Q68" t="s">
+        <v>253</v>
+      </c>
+      <c r="R68" t="s">
         <v>278</v>
-      </c>
-      <c r="R68" t="s">
-        <v>279</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -6333,10 +6331,10 @@
         <v>277</v>
       </c>
       <c r="Q71" t="s">
+        <v>253</v>
+      </c>
+      <c r="R71" t="s">
         <v>278</v>
-      </c>
-      <c r="R71" t="s">
-        <v>279</v>
       </c>
       <c r="S71">
         <v>3</v>
@@ -6537,10 +6535,10 @@
         <v>277</v>
       </c>
       <c r="Q74" t="s">
+        <v>253</v>
+      </c>
+      <c r="R74" t="s">
         <v>278</v>
-      </c>
-      <c r="R74" t="s">
-        <v>279</v>
       </c>
       <c r="S74">
         <v>3</v>
@@ -6741,10 +6739,10 @@
         <v>277</v>
       </c>
       <c r="Q77" t="s">
+        <v>253</v>
+      </c>
+      <c r="R77" t="s">
         <v>278</v>
-      </c>
-      <c r="R77" t="s">
-        <v>279</v>
       </c>
       <c r="S77">
         <v>3</v>
@@ -6945,10 +6943,10 @@
         <v>277</v>
       </c>
       <c r="Q80" t="s">
+        <v>253</v>
+      </c>
+      <c r="R80" t="s">
         <v>278</v>
-      </c>
-      <c r="R80" t="s">
-        <v>279</v>
       </c>
       <c r="S80">
         <v>3</v>
@@ -7004,19 +7002,19 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
+        <v>279</v>
+      </c>
+      <c r="O81" t="s">
         <v>280</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q81" t="s">
         <v>281</v>
       </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
         <v>282</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>258</v>
-      </c>
-      <c r="R81" t="s">
-        <v>283</v>
       </c>
       <c r="S81">
         <v>4</v>
@@ -7072,19 +7070,19 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
+        <v>283</v>
+      </c>
+      <c r="O82" t="s">
         <v>284</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>285</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>286</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>287</v>
-      </c>
-      <c r="R82" t="s">
-        <v>288</v>
       </c>
       <c r="S82">
         <v>4</v>
@@ -7140,19 +7138,19 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
+        <v>288</v>
+      </c>
+      <c r="O83" t="s">
         <v>289</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>290</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>291</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>292</v>
-      </c>
-      <c r="R83" t="s">
-        <v>293</v>
       </c>
       <c r="S83">
         <v>4</v>
@@ -7208,19 +7206,19 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
+        <v>279</v>
+      </c>
+      <c r="O84" t="s">
         <v>280</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q84" t="s">
         <v>281</v>
       </c>
-      <c r="P84" t="s">
+      <c r="R84" t="s">
         <v>282</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R84" t="s">
-        <v>283</v>
       </c>
       <c r="S84">
         <v>4</v>
@@ -7276,19 +7274,19 @@
         <v>1</v>
       </c>
       <c r="N85" t="s">
+        <v>283</v>
+      </c>
+      <c r="O85" t="s">
         <v>284</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>285</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>286</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>287</v>
-      </c>
-      <c r="R85" t="s">
-        <v>288</v>
       </c>
       <c r="S85">
         <v>4</v>
@@ -7344,19 +7342,19 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
+        <v>288</v>
+      </c>
+      <c r="O86" t="s">
         <v>289</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>290</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>291</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>292</v>
-      </c>
-      <c r="R86" t="s">
-        <v>293</v>
       </c>
       <c r="S86">
         <v>4</v>
@@ -7412,19 +7410,19 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
+        <v>279</v>
+      </c>
+      <c r="O87" t="s">
         <v>280</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q87" t="s">
         <v>281</v>
       </c>
-      <c r="P87" t="s">
+      <c r="R87" t="s">
         <v>282</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>258</v>
-      </c>
-      <c r="R87" t="s">
-        <v>283</v>
       </c>
       <c r="S87">
         <v>4</v>
@@ -7480,19 +7478,19 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
+        <v>283</v>
+      </c>
+      <c r="O88" t="s">
         <v>284</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>285</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>286</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>287</v>
-      </c>
-      <c r="R88" t="s">
-        <v>288</v>
       </c>
       <c r="S88">
         <v>4</v>
@@ -7548,19 +7546,19 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
+        <v>288</v>
+      </c>
+      <c r="O89" t="s">
         <v>289</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>290</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>291</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>292</v>
-      </c>
-      <c r="R89" t="s">
-        <v>293</v>
       </c>
       <c r="S89">
         <v>4</v>
@@ -7616,19 +7614,19 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
+        <v>279</v>
+      </c>
+      <c r="O90" t="s">
         <v>280</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q90" t="s">
         <v>281</v>
       </c>
-      <c r="P90" t="s">
+      <c r="R90" t="s">
         <v>282</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>258</v>
-      </c>
-      <c r="R90" t="s">
-        <v>283</v>
       </c>
       <c r="S90">
         <v>4</v>
@@ -7684,19 +7682,19 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
+        <v>283</v>
+      </c>
+      <c r="O91" t="s">
         <v>284</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>285</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>286</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>287</v>
-      </c>
-      <c r="R91" t="s">
-        <v>288</v>
       </c>
       <c r="S91">
         <v>4</v>
@@ -7752,19 +7750,19 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
+        <v>288</v>
+      </c>
+      <c r="O92" t="s">
         <v>289</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>290</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>291</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>292</v>
-      </c>
-      <c r="R92" t="s">
-        <v>293</v>
       </c>
       <c r="S92">
         <v>4</v>
@@ -7820,19 +7818,19 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
+        <v>279</v>
+      </c>
+      <c r="O93" t="s">
         <v>280</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q93" t="s">
         <v>281</v>
       </c>
-      <c r="P93" t="s">
+      <c r="R93" t="s">
         <v>282</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>258</v>
-      </c>
-      <c r="R93" t="s">
-        <v>283</v>
       </c>
       <c r="S93">
         <v>4</v>
@@ -7888,19 +7886,19 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
+        <v>283</v>
+      </c>
+      <c r="O94" t="s">
         <v>284</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>285</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>286</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>287</v>
-      </c>
-      <c r="R94" t="s">
-        <v>288</v>
       </c>
       <c r="S94">
         <v>4</v>
@@ -7956,19 +7954,19 @@
         <v>1</v>
       </c>
       <c r="N95" t="s">
+        <v>288</v>
+      </c>
+      <c r="O95" t="s">
         <v>289</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>290</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>291</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>292</v>
-      </c>
-      <c r="R95" t="s">
-        <v>293</v>
       </c>
       <c r="S95">
         <v>4</v>
@@ -8024,19 +8022,19 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
+        <v>279</v>
+      </c>
+      <c r="O96" t="s">
         <v>280</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q96" t="s">
         <v>281</v>
       </c>
-      <c r="P96" t="s">
+      <c r="R96" t="s">
         <v>282</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>258</v>
-      </c>
-      <c r="R96" t="s">
-        <v>283</v>
       </c>
       <c r="S96">
         <v>4</v>
@@ -8092,19 +8090,19 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
+        <v>283</v>
+      </c>
+      <c r="O97" t="s">
         <v>284</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>285</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>286</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>287</v>
-      </c>
-      <c r="R97" t="s">
-        <v>288</v>
       </c>
       <c r="S97">
         <v>4</v>
@@ -8160,19 +8158,19 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
+        <v>288</v>
+      </c>
+      <c r="O98" t="s">
         <v>289</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>290</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>291</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>292</v>
-      </c>
-      <c r="R98" t="s">
-        <v>293</v>
       </c>
       <c r="S98">
         <v>4</v>
@@ -8228,19 +8226,19 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
+        <v>279</v>
+      </c>
+      <c r="O99" t="s">
         <v>280</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q99" t="s">
         <v>281</v>
       </c>
-      <c r="P99" t="s">
+      <c r="R99" t="s">
         <v>282</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>258</v>
-      </c>
-      <c r="R99" t="s">
-        <v>283</v>
       </c>
       <c r="S99">
         <v>4</v>
@@ -8296,19 +8294,19 @@
         <v>1</v>
       </c>
       <c r="N100" t="s">
+        <v>283</v>
+      </c>
+      <c r="O100" t="s">
         <v>284</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>285</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>286</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>287</v>
-      </c>
-      <c r="R100" t="s">
-        <v>288</v>
       </c>
       <c r="S100">
         <v>4</v>
@@ -8364,19 +8362,19 @@
         <v>1</v>
       </c>
       <c r="N101" t="s">
+        <v>288</v>
+      </c>
+      <c r="O101" t="s">
         <v>289</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>290</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>291</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>292</v>
-      </c>
-      <c r="R101" t="s">
-        <v>293</v>
       </c>
       <c r="S101">
         <v>4</v>
@@ -8432,19 +8430,19 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
+        <v>279</v>
+      </c>
+      <c r="O102" t="s">
         <v>280</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q102" t="s">
         <v>281</v>
       </c>
-      <c r="P102" t="s">
+      <c r="R102" t="s">
         <v>282</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>258</v>
-      </c>
-      <c r="R102" t="s">
-        <v>283</v>
       </c>
       <c r="S102">
         <v>4</v>
@@ -8500,19 +8498,19 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
+        <v>283</v>
+      </c>
+      <c r="O103" t="s">
         <v>284</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>285</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>286</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>287</v>
-      </c>
-      <c r="R103" t="s">
-        <v>288</v>
       </c>
       <c r="S103">
         <v>4</v>
@@ -8568,19 +8566,19 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
+        <v>288</v>
+      </c>
+      <c r="O104" t="s">
         <v>289</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>290</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" t="s">
         <v>291</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>292</v>
-      </c>
-      <c r="R104" t="s">
-        <v>293</v>
       </c>
       <c r="S104">
         <v>4</v>
@@ -8636,19 +8634,19 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
+        <v>279</v>
+      </c>
+      <c r="O105" t="s">
         <v>280</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q105" t="s">
         <v>281</v>
       </c>
-      <c r="P105" t="s">
+      <c r="R105" t="s">
         <v>282</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>258</v>
-      </c>
-      <c r="R105" t="s">
-        <v>283</v>
       </c>
       <c r="S105">
         <v>4</v>
@@ -8704,19 +8702,19 @@
         <v>1</v>
       </c>
       <c r="N106" t="s">
+        <v>283</v>
+      </c>
+      <c r="O106" t="s">
         <v>284</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>285</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" t="s">
         <v>286</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>287</v>
-      </c>
-      <c r="R106" t="s">
-        <v>288</v>
       </c>
       <c r="S106">
         <v>4</v>
@@ -8772,19 +8770,19 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
+        <v>288</v>
+      </c>
+      <c r="O107" t="s">
         <v>289</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>290</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" t="s">
         <v>291</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>292</v>
-      </c>
-      <c r="R107" t="s">
-        <v>293</v>
       </c>
       <c r="S107">
         <v>4</v>
@@ -8840,19 +8838,19 @@
         <v>1</v>
       </c>
       <c r="N108" t="s">
+        <v>279</v>
+      </c>
+      <c r="O108" t="s">
         <v>280</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q108" t="s">
         <v>281</v>
       </c>
-      <c r="P108" t="s">
+      <c r="R108" t="s">
         <v>282</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>258</v>
-      </c>
-      <c r="R108" t="s">
-        <v>283</v>
       </c>
       <c r="S108">
         <v>4</v>
@@ -8908,19 +8906,19 @@
         <v>1</v>
       </c>
       <c r="N109" t="s">
+        <v>283</v>
+      </c>
+      <c r="O109" t="s">
         <v>284</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>285</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" t="s">
         <v>286</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>287</v>
-      </c>
-      <c r="R109" t="s">
-        <v>288</v>
       </c>
       <c r="S109">
         <v>4</v>
@@ -8976,19 +8974,19 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
+        <v>288</v>
+      </c>
+      <c r="O110" t="s">
         <v>289</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>290</v>
       </c>
-      <c r="P110" t="s">
+      <c r="Q110" t="s">
         <v>291</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>292</v>
-      </c>
-      <c r="R110" t="s">
-        <v>293</v>
       </c>
       <c r="S110">
         <v>4</v>
@@ -9044,19 +9042,19 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
+        <v>293</v>
+      </c>
+      <c r="O111" t="s">
         <v>294</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>295</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>296</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
         <v>297</v>
-      </c>
-      <c r="R111" t="s">
-        <v>298</v>
       </c>
       <c r="S111">
         <v>5</v>
@@ -9112,19 +9110,19 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
+        <v>298</v>
+      </c>
+      <c r="O112" t="s">
         <v>299</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>300</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>301</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>302</v>
-      </c>
-      <c r="R112" t="s">
-        <v>303</v>
       </c>
       <c r="S112">
         <v>5</v>
@@ -9180,19 +9178,19 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
+        <v>303</v>
+      </c>
+      <c r="O113" t="s">
         <v>304</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>305</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>306</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>307</v>
-      </c>
-      <c r="R113" t="s">
-        <v>308</v>
       </c>
       <c r="S113">
         <v>5</v>
@@ -9248,19 +9246,19 @@
         <v>1</v>
       </c>
       <c r="N114" t="s">
+        <v>293</v>
+      </c>
+      <c r="O114" t="s">
         <v>294</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>295</v>
       </c>
-      <c r="P114" t="s">
+      <c r="Q114" t="s">
         <v>296</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="R114" t="s">
         <v>297</v>
-      </c>
-      <c r="R114" t="s">
-        <v>298</v>
       </c>
       <c r="S114">
         <v>5</v>
@@ -9316,19 +9314,19 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
+        <v>298</v>
+      </c>
+      <c r="O115" t="s">
         <v>299</v>
       </c>
-      <c r="O115" t="s">
+      <c r="P115" t="s">
         <v>300</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" t="s">
         <v>301</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="R115" t="s">
         <v>302</v>
-      </c>
-      <c r="R115" t="s">
-        <v>303</v>
       </c>
       <c r="S115">
         <v>5</v>
@@ -9384,19 +9382,19 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
+        <v>303</v>
+      </c>
+      <c r="O116" t="s">
         <v>304</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>305</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>306</v>
       </c>
-      <c r="Q116" t="s">
+      <c r="R116" t="s">
         <v>307</v>
-      </c>
-      <c r="R116" t="s">
-        <v>308</v>
       </c>
       <c r="S116">
         <v>5</v>
@@ -9452,19 +9450,19 @@
         <v>1</v>
       </c>
       <c r="N117" t="s">
+        <v>293</v>
+      </c>
+      <c r="O117" t="s">
         <v>294</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>295</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>296</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>297</v>
-      </c>
-      <c r="R117" t="s">
-        <v>298</v>
       </c>
       <c r="S117">
         <v>5</v>
@@ -9520,19 +9518,19 @@
         <v>1</v>
       </c>
       <c r="N118" t="s">
+        <v>298</v>
+      </c>
+      <c r="O118" t="s">
         <v>299</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>300</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>301</v>
       </c>
-      <c r="Q118" t="s">
+      <c r="R118" t="s">
         <v>302</v>
-      </c>
-      <c r="R118" t="s">
-        <v>303</v>
       </c>
       <c r="S118">
         <v>5</v>
@@ -9588,19 +9586,19 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
+        <v>303</v>
+      </c>
+      <c r="O119" t="s">
         <v>304</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>305</v>
       </c>
-      <c r="P119" t="s">
+      <c r="Q119" t="s">
         <v>306</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>307</v>
-      </c>
-      <c r="R119" t="s">
-        <v>308</v>
       </c>
       <c r="S119">
         <v>5</v>
@@ -9655,20 +9653,20 @@
       <c r="M120" s="2">
         <v>1</v>
       </c>
-      <c r="N120" t="s">
+      <c r="N120" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="O120" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="R120" t="s">
         <v>297</v>
-      </c>
-      <c r="R120" t="s">
-        <v>298</v>
       </c>
       <c r="S120">
         <v>5</v>
@@ -9723,20 +9721,20 @@
       <c r="M121" s="2">
         <v>1</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N121" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O121" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="P121" t="s">
+      <c r="Q121" t="s">
         <v>301</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="R121" t="s">
         <v>302</v>
-      </c>
-      <c r="R121" t="s">
-        <v>303</v>
       </c>
       <c r="S121">
         <v>5</v>
@@ -9791,20 +9789,20 @@
       <c r="M122" s="2">
         <v>1</v>
       </c>
-      <c r="N122" t="s">
+      <c r="N122" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="O122" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" t="s">
         <v>306</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="R122" t="s">
         <v>307</v>
-      </c>
-      <c r="R122" t="s">
-        <v>308</v>
       </c>
       <c r="S122">
         <v>5</v>
@@ -9860,19 +9858,19 @@
         <v>1</v>
       </c>
       <c r="N123" t="s">
+        <v>293</v>
+      </c>
+      <c r="O123" t="s">
         <v>294</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>295</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>296</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="R123" t="s">
         <v>297</v>
-      </c>
-      <c r="R123" t="s">
-        <v>298</v>
       </c>
       <c r="S123">
         <v>5</v>
@@ -9928,19 +9926,19 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
+        <v>298</v>
+      </c>
+      <c r="O124" t="s">
         <v>299</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>300</v>
       </c>
-      <c r="P124" t="s">
+      <c r="Q124" t="s">
         <v>301</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="R124" t="s">
         <v>302</v>
-      </c>
-      <c r="R124" t="s">
-        <v>303</v>
       </c>
       <c r="S124">
         <v>5</v>
@@ -9996,19 +9994,19 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
+        <v>303</v>
+      </c>
+      <c r="O125" t="s">
         <v>304</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>305</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>306</v>
       </c>
-      <c r="Q125" t="s">
+      <c r="R125" t="s">
         <v>307</v>
-      </c>
-      <c r="R125" t="s">
-        <v>308</v>
       </c>
       <c r="S125">
         <v>5</v>
@@ -10064,19 +10062,19 @@
         <v>1</v>
       </c>
       <c r="N126" t="s">
+        <v>293</v>
+      </c>
+      <c r="O126" t="s">
         <v>294</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>295</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>296</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="R126" t="s">
         <v>297</v>
-      </c>
-      <c r="R126" t="s">
-        <v>298</v>
       </c>
       <c r="S126">
         <v>5</v>
@@ -10132,19 +10130,19 @@
         <v>1</v>
       </c>
       <c r="N127" t="s">
+        <v>298</v>
+      </c>
+      <c r="O127" t="s">
         <v>299</v>
       </c>
-      <c r="O127" t="s">
+      <c r="P127" t="s">
         <v>300</v>
       </c>
-      <c r="P127" t="s">
+      <c r="Q127" t="s">
         <v>301</v>
       </c>
-      <c r="Q127" t="s">
+      <c r="R127" t="s">
         <v>302</v>
-      </c>
-      <c r="R127" t="s">
-        <v>303</v>
       </c>
       <c r="S127">
         <v>5</v>
@@ -10200,19 +10198,19 @@
         <v>1</v>
       </c>
       <c r="N128" t="s">
+        <v>303</v>
+      </c>
+      <c r="O128" t="s">
         <v>304</v>
       </c>
-      <c r="O128" t="s">
+      <c r="P128" t="s">
         <v>305</v>
       </c>
-      <c r="P128" t="s">
+      <c r="Q128" t="s">
         <v>306</v>
       </c>
-      <c r="Q128" t="s">
+      <c r="R128" t="s">
         <v>307</v>
-      </c>
-      <c r="R128" t="s">
-        <v>308</v>
       </c>
       <c r="S128">
         <v>5</v>
@@ -10268,19 +10266,19 @@
         <v>1</v>
       </c>
       <c r="N129" t="s">
+        <v>293</v>
+      </c>
+      <c r="O129" t="s">
         <v>294</v>
       </c>
-      <c r="O129" t="s">
+      <c r="P129" t="s">
         <v>295</v>
       </c>
-      <c r="P129" t="s">
+      <c r="Q129" t="s">
         <v>296</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="R129" t="s">
         <v>297</v>
-      </c>
-      <c r="R129" t="s">
-        <v>298</v>
       </c>
       <c r="S129">
         <v>5</v>
@@ -10336,19 +10334,19 @@
         <v>1</v>
       </c>
       <c r="N130" t="s">
+        <v>298</v>
+      </c>
+      <c r="O130" t="s">
         <v>299</v>
       </c>
-      <c r="O130" t="s">
+      <c r="P130" t="s">
         <v>300</v>
       </c>
-      <c r="P130" t="s">
+      <c r="Q130" t="s">
         <v>301</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="R130" t="s">
         <v>302</v>
-      </c>
-      <c r="R130" t="s">
-        <v>303</v>
       </c>
       <c r="S130">
         <v>5</v>
@@ -10404,19 +10402,19 @@
         <v>1</v>
       </c>
       <c r="N131" t="s">
+        <v>303</v>
+      </c>
+      <c r="O131" t="s">
         <v>304</v>
       </c>
-      <c r="O131" t="s">
+      <c r="P131" t="s">
         <v>305</v>
       </c>
-      <c r="P131" t="s">
+      <c r="Q131" t="s">
         <v>306</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
         <v>307</v>
-      </c>
-      <c r="R131" t="s">
-        <v>308</v>
       </c>
       <c r="S131">
         <v>5</v>
@@ -10472,19 +10470,19 @@
         <v>1</v>
       </c>
       <c r="N132" t="s">
+        <v>293</v>
+      </c>
+      <c r="O132" t="s">
         <v>294</v>
       </c>
-      <c r="O132" t="s">
+      <c r="P132" t="s">
         <v>295</v>
       </c>
-      <c r="P132" t="s">
+      <c r="Q132" t="s">
         <v>296</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="R132" t="s">
         <v>297</v>
-      </c>
-      <c r="R132" t="s">
-        <v>298</v>
       </c>
       <c r="S132">
         <v>5</v>
@@ -10540,19 +10538,19 @@
         <v>1</v>
       </c>
       <c r="N133" t="s">
+        <v>298</v>
+      </c>
+      <c r="O133" t="s">
         <v>299</v>
       </c>
-      <c r="O133" t="s">
+      <c r="P133" t="s">
         <v>300</v>
       </c>
-      <c r="P133" t="s">
+      <c r="Q133" t="s">
         <v>301</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="R133" t="s">
         <v>302</v>
-      </c>
-      <c r="R133" t="s">
-        <v>303</v>
       </c>
       <c r="S133">
         <v>5</v>
@@ -10608,19 +10606,19 @@
         <v>1</v>
       </c>
       <c r="N134" t="s">
+        <v>303</v>
+      </c>
+      <c r="O134" t="s">
         <v>304</v>
       </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
         <v>305</v>
       </c>
-      <c r="P134" t="s">
+      <c r="Q134" t="s">
         <v>306</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="R134" t="s">
         <v>307</v>
-      </c>
-      <c r="R134" t="s">
-        <v>308</v>
       </c>
       <c r="S134">
         <v>5</v>
@@ -10676,19 +10674,19 @@
         <v>1</v>
       </c>
       <c r="N135" t="s">
+        <v>293</v>
+      </c>
+      <c r="O135" t="s">
         <v>294</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>295</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" t="s">
         <v>296</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="R135" t="s">
         <v>297</v>
-      </c>
-      <c r="R135" t="s">
-        <v>298</v>
       </c>
       <c r="S135">
         <v>5</v>
@@ -10744,19 +10742,19 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
+        <v>298</v>
+      </c>
+      <c r="O136" t="s">
         <v>299</v>
       </c>
-      <c r="O136" t="s">
+      <c r="P136" t="s">
         <v>300</v>
       </c>
-      <c r="P136" t="s">
+      <c r="Q136" t="s">
         <v>301</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="R136" t="s">
         <v>302</v>
-      </c>
-      <c r="R136" t="s">
-        <v>303</v>
       </c>
       <c r="S136">
         <v>5</v>
@@ -10812,19 +10810,19 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
+        <v>303</v>
+      </c>
+      <c r="O137" t="s">
         <v>304</v>
       </c>
-      <c r="O137" t="s">
+      <c r="P137" t="s">
         <v>305</v>
       </c>
-      <c r="P137" t="s">
+      <c r="Q137" t="s">
         <v>306</v>
       </c>
-      <c r="Q137" t="s">
+      <c r="R137" t="s">
         <v>307</v>
-      </c>
-      <c r="R137" t="s">
-        <v>308</v>
       </c>
       <c r="S137">
         <v>5</v>
@@ -10880,19 +10878,19 @@
         <v>1</v>
       </c>
       <c r="N138" t="s">
+        <v>293</v>
+      </c>
+      <c r="O138" t="s">
         <v>294</v>
       </c>
-      <c r="O138" t="s">
+      <c r="P138" t="s">
         <v>295</v>
       </c>
-      <c r="P138" t="s">
+      <c r="Q138" t="s">
         <v>296</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="R138" t="s">
         <v>297</v>
-      </c>
-      <c r="R138" t="s">
-        <v>298</v>
       </c>
       <c r="S138">
         <v>5</v>
@@ -10948,19 +10946,19 @@
         <v>1</v>
       </c>
       <c r="N139" t="s">
+        <v>298</v>
+      </c>
+      <c r="O139" t="s">
         <v>299</v>
       </c>
-      <c r="O139" t="s">
+      <c r="P139" t="s">
         <v>300</v>
       </c>
-      <c r="P139" t="s">
+      <c r="Q139" t="s">
         <v>301</v>
       </c>
-      <c r="Q139" t="s">
+      <c r="R139" t="s">
         <v>302</v>
-      </c>
-      <c r="R139" t="s">
-        <v>303</v>
       </c>
       <c r="S139">
         <v>5</v>
@@ -11016,19 +11014,19 @@
         <v>1</v>
       </c>
       <c r="N140" t="s">
+        <v>303</v>
+      </c>
+      <c r="O140" t="s">
         <v>304</v>
       </c>
-      <c r="O140" t="s">
+      <c r="P140" t="s">
         <v>305</v>
       </c>
-      <c r="P140" t="s">
+      <c r="Q140" t="s">
         <v>306</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="R140" t="s">
         <v>307</v>
-      </c>
-      <c r="R140" t="s">
-        <v>308</v>
       </c>
       <c r="S140">
         <v>5</v>
@@ -11084,19 +11082,19 @@
         <v>1</v>
       </c>
       <c r="N141" t="s">
+        <v>308</v>
+      </c>
+      <c r="O141" t="s">
         <v>309</v>
       </c>
-      <c r="O141" t="s">
+      <c r="P141" t="s">
         <v>310</v>
       </c>
-      <c r="P141" t="s">
+      <c r="Q141" t="s">
         <v>311</v>
       </c>
-      <c r="Q141" t="s">
+      <c r="R141" t="s">
         <v>312</v>
-      </c>
-      <c r="R141" t="s">
-        <v>313</v>
       </c>
       <c r="S141">
         <v>6</v>
@@ -11152,19 +11150,19 @@
         <v>1</v>
       </c>
       <c r="N142" t="s">
+        <v>313</v>
+      </c>
+      <c r="O142" t="s">
         <v>314</v>
       </c>
-      <c r="O142" t="s">
+      <c r="P142" t="s">
         <v>315</v>
       </c>
-      <c r="P142" t="s">
+      <c r="Q142" t="s">
         <v>316</v>
       </c>
-      <c r="Q142" t="s">
+      <c r="R142" t="s">
         <v>317</v>
-      </c>
-      <c r="R142" t="s">
-        <v>318</v>
       </c>
       <c r="S142">
         <v>6</v>
@@ -11220,19 +11218,19 @@
         <v>1</v>
       </c>
       <c r="N143" t="s">
+        <v>318</v>
+      </c>
+      <c r="O143" t="s">
         <v>319</v>
       </c>
-      <c r="O143" t="s">
+      <c r="P143" t="s">
         <v>320</v>
       </c>
-      <c r="P143" t="s">
+      <c r="Q143" t="s">
         <v>321</v>
       </c>
-      <c r="Q143" t="s">
+      <c r="R143" t="s">
         <v>322</v>
-      </c>
-      <c r="R143" t="s">
-        <v>323</v>
       </c>
       <c r="S143">
         <v>6</v>
@@ -11288,19 +11286,19 @@
         <v>1</v>
       </c>
       <c r="N144" t="s">
+        <v>308</v>
+      </c>
+      <c r="O144" t="s">
         <v>309</v>
       </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
         <v>310</v>
       </c>
-      <c r="P144" t="s">
+      <c r="Q144" t="s">
         <v>311</v>
       </c>
-      <c r="Q144" t="s">
+      <c r="R144" t="s">
         <v>312</v>
-      </c>
-      <c r="R144" t="s">
-        <v>313</v>
       </c>
       <c r="S144">
         <v>6</v>
@@ -11356,19 +11354,19 @@
         <v>1</v>
       </c>
       <c r="N145" t="s">
+        <v>313</v>
+      </c>
+      <c r="O145" t="s">
         <v>314</v>
       </c>
-      <c r="O145" t="s">
+      <c r="P145" t="s">
         <v>315</v>
       </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>316</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="R145" t="s">
         <v>317</v>
-      </c>
-      <c r="R145" t="s">
-        <v>318</v>
       </c>
       <c r="S145">
         <v>6</v>
@@ -11424,19 +11422,19 @@
         <v>1</v>
       </c>
       <c r="N146" t="s">
+        <v>318</v>
+      </c>
+      <c r="O146" t="s">
         <v>319</v>
       </c>
-      <c r="O146" t="s">
+      <c r="P146" t="s">
         <v>320</v>
       </c>
-      <c r="P146" t="s">
+      <c r="Q146" t="s">
         <v>321</v>
       </c>
-      <c r="Q146" t="s">
+      <c r="R146" t="s">
         <v>322</v>
-      </c>
-      <c r="R146" t="s">
-        <v>323</v>
       </c>
       <c r="S146">
         <v>6</v>
@@ -11492,19 +11490,19 @@
         <v>1</v>
       </c>
       <c r="N147" t="s">
+        <v>308</v>
+      </c>
+      <c r="O147" t="s">
         <v>309</v>
       </c>
-      <c r="O147" t="s">
+      <c r="P147" t="s">
         <v>310</v>
       </c>
-      <c r="P147" t="s">
+      <c r="Q147" t="s">
         <v>311</v>
       </c>
-      <c r="Q147" t="s">
+      <c r="R147" t="s">
         <v>312</v>
-      </c>
-      <c r="R147" t="s">
-        <v>313</v>
       </c>
       <c r="S147">
         <v>6</v>
@@ -11560,19 +11558,19 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
+        <v>313</v>
+      </c>
+      <c r="O148" t="s">
         <v>314</v>
       </c>
-      <c r="O148" t="s">
+      <c r="P148" t="s">
         <v>315</v>
       </c>
-      <c r="P148" t="s">
+      <c r="Q148" t="s">
         <v>316</v>
       </c>
-      <c r="Q148" t="s">
+      <c r="R148" t="s">
         <v>317</v>
-      </c>
-      <c r="R148" t="s">
-        <v>318</v>
       </c>
       <c r="S148">
         <v>6</v>
@@ -11628,19 +11626,19 @@
         <v>1</v>
       </c>
       <c r="N149" t="s">
+        <v>318</v>
+      </c>
+      <c r="O149" t="s">
         <v>319</v>
       </c>
-      <c r="O149" t="s">
+      <c r="P149" t="s">
         <v>320</v>
       </c>
-      <c r="P149" t="s">
+      <c r="Q149" t="s">
         <v>321</v>
       </c>
-      <c r="Q149" t="s">
+      <c r="R149" t="s">
         <v>322</v>
-      </c>
-      <c r="R149" t="s">
-        <v>323</v>
       </c>
       <c r="S149">
         <v>6</v>
@@ -11696,19 +11694,19 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
+        <v>308</v>
+      </c>
+      <c r="O150" t="s">
         <v>309</v>
       </c>
-      <c r="O150" t="s">
+      <c r="P150" t="s">
         <v>310</v>
       </c>
-      <c r="P150" t="s">
+      <c r="Q150" t="s">
         <v>311</v>
       </c>
-      <c r="Q150" t="s">
+      <c r="R150" t="s">
         <v>312</v>
-      </c>
-      <c r="R150" t="s">
-        <v>313</v>
       </c>
       <c r="S150">
         <v>6</v>
@@ -11764,19 +11762,19 @@
         <v>1</v>
       </c>
       <c r="N151" t="s">
+        <v>313</v>
+      </c>
+      <c r="O151" t="s">
         <v>314</v>
       </c>
-      <c r="O151" t="s">
+      <c r="P151" t="s">
         <v>315</v>
       </c>
-      <c r="P151" t="s">
+      <c r="Q151" t="s">
         <v>316</v>
       </c>
-      <c r="Q151" t="s">
+      <c r="R151" t="s">
         <v>317</v>
-      </c>
-      <c r="R151" t="s">
-        <v>318</v>
       </c>
       <c r="S151">
         <v>6</v>
@@ -11832,19 +11830,19 @@
         <v>1</v>
       </c>
       <c r="N152" t="s">
+        <v>318</v>
+      </c>
+      <c r="O152" t="s">
         <v>319</v>
       </c>
-      <c r="O152" t="s">
+      <c r="P152" t="s">
         <v>320</v>
       </c>
-      <c r="P152" t="s">
+      <c r="Q152" t="s">
         <v>321</v>
       </c>
-      <c r="Q152" t="s">
+      <c r="R152" t="s">
         <v>322</v>
-      </c>
-      <c r="R152" t="s">
-        <v>323</v>
       </c>
       <c r="S152">
         <v>6</v>
@@ -11900,19 +11898,19 @@
         <v>1</v>
       </c>
       <c r="N153" t="s">
+        <v>308</v>
+      </c>
+      <c r="O153" t="s">
         <v>309</v>
       </c>
-      <c r="O153" t="s">
+      <c r="P153" t="s">
         <v>310</v>
       </c>
-      <c r="P153" t="s">
+      <c r="Q153" t="s">
         <v>311</v>
       </c>
-      <c r="Q153" t="s">
+      <c r="R153" t="s">
         <v>312</v>
-      </c>
-      <c r="R153" t="s">
-        <v>313</v>
       </c>
       <c r="S153">
         <v>6</v>
@@ -11968,19 +11966,19 @@
         <v>1</v>
       </c>
       <c r="N154" t="s">
+        <v>313</v>
+      </c>
+      <c r="O154" t="s">
         <v>314</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>315</v>
       </c>
-      <c r="P154" t="s">
+      <c r="Q154" t="s">
         <v>316</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="R154" t="s">
         <v>317</v>
-      </c>
-      <c r="R154" t="s">
-        <v>318</v>
       </c>
       <c r="S154">
         <v>6</v>
@@ -12036,19 +12034,19 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
+        <v>318</v>
+      </c>
+      <c r="O155" t="s">
         <v>319</v>
       </c>
-      <c r="O155" t="s">
+      <c r="P155" t="s">
         <v>320</v>
       </c>
-      <c r="P155" t="s">
+      <c r="Q155" t="s">
         <v>321</v>
       </c>
-      <c r="Q155" t="s">
+      <c r="R155" t="s">
         <v>322</v>
-      </c>
-      <c r="R155" t="s">
-        <v>323</v>
       </c>
       <c r="S155">
         <v>6</v>
@@ -12104,19 +12102,19 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
+        <v>308</v>
+      </c>
+      <c r="O156" t="s">
         <v>309</v>
       </c>
-      <c r="O156" t="s">
+      <c r="P156" t="s">
         <v>310</v>
       </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>311</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="R156" t="s">
         <v>312</v>
-      </c>
-      <c r="R156" t="s">
-        <v>313</v>
       </c>
       <c r="S156">
         <v>6</v>
@@ -12172,19 +12170,19 @@
         <v>1</v>
       </c>
       <c r="N157" t="s">
+        <v>313</v>
+      </c>
+      <c r="O157" t="s">
         <v>314</v>
       </c>
-      <c r="O157" t="s">
+      <c r="P157" t="s">
         <v>315</v>
       </c>
-      <c r="P157" t="s">
+      <c r="Q157" t="s">
         <v>316</v>
       </c>
-      <c r="Q157" t="s">
+      <c r="R157" t="s">
         <v>317</v>
-      </c>
-      <c r="R157" t="s">
-        <v>318</v>
       </c>
       <c r="S157">
         <v>6</v>
@@ -12240,19 +12238,19 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
+        <v>318</v>
+      </c>
+      <c r="O158" t="s">
         <v>319</v>
       </c>
-      <c r="O158" t="s">
+      <c r="P158" t="s">
         <v>320</v>
       </c>
-      <c r="P158" t="s">
+      <c r="Q158" t="s">
         <v>321</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="R158" t="s">
         <v>322</v>
-      </c>
-      <c r="R158" t="s">
-        <v>323</v>
       </c>
       <c r="S158">
         <v>6</v>
@@ -12308,19 +12306,19 @@
         <v>1</v>
       </c>
       <c r="N159" t="s">
+        <v>308</v>
+      </c>
+      <c r="O159" t="s">
         <v>309</v>
       </c>
-      <c r="O159" t="s">
+      <c r="P159" t="s">
         <v>310</v>
       </c>
-      <c r="P159" t="s">
+      <c r="Q159" t="s">
         <v>311</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="R159" t="s">
         <v>312</v>
-      </c>
-      <c r="R159" t="s">
-        <v>313</v>
       </c>
       <c r="S159">
         <v>6</v>
@@ -12376,19 +12374,19 @@
         <v>1</v>
       </c>
       <c r="N160" t="s">
+        <v>313</v>
+      </c>
+      <c r="O160" t="s">
         <v>314</v>
       </c>
-      <c r="O160" t="s">
+      <c r="P160" t="s">
         <v>315</v>
       </c>
-      <c r="P160" t="s">
+      <c r="Q160" t="s">
         <v>316</v>
       </c>
-      <c r="Q160" t="s">
+      <c r="R160" t="s">
         <v>317</v>
-      </c>
-      <c r="R160" t="s">
-        <v>318</v>
       </c>
       <c r="S160">
         <v>6</v>
@@ -12444,19 +12442,19 @@
         <v>1</v>
       </c>
       <c r="N161" t="s">
+        <v>318</v>
+      </c>
+      <c r="O161" t="s">
         <v>319</v>
       </c>
-      <c r="O161" t="s">
+      <c r="P161" t="s">
         <v>320</v>
       </c>
-      <c r="P161" t="s">
+      <c r="Q161" t="s">
         <v>321</v>
       </c>
-      <c r="Q161" t="s">
+      <c r="R161" t="s">
         <v>322</v>
-      </c>
-      <c r="R161" t="s">
-        <v>323</v>
       </c>
       <c r="S161">
         <v>6</v>
@@ -12512,19 +12510,19 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
+        <v>308</v>
+      </c>
+      <c r="O162" t="s">
         <v>309</v>
       </c>
-      <c r="O162" t="s">
+      <c r="P162" t="s">
         <v>310</v>
       </c>
-      <c r="P162" t="s">
+      <c r="Q162" t="s">
         <v>311</v>
       </c>
-      <c r="Q162" t="s">
+      <c r="R162" t="s">
         <v>312</v>
-      </c>
-      <c r="R162" t="s">
-        <v>313</v>
       </c>
       <c r="S162">
         <v>6</v>
@@ -12580,19 +12578,19 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
+        <v>313</v>
+      </c>
+      <c r="O163" t="s">
         <v>314</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>315</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>316</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>317</v>
-      </c>
-      <c r="R163" t="s">
-        <v>318</v>
       </c>
       <c r="S163">
         <v>6</v>
@@ -12648,19 +12646,19 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
+        <v>318</v>
+      </c>
+      <c r="O164" t="s">
         <v>319</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>320</v>
       </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>321</v>
       </c>
-      <c r="Q164" t="s">
+      <c r="R164" t="s">
         <v>322</v>
-      </c>
-      <c r="R164" t="s">
-        <v>323</v>
       </c>
       <c r="S164">
         <v>6</v>
@@ -12716,19 +12714,19 @@
         <v>1</v>
       </c>
       <c r="N165" t="s">
+        <v>308</v>
+      </c>
+      <c r="O165" t="s">
         <v>309</v>
       </c>
-      <c r="O165" t="s">
+      <c r="P165" t="s">
         <v>310</v>
       </c>
-      <c r="P165" t="s">
+      <c r="Q165" t="s">
         <v>311</v>
       </c>
-      <c r="Q165" t="s">
+      <c r="R165" t="s">
         <v>312</v>
-      </c>
-      <c r="R165" t="s">
-        <v>313</v>
       </c>
       <c r="S165">
         <v>6</v>
@@ -12784,19 +12782,19 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
+        <v>313</v>
+      </c>
+      <c r="O166" t="s">
         <v>314</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
         <v>315</v>
       </c>
-      <c r="P166" t="s">
+      <c r="Q166" t="s">
         <v>316</v>
       </c>
-      <c r="Q166" t="s">
+      <c r="R166" t="s">
         <v>317</v>
-      </c>
-      <c r="R166" t="s">
-        <v>318</v>
       </c>
       <c r="S166">
         <v>6</v>
@@ -12852,19 +12850,19 @@
         <v>1</v>
       </c>
       <c r="N167" t="s">
+        <v>318</v>
+      </c>
+      <c r="O167" t="s">
         <v>319</v>
       </c>
-      <c r="O167" t="s">
+      <c r="P167" t="s">
         <v>320</v>
       </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>321</v>
       </c>
-      <c r="Q167" t="s">
+      <c r="R167" t="s">
         <v>322</v>
-      </c>
-      <c r="R167" t="s">
-        <v>323</v>
       </c>
       <c r="S167">
         <v>6</v>
@@ -12920,19 +12918,19 @@
         <v>1</v>
       </c>
       <c r="N168" t="s">
+        <v>308</v>
+      </c>
+      <c r="O168" t="s">
         <v>309</v>
       </c>
-      <c r="O168" t="s">
+      <c r="P168" t="s">
         <v>310</v>
       </c>
-      <c r="P168" t="s">
+      <c r="Q168" t="s">
         <v>311</v>
       </c>
-      <c r="Q168" t="s">
+      <c r="R168" t="s">
         <v>312</v>
-      </c>
-      <c r="R168" t="s">
-        <v>313</v>
       </c>
       <c r="S168">
         <v>6</v>
@@ -12988,19 +12986,19 @@
         <v>1</v>
       </c>
       <c r="N169" t="s">
+        <v>313</v>
+      </c>
+      <c r="O169" t="s">
         <v>314</v>
       </c>
-      <c r="O169" t="s">
+      <c r="P169" t="s">
         <v>315</v>
       </c>
-      <c r="P169" t="s">
+      <c r="Q169" t="s">
         <v>316</v>
       </c>
-      <c r="Q169" t="s">
+      <c r="R169" t="s">
         <v>317</v>
-      </c>
-      <c r="R169" t="s">
-        <v>318</v>
       </c>
       <c r="S169">
         <v>6</v>
@@ -13056,19 +13054,19 @@
         <v>1</v>
       </c>
       <c r="N170" t="s">
+        <v>318</v>
+      </c>
+      <c r="O170" t="s">
         <v>319</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
         <v>320</v>
       </c>
-      <c r="P170" t="s">
+      <c r="Q170" t="s">
         <v>321</v>
       </c>
-      <c r="Q170" t="s">
+      <c r="R170" t="s">
         <v>322</v>
-      </c>
-      <c r="R170" t="s">
-        <v>323</v>
       </c>
       <c r="S170">
         <v>6</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B06E210-6592-4196-85E2-632EB89FCA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321CB0B-6F15-4092-AE7B-1146F9BA6036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,9 +576,6 @@
     <t>9883.00|305855.00|196.01</t>
   </si>
   <si>
-    <t>-0.20|-0.30|-86.40</t>
-  </si>
-  <si>
     <t>10348.29|299135.9|392.2</t>
   </si>
   <si>
@@ -619,9 +616,6 @@
   </si>
   <si>
     <t>15515.27|298089.12|245.58</t>
-  </si>
-  <si>
-    <t>-0.56|0.03|157.70</t>
   </si>
   <si>
     <t>15573.32|301758.81|209.77</t>
@@ -1001,6 +995,12 @@
   </si>
   <si>
     <t>1|140||2|29||3|9</t>
+  </si>
+  <si>
+    <t>-0.20|0.5|-86.40</t>
+  </si>
+  <si>
+    <t>-0.56|-0.35|157.70</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1118,6 +1118,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1597,9 +1598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD100" sqref="AD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1879,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -2900,7 +2901,7 @@
       <c r="F21" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="9" t="s">
         <v>136</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -2922,19 +2923,19 @@
         <v>1</v>
       </c>
       <c r="N21" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O21" t="s">
+        <v>250</v>
+      </c>
+      <c r="P21" t="s">
         <v>251</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>252</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>254</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="S21">
         <v>2</v>
@@ -2990,19 +2991,19 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
+        <v>254</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" t="s">
         <v>256</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>257</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>258</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>259</v>
-      </c>
-      <c r="R22" t="s">
-        <v>260</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -3058,19 +3059,19 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" t="s">
         <v>261</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>262</v>
       </c>
-      <c r="P23" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>264</v>
-      </c>
       <c r="R23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3126,19 +3127,19 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
+        <v>249</v>
+      </c>
+      <c r="O24" t="s">
+        <v>250</v>
+      </c>
+      <c r="P24" t="s">
         <v>251</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>252</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>253</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>254</v>
-      </c>
-      <c r="R24" t="s">
-        <v>255</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3194,19 +3195,19 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
+        <v>254</v>
+      </c>
+      <c r="O25" t="s">
+        <v>255</v>
+      </c>
+      <c r="P25" t="s">
         <v>256</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>257</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>258</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>259</v>
-      </c>
-      <c r="R25" t="s">
-        <v>260</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3262,19 +3263,19 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O26" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" t="s">
         <v>261</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>262</v>
       </c>
-      <c r="P26" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>264</v>
-      </c>
       <c r="R26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S26">
         <v>2</v>
@@ -3330,19 +3331,19 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>250</v>
+      </c>
+      <c r="P27" t="s">
         <v>251</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>252</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>253</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>254</v>
-      </c>
-      <c r="R27" t="s">
-        <v>255</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -3398,19 +3399,19 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" t="s">
         <v>256</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>257</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>258</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>259</v>
-      </c>
-      <c r="R28" t="s">
-        <v>260</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -3466,19 +3467,19 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29" t="s">
         <v>261</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>262</v>
       </c>
-      <c r="P29" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>264</v>
-      </c>
       <c r="R29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -3534,19 +3535,19 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>250</v>
+      </c>
+      <c r="P30" t="s">
         <v>251</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>252</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>253</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>254</v>
-      </c>
-      <c r="R30" t="s">
-        <v>255</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -3602,19 +3603,19 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>255</v>
+      </c>
+      <c r="P31" t="s">
         <v>256</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>257</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>258</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>259</v>
-      </c>
-      <c r="R31" t="s">
-        <v>260</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -3670,19 +3671,19 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" t="s">
+        <v>260</v>
+      </c>
+      <c r="P32" t="s">
         <v>261</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>262</v>
       </c>
-      <c r="P32" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>264</v>
-      </c>
       <c r="R32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3738,19 +3739,19 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" t="s">
         <v>251</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>252</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>253</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>254</v>
-      </c>
-      <c r="R33" t="s">
-        <v>255</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3806,19 +3807,19 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34" t="s">
         <v>256</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>257</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>258</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>259</v>
-      </c>
-      <c r="R34" t="s">
-        <v>260</v>
       </c>
       <c r="S34">
         <v>2</v>
@@ -3874,19 +3875,19 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>260</v>
+      </c>
+      <c r="P35" t="s">
         <v>261</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>262</v>
       </c>
-      <c r="P35" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>264</v>
-      </c>
       <c r="R35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S35">
         <v>2</v>
@@ -3942,19 +3943,19 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>250</v>
+      </c>
+      <c r="P36" t="s">
         <v>251</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
         <v>252</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>253</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>254</v>
-      </c>
-      <c r="R36" t="s">
-        <v>255</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -4010,19 +4011,19 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
+        <v>254</v>
+      </c>
+      <c r="O37" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37" t="s">
         <v>256</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>257</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>258</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>259</v>
-      </c>
-      <c r="R37" t="s">
-        <v>260</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -4078,19 +4079,19 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
+        <v>259</v>
+      </c>
+      <c r="O38" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" t="s">
         <v>261</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>262</v>
       </c>
-      <c r="P38" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>264</v>
-      </c>
       <c r="R38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4146,19 +4147,19 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s">
+        <v>250</v>
+      </c>
+      <c r="P39" t="s">
         <v>251</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>252</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>253</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>254</v>
-      </c>
-      <c r="R39" t="s">
-        <v>255</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -4214,19 +4215,19 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
+        <v>254</v>
+      </c>
+      <c r="O40" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" t="s">
         <v>256</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>257</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>258</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>259</v>
-      </c>
-      <c r="R40" t="s">
-        <v>260</v>
       </c>
       <c r="S40">
         <v>2</v>
@@ -4282,19 +4283,19 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
+        <v>259</v>
+      </c>
+      <c r="O41" t="s">
+        <v>260</v>
+      </c>
+      <c r="P41" t="s">
         <v>261</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>262</v>
       </c>
-      <c r="P41" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>264</v>
-      </c>
       <c r="R41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S41">
         <v>2</v>
@@ -4350,19 +4351,19 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
+        <v>249</v>
+      </c>
+      <c r="O42" t="s">
+        <v>250</v>
+      </c>
+      <c r="P42" t="s">
         <v>251</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>252</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>253</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>254</v>
-      </c>
-      <c r="R42" t="s">
-        <v>255</v>
       </c>
       <c r="S42">
         <v>2</v>
@@ -4418,19 +4419,19 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" t="s">
         <v>256</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>257</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>258</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>259</v>
-      </c>
-      <c r="R43" t="s">
-        <v>260</v>
       </c>
       <c r="S43">
         <v>2</v>
@@ -4486,19 +4487,19 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
+        <v>259</v>
+      </c>
+      <c r="O44" t="s">
+        <v>260</v>
+      </c>
+      <c r="P44" t="s">
         <v>261</v>
       </c>
-      <c r="O44" t="s">
+      <c r="Q44" t="s">
         <v>262</v>
       </c>
-      <c r="P44" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>264</v>
-      </c>
       <c r="R44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S44">
         <v>2</v>
@@ -4554,19 +4555,19 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
+        <v>249</v>
+      </c>
+      <c r="O45" t="s">
+        <v>250</v>
+      </c>
+      <c r="P45" t="s">
         <v>251</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>252</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>253</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>254</v>
-      </c>
-      <c r="R45" t="s">
-        <v>255</v>
       </c>
       <c r="S45">
         <v>2</v>
@@ -4622,19 +4623,19 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" t="s">
+        <v>255</v>
+      </c>
+      <c r="P46" t="s">
         <v>256</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>257</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>258</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>259</v>
-      </c>
-      <c r="R46" t="s">
-        <v>260</v>
       </c>
       <c r="S46">
         <v>2</v>
@@ -4690,19 +4691,19 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
+        <v>259</v>
+      </c>
+      <c r="O47" t="s">
+        <v>260</v>
+      </c>
+      <c r="P47" t="s">
         <v>261</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>262</v>
       </c>
-      <c r="P47" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>264</v>
-      </c>
       <c r="R47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -4758,19 +4759,19 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
+        <v>249</v>
+      </c>
+      <c r="O48" t="s">
+        <v>250</v>
+      </c>
+      <c r="P48" t="s">
         <v>251</v>
       </c>
-      <c r="O48" t="s">
+      <c r="Q48" t="s">
         <v>252</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>253</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>254</v>
-      </c>
-      <c r="R48" t="s">
-        <v>255</v>
       </c>
       <c r="S48">
         <v>2</v>
@@ -4826,19 +4827,19 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
+        <v>254</v>
+      </c>
+      <c r="O49" t="s">
+        <v>255</v>
+      </c>
+      <c r="P49" t="s">
         <v>256</v>
       </c>
-      <c r="O49" t="s">
+      <c r="Q49" t="s">
         <v>257</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>258</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>259</v>
-      </c>
-      <c r="R49" t="s">
-        <v>260</v>
       </c>
       <c r="S49">
         <v>2</v>
@@ -4894,19 +4895,19 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
+        <v>259</v>
+      </c>
+      <c r="O50" t="s">
+        <v>260</v>
+      </c>
+      <c r="P50" t="s">
         <v>261</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>262</v>
       </c>
-      <c r="P50" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>264</v>
-      </c>
       <c r="R50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S50">
         <v>2</v>
@@ -4962,19 +4963,19 @@
         <v>1</v>
       </c>
       <c r="N51" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="P51" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="O51" s="8" t="s">
+      <c r="Q51" t="s">
         <v>266</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="R51" t="s">
         <v>267</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>268</v>
-      </c>
-      <c r="R51" t="s">
-        <v>269</v>
       </c>
       <c r="S51">
         <v>3</v>
@@ -5030,19 +5031,19 @@
         <v>1</v>
       </c>
       <c r="N52" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="Q52" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="R52" t="s">
         <v>272</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="R52" t="s">
-        <v>274</v>
       </c>
       <c r="S52">
         <v>3</v>
@@ -5098,19 +5099,19 @@
         <v>1</v>
       </c>
       <c r="N53" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="P53" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="O53" s="8" t="s">
+      <c r="Q53" t="s">
+        <v>251</v>
+      </c>
+      <c r="R53" t="s">
         <v>276</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>253</v>
-      </c>
-      <c r="R53" t="s">
-        <v>278</v>
       </c>
       <c r="S53">
         <v>3</v>
@@ -5166,19 +5167,19 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
+        <v>263</v>
+      </c>
+      <c r="O54" t="s">
+        <v>264</v>
+      </c>
+      <c r="P54" t="s">
         <v>265</v>
       </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
         <v>266</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>267</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>268</v>
-      </c>
-      <c r="R54" t="s">
-        <v>269</v>
       </c>
       <c r="S54">
         <v>3</v>
@@ -5234,19 +5235,19 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
+        <v>268</v>
+      </c>
+      <c r="O55" t="s">
+        <v>269</v>
+      </c>
+      <c r="P55" t="s">
         <v>270</v>
       </c>
-      <c r="O55" t="s">
+      <c r="Q55" t="s">
         <v>271</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>272</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>273</v>
-      </c>
-      <c r="R55" t="s">
-        <v>274</v>
       </c>
       <c r="S55">
         <v>3</v>
@@ -5302,19 +5303,19 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
+        <v>273</v>
+      </c>
+      <c r="O56" t="s">
+        <v>274</v>
+      </c>
+      <c r="P56" t="s">
         <v>275</v>
       </c>
-      <c r="O56" t="s">
+      <c r="Q56" t="s">
+        <v>251</v>
+      </c>
+      <c r="R56" t="s">
         <v>276</v>
-      </c>
-      <c r="P56" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>253</v>
-      </c>
-      <c r="R56" t="s">
-        <v>278</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -5370,19 +5371,19 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
+        <v>263</v>
+      </c>
+      <c r="O57" t="s">
+        <v>264</v>
+      </c>
+      <c r="P57" t="s">
         <v>265</v>
       </c>
-      <c r="O57" t="s">
+      <c r="Q57" t="s">
         <v>266</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>267</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>268</v>
-      </c>
-      <c r="R57" t="s">
-        <v>269</v>
       </c>
       <c r="S57">
         <v>3</v>
@@ -5438,19 +5439,19 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
+        <v>268</v>
+      </c>
+      <c r="O58" t="s">
+        <v>269</v>
+      </c>
+      <c r="P58" t="s">
         <v>270</v>
       </c>
-      <c r="O58" t="s">
+      <c r="Q58" t="s">
         <v>271</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>272</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>273</v>
-      </c>
-      <c r="R58" t="s">
-        <v>274</v>
       </c>
       <c r="S58">
         <v>3</v>
@@ -5506,19 +5507,19 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
+        <v>273</v>
+      </c>
+      <c r="O59" t="s">
+        <v>274</v>
+      </c>
+      <c r="P59" t="s">
         <v>275</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
+        <v>251</v>
+      </c>
+      <c r="R59" t="s">
         <v>276</v>
-      </c>
-      <c r="P59" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>253</v>
-      </c>
-      <c r="R59" t="s">
-        <v>278</v>
       </c>
       <c r="S59">
         <v>3</v>
@@ -5574,19 +5575,19 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
+        <v>263</v>
+      </c>
+      <c r="O60" t="s">
+        <v>264</v>
+      </c>
+      <c r="P60" t="s">
         <v>265</v>
       </c>
-      <c r="O60" t="s">
+      <c r="Q60" t="s">
         <v>266</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>267</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>268</v>
-      </c>
-      <c r="R60" t="s">
-        <v>269</v>
       </c>
       <c r="S60">
         <v>3</v>
@@ -5642,19 +5643,19 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
+        <v>268</v>
+      </c>
+      <c r="O61" t="s">
+        <v>269</v>
+      </c>
+      <c r="P61" t="s">
         <v>270</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q61" t="s">
         <v>271</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>272</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>273</v>
-      </c>
-      <c r="R61" t="s">
-        <v>274</v>
       </c>
       <c r="S61">
         <v>3</v>
@@ -5710,19 +5711,19 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
+        <v>273</v>
+      </c>
+      <c r="O62" t="s">
+        <v>274</v>
+      </c>
+      <c r="P62" t="s">
         <v>275</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
+        <v>251</v>
+      </c>
+      <c r="R62" t="s">
         <v>276</v>
-      </c>
-      <c r="P62" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>253</v>
-      </c>
-      <c r="R62" t="s">
-        <v>278</v>
       </c>
       <c r="S62">
         <v>3</v>
@@ -5778,19 +5779,19 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
+        <v>263</v>
+      </c>
+      <c r="O63" t="s">
+        <v>264</v>
+      </c>
+      <c r="P63" t="s">
         <v>265</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>266</v>
       </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
         <v>267</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>268</v>
-      </c>
-      <c r="R63" t="s">
-        <v>269</v>
       </c>
       <c r="S63">
         <v>3</v>
@@ -5846,19 +5847,19 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
+        <v>268</v>
+      </c>
+      <c r="O64" t="s">
+        <v>269</v>
+      </c>
+      <c r="P64" t="s">
         <v>270</v>
       </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
         <v>271</v>
       </c>
-      <c r="P64" t="s">
+      <c r="R64" t="s">
         <v>272</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>273</v>
-      </c>
-      <c r="R64" t="s">
-        <v>274</v>
       </c>
       <c r="S64">
         <v>3</v>
@@ -5914,19 +5915,19 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
+        <v>273</v>
+      </c>
+      <c r="O65" t="s">
+        <v>274</v>
+      </c>
+      <c r="P65" t="s">
         <v>275</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
+        <v>251</v>
+      </c>
+      <c r="R65" t="s">
         <v>276</v>
-      </c>
-      <c r="P65" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>253</v>
-      </c>
-      <c r="R65" t="s">
-        <v>278</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -5982,19 +5983,19 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
+        <v>263</v>
+      </c>
+      <c r="O66" t="s">
+        <v>264</v>
+      </c>
+      <c r="P66" t="s">
         <v>265</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
         <v>266</v>
       </c>
-      <c r="P66" t="s">
+      <c r="R66" t="s">
         <v>267</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>268</v>
-      </c>
-      <c r="R66" t="s">
-        <v>269</v>
       </c>
       <c r="S66">
         <v>3</v>
@@ -6050,19 +6051,19 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
+        <v>268</v>
+      </c>
+      <c r="O67" t="s">
+        <v>269</v>
+      </c>
+      <c r="P67" t="s">
         <v>270</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
         <v>271</v>
       </c>
-      <c r="P67" t="s">
+      <c r="R67" t="s">
         <v>272</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>273</v>
-      </c>
-      <c r="R67" t="s">
-        <v>274</v>
       </c>
       <c r="S67">
         <v>3</v>
@@ -6118,19 +6119,19 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
+        <v>273</v>
+      </c>
+      <c r="O68" t="s">
+        <v>274</v>
+      </c>
+      <c r="P68" t="s">
         <v>275</v>
       </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
+        <v>251</v>
+      </c>
+      <c r="R68" t="s">
         <v>276</v>
-      </c>
-      <c r="P68" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>253</v>
-      </c>
-      <c r="R68" t="s">
-        <v>278</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -6186,19 +6187,19 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
+        <v>263</v>
+      </c>
+      <c r="O69" t="s">
+        <v>264</v>
+      </c>
+      <c r="P69" t="s">
         <v>265</v>
       </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
         <v>266</v>
       </c>
-      <c r="P69" t="s">
+      <c r="R69" t="s">
         <v>267</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>268</v>
-      </c>
-      <c r="R69" t="s">
-        <v>269</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -6254,19 +6255,19 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
+        <v>268</v>
+      </c>
+      <c r="O70" t="s">
+        <v>269</v>
+      </c>
+      <c r="P70" t="s">
         <v>270</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q70" t="s">
         <v>271</v>
       </c>
-      <c r="P70" t="s">
+      <c r="R70" t="s">
         <v>272</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>273</v>
-      </c>
-      <c r="R70" t="s">
-        <v>274</v>
       </c>
       <c r="S70">
         <v>3</v>
@@ -6322,19 +6323,19 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
+        <v>273</v>
+      </c>
+      <c r="O71" t="s">
+        <v>274</v>
+      </c>
+      <c r="P71" t="s">
         <v>275</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
+        <v>251</v>
+      </c>
+      <c r="R71" t="s">
         <v>276</v>
-      </c>
-      <c r="P71" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>253</v>
-      </c>
-      <c r="R71" t="s">
-        <v>278</v>
       </c>
       <c r="S71">
         <v>3</v>
@@ -6390,19 +6391,19 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
+        <v>263</v>
+      </c>
+      <c r="O72" t="s">
+        <v>264</v>
+      </c>
+      <c r="P72" t="s">
         <v>265</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
         <v>266</v>
       </c>
-      <c r="P72" t="s">
+      <c r="R72" t="s">
         <v>267</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>268</v>
-      </c>
-      <c r="R72" t="s">
-        <v>269</v>
       </c>
       <c r="S72">
         <v>3</v>
@@ -6458,19 +6459,19 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
+        <v>268</v>
+      </c>
+      <c r="O73" t="s">
+        <v>269</v>
+      </c>
+      <c r="P73" t="s">
         <v>270</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>271</v>
       </c>
-      <c r="P73" t="s">
+      <c r="R73" t="s">
         <v>272</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>273</v>
-      </c>
-      <c r="R73" t="s">
-        <v>274</v>
       </c>
       <c r="S73">
         <v>3</v>
@@ -6526,19 +6527,19 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
+        <v>273</v>
+      </c>
+      <c r="O74" t="s">
+        <v>274</v>
+      </c>
+      <c r="P74" t="s">
         <v>275</v>
       </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
+        <v>251</v>
+      </c>
+      <c r="R74" t="s">
         <v>276</v>
-      </c>
-      <c r="P74" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>253</v>
-      </c>
-      <c r="R74" t="s">
-        <v>278</v>
       </c>
       <c r="S74">
         <v>3</v>
@@ -6594,19 +6595,19 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
+        <v>263</v>
+      </c>
+      <c r="O75" t="s">
+        <v>264</v>
+      </c>
+      <c r="P75" t="s">
         <v>265</v>
       </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
         <v>266</v>
       </c>
-      <c r="P75" t="s">
+      <c r="R75" t="s">
         <v>267</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>268</v>
-      </c>
-      <c r="R75" t="s">
-        <v>269</v>
       </c>
       <c r="S75">
         <v>3</v>
@@ -6662,19 +6663,19 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
+        <v>268</v>
+      </c>
+      <c r="O76" t="s">
+        <v>269</v>
+      </c>
+      <c r="P76" t="s">
         <v>270</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
         <v>271</v>
       </c>
-      <c r="P76" t="s">
+      <c r="R76" t="s">
         <v>272</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>273</v>
-      </c>
-      <c r="R76" t="s">
-        <v>274</v>
       </c>
       <c r="S76">
         <v>3</v>
@@ -6730,19 +6731,19 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
+        <v>273</v>
+      </c>
+      <c r="O77" t="s">
+        <v>274</v>
+      </c>
+      <c r="P77" t="s">
         <v>275</v>
       </c>
-      <c r="O77" t="s">
+      <c r="Q77" t="s">
+        <v>251</v>
+      </c>
+      <c r="R77" t="s">
         <v>276</v>
-      </c>
-      <c r="P77" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>253</v>
-      </c>
-      <c r="R77" t="s">
-        <v>278</v>
       </c>
       <c r="S77">
         <v>3</v>
@@ -6798,19 +6799,19 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
+        <v>263</v>
+      </c>
+      <c r="O78" t="s">
+        <v>264</v>
+      </c>
+      <c r="P78" t="s">
         <v>265</v>
       </c>
-      <c r="O78" t="s">
+      <c r="Q78" t="s">
         <v>266</v>
       </c>
-      <c r="P78" t="s">
+      <c r="R78" t="s">
         <v>267</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>268</v>
-      </c>
-      <c r="R78" t="s">
-        <v>269</v>
       </c>
       <c r="S78">
         <v>3</v>
@@ -6866,19 +6867,19 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
+        <v>268</v>
+      </c>
+      <c r="O79" t="s">
+        <v>269</v>
+      </c>
+      <c r="P79" t="s">
         <v>270</v>
       </c>
-      <c r="O79" t="s">
+      <c r="Q79" t="s">
         <v>271</v>
       </c>
-      <c r="P79" t="s">
+      <c r="R79" t="s">
         <v>272</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>273</v>
-      </c>
-      <c r="R79" t="s">
-        <v>274</v>
       </c>
       <c r="S79">
         <v>3</v>
@@ -6934,19 +6935,19 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
+        <v>273</v>
+      </c>
+      <c r="O80" t="s">
+        <v>274</v>
+      </c>
+      <c r="P80" t="s">
         <v>275</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
+        <v>251</v>
+      </c>
+      <c r="R80" t="s">
         <v>276</v>
-      </c>
-      <c r="P80" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>253</v>
-      </c>
-      <c r="R80" t="s">
-        <v>278</v>
       </c>
       <c r="S80">
         <v>3</v>
@@ -6961,7 +6962,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>3004</v>
       </c>
@@ -6980,8 +6981,8 @@
       <c r="F81" t="s">
         <v>180</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>181</v>
+      <c r="G81" t="s">
+        <v>321</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>102</v>
@@ -7002,25 +7003,25 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
+        <v>277</v>
+      </c>
+      <c r="O81" t="s">
+        <v>278</v>
+      </c>
+      <c r="P81" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q81" t="s">
         <v>279</v>
       </c>
-      <c r="O81" t="s">
+      <c r="R81" t="s">
         <v>280</v>
-      </c>
-      <c r="P81" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>281</v>
-      </c>
-      <c r="R81" t="s">
-        <v>282</v>
       </c>
       <c r="S81">
         <v>4</v>
       </c>
       <c r="T81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U81">
         <v>434716</v>
@@ -7029,7 +7030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>3005</v>
       </c>
@@ -7048,8 +7049,8 @@
       <c r="F82" t="s">
         <v>180</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>181</v>
+      <c r="G82" t="s">
+        <v>321</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>107</v>
@@ -7070,25 +7071,25 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
+        <v>281</v>
+      </c>
+      <c r="O82" t="s">
+        <v>282</v>
+      </c>
+      <c r="P82" t="s">
         <v>283</v>
       </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
         <v>284</v>
       </c>
-      <c r="P82" t="s">
+      <c r="R82" t="s">
         <v>285</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>286</v>
-      </c>
-      <c r="R82" t="s">
-        <v>287</v>
       </c>
       <c r="S82">
         <v>4</v>
       </c>
       <c r="T82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U82">
         <v>434716</v>
@@ -7097,7 +7098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>3006</v>
       </c>
@@ -7116,8 +7117,8 @@
       <c r="F83" t="s">
         <v>180</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>181</v>
+      <c r="G83" t="s">
+        <v>321</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>112</v>
@@ -7138,25 +7139,25 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
+        <v>286</v>
+      </c>
+      <c r="O83" t="s">
+        <v>287</v>
+      </c>
+      <c r="P83" t="s">
         <v>288</v>
       </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
         <v>289</v>
       </c>
-      <c r="P83" t="s">
+      <c r="R83" t="s">
         <v>290</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>291</v>
-      </c>
-      <c r="R83" t="s">
-        <v>292</v>
       </c>
       <c r="S83">
         <v>4</v>
       </c>
       <c r="T83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U83">
         <v>434716</v>
@@ -7165,7 +7166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>3007</v>
       </c>
@@ -7182,10 +7183,10 @@
         <v>53</v>
       </c>
       <c r="F84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" t="s">
         <v>183</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>102</v>
@@ -7206,25 +7207,25 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
+        <v>277</v>
+      </c>
+      <c r="O84" t="s">
+        <v>278</v>
+      </c>
+      <c r="P84" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q84" t="s">
         <v>279</v>
       </c>
-      <c r="O84" t="s">
+      <c r="R84" t="s">
         <v>280</v>
-      </c>
-      <c r="P84" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>281</v>
-      </c>
-      <c r="R84" t="s">
-        <v>282</v>
       </c>
       <c r="S84">
         <v>4</v>
       </c>
       <c r="T84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U84">
         <v>434716</v>
@@ -7233,7 +7234,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>3008</v>
       </c>
@@ -7250,10 +7251,10 @@
         <v>53</v>
       </c>
       <c r="F85" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" t="s">
         <v>183</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>107</v>
@@ -7274,25 +7275,25 @@
         <v>1</v>
       </c>
       <c r="N85" t="s">
+        <v>281</v>
+      </c>
+      <c r="O85" t="s">
+        <v>282</v>
+      </c>
+      <c r="P85" t="s">
         <v>283</v>
       </c>
-      <c r="O85" t="s">
+      <c r="Q85" t="s">
         <v>284</v>
       </c>
-      <c r="P85" t="s">
+      <c r="R85" t="s">
         <v>285</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>286</v>
-      </c>
-      <c r="R85" t="s">
-        <v>287</v>
       </c>
       <c r="S85">
         <v>4</v>
       </c>
       <c r="T85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U85">
         <v>434716</v>
@@ -7301,7 +7302,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>3009</v>
       </c>
@@ -7318,10 +7319,10 @@
         <v>53</v>
       </c>
       <c r="F86" t="s">
+        <v>182</v>
+      </c>
+      <c r="G86" t="s">
         <v>183</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>112</v>
@@ -7342,25 +7343,25 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
+        <v>286</v>
+      </c>
+      <c r="O86" t="s">
+        <v>287</v>
+      </c>
+      <c r="P86" t="s">
         <v>288</v>
       </c>
-      <c r="O86" t="s">
+      <c r="Q86" t="s">
         <v>289</v>
       </c>
-      <c r="P86" t="s">
+      <c r="R86" t="s">
         <v>290</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>291</v>
-      </c>
-      <c r="R86" t="s">
-        <v>292</v>
       </c>
       <c r="S86">
         <v>4</v>
       </c>
       <c r="T86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U86">
         <v>434716</v>
@@ -7369,7 +7370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>3010</v>
       </c>
@@ -7386,10 +7387,10 @@
         <v>53</v>
       </c>
       <c r="F87" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" t="s">
         <v>185</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>102</v>
@@ -7410,25 +7411,25 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
+        <v>277</v>
+      </c>
+      <c r="O87" t="s">
+        <v>278</v>
+      </c>
+      <c r="P87" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q87" t="s">
         <v>279</v>
       </c>
-      <c r="O87" t="s">
+      <c r="R87" t="s">
         <v>280</v>
-      </c>
-      <c r="P87" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>281</v>
-      </c>
-      <c r="R87" t="s">
-        <v>282</v>
       </c>
       <c r="S87">
         <v>4</v>
       </c>
       <c r="T87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U87">
         <v>434716</v>
@@ -7437,7 +7438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>3011</v>
       </c>
@@ -7454,10 +7455,10 @@
         <v>53</v>
       </c>
       <c r="F88" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" t="s">
         <v>185</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>107</v>
@@ -7478,25 +7479,25 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
+        <v>281</v>
+      </c>
+      <c r="O88" t="s">
+        <v>282</v>
+      </c>
+      <c r="P88" t="s">
         <v>283</v>
       </c>
-      <c r="O88" t="s">
+      <c r="Q88" t="s">
         <v>284</v>
       </c>
-      <c r="P88" t="s">
+      <c r="R88" t="s">
         <v>285</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>286</v>
-      </c>
-      <c r="R88" t="s">
-        <v>287</v>
       </c>
       <c r="S88">
         <v>4</v>
       </c>
       <c r="T88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U88">
         <v>434716</v>
@@ -7505,7 +7506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>3012</v>
       </c>
@@ -7522,10 +7523,10 @@
         <v>53</v>
       </c>
       <c r="F89" t="s">
+        <v>184</v>
+      </c>
+      <c r="G89" t="s">
         <v>185</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>112</v>
@@ -7546,25 +7547,25 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
+        <v>286</v>
+      </c>
+      <c r="O89" t="s">
+        <v>287</v>
+      </c>
+      <c r="P89" t="s">
         <v>288</v>
       </c>
-      <c r="O89" t="s">
+      <c r="Q89" t="s">
         <v>289</v>
       </c>
-      <c r="P89" t="s">
+      <c r="R89" t="s">
         <v>290</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>291</v>
-      </c>
-      <c r="R89" t="s">
-        <v>292</v>
       </c>
       <c r="S89">
         <v>4</v>
       </c>
       <c r="T89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U89">
         <v>434716</v>
@@ -7573,7 +7574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>3013</v>
       </c>
@@ -7590,10 +7591,10 @@
         <v>53</v>
       </c>
       <c r="F90" t="s">
+        <v>186</v>
+      </c>
+      <c r="G90" t="s">
         <v>187</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>102</v>
@@ -7614,25 +7615,25 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
+        <v>277</v>
+      </c>
+      <c r="O90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P90" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q90" t="s">
         <v>279</v>
       </c>
-      <c r="O90" t="s">
+      <c r="R90" t="s">
         <v>280</v>
-      </c>
-      <c r="P90" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>281</v>
-      </c>
-      <c r="R90" t="s">
-        <v>282</v>
       </c>
       <c r="S90">
         <v>4</v>
       </c>
       <c r="T90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U90">
         <v>434716</v>
@@ -7641,7 +7642,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>3014</v>
       </c>
@@ -7658,10 +7659,10 @@
         <v>53</v>
       </c>
       <c r="F91" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" t="s">
         <v>187</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>107</v>
@@ -7682,25 +7683,25 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
+        <v>281</v>
+      </c>
+      <c r="O91" t="s">
+        <v>282</v>
+      </c>
+      <c r="P91" t="s">
         <v>283</v>
       </c>
-      <c r="O91" t="s">
+      <c r="Q91" t="s">
         <v>284</v>
       </c>
-      <c r="P91" t="s">
+      <c r="R91" t="s">
         <v>285</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>286</v>
-      </c>
-      <c r="R91" t="s">
-        <v>287</v>
       </c>
       <c r="S91">
         <v>4</v>
       </c>
       <c r="T91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U91">
         <v>434716</v>
@@ -7709,7 +7710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>3015</v>
       </c>
@@ -7726,10 +7727,10 @@
         <v>53</v>
       </c>
       <c r="F92" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92" t="s">
         <v>187</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>112</v>
@@ -7750,25 +7751,25 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
+        <v>286</v>
+      </c>
+      <c r="O92" t="s">
+        <v>287</v>
+      </c>
+      <c r="P92" t="s">
         <v>288</v>
       </c>
-      <c r="O92" t="s">
+      <c r="Q92" t="s">
         <v>289</v>
       </c>
-      <c r="P92" t="s">
+      <c r="R92" t="s">
         <v>290</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>291</v>
-      </c>
-      <c r="R92" t="s">
-        <v>292</v>
       </c>
       <c r="S92">
         <v>4</v>
       </c>
       <c r="T92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U92">
         <v>434716</v>
@@ -7777,7 +7778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>3016</v>
       </c>
@@ -7794,10 +7795,10 @@
         <v>53</v>
       </c>
       <c r="F93" t="s">
+        <v>188</v>
+      </c>
+      <c r="G93" t="s">
         <v>189</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>102</v>
@@ -7818,25 +7819,25 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
+        <v>277</v>
+      </c>
+      <c r="O93" t="s">
+        <v>278</v>
+      </c>
+      <c r="P93" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q93" t="s">
         <v>279</v>
       </c>
-      <c r="O93" t="s">
+      <c r="R93" t="s">
         <v>280</v>
-      </c>
-      <c r="P93" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>281</v>
-      </c>
-      <c r="R93" t="s">
-        <v>282</v>
       </c>
       <c r="S93">
         <v>4</v>
       </c>
       <c r="T93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U93">
         <v>434716</v>
@@ -7845,7 +7846,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>3017</v>
       </c>
@@ -7862,10 +7863,10 @@
         <v>53</v>
       </c>
       <c r="F94" t="s">
+        <v>188</v>
+      </c>
+      <c r="G94" t="s">
         <v>189</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>107</v>
@@ -7886,25 +7887,25 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
+        <v>281</v>
+      </c>
+      <c r="O94" t="s">
+        <v>282</v>
+      </c>
+      <c r="P94" t="s">
         <v>283</v>
       </c>
-      <c r="O94" t="s">
+      <c r="Q94" t="s">
         <v>284</v>
       </c>
-      <c r="P94" t="s">
+      <c r="R94" t="s">
         <v>285</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>286</v>
-      </c>
-      <c r="R94" t="s">
-        <v>287</v>
       </c>
       <c r="S94">
         <v>4</v>
       </c>
       <c r="T94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U94">
         <v>434716</v>
@@ -7913,7 +7914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>3018</v>
       </c>
@@ -7930,10 +7931,10 @@
         <v>53</v>
       </c>
       <c r="F95" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" t="s">
         <v>189</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>112</v>
@@ -7954,25 +7955,25 @@
         <v>1</v>
       </c>
       <c r="N95" t="s">
+        <v>286</v>
+      </c>
+      <c r="O95" t="s">
+        <v>287</v>
+      </c>
+      <c r="P95" t="s">
         <v>288</v>
       </c>
-      <c r="O95" t="s">
+      <c r="Q95" t="s">
         <v>289</v>
       </c>
-      <c r="P95" t="s">
+      <c r="R95" t="s">
         <v>290</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>291</v>
-      </c>
-      <c r="R95" t="s">
-        <v>292</v>
       </c>
       <c r="S95">
         <v>4</v>
       </c>
       <c r="T95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U95">
         <v>434716</v>
@@ -7981,7 +7982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>3019</v>
       </c>
@@ -7998,10 +7999,10 @@
         <v>53</v>
       </c>
       <c r="F96" t="s">
+        <v>190</v>
+      </c>
+      <c r="G96" t="s">
         <v>191</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>102</v>
@@ -8022,25 +8023,25 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
+        <v>277</v>
+      </c>
+      <c r="O96" t="s">
+        <v>278</v>
+      </c>
+      <c r="P96" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q96" t="s">
         <v>279</v>
       </c>
-      <c r="O96" t="s">
+      <c r="R96" t="s">
         <v>280</v>
-      </c>
-      <c r="P96" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>281</v>
-      </c>
-      <c r="R96" t="s">
-        <v>282</v>
       </c>
       <c r="S96">
         <v>4</v>
       </c>
       <c r="T96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U96">
         <v>434716</v>
@@ -8049,7 +8050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>3020</v>
       </c>
@@ -8066,10 +8067,10 @@
         <v>53</v>
       </c>
       <c r="F97" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" t="s">
         <v>191</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>107</v>
@@ -8090,25 +8091,25 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
+        <v>281</v>
+      </c>
+      <c r="O97" t="s">
+        <v>282</v>
+      </c>
+      <c r="P97" t="s">
         <v>283</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Q97" t="s">
         <v>284</v>
       </c>
-      <c r="P97" t="s">
+      <c r="R97" t="s">
         <v>285</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>286</v>
-      </c>
-      <c r="R97" t="s">
-        <v>287</v>
       </c>
       <c r="S97">
         <v>4</v>
       </c>
       <c r="T97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U97">
         <v>434716</v>
@@ -8117,7 +8118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>3021</v>
       </c>
@@ -8134,10 +8135,10 @@
         <v>53</v>
       </c>
       <c r="F98" t="s">
+        <v>190</v>
+      </c>
+      <c r="G98" t="s">
         <v>191</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>112</v>
@@ -8158,25 +8159,25 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
+        <v>286</v>
+      </c>
+      <c r="O98" t="s">
+        <v>287</v>
+      </c>
+      <c r="P98" t="s">
         <v>288</v>
       </c>
-      <c r="O98" t="s">
+      <c r="Q98" t="s">
         <v>289</v>
       </c>
-      <c r="P98" t="s">
+      <c r="R98" t="s">
         <v>290</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>291</v>
-      </c>
-      <c r="R98" t="s">
-        <v>292</v>
       </c>
       <c r="S98">
         <v>4</v>
       </c>
       <c r="T98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U98">
         <v>434716</v>
@@ -8185,7 +8186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>3022</v>
       </c>
@@ -8202,10 +8203,10 @@
         <v>53</v>
       </c>
       <c r="F99" t="s">
+        <v>192</v>
+      </c>
+      <c r="G99" t="s">
         <v>193</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>102</v>
@@ -8226,25 +8227,25 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
+        <v>277</v>
+      </c>
+      <c r="O99" t="s">
+        <v>278</v>
+      </c>
+      <c r="P99" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q99" t="s">
         <v>279</v>
       </c>
-      <c r="O99" t="s">
+      <c r="R99" t="s">
         <v>280</v>
-      </c>
-      <c r="P99" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>281</v>
-      </c>
-      <c r="R99" t="s">
-        <v>282</v>
       </c>
       <c r="S99">
         <v>4</v>
       </c>
       <c r="T99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U99">
         <v>434716</v>
@@ -8253,7 +8254,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>3023</v>
       </c>
@@ -8270,10 +8271,10 @@
         <v>53</v>
       </c>
       <c r="F100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G100" t="s">
         <v>193</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>107</v>
@@ -8294,25 +8295,25 @@
         <v>1</v>
       </c>
       <c r="N100" t="s">
+        <v>281</v>
+      </c>
+      <c r="O100" t="s">
+        <v>282</v>
+      </c>
+      <c r="P100" t="s">
         <v>283</v>
       </c>
-      <c r="O100" t="s">
+      <c r="Q100" t="s">
         <v>284</v>
       </c>
-      <c r="P100" t="s">
+      <c r="R100" t="s">
         <v>285</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>286</v>
-      </c>
-      <c r="R100" t="s">
-        <v>287</v>
       </c>
       <c r="S100">
         <v>4</v>
       </c>
       <c r="T100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U100">
         <v>434716</v>
@@ -8321,7 +8322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>3024</v>
       </c>
@@ -8338,10 +8339,10 @@
         <v>53</v>
       </c>
       <c r="F101" t="s">
+        <v>192</v>
+      </c>
+      <c r="G101" t="s">
         <v>193</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>112</v>
@@ -8362,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="N101" t="s">
+        <v>286</v>
+      </c>
+      <c r="O101" t="s">
+        <v>287</v>
+      </c>
+      <c r="P101" t="s">
         <v>288</v>
       </c>
-      <c r="O101" t="s">
+      <c r="Q101" t="s">
         <v>289</v>
       </c>
-      <c r="P101" t="s">
+      <c r="R101" t="s">
         <v>290</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>291</v>
-      </c>
-      <c r="R101" t="s">
-        <v>292</v>
       </c>
       <c r="S101">
         <v>4</v>
       </c>
       <c r="T101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U101">
         <v>434716</v>
@@ -8389,7 +8390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>3025</v>
       </c>
@@ -8406,10 +8407,10 @@
         <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>195</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="G102" t="s">
+        <v>322</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>102</v>
@@ -8430,25 +8431,25 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
+        <v>277</v>
+      </c>
+      <c r="O102" t="s">
+        <v>278</v>
+      </c>
+      <c r="P102" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q102" t="s">
         <v>279</v>
       </c>
-      <c r="O102" t="s">
+      <c r="R102" t="s">
         <v>280</v>
-      </c>
-      <c r="P102" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>281</v>
-      </c>
-      <c r="R102" t="s">
-        <v>282</v>
       </c>
       <c r="S102">
         <v>4</v>
       </c>
       <c r="T102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U102">
         <v>434716</v>
@@ -8457,7 +8458,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>3026</v>
       </c>
@@ -8474,10 +8475,10 @@
         <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>195</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="G103" t="s">
+        <v>322</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>107</v>
@@ -8498,25 +8499,25 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
+        <v>281</v>
+      </c>
+      <c r="O103" t="s">
+        <v>282</v>
+      </c>
+      <c r="P103" t="s">
         <v>283</v>
       </c>
-      <c r="O103" t="s">
+      <c r="Q103" t="s">
         <v>284</v>
       </c>
-      <c r="P103" t="s">
+      <c r="R103" t="s">
         <v>285</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>286</v>
-      </c>
-      <c r="R103" t="s">
-        <v>287</v>
       </c>
       <c r="S103">
         <v>4</v>
       </c>
       <c r="T103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U103">
         <v>434716</v>
@@ -8525,7 +8526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>3027</v>
       </c>
@@ -8542,10 +8543,10 @@
         <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>195</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="G104" t="s">
+        <v>322</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>112</v>
@@ -8566,25 +8567,25 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
+        <v>286</v>
+      </c>
+      <c r="O104" t="s">
+        <v>287</v>
+      </c>
+      <c r="P104" t="s">
         <v>288</v>
       </c>
-      <c r="O104" t="s">
+      <c r="Q104" t="s">
         <v>289</v>
       </c>
-      <c r="P104" t="s">
+      <c r="R104" t="s">
         <v>290</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>291</v>
-      </c>
-      <c r="R104" t="s">
-        <v>292</v>
       </c>
       <c r="S104">
         <v>4</v>
       </c>
       <c r="T104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U104">
         <v>434716</v>
@@ -8593,7 +8594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>3028</v>
       </c>
@@ -8610,10 +8611,10 @@
         <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>197</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="G105" t="s">
+        <v>196</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>102</v>
@@ -8634,25 +8635,25 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
+        <v>277</v>
+      </c>
+      <c r="O105" t="s">
+        <v>278</v>
+      </c>
+      <c r="P105" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q105" t="s">
         <v>279</v>
       </c>
-      <c r="O105" t="s">
+      <c r="R105" t="s">
         <v>280</v>
-      </c>
-      <c r="P105" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>281</v>
-      </c>
-      <c r="R105" t="s">
-        <v>282</v>
       </c>
       <c r="S105">
         <v>4</v>
       </c>
       <c r="T105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U105">
         <v>434716</v>
@@ -8661,7 +8662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>3029</v>
       </c>
@@ -8678,10 +8679,10 @@
         <v>53</v>
       </c>
       <c r="F106" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="G106" t="s">
+        <v>196</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>107</v>
@@ -8702,25 +8703,25 @@
         <v>1</v>
       </c>
       <c r="N106" t="s">
+        <v>281</v>
+      </c>
+      <c r="O106" t="s">
+        <v>282</v>
+      </c>
+      <c r="P106" t="s">
         <v>283</v>
       </c>
-      <c r="O106" t="s">
+      <c r="Q106" t="s">
         <v>284</v>
       </c>
-      <c r="P106" t="s">
+      <c r="R106" t="s">
         <v>285</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>286</v>
-      </c>
-      <c r="R106" t="s">
-        <v>287</v>
       </c>
       <c r="S106">
         <v>4</v>
       </c>
       <c r="T106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U106">
         <v>434716</v>
@@ -8729,7 +8730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>3030</v>
       </c>
@@ -8746,10 +8747,10 @@
         <v>53</v>
       </c>
       <c r="F107" t="s">
-        <v>197</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="G107" t="s">
+        <v>196</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>112</v>
@@ -8770,25 +8771,25 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
+        <v>286</v>
+      </c>
+      <c r="O107" t="s">
+        <v>287</v>
+      </c>
+      <c r="P107" t="s">
         <v>288</v>
       </c>
-      <c r="O107" t="s">
+      <c r="Q107" t="s">
         <v>289</v>
       </c>
-      <c r="P107" t="s">
+      <c r="R107" t="s">
         <v>290</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>291</v>
-      </c>
-      <c r="R107" t="s">
-        <v>292</v>
       </c>
       <c r="S107">
         <v>4</v>
       </c>
       <c r="T107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U107">
         <v>434716</v>
@@ -8797,7 +8798,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>3031</v>
       </c>
@@ -8814,10 +8815,10 @@
         <v>53</v>
       </c>
       <c r="F108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G108" t="s">
+        <v>198</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>102</v>
@@ -8838,25 +8839,25 @@
         <v>1</v>
       </c>
       <c r="N108" t="s">
+        <v>277</v>
+      </c>
+      <c r="O108" t="s">
+        <v>278</v>
+      </c>
+      <c r="P108" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q108" t="s">
         <v>279</v>
       </c>
-      <c r="O108" t="s">
+      <c r="R108" t="s">
         <v>280</v>
-      </c>
-      <c r="P108" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>281</v>
-      </c>
-      <c r="R108" t="s">
-        <v>282</v>
       </c>
       <c r="S108">
         <v>4</v>
       </c>
       <c r="T108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U108">
         <v>434716</v>
@@ -8865,7 +8866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>3032</v>
       </c>
@@ -8882,10 +8883,10 @@
         <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>199</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G109" t="s">
+        <v>198</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>107</v>
@@ -8906,25 +8907,25 @@
         <v>1</v>
       </c>
       <c r="N109" t="s">
+        <v>281</v>
+      </c>
+      <c r="O109" t="s">
+        <v>282</v>
+      </c>
+      <c r="P109" t="s">
         <v>283</v>
       </c>
-      <c r="O109" t="s">
+      <c r="Q109" t="s">
         <v>284</v>
       </c>
-      <c r="P109" t="s">
+      <c r="R109" t="s">
         <v>285</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>286</v>
-      </c>
-      <c r="R109" t="s">
-        <v>287</v>
       </c>
       <c r="S109">
         <v>4</v>
       </c>
       <c r="T109" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U109">
         <v>434716</v>
@@ -8933,7 +8934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>3033</v>
       </c>
@@ -8950,10 +8951,10 @@
         <v>53</v>
       </c>
       <c r="F110" t="s">
-        <v>199</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G110" t="s">
+        <v>198</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>112</v>
@@ -8974,25 +8975,25 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
+        <v>286</v>
+      </c>
+      <c r="O110" t="s">
+        <v>287</v>
+      </c>
+      <c r="P110" t="s">
         <v>288</v>
       </c>
-      <c r="O110" t="s">
+      <c r="Q110" t="s">
         <v>289</v>
       </c>
-      <c r="P110" t="s">
+      <c r="R110" t="s">
         <v>290</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>291</v>
-      </c>
-      <c r="R110" t="s">
-        <v>292</v>
       </c>
       <c r="S110">
         <v>4</v>
       </c>
       <c r="T110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U110">
         <v>434716</v>
@@ -9018,10 +9019,10 @@
         <v>53</v>
       </c>
       <c r="F111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>121</v>
@@ -9042,25 +9043,25 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
+        <v>291</v>
+      </c>
+      <c r="O111" t="s">
+        <v>292</v>
+      </c>
+      <c r="P111" t="s">
         <v>293</v>
       </c>
-      <c r="O111" t="s">
+      <c r="Q111" t="s">
         <v>294</v>
       </c>
-      <c r="P111" t="s">
+      <c r="R111" t="s">
         <v>295</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>296</v>
-      </c>
-      <c r="R111" t="s">
-        <v>297</v>
       </c>
       <c r="S111">
         <v>5</v>
       </c>
       <c r="T111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U111">
         <v>434716</v>
@@ -9086,10 +9087,10 @@
         <v>53</v>
       </c>
       <c r="F112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>123</v>
@@ -9110,25 +9111,25 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
+        <v>296</v>
+      </c>
+      <c r="O112" t="s">
+        <v>297</v>
+      </c>
+      <c r="P112" t="s">
         <v>298</v>
       </c>
-      <c r="O112" t="s">
+      <c r="Q112" t="s">
         <v>299</v>
       </c>
-      <c r="P112" t="s">
+      <c r="R112" t="s">
         <v>300</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>301</v>
-      </c>
-      <c r="R112" t="s">
-        <v>302</v>
       </c>
       <c r="S112">
         <v>5</v>
       </c>
       <c r="T112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U112">
         <v>434716</v>
@@ -9154,10 +9155,10 @@
         <v>53</v>
       </c>
       <c r="F113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>125</v>
@@ -9178,25 +9179,25 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
+        <v>301</v>
+      </c>
+      <c r="O113" t="s">
+        <v>302</v>
+      </c>
+      <c r="P113" t="s">
         <v>303</v>
       </c>
-      <c r="O113" t="s">
+      <c r="Q113" t="s">
         <v>304</v>
       </c>
-      <c r="P113" t="s">
+      <c r="R113" t="s">
         <v>305</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>306</v>
-      </c>
-      <c r="R113" t="s">
-        <v>307</v>
       </c>
       <c r="S113">
         <v>5</v>
       </c>
       <c r="T113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U113">
         <v>434716</v>
@@ -9222,10 +9223,10 @@
         <v>53</v>
       </c>
       <c r="F114" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>121</v>
@@ -9246,25 +9247,25 @@
         <v>1</v>
       </c>
       <c r="N114" t="s">
+        <v>291</v>
+      </c>
+      <c r="O114" t="s">
+        <v>292</v>
+      </c>
+      <c r="P114" t="s">
         <v>293</v>
       </c>
-      <c r="O114" t="s">
+      <c r="Q114" t="s">
         <v>294</v>
       </c>
-      <c r="P114" t="s">
+      <c r="R114" t="s">
         <v>295</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>296</v>
-      </c>
-      <c r="R114" t="s">
-        <v>297</v>
       </c>
       <c r="S114">
         <v>5</v>
       </c>
       <c r="T114" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U114">
         <v>434716</v>
@@ -9290,10 +9291,10 @@
         <v>53</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>123</v>
@@ -9314,25 +9315,25 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
+        <v>296</v>
+      </c>
+      <c r="O115" t="s">
+        <v>297</v>
+      </c>
+      <c r="P115" t="s">
         <v>298</v>
       </c>
-      <c r="O115" t="s">
+      <c r="Q115" t="s">
         <v>299</v>
       </c>
-      <c r="P115" t="s">
+      <c r="R115" t="s">
         <v>300</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>301</v>
-      </c>
-      <c r="R115" t="s">
-        <v>302</v>
       </c>
       <c r="S115">
         <v>5</v>
       </c>
       <c r="T115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U115">
         <v>434716</v>
@@ -9358,10 +9359,10 @@
         <v>53</v>
       </c>
       <c r="F116" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>125</v>
@@ -9382,25 +9383,25 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
+        <v>301</v>
+      </c>
+      <c r="O116" t="s">
+        <v>302</v>
+      </c>
+      <c r="P116" t="s">
         <v>303</v>
       </c>
-      <c r="O116" t="s">
+      <c r="Q116" t="s">
         <v>304</v>
       </c>
-      <c r="P116" t="s">
+      <c r="R116" t="s">
         <v>305</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>306</v>
-      </c>
-      <c r="R116" t="s">
-        <v>307</v>
       </c>
       <c r="S116">
         <v>5</v>
       </c>
       <c r="T116" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U116">
         <v>434716</v>
@@ -9426,10 +9427,10 @@
         <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>121</v>
@@ -9450,25 +9451,25 @@
         <v>1</v>
       </c>
       <c r="N117" t="s">
+        <v>291</v>
+      </c>
+      <c r="O117" t="s">
+        <v>292</v>
+      </c>
+      <c r="P117" t="s">
         <v>293</v>
       </c>
-      <c r="O117" t="s">
+      <c r="Q117" t="s">
         <v>294</v>
       </c>
-      <c r="P117" t="s">
+      <c r="R117" t="s">
         <v>295</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>296</v>
-      </c>
-      <c r="R117" t="s">
-        <v>297</v>
       </c>
       <c r="S117">
         <v>5</v>
       </c>
       <c r="T117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U117">
         <v>434716</v>
@@ -9494,10 +9495,10 @@
         <v>53</v>
       </c>
       <c r="F118" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>123</v>
@@ -9518,25 +9519,25 @@
         <v>1</v>
       </c>
       <c r="N118" t="s">
+        <v>296</v>
+      </c>
+      <c r="O118" t="s">
+        <v>297</v>
+      </c>
+      <c r="P118" t="s">
         <v>298</v>
       </c>
-      <c r="O118" t="s">
+      <c r="Q118" t="s">
         <v>299</v>
       </c>
-      <c r="P118" t="s">
+      <c r="R118" t="s">
         <v>300</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>301</v>
-      </c>
-      <c r="R118" t="s">
-        <v>302</v>
       </c>
       <c r="S118">
         <v>5</v>
       </c>
       <c r="T118" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U118">
         <v>434716</v>
@@ -9562,10 +9563,10 @@
         <v>53</v>
       </c>
       <c r="F119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>125</v>
@@ -9586,25 +9587,25 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
+        <v>301</v>
+      </c>
+      <c r="O119" t="s">
+        <v>302</v>
+      </c>
+      <c r="P119" t="s">
         <v>303</v>
       </c>
-      <c r="O119" t="s">
+      <c r="Q119" t="s">
         <v>304</v>
       </c>
-      <c r="P119" t="s">
+      <c r="R119" t="s">
         <v>305</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>306</v>
-      </c>
-      <c r="R119" t="s">
-        <v>307</v>
       </c>
       <c r="S119">
         <v>5</v>
       </c>
       <c r="T119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U119">
         <v>434716</v>
@@ -9630,10 +9631,10 @@
         <v>53</v>
       </c>
       <c r="F120" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>121</v>
@@ -9654,25 +9655,25 @@
         <v>1</v>
       </c>
       <c r="N120" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="O120" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="P120" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="O120" s="8" t="s">
+      <c r="Q120" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="P120" s="8" t="s">
+      <c r="R120" t="s">
         <v>295</v>
-      </c>
-      <c r="Q120" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="R120" t="s">
-        <v>297</v>
       </c>
       <c r="S120">
         <v>5</v>
       </c>
       <c r="T120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U120">
         <v>434716</v>
@@ -9698,10 +9699,10 @@
         <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>123</v>
@@ -9722,25 +9723,25 @@
         <v>1</v>
       </c>
       <c r="N121" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="P121" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="O121" s="8" t="s">
+      <c r="Q121" t="s">
         <v>299</v>
       </c>
-      <c r="P121" s="8" t="s">
+      <c r="R121" t="s">
         <v>300</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>301</v>
-      </c>
-      <c r="R121" t="s">
-        <v>302</v>
       </c>
       <c r="S121">
         <v>5</v>
       </c>
       <c r="T121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U121">
         <v>434716</v>
@@ -9766,10 +9767,10 @@
         <v>53</v>
       </c>
       <c r="F122" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>125</v>
@@ -9790,25 +9791,25 @@
         <v>1</v>
       </c>
       <c r="N122" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="O122" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="P122" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="O122" s="8" t="s">
+      <c r="Q122" t="s">
         <v>304</v>
       </c>
-      <c r="P122" s="8" t="s">
+      <c r="R122" t="s">
         <v>305</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>306</v>
-      </c>
-      <c r="R122" t="s">
-        <v>307</v>
       </c>
       <c r="S122">
         <v>5</v>
       </c>
       <c r="T122" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U122">
         <v>434716</v>
@@ -9834,10 +9835,10 @@
         <v>53</v>
       </c>
       <c r="F123" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>121</v>
@@ -9858,25 +9859,25 @@
         <v>1</v>
       </c>
       <c r="N123" t="s">
+        <v>291</v>
+      </c>
+      <c r="O123" t="s">
+        <v>292</v>
+      </c>
+      <c r="P123" t="s">
         <v>293</v>
       </c>
-      <c r="O123" t="s">
+      <c r="Q123" t="s">
         <v>294</v>
       </c>
-      <c r="P123" t="s">
+      <c r="R123" t="s">
         <v>295</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>296</v>
-      </c>
-      <c r="R123" t="s">
-        <v>297</v>
       </c>
       <c r="S123">
         <v>5</v>
       </c>
       <c r="T123" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U123">
         <v>434716</v>
@@ -9902,10 +9903,10 @@
         <v>53</v>
       </c>
       <c r="F124" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>123</v>
@@ -9926,25 +9927,25 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
+        <v>296</v>
+      </c>
+      <c r="O124" t="s">
+        <v>297</v>
+      </c>
+      <c r="P124" t="s">
         <v>298</v>
       </c>
-      <c r="O124" t="s">
+      <c r="Q124" t="s">
         <v>299</v>
       </c>
-      <c r="P124" t="s">
+      <c r="R124" t="s">
         <v>300</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>301</v>
-      </c>
-      <c r="R124" t="s">
-        <v>302</v>
       </c>
       <c r="S124">
         <v>5</v>
       </c>
       <c r="T124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U124">
         <v>434716</v>
@@ -9970,10 +9971,10 @@
         <v>53</v>
       </c>
       <c r="F125" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>125</v>
@@ -9994,25 +9995,25 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
+        <v>301</v>
+      </c>
+      <c r="O125" t="s">
+        <v>302</v>
+      </c>
+      <c r="P125" t="s">
         <v>303</v>
       </c>
-      <c r="O125" t="s">
+      <c r="Q125" t="s">
         <v>304</v>
       </c>
-      <c r="P125" t="s">
+      <c r="R125" t="s">
         <v>305</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>306</v>
-      </c>
-      <c r="R125" t="s">
-        <v>307</v>
       </c>
       <c r="S125">
         <v>5</v>
       </c>
       <c r="T125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U125">
         <v>434716</v>
@@ -10038,10 +10039,10 @@
         <v>53</v>
       </c>
       <c r="F126" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>121</v>
@@ -10062,25 +10063,25 @@
         <v>1</v>
       </c>
       <c r="N126" t="s">
+        <v>291</v>
+      </c>
+      <c r="O126" t="s">
+        <v>292</v>
+      </c>
+      <c r="P126" t="s">
         <v>293</v>
       </c>
-      <c r="O126" t="s">
+      <c r="Q126" t="s">
         <v>294</v>
       </c>
-      <c r="P126" t="s">
+      <c r="R126" t="s">
         <v>295</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>296</v>
-      </c>
-      <c r="R126" t="s">
-        <v>297</v>
       </c>
       <c r="S126">
         <v>5</v>
       </c>
       <c r="T126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U126">
         <v>434716</v>
@@ -10106,10 +10107,10 @@
         <v>53</v>
       </c>
       <c r="F127" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>123</v>
@@ -10130,25 +10131,25 @@
         <v>1</v>
       </c>
       <c r="N127" t="s">
+        <v>296</v>
+      </c>
+      <c r="O127" t="s">
+        <v>297</v>
+      </c>
+      <c r="P127" t="s">
         <v>298</v>
       </c>
-      <c r="O127" t="s">
+      <c r="Q127" t="s">
         <v>299</v>
       </c>
-      <c r="P127" t="s">
+      <c r="R127" t="s">
         <v>300</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>301</v>
-      </c>
-      <c r="R127" t="s">
-        <v>302</v>
       </c>
       <c r="S127">
         <v>5</v>
       </c>
       <c r="T127" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U127">
         <v>434716</v>
@@ -10174,10 +10175,10 @@
         <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>125</v>
@@ -10198,25 +10199,25 @@
         <v>1</v>
       </c>
       <c r="N128" t="s">
+        <v>301</v>
+      </c>
+      <c r="O128" t="s">
+        <v>302</v>
+      </c>
+      <c r="P128" t="s">
         <v>303</v>
       </c>
-      <c r="O128" t="s">
+      <c r="Q128" t="s">
         <v>304</v>
       </c>
-      <c r="P128" t="s">
+      <c r="R128" t="s">
         <v>305</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>306</v>
-      </c>
-      <c r="R128" t="s">
-        <v>307</v>
       </c>
       <c r="S128">
         <v>5</v>
       </c>
       <c r="T128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U128">
         <v>434716</v>
@@ -10242,10 +10243,10 @@
         <v>53</v>
       </c>
       <c r="F129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>121</v>
@@ -10266,25 +10267,25 @@
         <v>1</v>
       </c>
       <c r="N129" t="s">
+        <v>291</v>
+      </c>
+      <c r="O129" t="s">
+        <v>292</v>
+      </c>
+      <c r="P129" t="s">
         <v>293</v>
       </c>
-      <c r="O129" t="s">
+      <c r="Q129" t="s">
         <v>294</v>
       </c>
-      <c r="P129" t="s">
+      <c r="R129" t="s">
         <v>295</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>296</v>
-      </c>
-      <c r="R129" t="s">
-        <v>297</v>
       </c>
       <c r="S129">
         <v>5</v>
       </c>
       <c r="T129" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U129">
         <v>434716</v>
@@ -10310,10 +10311,10 @@
         <v>53</v>
       </c>
       <c r="F130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>123</v>
@@ -10334,25 +10335,25 @@
         <v>1</v>
       </c>
       <c r="N130" t="s">
+        <v>296</v>
+      </c>
+      <c r="O130" t="s">
+        <v>297</v>
+      </c>
+      <c r="P130" t="s">
         <v>298</v>
       </c>
-      <c r="O130" t="s">
+      <c r="Q130" t="s">
         <v>299</v>
       </c>
-      <c r="P130" t="s">
+      <c r="R130" t="s">
         <v>300</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>301</v>
-      </c>
-      <c r="R130" t="s">
-        <v>302</v>
       </c>
       <c r="S130">
         <v>5</v>
       </c>
       <c r="T130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U130">
         <v>434716</v>
@@ -10378,10 +10379,10 @@
         <v>53</v>
       </c>
       <c r="F131" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>125</v>
@@ -10402,25 +10403,25 @@
         <v>1</v>
       </c>
       <c r="N131" t="s">
+        <v>301</v>
+      </c>
+      <c r="O131" t="s">
+        <v>302</v>
+      </c>
+      <c r="P131" t="s">
         <v>303</v>
       </c>
-      <c r="O131" t="s">
+      <c r="Q131" t="s">
         <v>304</v>
       </c>
-      <c r="P131" t="s">
+      <c r="R131" t="s">
         <v>305</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>306</v>
-      </c>
-      <c r="R131" t="s">
-        <v>307</v>
       </c>
       <c r="S131">
         <v>5</v>
       </c>
       <c r="T131" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U131">
         <v>434716</v>
@@ -10446,10 +10447,10 @@
         <v>53</v>
       </c>
       <c r="F132" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>121</v>
@@ -10470,25 +10471,25 @@
         <v>1</v>
       </c>
       <c r="N132" t="s">
+        <v>291</v>
+      </c>
+      <c r="O132" t="s">
+        <v>292</v>
+      </c>
+      <c r="P132" t="s">
         <v>293</v>
       </c>
-      <c r="O132" t="s">
+      <c r="Q132" t="s">
         <v>294</v>
       </c>
-      <c r="P132" t="s">
+      <c r="R132" t="s">
         <v>295</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>296</v>
-      </c>
-      <c r="R132" t="s">
-        <v>297</v>
       </c>
       <c r="S132">
         <v>5</v>
       </c>
       <c r="T132" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U132">
         <v>434716</v>
@@ -10514,10 +10515,10 @@
         <v>53</v>
       </c>
       <c r="F133" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>123</v>
@@ -10538,25 +10539,25 @@
         <v>1</v>
       </c>
       <c r="N133" t="s">
+        <v>296</v>
+      </c>
+      <c r="O133" t="s">
+        <v>297</v>
+      </c>
+      <c r="P133" t="s">
         <v>298</v>
       </c>
-      <c r="O133" t="s">
+      <c r="Q133" t="s">
         <v>299</v>
       </c>
-      <c r="P133" t="s">
+      <c r="R133" t="s">
         <v>300</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>301</v>
-      </c>
-      <c r="R133" t="s">
-        <v>302</v>
       </c>
       <c r="S133">
         <v>5</v>
       </c>
       <c r="T133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U133">
         <v>434716</v>
@@ -10582,10 +10583,10 @@
         <v>53</v>
       </c>
       <c r="F134" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>125</v>
@@ -10606,25 +10607,25 @@
         <v>1</v>
       </c>
       <c r="N134" t="s">
+        <v>301</v>
+      </c>
+      <c r="O134" t="s">
+        <v>302</v>
+      </c>
+      <c r="P134" t="s">
         <v>303</v>
       </c>
-      <c r="O134" t="s">
+      <c r="Q134" t="s">
         <v>304</v>
       </c>
-      <c r="P134" t="s">
+      <c r="R134" t="s">
         <v>305</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>306</v>
-      </c>
-      <c r="R134" t="s">
-        <v>307</v>
       </c>
       <c r="S134">
         <v>5</v>
       </c>
       <c r="T134" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U134">
         <v>434716</v>
@@ -10650,10 +10651,10 @@
         <v>53</v>
       </c>
       <c r="F135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>121</v>
@@ -10674,25 +10675,25 @@
         <v>1</v>
       </c>
       <c r="N135" t="s">
+        <v>291</v>
+      </c>
+      <c r="O135" t="s">
+        <v>292</v>
+      </c>
+      <c r="P135" t="s">
         <v>293</v>
       </c>
-      <c r="O135" t="s">
+      <c r="Q135" t="s">
         <v>294</v>
       </c>
-      <c r="P135" t="s">
+      <c r="R135" t="s">
         <v>295</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>296</v>
-      </c>
-      <c r="R135" t="s">
-        <v>297</v>
       </c>
       <c r="S135">
         <v>5</v>
       </c>
       <c r="T135" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U135">
         <v>434716</v>
@@ -10718,10 +10719,10 @@
         <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>123</v>
@@ -10742,25 +10743,25 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
+        <v>296</v>
+      </c>
+      <c r="O136" t="s">
+        <v>297</v>
+      </c>
+      <c r="P136" t="s">
         <v>298</v>
       </c>
-      <c r="O136" t="s">
+      <c r="Q136" t="s">
         <v>299</v>
       </c>
-      <c r="P136" t="s">
+      <c r="R136" t="s">
         <v>300</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>301</v>
-      </c>
-      <c r="R136" t="s">
-        <v>302</v>
       </c>
       <c r="S136">
         <v>5</v>
       </c>
       <c r="T136" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U136">
         <v>434716</v>
@@ -10786,10 +10787,10 @@
         <v>53</v>
       </c>
       <c r="F137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>125</v>
@@ -10810,25 +10811,25 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
+        <v>301</v>
+      </c>
+      <c r="O137" t="s">
+        <v>302</v>
+      </c>
+      <c r="P137" t="s">
         <v>303</v>
       </c>
-      <c r="O137" t="s">
+      <c r="Q137" t="s">
         <v>304</v>
       </c>
-      <c r="P137" t="s">
+      <c r="R137" t="s">
         <v>305</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>306</v>
-      </c>
-      <c r="R137" t="s">
-        <v>307</v>
       </c>
       <c r="S137">
         <v>5</v>
       </c>
       <c r="T137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U137">
         <v>434716</v>
@@ -10854,10 +10855,10 @@
         <v>53</v>
       </c>
       <c r="F138" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>121</v>
@@ -10878,25 +10879,25 @@
         <v>1</v>
       </c>
       <c r="N138" t="s">
+        <v>291</v>
+      </c>
+      <c r="O138" t="s">
+        <v>292</v>
+      </c>
+      <c r="P138" t="s">
         <v>293</v>
       </c>
-      <c r="O138" t="s">
+      <c r="Q138" t="s">
         <v>294</v>
       </c>
-      <c r="P138" t="s">
+      <c r="R138" t="s">
         <v>295</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>296</v>
-      </c>
-      <c r="R138" t="s">
-        <v>297</v>
       </c>
       <c r="S138">
         <v>5</v>
       </c>
       <c r="T138" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U138">
         <v>434716</v>
@@ -10922,10 +10923,10 @@
         <v>53</v>
       </c>
       <c r="F139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>123</v>
@@ -10946,25 +10947,25 @@
         <v>1</v>
       </c>
       <c r="N139" t="s">
+        <v>296</v>
+      </c>
+      <c r="O139" t="s">
+        <v>297</v>
+      </c>
+      <c r="P139" t="s">
         <v>298</v>
       </c>
-      <c r="O139" t="s">
+      <c r="Q139" t="s">
         <v>299</v>
       </c>
-      <c r="P139" t="s">
+      <c r="R139" t="s">
         <v>300</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>301</v>
-      </c>
-      <c r="R139" t="s">
-        <v>302</v>
       </c>
       <c r="S139">
         <v>5</v>
       </c>
       <c r="T139" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U139">
         <v>434716</v>
@@ -10990,10 +10991,10 @@
         <v>53</v>
       </c>
       <c r="F140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>125</v>
@@ -11014,25 +11015,25 @@
         <v>1</v>
       </c>
       <c r="N140" t="s">
+        <v>301</v>
+      </c>
+      <c r="O140" t="s">
+        <v>302</v>
+      </c>
+      <c r="P140" t="s">
         <v>303</v>
       </c>
-      <c r="O140" t="s">
+      <c r="Q140" t="s">
         <v>304</v>
       </c>
-      <c r="P140" t="s">
+      <c r="R140" t="s">
         <v>305</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>306</v>
-      </c>
-      <c r="R140" t="s">
-        <v>307</v>
       </c>
       <c r="S140">
         <v>5</v>
       </c>
       <c r="T140" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U140">
         <v>434716</v>
@@ -11058,10 +11059,10 @@
         <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>129</v>
@@ -11082,25 +11083,25 @@
         <v>1</v>
       </c>
       <c r="N141" t="s">
+        <v>306</v>
+      </c>
+      <c r="O141" t="s">
+        <v>307</v>
+      </c>
+      <c r="P141" t="s">
         <v>308</v>
       </c>
-      <c r="O141" t="s">
+      <c r="Q141" t="s">
         <v>309</v>
       </c>
-      <c r="P141" t="s">
+      <c r="R141" t="s">
         <v>310</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>311</v>
-      </c>
-      <c r="R141" t="s">
-        <v>312</v>
       </c>
       <c r="S141">
         <v>6</v>
       </c>
       <c r="T141" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U141">
         <v>434716</v>
@@ -11126,10 +11127,10 @@
         <v>53</v>
       </c>
       <c r="F142" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>131</v>
@@ -11150,25 +11151,25 @@
         <v>1</v>
       </c>
       <c r="N142" t="s">
+        <v>311</v>
+      </c>
+      <c r="O142" t="s">
+        <v>312</v>
+      </c>
+      <c r="P142" t="s">
         <v>313</v>
       </c>
-      <c r="O142" t="s">
+      <c r="Q142" t="s">
         <v>314</v>
       </c>
-      <c r="P142" t="s">
+      <c r="R142" t="s">
         <v>315</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>316</v>
-      </c>
-      <c r="R142" t="s">
-        <v>317</v>
       </c>
       <c r="S142">
         <v>6</v>
       </c>
       <c r="T142" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U142">
         <v>434716</v>
@@ -11194,10 +11195,10 @@
         <v>53</v>
       </c>
       <c r="F143" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>133</v>
@@ -11218,25 +11219,25 @@
         <v>1</v>
       </c>
       <c r="N143" t="s">
+        <v>316</v>
+      </c>
+      <c r="O143" t="s">
+        <v>317</v>
+      </c>
+      <c r="P143" t="s">
         <v>318</v>
       </c>
-      <c r="O143" t="s">
+      <c r="Q143" t="s">
         <v>319</v>
       </c>
-      <c r="P143" t="s">
+      <c r="R143" t="s">
         <v>320</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>321</v>
-      </c>
-      <c r="R143" t="s">
-        <v>322</v>
       </c>
       <c r="S143">
         <v>6</v>
       </c>
       <c r="T143" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U143">
         <v>434716</v>
@@ -11262,10 +11263,10 @@
         <v>53</v>
       </c>
       <c r="F144" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>129</v>
@@ -11286,25 +11287,25 @@
         <v>1</v>
       </c>
       <c r="N144" t="s">
+        <v>306</v>
+      </c>
+      <c r="O144" t="s">
+        <v>307</v>
+      </c>
+      <c r="P144" t="s">
         <v>308</v>
       </c>
-      <c r="O144" t="s">
+      <c r="Q144" t="s">
         <v>309</v>
       </c>
-      <c r="P144" t="s">
+      <c r="R144" t="s">
         <v>310</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>311</v>
-      </c>
-      <c r="R144" t="s">
-        <v>312</v>
       </c>
       <c r="S144">
         <v>6</v>
       </c>
       <c r="T144" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U144">
         <v>434716</v>
@@ -11330,10 +11331,10 @@
         <v>53</v>
       </c>
       <c r="F145" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>131</v>
@@ -11354,25 +11355,25 @@
         <v>1</v>
       </c>
       <c r="N145" t="s">
+        <v>311</v>
+      </c>
+      <c r="O145" t="s">
+        <v>312</v>
+      </c>
+      <c r="P145" t="s">
         <v>313</v>
       </c>
-      <c r="O145" t="s">
+      <c r="Q145" t="s">
         <v>314</v>
       </c>
-      <c r="P145" t="s">
+      <c r="R145" t="s">
         <v>315</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>316</v>
-      </c>
-      <c r="R145" t="s">
-        <v>317</v>
       </c>
       <c r="S145">
         <v>6</v>
       </c>
       <c r="T145" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U145">
         <v>434716</v>
@@ -11398,10 +11399,10 @@
         <v>53</v>
       </c>
       <c r="F146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>133</v>
@@ -11422,25 +11423,25 @@
         <v>1</v>
       </c>
       <c r="N146" t="s">
+        <v>316</v>
+      </c>
+      <c r="O146" t="s">
+        <v>317</v>
+      </c>
+      <c r="P146" t="s">
         <v>318</v>
       </c>
-      <c r="O146" t="s">
+      <c r="Q146" t="s">
         <v>319</v>
       </c>
-      <c r="P146" t="s">
+      <c r="R146" t="s">
         <v>320</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>321</v>
-      </c>
-      <c r="R146" t="s">
-        <v>322</v>
       </c>
       <c r="S146">
         <v>6</v>
       </c>
       <c r="T146" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U146">
         <v>434716</v>
@@ -11466,10 +11467,10 @@
         <v>53</v>
       </c>
       <c r="F147" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>129</v>
@@ -11490,25 +11491,25 @@
         <v>1</v>
       </c>
       <c r="N147" t="s">
+        <v>306</v>
+      </c>
+      <c r="O147" t="s">
+        <v>307</v>
+      </c>
+      <c r="P147" t="s">
         <v>308</v>
       </c>
-      <c r="O147" t="s">
+      <c r="Q147" t="s">
         <v>309</v>
       </c>
-      <c r="P147" t="s">
+      <c r="R147" t="s">
         <v>310</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>311</v>
-      </c>
-      <c r="R147" t="s">
-        <v>312</v>
       </c>
       <c r="S147">
         <v>6</v>
       </c>
       <c r="T147" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U147">
         <v>434716</v>
@@ -11534,10 +11535,10 @@
         <v>53</v>
       </c>
       <c r="F148" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>131</v>
@@ -11558,25 +11559,25 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
+        <v>311</v>
+      </c>
+      <c r="O148" t="s">
+        <v>312</v>
+      </c>
+      <c r="P148" t="s">
         <v>313</v>
       </c>
-      <c r="O148" t="s">
+      <c r="Q148" t="s">
         <v>314</v>
       </c>
-      <c r="P148" t="s">
+      <c r="R148" t="s">
         <v>315</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>316</v>
-      </c>
-      <c r="R148" t="s">
-        <v>317</v>
       </c>
       <c r="S148">
         <v>6</v>
       </c>
       <c r="T148" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U148">
         <v>434716</v>
@@ -11602,10 +11603,10 @@
         <v>53</v>
       </c>
       <c r="F149" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>133</v>
@@ -11626,25 +11627,25 @@
         <v>1</v>
       </c>
       <c r="N149" t="s">
+        <v>316</v>
+      </c>
+      <c r="O149" t="s">
+        <v>317</v>
+      </c>
+      <c r="P149" t="s">
         <v>318</v>
       </c>
-      <c r="O149" t="s">
+      <c r="Q149" t="s">
         <v>319</v>
       </c>
-      <c r="P149" t="s">
+      <c r="R149" t="s">
         <v>320</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>321</v>
-      </c>
-      <c r="R149" t="s">
-        <v>322</v>
       </c>
       <c r="S149">
         <v>6</v>
       </c>
       <c r="T149" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U149">
         <v>434716</v>
@@ -11670,10 +11671,10 @@
         <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>129</v>
@@ -11694,25 +11695,25 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
+        <v>306</v>
+      </c>
+      <c r="O150" t="s">
+        <v>307</v>
+      </c>
+      <c r="P150" t="s">
         <v>308</v>
       </c>
-      <c r="O150" t="s">
+      <c r="Q150" t="s">
         <v>309</v>
       </c>
-      <c r="P150" t="s">
+      <c r="R150" t="s">
         <v>310</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>311</v>
-      </c>
-      <c r="R150" t="s">
-        <v>312</v>
       </c>
       <c r="S150">
         <v>6</v>
       </c>
       <c r="T150" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U150">
         <v>434716</v>
@@ -11738,10 +11739,10 @@
         <v>53</v>
       </c>
       <c r="F151" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>131</v>
@@ -11762,25 +11763,25 @@
         <v>1</v>
       </c>
       <c r="N151" t="s">
+        <v>311</v>
+      </c>
+      <c r="O151" t="s">
+        <v>312</v>
+      </c>
+      <c r="P151" t="s">
         <v>313</v>
       </c>
-      <c r="O151" t="s">
+      <c r="Q151" t="s">
         <v>314</v>
       </c>
-      <c r="P151" t="s">
+      <c r="R151" t="s">
         <v>315</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>316</v>
-      </c>
-      <c r="R151" t="s">
-        <v>317</v>
       </c>
       <c r="S151">
         <v>6</v>
       </c>
       <c r="T151" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U151">
         <v>434716</v>
@@ -11806,10 +11807,10 @@
         <v>53</v>
       </c>
       <c r="F152" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>133</v>
@@ -11830,25 +11831,25 @@
         <v>1</v>
       </c>
       <c r="N152" t="s">
+        <v>316</v>
+      </c>
+      <c r="O152" t="s">
+        <v>317</v>
+      </c>
+      <c r="P152" t="s">
         <v>318</v>
       </c>
-      <c r="O152" t="s">
+      <c r="Q152" t="s">
         <v>319</v>
       </c>
-      <c r="P152" t="s">
+      <c r="R152" t="s">
         <v>320</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>321</v>
-      </c>
-      <c r="R152" t="s">
-        <v>322</v>
       </c>
       <c r="S152">
         <v>6</v>
       </c>
       <c r="T152" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U152">
         <v>434716</v>
@@ -11874,10 +11875,10 @@
         <v>53</v>
       </c>
       <c r="F153" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>129</v>
@@ -11898,25 +11899,25 @@
         <v>1</v>
       </c>
       <c r="N153" t="s">
+        <v>306</v>
+      </c>
+      <c r="O153" t="s">
+        <v>307</v>
+      </c>
+      <c r="P153" t="s">
         <v>308</v>
       </c>
-      <c r="O153" t="s">
+      <c r="Q153" t="s">
         <v>309</v>
       </c>
-      <c r="P153" t="s">
+      <c r="R153" t="s">
         <v>310</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>311</v>
-      </c>
-      <c r="R153" t="s">
-        <v>312</v>
       </c>
       <c r="S153">
         <v>6</v>
       </c>
       <c r="T153" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U153">
         <v>434716</v>
@@ -11942,10 +11943,10 @@
         <v>53</v>
       </c>
       <c r="F154" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>131</v>
@@ -11966,25 +11967,25 @@
         <v>1</v>
       </c>
       <c r="N154" t="s">
+        <v>311</v>
+      </c>
+      <c r="O154" t="s">
+        <v>312</v>
+      </c>
+      <c r="P154" t="s">
         <v>313</v>
       </c>
-      <c r="O154" t="s">
+      <c r="Q154" t="s">
         <v>314</v>
       </c>
-      <c r="P154" t="s">
+      <c r="R154" t="s">
         <v>315</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>316</v>
-      </c>
-      <c r="R154" t="s">
-        <v>317</v>
       </c>
       <c r="S154">
         <v>6</v>
       </c>
       <c r="T154" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U154">
         <v>434716</v>
@@ -12010,10 +12011,10 @@
         <v>53</v>
       </c>
       <c r="F155" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>133</v>
@@ -12034,25 +12035,25 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
+        <v>316</v>
+      </c>
+      <c r="O155" t="s">
+        <v>317</v>
+      </c>
+      <c r="P155" t="s">
         <v>318</v>
       </c>
-      <c r="O155" t="s">
+      <c r="Q155" t="s">
         <v>319</v>
       </c>
-      <c r="P155" t="s">
+      <c r="R155" t="s">
         <v>320</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>321</v>
-      </c>
-      <c r="R155" t="s">
-        <v>322</v>
       </c>
       <c r="S155">
         <v>6</v>
       </c>
       <c r="T155" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U155">
         <v>434716</v>
@@ -12078,10 +12079,10 @@
         <v>53</v>
       </c>
       <c r="F156" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>129</v>
@@ -12102,25 +12103,25 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
+        <v>306</v>
+      </c>
+      <c r="O156" t="s">
+        <v>307</v>
+      </c>
+      <c r="P156" t="s">
         <v>308</v>
       </c>
-      <c r="O156" t="s">
+      <c r="Q156" t="s">
         <v>309</v>
       </c>
-      <c r="P156" t="s">
+      <c r="R156" t="s">
         <v>310</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>311</v>
-      </c>
-      <c r="R156" t="s">
-        <v>312</v>
       </c>
       <c r="S156">
         <v>6</v>
       </c>
       <c r="T156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U156">
         <v>434716</v>
@@ -12146,10 +12147,10 @@
         <v>53</v>
       </c>
       <c r="F157" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>131</v>
@@ -12170,25 +12171,25 @@
         <v>1</v>
       </c>
       <c r="N157" t="s">
+        <v>311</v>
+      </c>
+      <c r="O157" t="s">
+        <v>312</v>
+      </c>
+      <c r="P157" t="s">
         <v>313</v>
       </c>
-      <c r="O157" t="s">
+      <c r="Q157" t="s">
         <v>314</v>
       </c>
-      <c r="P157" t="s">
+      <c r="R157" t="s">
         <v>315</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>316</v>
-      </c>
-      <c r="R157" t="s">
-        <v>317</v>
       </c>
       <c r="S157">
         <v>6</v>
       </c>
       <c r="T157" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U157">
         <v>434716</v>
@@ -12214,10 +12215,10 @@
         <v>53</v>
       </c>
       <c r="F158" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>133</v>
@@ -12238,25 +12239,25 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
+        <v>316</v>
+      </c>
+      <c r="O158" t="s">
+        <v>317</v>
+      </c>
+      <c r="P158" t="s">
         <v>318</v>
       </c>
-      <c r="O158" t="s">
+      <c r="Q158" t="s">
         <v>319</v>
       </c>
-      <c r="P158" t="s">
+      <c r="R158" t="s">
         <v>320</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>321</v>
-      </c>
-      <c r="R158" t="s">
-        <v>322</v>
       </c>
       <c r="S158">
         <v>6</v>
       </c>
       <c r="T158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U158">
         <v>434716</v>
@@ -12282,10 +12283,10 @@
         <v>53</v>
       </c>
       <c r="F159" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>129</v>
@@ -12306,25 +12307,25 @@
         <v>1</v>
       </c>
       <c r="N159" t="s">
+        <v>306</v>
+      </c>
+      <c r="O159" t="s">
+        <v>307</v>
+      </c>
+      <c r="P159" t="s">
         <v>308</v>
       </c>
-      <c r="O159" t="s">
+      <c r="Q159" t="s">
         <v>309</v>
       </c>
-      <c r="P159" t="s">
+      <c r="R159" t="s">
         <v>310</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>311</v>
-      </c>
-      <c r="R159" t="s">
-        <v>312</v>
       </c>
       <c r="S159">
         <v>6</v>
       </c>
       <c r="T159" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U159">
         <v>434716</v>
@@ -12350,10 +12351,10 @@
         <v>53</v>
       </c>
       <c r="F160" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>131</v>
@@ -12374,25 +12375,25 @@
         <v>1</v>
       </c>
       <c r="N160" t="s">
+        <v>311</v>
+      </c>
+      <c r="O160" t="s">
+        <v>312</v>
+      </c>
+      <c r="P160" t="s">
         <v>313</v>
       </c>
-      <c r="O160" t="s">
+      <c r="Q160" t="s">
         <v>314</v>
       </c>
-      <c r="P160" t="s">
+      <c r="R160" t="s">
         <v>315</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>316</v>
-      </c>
-      <c r="R160" t="s">
-        <v>317</v>
       </c>
       <c r="S160">
         <v>6</v>
       </c>
       <c r="T160" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U160">
         <v>434716</v>
@@ -12418,10 +12419,10 @@
         <v>53</v>
       </c>
       <c r="F161" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>133</v>
@@ -12442,25 +12443,25 @@
         <v>1</v>
       </c>
       <c r="N161" t="s">
+        <v>316</v>
+      </c>
+      <c r="O161" t="s">
+        <v>317</v>
+      </c>
+      <c r="P161" t="s">
         <v>318</v>
       </c>
-      <c r="O161" t="s">
+      <c r="Q161" t="s">
         <v>319</v>
       </c>
-      <c r="P161" t="s">
+      <c r="R161" t="s">
         <v>320</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>321</v>
-      </c>
-      <c r="R161" t="s">
-        <v>322</v>
       </c>
       <c r="S161">
         <v>6</v>
       </c>
       <c r="T161" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U161">
         <v>434716</v>
@@ -12486,10 +12487,10 @@
         <v>53</v>
       </c>
       <c r="F162" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>129</v>
@@ -12510,25 +12511,25 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
+        <v>306</v>
+      </c>
+      <c r="O162" t="s">
+        <v>307</v>
+      </c>
+      <c r="P162" t="s">
         <v>308</v>
       </c>
-      <c r="O162" t="s">
+      <c r="Q162" t="s">
         <v>309</v>
       </c>
-      <c r="P162" t="s">
+      <c r="R162" t="s">
         <v>310</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>311</v>
-      </c>
-      <c r="R162" t="s">
-        <v>312</v>
       </c>
       <c r="S162">
         <v>6</v>
       </c>
       <c r="T162" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U162">
         <v>434716</v>
@@ -12554,10 +12555,10 @@
         <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>131</v>
@@ -12578,25 +12579,25 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
+        <v>311</v>
+      </c>
+      <c r="O163" t="s">
+        <v>312</v>
+      </c>
+      <c r="P163" t="s">
         <v>313</v>
       </c>
-      <c r="O163" t="s">
+      <c r="Q163" t="s">
         <v>314</v>
       </c>
-      <c r="P163" t="s">
+      <c r="R163" t="s">
         <v>315</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>316</v>
-      </c>
-      <c r="R163" t="s">
-        <v>317</v>
       </c>
       <c r="S163">
         <v>6</v>
       </c>
       <c r="T163" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U163">
         <v>434716</v>
@@ -12622,10 +12623,10 @@
         <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>133</v>
@@ -12646,25 +12647,25 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
+        <v>316</v>
+      </c>
+      <c r="O164" t="s">
+        <v>317</v>
+      </c>
+      <c r="P164" t="s">
         <v>318</v>
       </c>
-      <c r="O164" t="s">
+      <c r="Q164" t="s">
         <v>319</v>
       </c>
-      <c r="P164" t="s">
+      <c r="R164" t="s">
         <v>320</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>321</v>
-      </c>
-      <c r="R164" t="s">
-        <v>322</v>
       </c>
       <c r="S164">
         <v>6</v>
       </c>
       <c r="T164" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U164">
         <v>434716</v>
@@ -12690,7 +12691,7 @@
         <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>73</v>
@@ -12714,25 +12715,25 @@
         <v>1</v>
       </c>
       <c r="N165" t="s">
+        <v>306</v>
+      </c>
+      <c r="O165" t="s">
+        <v>307</v>
+      </c>
+      <c r="P165" t="s">
         <v>308</v>
       </c>
-      <c r="O165" t="s">
+      <c r="Q165" t="s">
         <v>309</v>
       </c>
-      <c r="P165" t="s">
+      <c r="R165" t="s">
         <v>310</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>311</v>
-      </c>
-      <c r="R165" t="s">
-        <v>312</v>
       </c>
       <c r="S165">
         <v>6</v>
       </c>
       <c r="T165" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U165">
         <v>434716</v>
@@ -12758,7 +12759,7 @@
         <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>73</v>
@@ -12782,25 +12783,25 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
+        <v>311</v>
+      </c>
+      <c r="O166" t="s">
+        <v>312</v>
+      </c>
+      <c r="P166" t="s">
         <v>313</v>
       </c>
-      <c r="O166" t="s">
+      <c r="Q166" t="s">
         <v>314</v>
       </c>
-      <c r="P166" t="s">
+      <c r="R166" t="s">
         <v>315</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>316</v>
-      </c>
-      <c r="R166" t="s">
-        <v>317</v>
       </c>
       <c r="S166">
         <v>6</v>
       </c>
       <c r="T166" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U166">
         <v>434716</v>
@@ -12826,7 +12827,7 @@
         <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>73</v>
@@ -12850,25 +12851,25 @@
         <v>1</v>
       </c>
       <c r="N167" t="s">
+        <v>316</v>
+      </c>
+      <c r="O167" t="s">
+        <v>317</v>
+      </c>
+      <c r="P167" t="s">
         <v>318</v>
       </c>
-      <c r="O167" t="s">
+      <c r="Q167" t="s">
         <v>319</v>
       </c>
-      <c r="P167" t="s">
+      <c r="R167" t="s">
         <v>320</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>321</v>
-      </c>
-      <c r="R167" t="s">
-        <v>322</v>
       </c>
       <c r="S167">
         <v>6</v>
       </c>
       <c r="T167" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U167">
         <v>434716</v>
@@ -12894,10 +12895,10 @@
         <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>129</v>
@@ -12918,25 +12919,25 @@
         <v>1</v>
       </c>
       <c r="N168" t="s">
+        <v>306</v>
+      </c>
+      <c r="O168" t="s">
+        <v>307</v>
+      </c>
+      <c r="P168" t="s">
         <v>308</v>
       </c>
-      <c r="O168" t="s">
+      <c r="Q168" t="s">
         <v>309</v>
       </c>
-      <c r="P168" t="s">
+      <c r="R168" t="s">
         <v>310</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>311</v>
-      </c>
-      <c r="R168" t="s">
-        <v>312</v>
       </c>
       <c r="S168">
         <v>6</v>
       </c>
       <c r="T168" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U168">
         <v>434716</v>
@@ -12962,10 +12963,10 @@
         <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>131</v>
@@ -12986,25 +12987,25 @@
         <v>1</v>
       </c>
       <c r="N169" t="s">
+        <v>311</v>
+      </c>
+      <c r="O169" t="s">
+        <v>312</v>
+      </c>
+      <c r="P169" t="s">
         <v>313</v>
       </c>
-      <c r="O169" t="s">
+      <c r="Q169" t="s">
         <v>314</v>
       </c>
-      <c r="P169" t="s">
+      <c r="R169" t="s">
         <v>315</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>316</v>
-      </c>
-      <c r="R169" t="s">
-        <v>317</v>
       </c>
       <c r="S169">
         <v>6</v>
       </c>
       <c r="T169" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U169">
         <v>434716</v>
@@ -13030,10 +13031,10 @@
         <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>133</v>
@@ -13054,25 +13055,25 @@
         <v>1</v>
       </c>
       <c r="N170" t="s">
+        <v>316</v>
+      </c>
+      <c r="O170" t="s">
+        <v>317</v>
+      </c>
+      <c r="P170" t="s">
         <v>318</v>
       </c>
-      <c r="O170" t="s">
+      <c r="Q170" t="s">
         <v>319</v>
       </c>
-      <c r="P170" t="s">
+      <c r="R170" t="s">
         <v>320</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>321</v>
-      </c>
-      <c r="R170" t="s">
-        <v>322</v>
       </c>
       <c r="S170">
         <v>6</v>
       </c>
       <c r="T170" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U170">
         <v>434716</v>
@@ -13092,22 +13093,22 @@
         <v>10056</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E171" t="s">
+        <v>53</v>
+      </c>
+      <c r="F171" t="s">
+        <v>241</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="E171" t="s">
-        <v>53</v>
-      </c>
-      <c r="F171" t="s">
-        <v>243</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J171" s="2">
         <v>286352</v>
@@ -13140,7 +13141,7 @@
         <v>7</v>
       </c>
       <c r="T171" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="U171">
         <v>434716</v>
@@ -13166,16 +13167,16 @@
         <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J172" s="2">
         <v>267079</v>
@@ -13208,7 +13209,7 @@
         <v>2</v>
       </c>
       <c r="T172" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="U172">
         <v>434716</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321CB0B-6F15-4092-AE7B-1146F9BA6036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862613F-6221-442F-AFA2-D79F2E96D647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="288">
   <si>
     <t>int</t>
   </si>
@@ -781,226 +781,124 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1023|1||1|160||2|24||3|12</t>
-  </si>
-  <si>
-    <t>1|30||2|5||3|12</t>
-  </si>
-  <si>
-    <t>1|80||2|16||3|12</t>
-  </si>
-  <si>
-    <t>1|40||2|8||3|10</t>
-  </si>
-  <si>
-    <t>1|10||2|3||3|5</t>
-  </si>
-  <si>
-    <t>1005|1||1|220||2|33||3|14</t>
-  </si>
-  <si>
-    <t>1|40||2|7||3|12</t>
-  </si>
-  <si>
-    <t>1|110||2|22||3|12</t>
-  </si>
-  <si>
-    <t>1|55||2|11||3|10</t>
-  </si>
-  <si>
-    <t>1|20||2|4||3|5</t>
-  </si>
-  <si>
-    <t>1017|1||1|260||2|39||3|16</t>
-  </si>
-  <si>
-    <t>1|50||2|8||3|12</t>
-  </si>
-  <si>
-    <t>1|130||2|26||3|12</t>
-  </si>
-  <si>
-    <t>1|65||2|13||3|10</t>
-  </si>
-  <si>
-    <t>1|200||2|30||3|18</t>
-  </si>
-  <si>
-    <t>1|40||2|6||3|14</t>
-  </si>
-  <si>
-    <t>1|100||2|20||3|12</t>
-  </si>
-  <si>
-    <t>1|50||2|10||3|12</t>
-  </si>
-  <si>
-    <t>1|20||2|3||3|5</t>
-  </si>
-  <si>
-    <t>1|280||2|42||3|27</t>
-  </si>
-  <si>
-    <t>1|60||2|8||3|22</t>
-  </si>
-  <si>
-    <t>1|140||2|28||3|14</t>
-  </si>
-  <si>
-    <t>1|70||2|14||3|12</t>
-  </si>
-  <si>
-    <t>1|20||2|5||3|5</t>
-  </si>
-  <si>
-    <t>1|320||2|48||3|36</t>
-  </si>
-  <si>
-    <t>1|60||2|10||3|29</t>
-  </si>
-  <si>
-    <t>1|160||2|32||3|18</t>
-  </si>
-  <si>
-    <t>1|30||2|5||3|6</t>
-  </si>
-  <si>
-    <t>1|220||2|33||3|21</t>
-  </si>
-  <si>
-    <t>1|40||2|7||3|17</t>
-  </si>
-  <si>
-    <t>1|55||2|11||3|12</t>
-  </si>
-  <si>
-    <t>1|20||2|4||3|7</t>
-  </si>
-  <si>
-    <t>1|690||2|138||3|30</t>
-  </si>
-  <si>
-    <t>1|140||2|28||3|24</t>
-  </si>
-  <si>
-    <t>1|460||2|92||3|15</t>
-  </si>
-  <si>
-    <t>1|230||2|46||3|14</t>
-  </si>
-  <si>
-    <t>1|80||2|15||3|8</t>
-  </si>
-  <si>
-    <t>1|795||2|159||3|39</t>
-  </si>
-  <si>
-    <t>1|160||2|32||3|31</t>
-  </si>
-  <si>
-    <t>1|530||2|106||3|20</t>
-  </si>
-  <si>
-    <t>1|265||2|53||3|16</t>
-  </si>
-  <si>
-    <t>1|90||2|18||3|9</t>
-  </si>
-  <si>
-    <t>1|645||2|129||3|21</t>
-  </si>
-  <si>
-    <t>1|130||2|26||3|17</t>
-  </si>
-  <si>
-    <t>1|430||2|86||3|12</t>
-  </si>
-  <si>
-    <t>1|215||2|43||3|12</t>
-  </si>
-  <si>
-    <t>1|70||2|14||3|7</t>
-  </si>
-  <si>
-    <t>1|900||2|180||3|30</t>
-  </si>
-  <si>
-    <t>1|180||2|36||3|24</t>
-  </si>
-  <si>
-    <t>1|600||2|120||3|15</t>
-  </si>
-  <si>
-    <t>1|300||2|60||3|14</t>
-  </si>
-  <si>
-    <t>1|100||2|20||3|8</t>
-  </si>
-  <si>
-    <t>1|1035||2|207||3|39</t>
-  </si>
-  <si>
-    <t>1|210||2|41||3|31</t>
-  </si>
-  <si>
-    <t>1|690||2|138||3|20</t>
-  </si>
-  <si>
-    <t>1|345||2|69||3|16</t>
-  </si>
-  <si>
-    <t>1|120||2|23||3|9</t>
-  </si>
-  <si>
-    <t>1|810||2|162||3|21</t>
-  </si>
-  <si>
-    <t>1|160||2|32||3|17</t>
-  </si>
-  <si>
-    <t>1|540||2|108||3|12</t>
-  </si>
-  <si>
-    <t>1|270||2|54||3|12</t>
-  </si>
-  <si>
-    <t>1|90||2|18||3|7</t>
-  </si>
-  <si>
-    <t>1|1125||2|225||3|30</t>
-  </si>
-  <si>
-    <t>1|230||2|45||3|24</t>
-  </si>
-  <si>
-    <t>1|750||2|150||3|15</t>
-  </si>
-  <si>
-    <t>1|375||2|75||3|14</t>
-  </si>
-  <si>
-    <t>1|130||2|25||3|8</t>
-  </si>
-  <si>
-    <t>1|1290||2|258||3|39</t>
-  </si>
-  <si>
-    <t>1|260||2|52||3|31</t>
-  </si>
-  <si>
-    <t>1|860||2|172||3|20</t>
-  </si>
-  <si>
-    <t>1|430||2|86||3|16</t>
-  </si>
-  <si>
-    <t>1|140||2|29||3|9</t>
-  </si>
-  <si>
     <t>-0.20|0.5|-86.40</t>
   </si>
   <si>
     <t>-0.56|-0.35|157.70</t>
+  </si>
+  <si>
+    <t>1023|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017|1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|20||2|7||3|5</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|6</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|7</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|8</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|9</t>
+  </si>
+  <si>
+    <t>1|50||2|20||3|12</t>
+  </si>
+  <si>
+    <t>1|60||2|30||3|12</t>
+  </si>
+  <si>
+    <t>1|70||2|40||3|12</t>
+  </si>
+  <si>
+    <t>1|30||2|10||3|10</t>
+  </si>
+  <si>
+    <t>1|35||2|15||3|10</t>
+  </si>
+  <si>
+    <t>1|40||2|20||3|10</t>
+  </si>
+  <si>
+    <t>1|70||2|40||3|14</t>
+  </si>
+  <si>
+    <t>1|40||2|20||3|12</t>
+  </si>
+  <si>
+    <t>1|100||2|50||3|22</t>
+  </si>
+  <si>
+    <t>1|60||2|25||3|12</t>
+  </si>
+  <si>
+    <t>1|150||2|70||3|29</t>
+  </si>
+  <si>
+    <t>1|80||2|35||3|12</t>
+  </si>
+  <si>
+    <t>1|140||2|65||3|17</t>
+  </si>
+  <si>
+    <t>1|70||2|30||3|12</t>
+  </si>
+  <si>
+    <t>1|170||2|70||3|24</t>
+  </si>
+  <si>
+    <t>1|80||2|35||3|14</t>
+  </si>
+  <si>
+    <t>1|200||2|80||3|31</t>
+  </si>
+  <si>
+    <t>1|90||2|40||3|16</t>
+  </si>
+  <si>
+    <t>1|180||2|70||3|17</t>
+  </si>
+  <si>
+    <t>1|220||2|90||3|24</t>
+  </si>
+  <si>
+    <t>1|100||2|45||3|14</t>
+  </si>
+  <si>
+    <t>1|240||2|100||3|31</t>
+  </si>
+  <si>
+    <t>1|110||2|50||3|16</t>
+  </si>
+  <si>
+    <t>1|220||2|90||3|17</t>
+  </si>
+  <si>
+    <t>1|100||2|45||3|12</t>
+  </si>
+  <si>
+    <t>1|300||2|120||3|24</t>
+  </si>
+  <si>
+    <t>1|140||2|60||3|14</t>
+  </si>
+  <si>
+    <t>1|400||2|160||3|31</t>
+  </si>
+  <si>
+    <t>1|180||2|80||3|16</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1092,11 +990,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1119,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1598,9 +1514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD100" sqref="AD100"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P160" sqref="P160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2817,7 +2733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -2882,7 +2798,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>1004</v>
       </c>
@@ -2923,19 +2839,17 @@
         <v>1</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="O21" t="s">
-        <v>250</v>
-      </c>
-      <c r="P21" t="s">
         <v>251</v>
       </c>
-      <c r="Q21" t="s">
-        <v>252</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>253</v>
+      <c r="O21" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S21">
         <v>2</v>
@@ -2950,7 +2864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>1005</v>
       </c>
@@ -2990,20 +2904,18 @@
       <c r="M22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O22" t="s">
-        <v>255</v>
-      </c>
-      <c r="P22" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>257</v>
-      </c>
-      <c r="R22" t="s">
-        <v>258</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -3018,7 +2930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>1006</v>
       </c>
@@ -3058,20 +2970,18 @@
       <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" t="s">
-        <v>259</v>
-      </c>
-      <c r="O23" t="s">
-        <v>260</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="N23" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q23" t="s">
-        <v>262</v>
-      </c>
-      <c r="R23" t="s">
-        <v>258</v>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3086,7 +2996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>1007</v>
       </c>
@@ -3126,20 +3036,18 @@
       <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" t="s">
-        <v>250</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="N24" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q24" t="s">
-        <v>252</v>
-      </c>
-      <c r="R24" t="s">
-        <v>253</v>
+      <c r="O24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3154,7 +3062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>1008</v>
       </c>
@@ -3194,20 +3102,18 @@
       <c r="M25" s="2">
         <v>1</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O25" t="s">
-        <v>255</v>
-      </c>
-      <c r="P25" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>257</v>
-      </c>
-      <c r="R25" t="s">
-        <v>258</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3222,7 +3128,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>1009</v>
       </c>
@@ -3262,20 +3168,18 @@
       <c r="M26" s="2">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>259</v>
-      </c>
-      <c r="O26" t="s">
-        <v>260</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="N26" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q26" t="s">
-        <v>262</v>
-      </c>
-      <c r="R26" t="s">
-        <v>258</v>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S26">
         <v>2</v>
@@ -3290,7 +3194,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>1010</v>
       </c>
@@ -3330,20 +3234,18 @@
       <c r="M27" s="2">
         <v>1</v>
       </c>
-      <c r="N27" t="s">
-        <v>249</v>
-      </c>
-      <c r="O27" t="s">
-        <v>250</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="N27" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q27" t="s">
-        <v>252</v>
-      </c>
-      <c r="R27" t="s">
-        <v>253</v>
+      <c r="O27" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -3358,7 +3260,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>1011</v>
       </c>
@@ -3398,20 +3300,18 @@
       <c r="M28" s="2">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O28" t="s">
-        <v>255</v>
-      </c>
-      <c r="P28" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>257</v>
-      </c>
-      <c r="R28" t="s">
-        <v>258</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -3426,7 +3326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>1012</v>
       </c>
@@ -3466,20 +3366,18 @@
       <c r="M29" s="2">
         <v>1</v>
       </c>
-      <c r="N29" t="s">
-        <v>259</v>
-      </c>
-      <c r="O29" t="s">
-        <v>260</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="N29" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q29" t="s">
-        <v>262</v>
-      </c>
-      <c r="R29" t="s">
-        <v>258</v>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -3494,7 +3392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>1013</v>
       </c>
@@ -3534,20 +3432,18 @@
       <c r="M30" s="2">
         <v>1</v>
       </c>
-      <c r="N30" t="s">
-        <v>249</v>
-      </c>
-      <c r="O30" t="s">
-        <v>250</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="N30" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q30" t="s">
-        <v>252</v>
-      </c>
-      <c r="R30" t="s">
-        <v>253</v>
+      <c r="O30" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -3562,7 +3458,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>1014</v>
       </c>
@@ -3602,20 +3498,18 @@
       <c r="M31" s="2">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R31" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O31" t="s">
-        <v>255</v>
-      </c>
-      <c r="P31" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>257</v>
-      </c>
-      <c r="R31" t="s">
-        <v>258</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -3630,7 +3524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>1015</v>
       </c>
@@ -3670,20 +3564,18 @@
       <c r="M32" s="2">
         <v>1</v>
       </c>
-      <c r="N32" t="s">
-        <v>259</v>
-      </c>
-      <c r="O32" t="s">
-        <v>260</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="N32" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q32" t="s">
-        <v>262</v>
-      </c>
-      <c r="R32" t="s">
-        <v>258</v>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3698,7 +3590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>1016</v>
       </c>
@@ -3738,20 +3630,18 @@
       <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>249</v>
-      </c>
-      <c r="O33" t="s">
-        <v>250</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="N33" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q33" t="s">
-        <v>252</v>
-      </c>
-      <c r="R33" t="s">
-        <v>253</v>
+      <c r="O33" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3766,7 +3656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>1017</v>
       </c>
@@ -3806,20 +3696,18 @@
       <c r="M34" s="2">
         <v>1</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O34" t="s">
-        <v>255</v>
-      </c>
-      <c r="P34" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>257</v>
-      </c>
-      <c r="R34" t="s">
-        <v>258</v>
       </c>
       <c r="S34">
         <v>2</v>
@@ -3834,7 +3722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>1018</v>
       </c>
@@ -3874,20 +3762,18 @@
       <c r="M35" s="2">
         <v>1</v>
       </c>
-      <c r="N35" t="s">
-        <v>259</v>
-      </c>
-      <c r="O35" t="s">
-        <v>260</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="N35" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q35" t="s">
-        <v>262</v>
-      </c>
-      <c r="R35" t="s">
-        <v>258</v>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S35">
         <v>2</v>
@@ -3902,7 +3788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>1019</v>
       </c>
@@ -3942,20 +3828,18 @@
       <c r="M36" s="2">
         <v>1</v>
       </c>
-      <c r="N36" t="s">
-        <v>249</v>
-      </c>
-      <c r="O36" t="s">
-        <v>250</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="N36" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q36" t="s">
-        <v>252</v>
-      </c>
-      <c r="R36" t="s">
-        <v>253</v>
+      <c r="O36" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -3970,7 +3854,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>1020</v>
       </c>
@@ -4010,20 +3894,18 @@
       <c r="M37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R37" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O37" t="s">
-        <v>255</v>
-      </c>
-      <c r="P37" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>257</v>
-      </c>
-      <c r="R37" t="s">
-        <v>258</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -4038,7 +3920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>1021</v>
       </c>
@@ -4078,20 +3960,18 @@
       <c r="M38" s="2">
         <v>1</v>
       </c>
-      <c r="N38" t="s">
-        <v>259</v>
-      </c>
-      <c r="O38" t="s">
-        <v>260</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="N38" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O38" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q38" t="s">
-        <v>262</v>
-      </c>
-      <c r="R38" t="s">
-        <v>258</v>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4106,7 +3986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>1022</v>
       </c>
@@ -4146,20 +4026,18 @@
       <c r="M39" s="2">
         <v>1</v>
       </c>
-      <c r="N39" t="s">
-        <v>249</v>
-      </c>
-      <c r="O39" t="s">
-        <v>250</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="N39" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q39" t="s">
-        <v>252</v>
-      </c>
-      <c r="R39" t="s">
-        <v>253</v>
+      <c r="O39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -4174,7 +4052,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>1023</v>
       </c>
@@ -4214,20 +4092,18 @@
       <c r="M40" s="2">
         <v>1</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R40" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O40" t="s">
-        <v>255</v>
-      </c>
-      <c r="P40" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>257</v>
-      </c>
-      <c r="R40" t="s">
-        <v>258</v>
       </c>
       <c r="S40">
         <v>2</v>
@@ -4242,7 +4118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>1024</v>
       </c>
@@ -4282,20 +4158,18 @@
       <c r="M41" s="2">
         <v>1</v>
       </c>
-      <c r="N41" t="s">
-        <v>259</v>
-      </c>
-      <c r="O41" t="s">
-        <v>260</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="N41" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q41" t="s">
-        <v>262</v>
-      </c>
-      <c r="R41" t="s">
-        <v>258</v>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S41">
         <v>2</v>
@@ -4310,7 +4184,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>1025</v>
       </c>
@@ -4350,20 +4224,18 @@
       <c r="M42" s="2">
         <v>1</v>
       </c>
-      <c r="N42" t="s">
-        <v>249</v>
-      </c>
-      <c r="O42" t="s">
-        <v>250</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="N42" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q42" t="s">
-        <v>252</v>
-      </c>
-      <c r="R42" t="s">
-        <v>253</v>
+      <c r="O42" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S42">
         <v>2</v>
@@ -4378,7 +4250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>1026</v>
       </c>
@@ -4418,20 +4290,18 @@
       <c r="M43" s="2">
         <v>1</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R43" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O43" t="s">
-        <v>255</v>
-      </c>
-      <c r="P43" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>257</v>
-      </c>
-      <c r="R43" t="s">
-        <v>258</v>
       </c>
       <c r="S43">
         <v>2</v>
@@ -4446,7 +4316,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>1027</v>
       </c>
@@ -4486,20 +4356,18 @@
       <c r="M44" s="2">
         <v>1</v>
       </c>
-      <c r="N44" t="s">
-        <v>259</v>
-      </c>
-      <c r="O44" t="s">
-        <v>260</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="N44" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q44" t="s">
-        <v>262</v>
-      </c>
-      <c r="R44" t="s">
-        <v>258</v>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S44">
         <v>2</v>
@@ -4514,7 +4382,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>1028</v>
       </c>
@@ -4554,20 +4422,18 @@
       <c r="M45" s="2">
         <v>1</v>
       </c>
-      <c r="N45" t="s">
-        <v>249</v>
-      </c>
-      <c r="O45" t="s">
-        <v>250</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="N45" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q45" t="s">
-        <v>252</v>
-      </c>
-      <c r="R45" t="s">
-        <v>253</v>
+      <c r="O45" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S45">
         <v>2</v>
@@ -4582,7 +4448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>1029</v>
       </c>
@@ -4622,20 +4488,18 @@
       <c r="M46" s="2">
         <v>1</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R46" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O46" t="s">
-        <v>255</v>
-      </c>
-      <c r="P46" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>257</v>
-      </c>
-      <c r="R46" t="s">
-        <v>258</v>
       </c>
       <c r="S46">
         <v>2</v>
@@ -4650,7 +4514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>1030</v>
       </c>
@@ -4690,20 +4554,18 @@
       <c r="M47" s="2">
         <v>1</v>
       </c>
-      <c r="N47" t="s">
-        <v>259</v>
-      </c>
-      <c r="O47" t="s">
-        <v>260</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="N47" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O47" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q47" t="s">
-        <v>262</v>
-      </c>
-      <c r="R47" t="s">
-        <v>258</v>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -4718,7 +4580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>1031</v>
       </c>
@@ -4758,20 +4620,18 @@
       <c r="M48" s="2">
         <v>1</v>
       </c>
-      <c r="N48" t="s">
-        <v>249</v>
-      </c>
-      <c r="O48" t="s">
-        <v>250</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="N48" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="Q48" t="s">
-        <v>252</v>
-      </c>
-      <c r="R48" t="s">
-        <v>253</v>
+      <c r="O48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S48">
         <v>2</v>
@@ -4786,7 +4646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>1032</v>
       </c>
@@ -4826,20 +4686,18 @@
       <c r="M49" s="2">
         <v>1</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R49" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="O49" t="s">
-        <v>255</v>
-      </c>
-      <c r="P49" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>257</v>
-      </c>
-      <c r="R49" t="s">
-        <v>258</v>
       </c>
       <c r="S49">
         <v>2</v>
@@ -4854,7 +4712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>1033</v>
       </c>
@@ -4894,20 +4752,18 @@
       <c r="M50" s="2">
         <v>1</v>
       </c>
-      <c r="N50" t="s">
-        <v>259</v>
-      </c>
-      <c r="O50" t="s">
-        <v>260</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="N50" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="Q50" t="s">
-        <v>262</v>
-      </c>
-      <c r="R50" t="s">
-        <v>258</v>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S50">
         <v>2</v>
@@ -4922,7 +4778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>2004</v>
       </c>
@@ -4962,20 +4818,16 @@
       <c r="M51" s="2">
         <v>1</v>
       </c>
-      <c r="N51" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="P51" s="8" t="s">
+      <c r="N51" s="8"/>
+      <c r="O51" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="P51" s="8"/>
+      <c r="Q51" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R51" t="s">
-        <v>267</v>
+      <c r="R51" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S51">
         <v>3</v>
@@ -4990,7 +4842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>2005</v>
       </c>
@@ -5030,20 +4882,16 @@
       <c r="M52" s="2">
         <v>1</v>
       </c>
-      <c r="N52" s="8" t="s">
+      <c r="N52" s="8"/>
+      <c r="O52" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O52" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="R52" t="s">
-        <v>272</v>
+      <c r="R52" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S52">
         <v>3</v>
@@ -5058,7 +4906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>2006</v>
       </c>
@@ -5098,20 +4946,16 @@
       <c r="M53" s="2">
         <v>1</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>251</v>
-      </c>
-      <c r="R53" t="s">
-        <v>276</v>
+      <c r="N53" s="8"/>
+      <c r="O53" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S53">
         <v>3</v>
@@ -5126,7 +4970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>2007</v>
       </c>
@@ -5166,20 +5010,16 @@
       <c r="M54" s="2">
         <v>1</v>
       </c>
-      <c r="N54" t="s">
-        <v>263</v>
-      </c>
-      <c r="O54" t="s">
-        <v>264</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="N54" s="8"/>
+      <c r="O54" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="P54" s="8"/>
+      <c r="Q54" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R54" t="s">
-        <v>267</v>
+      <c r="R54" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S54">
         <v>3</v>
@@ -5194,7 +5034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>2008</v>
       </c>
@@ -5234,20 +5074,16 @@
       <c r="M55" s="2">
         <v>1</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="8"/>
+      <c r="O55" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O55" t="s">
-        <v>269</v>
-      </c>
-      <c r="P55" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>271</v>
-      </c>
-      <c r="R55" t="s">
-        <v>272</v>
+      <c r="R55" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S55">
         <v>3</v>
@@ -5262,7 +5098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>2009</v>
       </c>
@@ -5302,20 +5138,16 @@
       <c r="M56" s="2">
         <v>1</v>
       </c>
-      <c r="N56" t="s">
-        <v>273</v>
-      </c>
-      <c r="O56" t="s">
-        <v>274</v>
-      </c>
-      <c r="P56" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>251</v>
-      </c>
-      <c r="R56" t="s">
-        <v>276</v>
+      <c r="N56" s="8"/>
+      <c r="O56" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -5330,7 +5162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>2010</v>
       </c>
@@ -5370,20 +5202,16 @@
       <c r="M57" s="2">
         <v>1</v>
       </c>
-      <c r="N57" t="s">
-        <v>263</v>
-      </c>
-      <c r="O57" t="s">
-        <v>264</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="N57" s="8"/>
+      <c r="O57" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="P57" s="8"/>
+      <c r="Q57" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R57" t="s">
-        <v>267</v>
+      <c r="R57" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S57">
         <v>3</v>
@@ -5398,7 +5226,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>2011</v>
       </c>
@@ -5438,20 +5266,16 @@
       <c r="M58" s="2">
         <v>1</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="8"/>
+      <c r="O58" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O58" t="s">
-        <v>269</v>
-      </c>
-      <c r="P58" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>271</v>
-      </c>
-      <c r="R58" t="s">
-        <v>272</v>
+      <c r="R58" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S58">
         <v>3</v>
@@ -5466,7 +5290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>2012</v>
       </c>
@@ -5506,20 +5330,16 @@
       <c r="M59" s="2">
         <v>1</v>
       </c>
-      <c r="N59" t="s">
-        <v>273</v>
-      </c>
-      <c r="O59" t="s">
-        <v>274</v>
-      </c>
-      <c r="P59" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>251</v>
-      </c>
-      <c r="R59" t="s">
-        <v>276</v>
+      <c r="N59" s="8"/>
+      <c r="O59" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S59">
         <v>3</v>
@@ -5534,7 +5354,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>2013</v>
       </c>
@@ -5574,20 +5394,16 @@
       <c r="M60" s="2">
         <v>1</v>
       </c>
-      <c r="N60" t="s">
-        <v>263</v>
-      </c>
-      <c r="O60" t="s">
-        <v>264</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="N60" s="8"/>
+      <c r="O60" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="P60" s="8"/>
+      <c r="Q60" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R60" t="s">
-        <v>267</v>
+      <c r="R60" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S60">
         <v>3</v>
@@ -5602,7 +5418,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>2014</v>
       </c>
@@ -5642,20 +5458,16 @@
       <c r="M61" s="2">
         <v>1</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="8"/>
+      <c r="O61" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O61" t="s">
-        <v>269</v>
-      </c>
-      <c r="P61" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>271</v>
-      </c>
-      <c r="R61" t="s">
-        <v>272</v>
+      <c r="R61" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S61">
         <v>3</v>
@@ -5670,7 +5482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>2015</v>
       </c>
@@ -5710,20 +5522,16 @@
       <c r="M62" s="2">
         <v>1</v>
       </c>
-      <c r="N62" t="s">
-        <v>273</v>
-      </c>
-      <c r="O62" t="s">
-        <v>274</v>
-      </c>
-      <c r="P62" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>251</v>
-      </c>
-      <c r="R62" t="s">
-        <v>276</v>
+      <c r="N62" s="8"/>
+      <c r="O62" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S62">
         <v>3</v>
@@ -5738,7 +5546,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>2016</v>
       </c>
@@ -5778,20 +5586,16 @@
       <c r="M63" s="2">
         <v>1</v>
       </c>
-      <c r="N63" t="s">
-        <v>263</v>
-      </c>
-      <c r="O63" t="s">
-        <v>264</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="N63" s="8"/>
+      <c r="O63" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="P63" s="8"/>
+      <c r="Q63" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R63" t="s">
-        <v>267</v>
+      <c r="R63" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S63">
         <v>3</v>
@@ -5806,7 +5610,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>2017</v>
       </c>
@@ -5846,20 +5650,16 @@
       <c r="M64" s="2">
         <v>1</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="8"/>
+      <c r="O64" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O64" t="s">
-        <v>269</v>
-      </c>
-      <c r="P64" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>271</v>
-      </c>
-      <c r="R64" t="s">
-        <v>272</v>
+      <c r="R64" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S64">
         <v>3</v>
@@ -5874,7 +5674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>2018</v>
       </c>
@@ -5914,20 +5714,16 @@
       <c r="M65" s="2">
         <v>1</v>
       </c>
-      <c r="N65" t="s">
-        <v>273</v>
-      </c>
-      <c r="O65" t="s">
-        <v>274</v>
-      </c>
-      <c r="P65" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>251</v>
-      </c>
-      <c r="R65" t="s">
-        <v>276</v>
+      <c r="N65" s="8"/>
+      <c r="O65" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -5942,7 +5738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>2019</v>
       </c>
@@ -5982,20 +5778,16 @@
       <c r="M66" s="2">
         <v>1</v>
       </c>
-      <c r="N66" t="s">
-        <v>263</v>
-      </c>
-      <c r="O66" t="s">
-        <v>264</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="N66" s="8"/>
+      <c r="O66" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="P66" s="8"/>
+      <c r="Q66" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R66" t="s">
-        <v>267</v>
+      <c r="R66" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S66">
         <v>3</v>
@@ -6010,7 +5802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>2020</v>
       </c>
@@ -6050,20 +5842,16 @@
       <c r="M67" s="2">
         <v>1</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="8"/>
+      <c r="O67" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O67" t="s">
-        <v>269</v>
-      </c>
-      <c r="P67" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>271</v>
-      </c>
-      <c r="R67" t="s">
-        <v>272</v>
+      <c r="R67" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S67">
         <v>3</v>
@@ -6078,7 +5866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>2021</v>
       </c>
@@ -6118,20 +5906,16 @@
       <c r="M68" s="2">
         <v>1</v>
       </c>
-      <c r="N68" t="s">
-        <v>273</v>
-      </c>
-      <c r="O68" t="s">
-        <v>274</v>
-      </c>
-      <c r="P68" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>251</v>
-      </c>
-      <c r="R68" t="s">
-        <v>276</v>
+      <c r="N68" s="8"/>
+      <c r="O68" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R68" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -6146,7 +5930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>2022</v>
       </c>
@@ -6186,20 +5970,16 @@
       <c r="M69" s="2">
         <v>1</v>
       </c>
-      <c r="N69" t="s">
-        <v>263</v>
-      </c>
-      <c r="O69" t="s">
-        <v>264</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="N69" s="8"/>
+      <c r="O69" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="P69" s="8"/>
+      <c r="Q69" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R69" t="s">
-        <v>267</v>
+      <c r="R69" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -6214,7 +5994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>2023</v>
       </c>
@@ -6254,20 +6034,16 @@
       <c r="M70" s="2">
         <v>1</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="8"/>
+      <c r="O70" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O70" t="s">
-        <v>269</v>
-      </c>
-      <c r="P70" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>271</v>
-      </c>
-      <c r="R70" t="s">
-        <v>272</v>
+      <c r="R70" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S70">
         <v>3</v>
@@ -6282,7 +6058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>2024</v>
       </c>
@@ -6322,20 +6098,16 @@
       <c r="M71" s="2">
         <v>1</v>
       </c>
-      <c r="N71" t="s">
-        <v>273</v>
-      </c>
-      <c r="O71" t="s">
-        <v>274</v>
-      </c>
-      <c r="P71" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>251</v>
-      </c>
-      <c r="R71" t="s">
-        <v>276</v>
+      <c r="N71" s="8"/>
+      <c r="O71" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R71" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S71">
         <v>3</v>
@@ -6350,7 +6122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>2025</v>
       </c>
@@ -6390,20 +6162,16 @@
       <c r="M72" s="2">
         <v>1</v>
       </c>
-      <c r="N72" t="s">
-        <v>263</v>
-      </c>
-      <c r="O72" t="s">
-        <v>264</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="N72" s="8"/>
+      <c r="O72" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="P72" s="8"/>
+      <c r="Q72" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R72" t="s">
-        <v>267</v>
+      <c r="R72" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S72">
         <v>3</v>
@@ -6418,7 +6186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>2026</v>
       </c>
@@ -6458,20 +6226,16 @@
       <c r="M73" s="2">
         <v>1</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="8"/>
+      <c r="O73" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O73" t="s">
-        <v>269</v>
-      </c>
-      <c r="P73" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>271</v>
-      </c>
-      <c r="R73" t="s">
-        <v>272</v>
+      <c r="R73" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S73">
         <v>3</v>
@@ -6486,7 +6250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>2027</v>
       </c>
@@ -6526,20 +6290,16 @@
       <c r="M74" s="2">
         <v>1</v>
       </c>
-      <c r="N74" t="s">
-        <v>273</v>
-      </c>
-      <c r="O74" t="s">
-        <v>274</v>
-      </c>
-      <c r="P74" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>251</v>
-      </c>
-      <c r="R74" t="s">
-        <v>276</v>
+      <c r="N74" s="8"/>
+      <c r="O74" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R74" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S74">
         <v>3</v>
@@ -6554,7 +6314,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>2028</v>
       </c>
@@ -6594,20 +6354,16 @@
       <c r="M75" s="2">
         <v>1</v>
       </c>
-      <c r="N75" t="s">
-        <v>263</v>
-      </c>
-      <c r="O75" t="s">
-        <v>264</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="N75" s="8"/>
+      <c r="O75" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="P75" s="8"/>
+      <c r="Q75" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R75" t="s">
-        <v>267</v>
+      <c r="R75" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S75">
         <v>3</v>
@@ -6622,7 +6378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>2029</v>
       </c>
@@ -6662,20 +6418,16 @@
       <c r="M76" s="2">
         <v>1</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="8"/>
+      <c r="O76" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O76" t="s">
-        <v>269</v>
-      </c>
-      <c r="P76" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>271</v>
-      </c>
-      <c r="R76" t="s">
-        <v>272</v>
+      <c r="R76" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S76">
         <v>3</v>
@@ -6690,7 +6442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>2030</v>
       </c>
@@ -6730,20 +6482,16 @@
       <c r="M77" s="2">
         <v>1</v>
       </c>
-      <c r="N77" t="s">
-        <v>273</v>
-      </c>
-      <c r="O77" t="s">
-        <v>274</v>
-      </c>
-      <c r="P77" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>251</v>
-      </c>
-      <c r="R77" t="s">
-        <v>276</v>
+      <c r="N77" s="8"/>
+      <c r="O77" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R77" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S77">
         <v>3</v>
@@ -6758,7 +6506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>2031</v>
       </c>
@@ -6798,20 +6546,16 @@
       <c r="M78" s="2">
         <v>1</v>
       </c>
-      <c r="N78" t="s">
-        <v>263</v>
-      </c>
-      <c r="O78" t="s">
-        <v>264</v>
-      </c>
-      <c r="P78" t="s">
+      <c r="N78" s="8"/>
+      <c r="O78" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="P78" s="8"/>
+      <c r="Q78" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="R78" t="s">
-        <v>267</v>
+      <c r="R78" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S78">
         <v>3</v>
@@ -6826,7 +6570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>2032</v>
       </c>
@@ -6866,20 +6610,16 @@
       <c r="M79" s="2">
         <v>1</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="8"/>
+      <c r="O79" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O79" t="s">
-        <v>269</v>
-      </c>
-      <c r="P79" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>271</v>
-      </c>
-      <c r="R79" t="s">
-        <v>272</v>
+      <c r="R79" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="S79">
         <v>3</v>
@@ -6894,7 +6634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>2033</v>
       </c>
@@ -6934,20 +6674,16 @@
       <c r="M80" s="2">
         <v>1</v>
       </c>
-      <c r="N80" t="s">
-        <v>273</v>
-      </c>
-      <c r="O80" t="s">
-        <v>274</v>
-      </c>
-      <c r="P80" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>251</v>
-      </c>
-      <c r="R80" t="s">
-        <v>276</v>
+      <c r="N80" s="8"/>
+      <c r="O80" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="S80">
         <v>3</v>
@@ -6962,7 +6698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>3004</v>
       </c>
@@ -6982,7 +6718,7 @@
         <v>180</v>
       </c>
       <c r="G81" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>102</v>
@@ -7002,20 +6738,16 @@
       <c r="M81" s="2">
         <v>1</v>
       </c>
-      <c r="N81" t="s">
-        <v>277</v>
-      </c>
-      <c r="O81" t="s">
-        <v>278</v>
-      </c>
-      <c r="P81" t="s">
+      <c r="N81" s="8"/>
+      <c r="O81" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R81" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>279</v>
-      </c>
-      <c r="R81" t="s">
-        <v>280</v>
       </c>
       <c r="S81">
         <v>4</v>
@@ -7030,7 +6762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>3005</v>
       </c>
@@ -7050,7 +6782,7 @@
         <v>180</v>
       </c>
       <c r="G82" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>107</v>
@@ -7070,20 +6802,16 @@
       <c r="M82" s="2">
         <v>1</v>
       </c>
-      <c r="N82" t="s">
-        <v>281</v>
-      </c>
-      <c r="O82" t="s">
-        <v>282</v>
-      </c>
-      <c r="P82" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>284</v>
-      </c>
-      <c r="R82" t="s">
-        <v>285</v>
+      <c r="N82" s="8"/>
+      <c r="O82" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R82" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S82">
         <v>4</v>
@@ -7098,7 +6826,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>3006</v>
       </c>
@@ -7118,7 +6846,7 @@
         <v>180</v>
       </c>
       <c r="G83" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>112</v>
@@ -7138,20 +6866,16 @@
       <c r="M83" s="2">
         <v>1</v>
       </c>
-      <c r="N83" t="s">
-        <v>286</v>
-      </c>
-      <c r="O83" t="s">
-        <v>287</v>
-      </c>
-      <c r="P83" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>289</v>
-      </c>
-      <c r="R83" t="s">
-        <v>290</v>
+      <c r="N83" s="8"/>
+      <c r="O83" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R83" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S83">
         <v>4</v>
@@ -7166,7 +6890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>3007</v>
       </c>
@@ -7206,20 +6930,16 @@
       <c r="M84" s="2">
         <v>1</v>
       </c>
-      <c r="N84" t="s">
-        <v>277</v>
-      </c>
-      <c r="O84" t="s">
-        <v>278</v>
-      </c>
-      <c r="P84" t="s">
+      <c r="N84" s="8"/>
+      <c r="O84" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R84" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>279</v>
-      </c>
-      <c r="R84" t="s">
-        <v>280</v>
       </c>
       <c r="S84">
         <v>4</v>
@@ -7234,7 +6954,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>3008</v>
       </c>
@@ -7274,20 +6994,16 @@
       <c r="M85" s="2">
         <v>1</v>
       </c>
-      <c r="N85" t="s">
-        <v>281</v>
-      </c>
-      <c r="O85" t="s">
-        <v>282</v>
-      </c>
-      <c r="P85" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>284</v>
-      </c>
-      <c r="R85" t="s">
-        <v>285</v>
+      <c r="N85" s="8"/>
+      <c r="O85" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R85" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S85">
         <v>4</v>
@@ -7302,7 +7018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>3009</v>
       </c>
@@ -7342,20 +7058,16 @@
       <c r="M86" s="2">
         <v>1</v>
       </c>
-      <c r="N86" t="s">
-        <v>286</v>
-      </c>
-      <c r="O86" t="s">
-        <v>287</v>
-      </c>
-      <c r="P86" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>289</v>
-      </c>
-      <c r="R86" t="s">
-        <v>290</v>
+      <c r="N86" s="8"/>
+      <c r="O86" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R86" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S86">
         <v>4</v>
@@ -7370,7 +7082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>3010</v>
       </c>
@@ -7410,20 +7122,16 @@
       <c r="M87" s="2">
         <v>1</v>
       </c>
-      <c r="N87" t="s">
-        <v>277</v>
-      </c>
-      <c r="O87" t="s">
-        <v>278</v>
-      </c>
-      <c r="P87" t="s">
+      <c r="N87" s="8"/>
+      <c r="O87" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R87" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>279</v>
-      </c>
-      <c r="R87" t="s">
-        <v>280</v>
       </c>
       <c r="S87">
         <v>4</v>
@@ -7438,7 +7146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>3011</v>
       </c>
@@ -7478,20 +7186,16 @@
       <c r="M88" s="2">
         <v>1</v>
       </c>
-      <c r="N88" t="s">
-        <v>281</v>
-      </c>
-      <c r="O88" t="s">
-        <v>282</v>
-      </c>
-      <c r="P88" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>284</v>
-      </c>
-      <c r="R88" t="s">
-        <v>285</v>
+      <c r="N88" s="8"/>
+      <c r="O88" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R88" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S88">
         <v>4</v>
@@ -7506,7 +7210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>3012</v>
       </c>
@@ -7546,20 +7250,16 @@
       <c r="M89" s="2">
         <v>1</v>
       </c>
-      <c r="N89" t="s">
-        <v>286</v>
-      </c>
-      <c r="O89" t="s">
-        <v>287</v>
-      </c>
-      <c r="P89" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>289</v>
-      </c>
-      <c r="R89" t="s">
-        <v>290</v>
+      <c r="N89" s="8"/>
+      <c r="O89" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S89">
         <v>4</v>
@@ -7574,7 +7274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>3013</v>
       </c>
@@ -7614,20 +7314,16 @@
       <c r="M90" s="2">
         <v>1</v>
       </c>
-      <c r="N90" t="s">
-        <v>277</v>
-      </c>
-      <c r="O90" t="s">
-        <v>278</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="N90" s="8"/>
+      <c r="O90" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R90" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>279</v>
-      </c>
-      <c r="R90" t="s">
-        <v>280</v>
       </c>
       <c r="S90">
         <v>4</v>
@@ -7642,7 +7338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>3014</v>
       </c>
@@ -7682,20 +7378,16 @@
       <c r="M91" s="2">
         <v>1</v>
       </c>
-      <c r="N91" t="s">
-        <v>281</v>
-      </c>
-      <c r="O91" t="s">
-        <v>282</v>
-      </c>
-      <c r="P91" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>284</v>
-      </c>
-      <c r="R91" t="s">
-        <v>285</v>
+      <c r="N91" s="8"/>
+      <c r="O91" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R91" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S91">
         <v>4</v>
@@ -7710,7 +7402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>3015</v>
       </c>
@@ -7750,20 +7442,16 @@
       <c r="M92" s="2">
         <v>1</v>
       </c>
-      <c r="N92" t="s">
-        <v>286</v>
-      </c>
-      <c r="O92" t="s">
-        <v>287</v>
-      </c>
-      <c r="P92" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>289</v>
-      </c>
-      <c r="R92" t="s">
-        <v>290</v>
+      <c r="N92" s="8"/>
+      <c r="O92" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R92" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S92">
         <v>4</v>
@@ -7778,7 +7466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>3016</v>
       </c>
@@ -7818,20 +7506,16 @@
       <c r="M93" s="2">
         <v>1</v>
       </c>
-      <c r="N93" t="s">
-        <v>277</v>
-      </c>
-      <c r="O93" t="s">
-        <v>278</v>
-      </c>
-      <c r="P93" t="s">
+      <c r="N93" s="8"/>
+      <c r="O93" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R93" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>279</v>
-      </c>
-      <c r="R93" t="s">
-        <v>280</v>
       </c>
       <c r="S93">
         <v>4</v>
@@ -7846,7 +7530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>3017</v>
       </c>
@@ -7886,20 +7570,16 @@
       <c r="M94" s="2">
         <v>1</v>
       </c>
-      <c r="N94" t="s">
-        <v>281</v>
-      </c>
-      <c r="O94" t="s">
-        <v>282</v>
-      </c>
-      <c r="P94" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>284</v>
-      </c>
-      <c r="R94" t="s">
-        <v>285</v>
+      <c r="N94" s="8"/>
+      <c r="O94" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R94" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S94">
         <v>4</v>
@@ -7914,7 +7594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <v>3018</v>
       </c>
@@ -7954,20 +7634,16 @@
       <c r="M95" s="2">
         <v>1</v>
       </c>
-      <c r="N95" t="s">
-        <v>286</v>
-      </c>
-      <c r="O95" t="s">
-        <v>287</v>
-      </c>
-      <c r="P95" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>289</v>
-      </c>
-      <c r="R95" t="s">
-        <v>290</v>
+      <c r="N95" s="8"/>
+      <c r="O95" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R95" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S95">
         <v>4</v>
@@ -7982,7 +7658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>3019</v>
       </c>
@@ -8022,20 +7698,16 @@
       <c r="M96" s="2">
         <v>1</v>
       </c>
-      <c r="N96" t="s">
-        <v>277</v>
-      </c>
-      <c r="O96" t="s">
-        <v>278</v>
-      </c>
-      <c r="P96" t="s">
+      <c r="N96" s="8"/>
+      <c r="O96" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R96" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>279</v>
-      </c>
-      <c r="R96" t="s">
-        <v>280</v>
       </c>
       <c r="S96">
         <v>4</v>
@@ -8050,7 +7722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>3020</v>
       </c>
@@ -8090,20 +7762,16 @@
       <c r="M97" s="2">
         <v>1</v>
       </c>
-      <c r="N97" t="s">
-        <v>281</v>
-      </c>
-      <c r="O97" t="s">
-        <v>282</v>
-      </c>
-      <c r="P97" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>284</v>
-      </c>
-      <c r="R97" t="s">
-        <v>285</v>
+      <c r="N97" s="8"/>
+      <c r="O97" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R97" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S97">
         <v>4</v>
@@ -8118,7 +7786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>3021</v>
       </c>
@@ -8158,20 +7826,16 @@
       <c r="M98" s="2">
         <v>1</v>
       </c>
-      <c r="N98" t="s">
-        <v>286</v>
-      </c>
-      <c r="O98" t="s">
-        <v>287</v>
-      </c>
-      <c r="P98" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>289</v>
-      </c>
-      <c r="R98" t="s">
-        <v>290</v>
+      <c r="N98" s="8"/>
+      <c r="O98" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R98" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S98">
         <v>4</v>
@@ -8186,7 +7850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>3022</v>
       </c>
@@ -8226,20 +7890,16 @@
       <c r="M99" s="2">
         <v>1</v>
       </c>
-      <c r="N99" t="s">
-        <v>277</v>
-      </c>
-      <c r="O99" t="s">
-        <v>278</v>
-      </c>
-      <c r="P99" t="s">
+      <c r="N99" s="8"/>
+      <c r="O99" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R99" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>279</v>
-      </c>
-      <c r="R99" t="s">
-        <v>280</v>
       </c>
       <c r="S99">
         <v>4</v>
@@ -8254,7 +7914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>3023</v>
       </c>
@@ -8294,20 +7954,16 @@
       <c r="M100" s="2">
         <v>1</v>
       </c>
-      <c r="N100" t="s">
-        <v>281</v>
-      </c>
-      <c r="O100" t="s">
-        <v>282</v>
-      </c>
-      <c r="P100" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>284</v>
-      </c>
-      <c r="R100" t="s">
-        <v>285</v>
+      <c r="N100" s="8"/>
+      <c r="O100" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R100" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S100">
         <v>4</v>
@@ -8322,7 +7978,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>3024</v>
       </c>
@@ -8362,20 +8018,16 @@
       <c r="M101" s="2">
         <v>1</v>
       </c>
-      <c r="N101" t="s">
-        <v>286</v>
-      </c>
-      <c r="O101" t="s">
-        <v>287</v>
-      </c>
-      <c r="P101" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>289</v>
-      </c>
-      <c r="R101" t="s">
-        <v>290</v>
+      <c r="N101" s="8"/>
+      <c r="O101" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R101" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S101">
         <v>4</v>
@@ -8390,7 +8042,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>3025</v>
       </c>
@@ -8410,7 +8062,7 @@
         <v>194</v>
       </c>
       <c r="G102" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>102</v>
@@ -8430,20 +8082,16 @@
       <c r="M102" s="2">
         <v>1</v>
       </c>
-      <c r="N102" t="s">
-        <v>277</v>
-      </c>
-      <c r="O102" t="s">
-        <v>278</v>
-      </c>
-      <c r="P102" t="s">
+      <c r="N102" s="8"/>
+      <c r="O102" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R102" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>279</v>
-      </c>
-      <c r="R102" t="s">
-        <v>280</v>
       </c>
       <c r="S102">
         <v>4</v>
@@ -8458,7 +8106,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <v>3026</v>
       </c>
@@ -8478,7 +8126,7 @@
         <v>194</v>
       </c>
       <c r="G103" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>107</v>
@@ -8498,20 +8146,16 @@
       <c r="M103" s="2">
         <v>1</v>
       </c>
-      <c r="N103" t="s">
-        <v>281</v>
-      </c>
-      <c r="O103" t="s">
-        <v>282</v>
-      </c>
-      <c r="P103" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>284</v>
-      </c>
-      <c r="R103" t="s">
-        <v>285</v>
+      <c r="N103" s="8"/>
+      <c r="O103" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R103" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S103">
         <v>4</v>
@@ -8526,7 +8170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>3027</v>
       </c>
@@ -8546,7 +8190,7 @@
         <v>194</v>
       </c>
       <c r="G104" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>112</v>
@@ -8566,20 +8210,16 @@
       <c r="M104" s="2">
         <v>1</v>
       </c>
-      <c r="N104" t="s">
-        <v>286</v>
-      </c>
-      <c r="O104" t="s">
-        <v>287</v>
-      </c>
-      <c r="P104" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>289</v>
-      </c>
-      <c r="R104" t="s">
-        <v>290</v>
+      <c r="N104" s="8"/>
+      <c r="O104" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R104" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S104">
         <v>4</v>
@@ -8594,7 +8234,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>3028</v>
       </c>
@@ -8634,20 +8274,16 @@
       <c r="M105" s="2">
         <v>1</v>
       </c>
-      <c r="N105" t="s">
-        <v>277</v>
-      </c>
-      <c r="O105" t="s">
-        <v>278</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="N105" s="8"/>
+      <c r="O105" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R105" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>279</v>
-      </c>
-      <c r="R105" t="s">
-        <v>280</v>
       </c>
       <c r="S105">
         <v>4</v>
@@ -8662,7 +8298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>3029</v>
       </c>
@@ -8702,20 +8338,16 @@
       <c r="M106" s="2">
         <v>1</v>
       </c>
-      <c r="N106" t="s">
-        <v>281</v>
-      </c>
-      <c r="O106" t="s">
-        <v>282</v>
-      </c>
-      <c r="P106" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>284</v>
-      </c>
-      <c r="R106" t="s">
-        <v>285</v>
+      <c r="N106" s="8"/>
+      <c r="O106" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R106" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S106">
         <v>4</v>
@@ -8730,7 +8362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>3030</v>
       </c>
@@ -8770,20 +8402,16 @@
       <c r="M107" s="2">
         <v>1</v>
       </c>
-      <c r="N107" t="s">
-        <v>286</v>
-      </c>
-      <c r="O107" t="s">
-        <v>287</v>
-      </c>
-      <c r="P107" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>289</v>
-      </c>
-      <c r="R107" t="s">
-        <v>290</v>
+      <c r="N107" s="8"/>
+      <c r="O107" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R107" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S107">
         <v>4</v>
@@ -8798,7 +8426,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>3031</v>
       </c>
@@ -8838,20 +8466,16 @@
       <c r="M108" s="2">
         <v>1</v>
       </c>
-      <c r="N108" t="s">
-        <v>277</v>
-      </c>
-      <c r="O108" t="s">
-        <v>278</v>
-      </c>
-      <c r="P108" t="s">
+      <c r="N108" s="8"/>
+      <c r="O108" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R108" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>279</v>
-      </c>
-      <c r="R108" t="s">
-        <v>280</v>
       </c>
       <c r="S108">
         <v>4</v>
@@ -8866,7 +8490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <v>3032</v>
       </c>
@@ -8906,20 +8530,16 @@
       <c r="M109" s="2">
         <v>1</v>
       </c>
-      <c r="N109" t="s">
-        <v>281</v>
-      </c>
-      <c r="O109" t="s">
-        <v>282</v>
-      </c>
-      <c r="P109" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>284</v>
-      </c>
-      <c r="R109" t="s">
-        <v>285</v>
+      <c r="N109" s="8"/>
+      <c r="O109" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R109" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S109">
         <v>4</v>
@@ -8934,7 +8554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>3033</v>
       </c>
@@ -8974,20 +8594,16 @@
       <c r="M110" s="2">
         <v>1</v>
       </c>
-      <c r="N110" t="s">
-        <v>286</v>
-      </c>
-      <c r="O110" t="s">
-        <v>287</v>
-      </c>
-      <c r="P110" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>289</v>
-      </c>
-      <c r="R110" t="s">
-        <v>290</v>
+      <c r="N110" s="8"/>
+      <c r="O110" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R110" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S110">
         <v>4</v>
@@ -9002,7 +8618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>4004</v>
       </c>
@@ -9042,20 +8658,16 @@
       <c r="M111" s="2">
         <v>1</v>
       </c>
-      <c r="N111" t="s">
-        <v>291</v>
-      </c>
-      <c r="O111" t="s">
-        <v>292</v>
-      </c>
-      <c r="P111" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>294</v>
-      </c>
-      <c r="R111" t="s">
-        <v>295</v>
+      <c r="N111" s="8"/>
+      <c r="O111" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R111" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S111">
         <v>5</v>
@@ -9070,7 +8682,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>4005</v>
       </c>
@@ -9110,20 +8722,16 @@
       <c r="M112" s="2">
         <v>1</v>
       </c>
-      <c r="N112" t="s">
-        <v>296</v>
-      </c>
-      <c r="O112" t="s">
-        <v>297</v>
-      </c>
-      <c r="P112" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>299</v>
-      </c>
-      <c r="R112" t="s">
-        <v>300</v>
+      <c r="N112" s="8"/>
+      <c r="O112" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R112" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S112">
         <v>5</v>
@@ -9138,7 +8746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>4006</v>
       </c>
@@ -9178,20 +8786,16 @@
       <c r="M113" s="2">
         <v>1</v>
       </c>
-      <c r="N113" t="s">
-        <v>301</v>
-      </c>
-      <c r="O113" t="s">
-        <v>302</v>
-      </c>
-      <c r="P113" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>304</v>
-      </c>
-      <c r="R113" t="s">
-        <v>305</v>
+      <c r="N113" s="8"/>
+      <c r="O113" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R113" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S113">
         <v>5</v>
@@ -9206,7 +8810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <v>4007</v>
       </c>
@@ -9246,20 +8850,16 @@
       <c r="M114" s="2">
         <v>1</v>
       </c>
-      <c r="N114" t="s">
-        <v>291</v>
-      </c>
-      <c r="O114" t="s">
-        <v>292</v>
-      </c>
-      <c r="P114" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>294</v>
-      </c>
-      <c r="R114" t="s">
-        <v>295</v>
+      <c r="N114" s="8"/>
+      <c r="O114" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R114" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S114">
         <v>5</v>
@@ -9274,7 +8874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <v>4008</v>
       </c>
@@ -9314,20 +8914,16 @@
       <c r="M115" s="2">
         <v>1</v>
       </c>
-      <c r="N115" t="s">
-        <v>296</v>
-      </c>
-      <c r="O115" t="s">
-        <v>297</v>
-      </c>
-      <c r="P115" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>299</v>
-      </c>
-      <c r="R115" t="s">
-        <v>300</v>
+      <c r="N115" s="8"/>
+      <c r="O115" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R115" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S115">
         <v>5</v>
@@ -9342,7 +8938,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <v>4009</v>
       </c>
@@ -9382,20 +8978,16 @@
       <c r="M116" s="2">
         <v>1</v>
       </c>
-      <c r="N116" t="s">
-        <v>301</v>
-      </c>
-      <c r="O116" t="s">
-        <v>302</v>
-      </c>
-      <c r="P116" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>304</v>
-      </c>
-      <c r="R116" t="s">
-        <v>305</v>
+      <c r="N116" s="8"/>
+      <c r="O116" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R116" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S116">
         <v>5</v>
@@ -9410,7 +9002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <v>4010</v>
       </c>
@@ -9450,20 +9042,16 @@
       <c r="M117" s="2">
         <v>1</v>
       </c>
-      <c r="N117" t="s">
-        <v>291</v>
-      </c>
-      <c r="O117" t="s">
-        <v>292</v>
-      </c>
-      <c r="P117" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>294</v>
-      </c>
-      <c r="R117" t="s">
-        <v>295</v>
+      <c r="N117" s="8"/>
+      <c r="O117" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R117" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S117">
         <v>5</v>
@@ -9478,7 +9066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <v>4011</v>
       </c>
@@ -9518,20 +9106,16 @@
       <c r="M118" s="2">
         <v>1</v>
       </c>
-      <c r="N118" t="s">
-        <v>296</v>
-      </c>
-      <c r="O118" t="s">
-        <v>297</v>
-      </c>
-      <c r="P118" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>299</v>
-      </c>
-      <c r="R118" t="s">
-        <v>300</v>
+      <c r="N118" s="8"/>
+      <c r="O118" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R118" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S118">
         <v>5</v>
@@ -9546,7 +9130,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <v>4012</v>
       </c>
@@ -9586,20 +9170,16 @@
       <c r="M119" s="2">
         <v>1</v>
       </c>
-      <c r="N119" t="s">
-        <v>301</v>
-      </c>
-      <c r="O119" t="s">
-        <v>302</v>
-      </c>
-      <c r="P119" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>304</v>
-      </c>
-      <c r="R119" t="s">
-        <v>305</v>
+      <c r="N119" s="8"/>
+      <c r="O119" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R119" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S119">
         <v>5</v>
@@ -9614,7 +9194,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <v>4013</v>
       </c>
@@ -9654,20 +9234,16 @@
       <c r="M120" s="2">
         <v>1</v>
       </c>
-      <c r="N120" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="O120" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="P120" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q120" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="R120" t="s">
-        <v>295</v>
+      <c r="N120" s="8"/>
+      <c r="O120" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R120" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S120">
         <v>5</v>
@@ -9682,7 +9258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <v>4014</v>
       </c>
@@ -9722,20 +9298,16 @@
       <c r="M121" s="2">
         <v>1</v>
       </c>
-      <c r="N121" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="O121" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="P121" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>299</v>
-      </c>
-      <c r="R121" t="s">
-        <v>300</v>
+      <c r="N121" s="8"/>
+      <c r="O121" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R121" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S121">
         <v>5</v>
@@ -9750,7 +9322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <v>4015</v>
       </c>
@@ -9790,20 +9362,16 @@
       <c r="M122" s="2">
         <v>1</v>
       </c>
-      <c r="N122" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="O122" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="P122" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>304</v>
-      </c>
-      <c r="R122" t="s">
-        <v>305</v>
+      <c r="N122" s="8"/>
+      <c r="O122" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R122" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S122">
         <v>5</v>
@@ -9818,7 +9386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <v>4016</v>
       </c>
@@ -9858,20 +9426,16 @@
       <c r="M123" s="2">
         <v>1</v>
       </c>
-      <c r="N123" t="s">
-        <v>291</v>
-      </c>
-      <c r="O123" t="s">
-        <v>292</v>
-      </c>
-      <c r="P123" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>294</v>
-      </c>
-      <c r="R123" t="s">
-        <v>295</v>
+      <c r="N123" s="8"/>
+      <c r="O123" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R123" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S123">
         <v>5</v>
@@ -9886,7 +9450,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <v>4017</v>
       </c>
@@ -9926,20 +9490,16 @@
       <c r="M124" s="2">
         <v>1</v>
       </c>
-      <c r="N124" t="s">
-        <v>296</v>
-      </c>
-      <c r="O124" t="s">
-        <v>297</v>
-      </c>
-      <c r="P124" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>299</v>
-      </c>
-      <c r="R124" t="s">
-        <v>300</v>
+      <c r="N124" s="8"/>
+      <c r="O124" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R124" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S124">
         <v>5</v>
@@ -9954,7 +9514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <v>4018</v>
       </c>
@@ -9994,20 +9554,16 @@
       <c r="M125" s="2">
         <v>1</v>
       </c>
-      <c r="N125" t="s">
-        <v>301</v>
-      </c>
-      <c r="O125" t="s">
-        <v>302</v>
-      </c>
-      <c r="P125" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>304</v>
-      </c>
-      <c r="R125" t="s">
-        <v>305</v>
+      <c r="N125" s="8"/>
+      <c r="O125" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R125" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S125">
         <v>5</v>
@@ -10022,7 +9578,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <v>4019</v>
       </c>
@@ -10062,20 +9618,16 @@
       <c r="M126" s="2">
         <v>1</v>
       </c>
-      <c r="N126" t="s">
-        <v>291</v>
-      </c>
-      <c r="O126" t="s">
-        <v>292</v>
-      </c>
-      <c r="P126" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>294</v>
-      </c>
-      <c r="R126" t="s">
-        <v>295</v>
+      <c r="N126" s="8"/>
+      <c r="O126" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R126" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S126">
         <v>5</v>
@@ -10090,7 +9642,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <v>4020</v>
       </c>
@@ -10130,20 +9682,16 @@
       <c r="M127" s="2">
         <v>1</v>
       </c>
-      <c r="N127" t="s">
-        <v>296</v>
-      </c>
-      <c r="O127" t="s">
-        <v>297</v>
-      </c>
-      <c r="P127" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>299</v>
-      </c>
-      <c r="R127" t="s">
-        <v>300</v>
+      <c r="N127" s="8"/>
+      <c r="O127" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R127" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S127">
         <v>5</v>
@@ -10158,7 +9706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <v>4021</v>
       </c>
@@ -10198,20 +9746,16 @@
       <c r="M128" s="2">
         <v>1</v>
       </c>
-      <c r="N128" t="s">
-        <v>301</v>
-      </c>
-      <c r="O128" t="s">
-        <v>302</v>
-      </c>
-      <c r="P128" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>304</v>
-      </c>
-      <c r="R128" t="s">
-        <v>305</v>
+      <c r="N128" s="8"/>
+      <c r="O128" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R128" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S128">
         <v>5</v>
@@ -10226,7 +9770,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <v>4022</v>
       </c>
@@ -10266,20 +9810,16 @@
       <c r="M129" s="2">
         <v>1</v>
       </c>
-      <c r="N129" t="s">
-        <v>291</v>
-      </c>
-      <c r="O129" t="s">
-        <v>292</v>
-      </c>
-      <c r="P129" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>294</v>
-      </c>
-      <c r="R129" t="s">
-        <v>295</v>
+      <c r="N129" s="8"/>
+      <c r="O129" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R129" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S129">
         <v>5</v>
@@ -10294,7 +9834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <v>4023</v>
       </c>
@@ -10334,20 +9874,16 @@
       <c r="M130" s="2">
         <v>1</v>
       </c>
-      <c r="N130" t="s">
-        <v>296</v>
-      </c>
-      <c r="O130" t="s">
-        <v>297</v>
-      </c>
-      <c r="P130" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>299</v>
-      </c>
-      <c r="R130" t="s">
-        <v>300</v>
+      <c r="N130" s="8"/>
+      <c r="O130" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R130" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S130">
         <v>5</v>
@@ -10362,7 +9898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <v>4024</v>
       </c>
@@ -10402,20 +9938,16 @@
       <c r="M131" s="2">
         <v>1</v>
       </c>
-      <c r="N131" t="s">
-        <v>301</v>
-      </c>
-      <c r="O131" t="s">
-        <v>302</v>
-      </c>
-      <c r="P131" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>304</v>
-      </c>
-      <c r="R131" t="s">
-        <v>305</v>
+      <c r="N131" s="8"/>
+      <c r="O131" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R131" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S131">
         <v>5</v>
@@ -10430,7 +9962,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <v>4025</v>
       </c>
@@ -10470,20 +10002,16 @@
       <c r="M132" s="2">
         <v>1</v>
       </c>
-      <c r="N132" t="s">
-        <v>291</v>
-      </c>
-      <c r="O132" t="s">
-        <v>292</v>
-      </c>
-      <c r="P132" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>294</v>
-      </c>
-      <c r="R132" t="s">
-        <v>295</v>
+      <c r="N132" s="8"/>
+      <c r="O132" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R132" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S132">
         <v>5</v>
@@ -10498,7 +10026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <v>4026</v>
       </c>
@@ -10538,20 +10066,16 @@
       <c r="M133" s="2">
         <v>1</v>
       </c>
-      <c r="N133" t="s">
-        <v>296</v>
-      </c>
-      <c r="O133" t="s">
-        <v>297</v>
-      </c>
-      <c r="P133" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>299</v>
-      </c>
-      <c r="R133" t="s">
-        <v>300</v>
+      <c r="N133" s="8"/>
+      <c r="O133" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R133" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S133">
         <v>5</v>
@@ -10566,7 +10090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>4027</v>
       </c>
@@ -10606,20 +10130,16 @@
       <c r="M134" s="2">
         <v>1</v>
       </c>
-      <c r="N134" t="s">
-        <v>301</v>
-      </c>
-      <c r="O134" t="s">
-        <v>302</v>
-      </c>
-      <c r="P134" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>304</v>
-      </c>
-      <c r="R134" t="s">
-        <v>305</v>
+      <c r="N134" s="8"/>
+      <c r="O134" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R134" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S134">
         <v>5</v>
@@ -10634,7 +10154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <v>4028</v>
       </c>
@@ -10674,20 +10194,16 @@
       <c r="M135" s="2">
         <v>1</v>
       </c>
-      <c r="N135" t="s">
-        <v>291</v>
-      </c>
-      <c r="O135" t="s">
-        <v>292</v>
-      </c>
-      <c r="P135" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>294</v>
-      </c>
-      <c r="R135" t="s">
-        <v>295</v>
+      <c r="N135" s="8"/>
+      <c r="O135" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R135" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S135">
         <v>5</v>
@@ -10702,7 +10218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <v>4029</v>
       </c>
@@ -10742,20 +10258,16 @@
       <c r="M136" s="2">
         <v>1</v>
       </c>
-      <c r="N136" t="s">
-        <v>296</v>
-      </c>
-      <c r="O136" t="s">
-        <v>297</v>
-      </c>
-      <c r="P136" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>299</v>
-      </c>
-      <c r="R136" t="s">
-        <v>300</v>
+      <c r="N136" s="8"/>
+      <c r="O136" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R136" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S136">
         <v>5</v>
@@ -10770,7 +10282,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>4030</v>
       </c>
@@ -10810,20 +10322,16 @@
       <c r="M137" s="2">
         <v>1</v>
       </c>
-      <c r="N137" t="s">
-        <v>301</v>
-      </c>
-      <c r="O137" t="s">
-        <v>302</v>
-      </c>
-      <c r="P137" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>304</v>
-      </c>
-      <c r="R137" t="s">
-        <v>305</v>
+      <c r="N137" s="8"/>
+      <c r="O137" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R137" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S137">
         <v>5</v>
@@ -10838,7 +10346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>4031</v>
       </c>
@@ -10878,20 +10386,16 @@
       <c r="M138" s="2">
         <v>1</v>
       </c>
-      <c r="N138" t="s">
-        <v>291</v>
-      </c>
-      <c r="O138" t="s">
-        <v>292</v>
-      </c>
-      <c r="P138" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>294</v>
-      </c>
-      <c r="R138" t="s">
-        <v>295</v>
+      <c r="N138" s="8"/>
+      <c r="O138" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R138" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S138">
         <v>5</v>
@@ -10906,7 +10410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
         <v>4032</v>
       </c>
@@ -10946,20 +10450,16 @@
       <c r="M139" s="2">
         <v>1</v>
       </c>
-      <c r="N139" t="s">
-        <v>296</v>
-      </c>
-      <c r="O139" t="s">
-        <v>297</v>
-      </c>
-      <c r="P139" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>299</v>
-      </c>
-      <c r="R139" t="s">
-        <v>300</v>
+      <c r="N139" s="8"/>
+      <c r="O139" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R139" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S139">
         <v>5</v>
@@ -10974,7 +10474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <v>4033</v>
       </c>
@@ -11014,20 +10514,16 @@
       <c r="M140" s="2">
         <v>1</v>
       </c>
-      <c r="N140" t="s">
-        <v>301</v>
-      </c>
-      <c r="O140" t="s">
-        <v>302</v>
-      </c>
-      <c r="P140" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>304</v>
-      </c>
-      <c r="R140" t="s">
-        <v>305</v>
+      <c r="N140" s="8"/>
+      <c r="O140" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R140" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S140">
         <v>5</v>
@@ -11042,7 +10538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>5004</v>
       </c>
@@ -11082,20 +10578,16 @@
       <c r="M141" s="2">
         <v>1</v>
       </c>
-      <c r="N141" t="s">
-        <v>306</v>
-      </c>
-      <c r="O141" t="s">
-        <v>307</v>
-      </c>
-      <c r="P141" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>309</v>
-      </c>
-      <c r="R141" t="s">
-        <v>310</v>
+      <c r="N141" s="8"/>
+      <c r="O141" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R141" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S141">
         <v>6</v>
@@ -11110,7 +10602,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>5005</v>
       </c>
@@ -11150,20 +10642,16 @@
       <c r="M142" s="2">
         <v>1</v>
       </c>
-      <c r="N142" t="s">
-        <v>311</v>
-      </c>
-      <c r="O142" t="s">
-        <v>312</v>
-      </c>
-      <c r="P142" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>314</v>
-      </c>
-      <c r="R142" t="s">
-        <v>315</v>
+      <c r="N142" s="8"/>
+      <c r="O142" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R142" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S142">
         <v>6</v>
@@ -11178,7 +10666,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <v>5006</v>
       </c>
@@ -11218,20 +10706,16 @@
       <c r="M143" s="2">
         <v>1</v>
       </c>
-      <c r="N143" t="s">
-        <v>316</v>
-      </c>
-      <c r="O143" t="s">
-        <v>317</v>
-      </c>
-      <c r="P143" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>319</v>
-      </c>
-      <c r="R143" t="s">
-        <v>320</v>
+      <c r="N143" s="8"/>
+      <c r="O143" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R143" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S143">
         <v>6</v>
@@ -11246,7 +10730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <v>5007</v>
       </c>
@@ -11286,20 +10770,16 @@
       <c r="M144" s="2">
         <v>1</v>
       </c>
-      <c r="N144" t="s">
-        <v>306</v>
-      </c>
-      <c r="O144" t="s">
-        <v>307</v>
-      </c>
-      <c r="P144" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>309</v>
-      </c>
-      <c r="R144" t="s">
-        <v>310</v>
+      <c r="N144" s="8"/>
+      <c r="O144" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R144" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S144">
         <v>6</v>
@@ -11314,7 +10794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>5008</v>
       </c>
@@ -11354,20 +10834,16 @@
       <c r="M145" s="2">
         <v>1</v>
       </c>
-      <c r="N145" t="s">
-        <v>311</v>
-      </c>
-      <c r="O145" t="s">
-        <v>312</v>
-      </c>
-      <c r="P145" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>314</v>
-      </c>
-      <c r="R145" t="s">
-        <v>315</v>
+      <c r="N145" s="8"/>
+      <c r="O145" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R145" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S145">
         <v>6</v>
@@ -11382,7 +10858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>5009</v>
       </c>
@@ -11422,20 +10898,16 @@
       <c r="M146" s="2">
         <v>1</v>
       </c>
-      <c r="N146" t="s">
-        <v>316</v>
-      </c>
-      <c r="O146" t="s">
-        <v>317</v>
-      </c>
-      <c r="P146" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>319</v>
-      </c>
-      <c r="R146" t="s">
-        <v>320</v>
+      <c r="N146" s="8"/>
+      <c r="O146" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R146" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S146">
         <v>6</v>
@@ -11450,7 +10922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <v>5010</v>
       </c>
@@ -11490,20 +10962,16 @@
       <c r="M147" s="2">
         <v>1</v>
       </c>
-      <c r="N147" t="s">
-        <v>306</v>
-      </c>
-      <c r="O147" t="s">
-        <v>307</v>
-      </c>
-      <c r="P147" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>309</v>
-      </c>
-      <c r="R147" t="s">
-        <v>310</v>
+      <c r="N147" s="8"/>
+      <c r="O147" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R147" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S147">
         <v>6</v>
@@ -11518,7 +10986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <v>5011</v>
       </c>
@@ -11558,20 +11026,16 @@
       <c r="M148" s="2">
         <v>1</v>
       </c>
-      <c r="N148" t="s">
-        <v>311</v>
-      </c>
-      <c r="O148" t="s">
-        <v>312</v>
-      </c>
-      <c r="P148" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>314</v>
-      </c>
-      <c r="R148" t="s">
-        <v>315</v>
+      <c r="N148" s="8"/>
+      <c r="O148" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R148" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S148">
         <v>6</v>
@@ -11586,7 +11050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>5012</v>
       </c>
@@ -11626,20 +11090,16 @@
       <c r="M149" s="2">
         <v>1</v>
       </c>
-      <c r="N149" t="s">
-        <v>316</v>
-      </c>
-      <c r="O149" t="s">
-        <v>317</v>
-      </c>
-      <c r="P149" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>319</v>
-      </c>
-      <c r="R149" t="s">
-        <v>320</v>
+      <c r="N149" s="8"/>
+      <c r="O149" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R149" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S149">
         <v>6</v>
@@ -11654,7 +11114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>5013</v>
       </c>
@@ -11694,20 +11154,16 @@
       <c r="M150" s="2">
         <v>1</v>
       </c>
-      <c r="N150" t="s">
-        <v>306</v>
-      </c>
-      <c r="O150" t="s">
-        <v>307</v>
-      </c>
-      <c r="P150" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>309</v>
-      </c>
-      <c r="R150" t="s">
-        <v>310</v>
+      <c r="N150" s="8"/>
+      <c r="O150" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R150" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S150">
         <v>6</v>
@@ -11722,7 +11178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <v>5014</v>
       </c>
@@ -11762,20 +11218,16 @@
       <c r="M151" s="2">
         <v>1</v>
       </c>
-      <c r="N151" t="s">
-        <v>311</v>
-      </c>
-      <c r="O151" t="s">
-        <v>312</v>
-      </c>
-      <c r="P151" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>314</v>
-      </c>
-      <c r="R151" t="s">
-        <v>315</v>
+      <c r="N151" s="8"/>
+      <c r="O151" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R151" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S151">
         <v>6</v>
@@ -11790,7 +11242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <v>5015</v>
       </c>
@@ -11830,20 +11282,16 @@
       <c r="M152" s="2">
         <v>1</v>
       </c>
-      <c r="N152" t="s">
-        <v>316</v>
-      </c>
-      <c r="O152" t="s">
-        <v>317</v>
-      </c>
-      <c r="P152" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>319</v>
-      </c>
-      <c r="R152" t="s">
-        <v>320</v>
+      <c r="N152" s="8"/>
+      <c r="O152" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R152" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S152">
         <v>6</v>
@@ -11858,7 +11306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>5016</v>
       </c>
@@ -11898,20 +11346,16 @@
       <c r="M153" s="2">
         <v>1</v>
       </c>
-      <c r="N153" t="s">
-        <v>306</v>
-      </c>
-      <c r="O153" t="s">
-        <v>307</v>
-      </c>
-      <c r="P153" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>309</v>
-      </c>
-      <c r="R153" t="s">
-        <v>310</v>
+      <c r="N153" s="8"/>
+      <c r="O153" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R153" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S153">
         <v>6</v>
@@ -11926,7 +11370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>5017</v>
       </c>
@@ -11966,20 +11410,16 @@
       <c r="M154" s="2">
         <v>1</v>
       </c>
-      <c r="N154" t="s">
-        <v>311</v>
-      </c>
-      <c r="O154" t="s">
-        <v>312</v>
-      </c>
-      <c r="P154" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>314</v>
-      </c>
-      <c r="R154" t="s">
-        <v>315</v>
+      <c r="N154" s="8"/>
+      <c r="O154" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R154" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S154">
         <v>6</v>
@@ -11994,7 +11434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <v>5018</v>
       </c>
@@ -12034,20 +11474,16 @@
       <c r="M155" s="2">
         <v>1</v>
       </c>
-      <c r="N155" t="s">
-        <v>316</v>
-      </c>
-      <c r="O155" t="s">
-        <v>317</v>
-      </c>
-      <c r="P155" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>319</v>
-      </c>
-      <c r="R155" t="s">
-        <v>320</v>
+      <c r="N155" s="8"/>
+      <c r="O155" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R155" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S155">
         <v>6</v>
@@ -12062,7 +11498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
         <v>5019</v>
       </c>
@@ -12102,20 +11538,16 @@
       <c r="M156" s="2">
         <v>1</v>
       </c>
-      <c r="N156" t="s">
-        <v>306</v>
-      </c>
-      <c r="O156" t="s">
-        <v>307</v>
-      </c>
-      <c r="P156" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>309</v>
-      </c>
-      <c r="R156" t="s">
-        <v>310</v>
+      <c r="N156" s="8"/>
+      <c r="O156" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P156" s="8"/>
+      <c r="Q156" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R156" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S156">
         <v>6</v>
@@ -12130,7 +11562,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
         <v>5020</v>
       </c>
@@ -12170,20 +11602,16 @@
       <c r="M157" s="2">
         <v>1</v>
       </c>
-      <c r="N157" t="s">
-        <v>311</v>
-      </c>
-      <c r="O157" t="s">
-        <v>312</v>
-      </c>
-      <c r="P157" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>314</v>
-      </c>
-      <c r="R157" t="s">
-        <v>315</v>
+      <c r="N157" s="8"/>
+      <c r="O157" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R157" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S157">
         <v>6</v>
@@ -12198,7 +11626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
         <v>5021</v>
       </c>
@@ -12238,20 +11666,16 @@
       <c r="M158" s="2">
         <v>1</v>
       </c>
-      <c r="N158" t="s">
-        <v>316</v>
-      </c>
-      <c r="O158" t="s">
-        <v>317</v>
-      </c>
-      <c r="P158" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>319</v>
-      </c>
-      <c r="R158" t="s">
-        <v>320</v>
+      <c r="N158" s="8"/>
+      <c r="O158" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R158" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S158">
         <v>6</v>
@@ -12266,7 +11690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
         <v>5022</v>
       </c>
@@ -12306,20 +11730,16 @@
       <c r="M159" s="2">
         <v>1</v>
       </c>
-      <c r="N159" t="s">
-        <v>306</v>
-      </c>
-      <c r="O159" t="s">
-        <v>307</v>
-      </c>
-      <c r="P159" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>309</v>
-      </c>
-      <c r="R159" t="s">
-        <v>310</v>
+      <c r="N159" s="8"/>
+      <c r="O159" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R159" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S159">
         <v>6</v>
@@ -12334,7 +11754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
         <v>5023</v>
       </c>
@@ -12374,20 +11794,16 @@
       <c r="M160" s="2">
         <v>1</v>
       </c>
-      <c r="N160" t="s">
-        <v>311</v>
-      </c>
-      <c r="O160" t="s">
-        <v>312</v>
-      </c>
-      <c r="P160" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>314</v>
-      </c>
-      <c r="R160" t="s">
-        <v>315</v>
+      <c r="N160" s="8"/>
+      <c r="O160" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P160" s="8"/>
+      <c r="Q160" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R160" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S160">
         <v>6</v>
@@ -12402,7 +11818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
         <v>5024</v>
       </c>
@@ -12442,20 +11858,16 @@
       <c r="M161" s="2">
         <v>1</v>
       </c>
-      <c r="N161" t="s">
-        <v>316</v>
-      </c>
-      <c r="O161" t="s">
-        <v>317</v>
-      </c>
-      <c r="P161" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>319</v>
-      </c>
-      <c r="R161" t="s">
-        <v>320</v>
+      <c r="N161" s="8"/>
+      <c r="O161" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R161" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S161">
         <v>6</v>
@@ -12470,7 +11882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
         <v>5025</v>
       </c>
@@ -12510,20 +11922,16 @@
       <c r="M162" s="2">
         <v>1</v>
       </c>
-      <c r="N162" t="s">
-        <v>306</v>
-      </c>
-      <c r="O162" t="s">
-        <v>307</v>
-      </c>
-      <c r="P162" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>309</v>
-      </c>
-      <c r="R162" t="s">
-        <v>310</v>
+      <c r="N162" s="8"/>
+      <c r="O162" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R162" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S162">
         <v>6</v>
@@ -12538,7 +11946,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
         <v>5026</v>
       </c>
@@ -12578,20 +11986,16 @@
       <c r="M163" s="2">
         <v>1</v>
       </c>
-      <c r="N163" t="s">
-        <v>311</v>
-      </c>
-      <c r="O163" t="s">
-        <v>312</v>
-      </c>
-      <c r="P163" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>314</v>
-      </c>
-      <c r="R163" t="s">
-        <v>315</v>
+      <c r="N163" s="8"/>
+      <c r="O163" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R163" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S163">
         <v>6</v>
@@ -12606,7 +12010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
         <v>5027</v>
       </c>
@@ -12646,20 +12050,16 @@
       <c r="M164" s="2">
         <v>1</v>
       </c>
-      <c r="N164" t="s">
-        <v>316</v>
-      </c>
-      <c r="O164" t="s">
-        <v>317</v>
-      </c>
-      <c r="P164" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>319</v>
-      </c>
-      <c r="R164" t="s">
-        <v>320</v>
+      <c r="N164" s="8"/>
+      <c r="O164" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P164" s="8"/>
+      <c r="Q164" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R164" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S164">
         <v>6</v>
@@ -12674,7 +12074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
         <v>5028</v>
       </c>
@@ -12714,20 +12114,16 @@
       <c r="M165" s="2">
         <v>1</v>
       </c>
-      <c r="N165" t="s">
-        <v>306</v>
-      </c>
-      <c r="O165" t="s">
-        <v>307</v>
-      </c>
-      <c r="P165" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>309</v>
-      </c>
-      <c r="R165" t="s">
-        <v>310</v>
+      <c r="N165" s="8"/>
+      <c r="O165" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P165" s="8"/>
+      <c r="Q165" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R165" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S165">
         <v>6</v>
@@ -12742,7 +12138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
         <v>5029</v>
       </c>
@@ -12782,20 +12178,16 @@
       <c r="M166" s="2">
         <v>1</v>
       </c>
-      <c r="N166" t="s">
-        <v>311</v>
-      </c>
-      <c r="O166" t="s">
-        <v>312</v>
-      </c>
-      <c r="P166" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>314</v>
-      </c>
-      <c r="R166" t="s">
-        <v>315</v>
+      <c r="N166" s="8"/>
+      <c r="O166" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P166" s="8"/>
+      <c r="Q166" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R166" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S166">
         <v>6</v>
@@ -12810,7 +12202,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
         <v>5030</v>
       </c>
@@ -12850,20 +12242,16 @@
       <c r="M167" s="2">
         <v>1</v>
       </c>
-      <c r="N167" t="s">
-        <v>316</v>
-      </c>
-      <c r="O167" t="s">
-        <v>317</v>
-      </c>
-      <c r="P167" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>319</v>
-      </c>
-      <c r="R167" t="s">
-        <v>320</v>
+      <c r="N167" s="8"/>
+      <c r="O167" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R167" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S167">
         <v>6</v>
@@ -12878,7 +12266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
         <v>5031</v>
       </c>
@@ -12918,20 +12306,16 @@
       <c r="M168" s="2">
         <v>1</v>
       </c>
-      <c r="N168" t="s">
-        <v>306</v>
-      </c>
-      <c r="O168" t="s">
-        <v>307</v>
-      </c>
-      <c r="P168" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>309</v>
-      </c>
-      <c r="R168" t="s">
-        <v>310</v>
+      <c r="N168" s="8"/>
+      <c r="O168" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P168" s="8"/>
+      <c r="Q168" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="R168" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="S168">
         <v>6</v>
@@ -12946,7 +12330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
         <v>5032</v>
       </c>
@@ -12986,20 +12370,16 @@
       <c r="M169" s="2">
         <v>1</v>
       </c>
-      <c r="N169" t="s">
-        <v>311</v>
-      </c>
-      <c r="O169" t="s">
-        <v>312</v>
-      </c>
-      <c r="P169" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>314</v>
-      </c>
-      <c r="R169" t="s">
-        <v>315</v>
+      <c r="N169" s="8"/>
+      <c r="O169" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="P169" s="8"/>
+      <c r="Q169" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="S169">
         <v>6</v>
@@ -13014,7 +12394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
         <v>5033</v>
       </c>
@@ -13054,20 +12434,16 @@
       <c r="M170" s="2">
         <v>1</v>
       </c>
-      <c r="N170" t="s">
-        <v>316</v>
-      </c>
-      <c r="O170" t="s">
-        <v>317</v>
-      </c>
-      <c r="P170" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>319</v>
-      </c>
-      <c r="R170" t="s">
-        <v>320</v>
+      <c r="N170" s="8"/>
+      <c r="O170" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P170" s="8"/>
+      <c r="Q170" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="R170" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="S170">
         <v>6</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862613F-6221-442F-AFA2-D79F2E96D647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABDF35B-FE8C-46D8-A45C-5FCE9C435117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="291">
   <si>
     <t>int</t>
   </si>
@@ -787,118 +787,130 @@
     <t>-0.56|-0.35|157.70</t>
   </si>
   <si>
-    <t>1023|1</t>
+    <t>1|20||2|7||3|5</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|6</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|7</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|8</t>
+  </si>
+  <si>
+    <t>1|20||2|7||3|9</t>
+  </si>
+  <si>
+    <t>1|50||2|20||3|12</t>
+  </si>
+  <si>
+    <t>1|60||2|30||3|12</t>
+  </si>
+  <si>
+    <t>1|70||2|40||3|12</t>
+  </si>
+  <si>
+    <t>1|30||2|10||3|10</t>
+  </si>
+  <si>
+    <t>1|35||2|15||3|10</t>
+  </si>
+  <si>
+    <t>1|40||2|20||3|10</t>
+  </si>
+  <si>
+    <t>1|70||2|40||3|14</t>
+  </si>
+  <si>
+    <t>1|40||2|20||3|12</t>
+  </si>
+  <si>
+    <t>1|100||2|50||3|22</t>
+  </si>
+  <si>
+    <t>1|60||2|25||3|12</t>
+  </si>
+  <si>
+    <t>1|150||2|70||3|29</t>
+  </si>
+  <si>
+    <t>1|80||2|35||3|12</t>
+  </si>
+  <si>
+    <t>1|140||2|65||3|17</t>
+  </si>
+  <si>
+    <t>1|70||2|30||3|12</t>
+  </si>
+  <si>
+    <t>1|170||2|70||3|24</t>
+  </si>
+  <si>
+    <t>1|80||2|35||3|14</t>
+  </si>
+  <si>
+    <t>1|200||2|80||3|31</t>
+  </si>
+  <si>
+    <t>1|90||2|40||3|16</t>
+  </si>
+  <si>
+    <t>1|180||2|70||3|17</t>
+  </si>
+  <si>
+    <t>1|220||2|90||3|24</t>
+  </si>
+  <si>
+    <t>1|100||2|45||3|14</t>
+  </si>
+  <si>
+    <t>1|240||2|100||3|31</t>
+  </si>
+  <si>
+    <t>1|110||2|50||3|16</t>
+  </si>
+  <si>
+    <t>1|220||2|90||3|17</t>
+  </si>
+  <si>
+    <t>1|100||2|45||3|12</t>
+  </si>
+  <si>
+    <t>1|300||2|120||3|24</t>
+  </si>
+  <si>
+    <t>1|140||2|60||3|14</t>
+  </si>
+  <si>
+    <t>1|400||2|160||3|31</t>
+  </si>
+  <si>
+    <t>1|180||2|80||3|16</t>
+  </si>
+  <si>
+    <t>1|50||2|20||3|12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1005|1</t>
+    <t>1023|1||1|50||2|20||3|12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1017|1</t>
+    <t>1|60||2|30||3|12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1|20||2|7||3|5</t>
-  </si>
-  <si>
-    <t>1|20||2|7||3|6</t>
-  </si>
-  <si>
-    <t>1|20||2|7||3|7</t>
-  </si>
-  <si>
-    <t>1|20||2|7||3|8</t>
-  </si>
-  <si>
-    <t>1|20||2|7||3|9</t>
-  </si>
-  <si>
-    <t>1|50||2|20||3|12</t>
-  </si>
-  <si>
-    <t>1|60||2|30||3|12</t>
+    <t>1005|1||1|60||2|30||3|12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1|70||2|40||3|12</t>
-  </si>
-  <si>
-    <t>1|30||2|10||3|10</t>
-  </si>
-  <si>
-    <t>1|35||2|15||3|10</t>
-  </si>
-  <si>
-    <t>1|40||2|20||3|10</t>
-  </si>
-  <si>
-    <t>1|70||2|40||3|14</t>
-  </si>
-  <si>
-    <t>1|40||2|20||3|12</t>
-  </si>
-  <si>
-    <t>1|100||2|50||3|22</t>
-  </si>
-  <si>
-    <t>1|60||2|25||3|12</t>
-  </si>
-  <si>
-    <t>1|150||2|70||3|29</t>
-  </si>
-  <si>
-    <t>1|80||2|35||3|12</t>
-  </si>
-  <si>
-    <t>1|140||2|65||3|17</t>
-  </si>
-  <si>
-    <t>1|70||2|30||3|12</t>
-  </si>
-  <si>
-    <t>1|170||2|70||3|24</t>
-  </si>
-  <si>
-    <t>1|80||2|35||3|14</t>
-  </si>
-  <si>
-    <t>1|200||2|80||3|31</t>
-  </si>
-  <si>
-    <t>1|90||2|40||3|16</t>
-  </si>
-  <si>
-    <t>1|180||2|70||3|17</t>
-  </si>
-  <si>
-    <t>1|220||2|90||3|24</t>
-  </si>
-  <si>
-    <t>1|100||2|45||3|14</t>
-  </si>
-  <si>
-    <t>1|240||2|100||3|31</t>
-  </si>
-  <si>
-    <t>1|110||2|50||3|16</t>
-  </si>
-  <si>
-    <t>1|220||2|90||3|17</t>
-  </si>
-  <si>
-    <t>1|100||2|45||3|12</t>
-  </si>
-  <si>
-    <t>1|300||2|120||3|24</t>
-  </si>
-  <si>
-    <t>1|140||2|60||3|14</t>
-  </si>
-  <si>
-    <t>1|400||2|160||3|31</t>
-  </si>
-  <si>
-    <t>1|180||2|80||3|16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017|1||1|70||2|40||3|12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1515,8 +1527,8 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P160" sqref="P160"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2839,17 +2851,19 @@
         <v>1</v>
       </c>
       <c r="N21" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R21" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S21">
         <v>2</v>
@@ -2905,17 +2919,19 @@
         <v>1</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P22" s="8"/>
       <c r="Q22" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -2971,17 +2987,19 @@
         <v>1</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O23" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P23" s="8"/>
       <c r="Q23" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3037,17 +3055,19 @@
         <v>1</v>
       </c>
       <c r="N24" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3103,17 +3123,19 @@
         <v>1</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O25" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P25" s="8"/>
       <c r="Q25" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3169,17 +3191,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P26" s="8"/>
       <c r="Q26" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S26">
         <v>2</v>
@@ -3235,17 +3259,19 @@
         <v>1</v>
       </c>
       <c r="N27" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R27" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -3301,17 +3327,19 @@
         <v>1</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P28" s="8"/>
       <c r="Q28" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -3367,17 +3395,19 @@
         <v>1</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P29" s="8"/>
       <c r="Q29" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -3433,17 +3463,19 @@
         <v>1</v>
       </c>
       <c r="N30" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -3499,17 +3531,19 @@
         <v>1</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O31" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P31" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P31" s="8"/>
       <c r="Q31" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -3565,17 +3599,19 @@
         <v>1</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O32" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P32" s="8"/>
       <c r="Q32" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3631,17 +3667,19 @@
         <v>1</v>
       </c>
       <c r="N33" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R33" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3697,17 +3735,19 @@
         <v>1</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O34" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P34" s="8"/>
       <c r="Q34" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S34">
         <v>2</v>
@@ -3763,17 +3803,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P35" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P35" s="8"/>
       <c r="Q35" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S35">
         <v>2</v>
@@ -3829,17 +3871,19 @@
         <v>1</v>
       </c>
       <c r="N36" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R36" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -3895,17 +3939,19 @@
         <v>1</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O37" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="8"/>
       <c r="Q37" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -3961,17 +4007,19 @@
         <v>1</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O38" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P38" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P38" s="8"/>
       <c r="Q38" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4027,17 +4075,19 @@
         <v>1</v>
       </c>
       <c r="N39" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -4093,17 +4143,19 @@
         <v>1</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O40" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P40" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P40" s="8"/>
       <c r="Q40" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S40">
         <v>2</v>
@@ -4159,17 +4211,19 @@
         <v>1</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O41" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P41" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P41" s="8"/>
       <c r="Q41" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S41">
         <v>2</v>
@@ -4225,17 +4279,19 @@
         <v>1</v>
       </c>
       <c r="N42" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R42" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S42">
         <v>2</v>
@@ -4291,17 +4347,19 @@
         <v>1</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O43" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P43" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P43" s="8"/>
       <c r="Q43" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S43">
         <v>2</v>
@@ -4357,17 +4415,19 @@
         <v>1</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O44" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P44" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P44" s="8"/>
       <c r="Q44" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S44">
         <v>2</v>
@@ -4423,17 +4483,19 @@
         <v>1</v>
       </c>
       <c r="N45" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R45" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S45">
         <v>2</v>
@@ -4489,17 +4551,19 @@
         <v>1</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P46" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P46" s="8"/>
       <c r="Q46" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S46">
         <v>2</v>
@@ -4555,17 +4619,19 @@
         <v>1</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O47" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P47" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P47" s="8"/>
       <c r="Q47" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -4621,17 +4687,19 @@
         <v>1</v>
       </c>
       <c r="N48" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="R48" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="S48">
         <v>2</v>
@@ -4687,17 +4755,19 @@
         <v>1</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="O49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P49" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="P49" s="8"/>
       <c r="Q49" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S49">
         <v>2</v>
@@ -4753,17 +4823,19 @@
         <v>1</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="O50" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P50" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="P50" s="8"/>
       <c r="Q50" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S50">
         <v>2</v>
@@ -4818,16 +4890,20 @@
       <c r="M51" s="2">
         <v>1</v>
       </c>
-      <c r="N51" s="8"/>
+      <c r="N51" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P51" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q51" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S51">
         <v>3</v>
@@ -4882,16 +4958,20 @@
       <c r="M52" s="2">
         <v>1</v>
       </c>
-      <c r="N52" s="8"/>
+      <c r="N52" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O52" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P52" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q52" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S52">
         <v>3</v>
@@ -4946,16 +5026,20 @@
       <c r="M53" s="2">
         <v>1</v>
       </c>
-      <c r="N53" s="8"/>
+      <c r="N53" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O53" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P53" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q53" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S53">
         <v>3</v>
@@ -5010,16 +5094,20 @@
       <c r="M54" s="2">
         <v>1</v>
       </c>
-      <c r="N54" s="8"/>
+      <c r="N54" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O54" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P54" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q54" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S54">
         <v>3</v>
@@ -5074,16 +5162,20 @@
       <c r="M55" s="2">
         <v>1</v>
       </c>
-      <c r="N55" s="8"/>
+      <c r="N55" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O55" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P55" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q55" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S55">
         <v>3</v>
@@ -5138,16 +5230,20 @@
       <c r="M56" s="2">
         <v>1</v>
       </c>
-      <c r="N56" s="8"/>
+      <c r="N56" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O56" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P56" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q56" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -5202,16 +5298,20 @@
       <c r="M57" s="2">
         <v>1</v>
       </c>
-      <c r="N57" s="8"/>
+      <c r="N57" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O57" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P57" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q57" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S57">
         <v>3</v>
@@ -5266,16 +5366,20 @@
       <c r="M58" s="2">
         <v>1</v>
       </c>
-      <c r="N58" s="8"/>
+      <c r="N58" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O58" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P58" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q58" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S58">
         <v>3</v>
@@ -5330,16 +5434,20 @@
       <c r="M59" s="2">
         <v>1</v>
       </c>
-      <c r="N59" s="8"/>
+      <c r="N59" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O59" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P59" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q59" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S59">
         <v>3</v>
@@ -5394,16 +5502,20 @@
       <c r="M60" s="2">
         <v>1</v>
       </c>
-      <c r="N60" s="8"/>
+      <c r="N60" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O60" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P60" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q60" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S60">
         <v>3</v>
@@ -5458,16 +5570,20 @@
       <c r="M61" s="2">
         <v>1</v>
       </c>
-      <c r="N61" s="8"/>
+      <c r="N61" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O61" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P61" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q61" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S61">
         <v>3</v>
@@ -5522,16 +5638,20 @@
       <c r="M62" s="2">
         <v>1</v>
       </c>
-      <c r="N62" s="8"/>
+      <c r="N62" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O62" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P62" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q62" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S62">
         <v>3</v>
@@ -5586,16 +5706,20 @@
       <c r="M63" s="2">
         <v>1</v>
       </c>
-      <c r="N63" s="8"/>
+      <c r="N63" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O63" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P63" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q63" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S63">
         <v>3</v>
@@ -5650,16 +5774,20 @@
       <c r="M64" s="2">
         <v>1</v>
       </c>
-      <c r="N64" s="8"/>
+      <c r="N64" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O64" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P64" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q64" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S64">
         <v>3</v>
@@ -5714,16 +5842,20 @@
       <c r="M65" s="2">
         <v>1</v>
       </c>
-      <c r="N65" s="8"/>
+      <c r="N65" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O65" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P65" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q65" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -5778,16 +5910,20 @@
       <c r="M66" s="2">
         <v>1</v>
       </c>
-      <c r="N66" s="8"/>
+      <c r="N66" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O66" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P66" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q66" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S66">
         <v>3</v>
@@ -5842,16 +5978,20 @@
       <c r="M67" s="2">
         <v>1</v>
       </c>
-      <c r="N67" s="8"/>
+      <c r="N67" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O67" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P67" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q67" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S67">
         <v>3</v>
@@ -5906,16 +6046,20 @@
       <c r="M68" s="2">
         <v>1</v>
       </c>
-      <c r="N68" s="8"/>
+      <c r="N68" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O68" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P68" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q68" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -5970,16 +6114,20 @@
       <c r="M69" s="2">
         <v>1</v>
       </c>
-      <c r="N69" s="8"/>
+      <c r="N69" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O69" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P69" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q69" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -6034,16 +6182,20 @@
       <c r="M70" s="2">
         <v>1</v>
       </c>
-      <c r="N70" s="8"/>
+      <c r="N70" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O70" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P70" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q70" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S70">
         <v>3</v>
@@ -6098,16 +6250,20 @@
       <c r="M71" s="2">
         <v>1</v>
       </c>
-      <c r="N71" s="8"/>
+      <c r="N71" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O71" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P71" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q71" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S71">
         <v>3</v>
@@ -6162,16 +6318,20 @@
       <c r="M72" s="2">
         <v>1</v>
       </c>
-      <c r="N72" s="8"/>
+      <c r="N72" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O72" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P72" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q72" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S72">
         <v>3</v>
@@ -6226,16 +6386,20 @@
       <c r="M73" s="2">
         <v>1</v>
       </c>
-      <c r="N73" s="8"/>
+      <c r="N73" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O73" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P73" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P73" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q73" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S73">
         <v>3</v>
@@ -6290,16 +6454,20 @@
       <c r="M74" s="2">
         <v>1</v>
       </c>
-      <c r="N74" s="8"/>
+      <c r="N74" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O74" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P74" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q74" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S74">
         <v>3</v>
@@ -6354,16 +6522,20 @@
       <c r="M75" s="2">
         <v>1</v>
       </c>
-      <c r="N75" s="8"/>
+      <c r="N75" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O75" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P75" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q75" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S75">
         <v>3</v>
@@ -6418,16 +6590,20 @@
       <c r="M76" s="2">
         <v>1</v>
       </c>
-      <c r="N76" s="8"/>
+      <c r="N76" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O76" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P76" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q76" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S76">
         <v>3</v>
@@ -6482,16 +6658,20 @@
       <c r="M77" s="2">
         <v>1</v>
       </c>
-      <c r="N77" s="8"/>
+      <c r="N77" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O77" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P77" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P77" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q77" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S77">
         <v>3</v>
@@ -6546,16 +6726,20 @@
       <c r="M78" s="2">
         <v>1</v>
       </c>
-      <c r="N78" s="8"/>
+      <c r="N78" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="O78" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P78" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="P78" s="10" t="s">
+        <v>263</v>
+      </c>
       <c r="Q78" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S78">
         <v>3</v>
@@ -6610,16 +6794,20 @@
       <c r="M79" s="2">
         <v>1</v>
       </c>
-      <c r="N79" s="8"/>
+      <c r="N79" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="O79" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="P79" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="P79" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="Q79" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S79">
         <v>3</v>
@@ -6674,16 +6862,20 @@
       <c r="M80" s="2">
         <v>1</v>
       </c>
-      <c r="N80" s="8"/>
+      <c r="N80" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="O80" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="P80" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q80" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S80">
         <v>3</v>
@@ -6738,16 +6930,20 @@
       <c r="M81" s="2">
         <v>1</v>
       </c>
-      <c r="N81" s="8"/>
+      <c r="N81" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O81" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P81" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P81" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q81" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S81">
         <v>4</v>
@@ -6802,16 +6998,20 @@
       <c r="M82" s="2">
         <v>1</v>
       </c>
-      <c r="N82" s="8"/>
+      <c r="N82" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O82" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P82" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P82" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q82" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S82">
         <v>4</v>
@@ -6866,16 +7066,20 @@
       <c r="M83" s="2">
         <v>1</v>
       </c>
-      <c r="N83" s="8"/>
+      <c r="N83" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O83" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P83" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q83" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S83">
         <v>4</v>
@@ -6930,16 +7134,20 @@
       <c r="M84" s="2">
         <v>1</v>
       </c>
-      <c r="N84" s="8"/>
+      <c r="N84" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O84" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P84" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q84" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S84">
         <v>4</v>
@@ -6994,16 +7202,20 @@
       <c r="M85" s="2">
         <v>1</v>
       </c>
-      <c r="N85" s="8"/>
+      <c r="N85" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O85" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P85" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P85" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q85" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S85">
         <v>4</v>
@@ -7058,16 +7270,20 @@
       <c r="M86" s="2">
         <v>1</v>
       </c>
-      <c r="N86" s="8"/>
+      <c r="N86" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O86" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P86" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P86" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q86" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R86" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S86">
         <v>4</v>
@@ -7122,16 +7338,20 @@
       <c r="M87" s="2">
         <v>1</v>
       </c>
-      <c r="N87" s="8"/>
+      <c r="N87" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O87" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P87" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P87" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q87" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S87">
         <v>4</v>
@@ -7186,16 +7406,20 @@
       <c r="M88" s="2">
         <v>1</v>
       </c>
-      <c r="N88" s="8"/>
+      <c r="N88" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O88" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P88" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P88" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q88" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S88">
         <v>4</v>
@@ -7250,16 +7474,20 @@
       <c r="M89" s="2">
         <v>1</v>
       </c>
-      <c r="N89" s="8"/>
+      <c r="N89" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O89" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P89" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P89" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q89" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S89">
         <v>4</v>
@@ -7314,16 +7542,20 @@
       <c r="M90" s="2">
         <v>1</v>
       </c>
-      <c r="N90" s="8"/>
+      <c r="N90" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O90" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P90" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P90" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q90" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S90">
         <v>4</v>
@@ -7378,16 +7610,20 @@
       <c r="M91" s="2">
         <v>1</v>
       </c>
-      <c r="N91" s="8"/>
+      <c r="N91" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O91" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P91" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P91" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q91" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R91" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S91">
         <v>4</v>
@@ -7442,16 +7678,20 @@
       <c r="M92" s="2">
         <v>1</v>
       </c>
-      <c r="N92" s="8"/>
+      <c r="N92" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O92" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P92" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P92" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q92" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S92">
         <v>4</v>
@@ -7506,16 +7746,20 @@
       <c r="M93" s="2">
         <v>1</v>
       </c>
-      <c r="N93" s="8"/>
+      <c r="N93" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O93" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P93" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P93" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q93" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S93">
         <v>4</v>
@@ -7570,16 +7814,20 @@
       <c r="M94" s="2">
         <v>1</v>
       </c>
-      <c r="N94" s="8"/>
+      <c r="N94" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O94" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P94" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P94" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q94" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S94">
         <v>4</v>
@@ -7634,16 +7882,20 @@
       <c r="M95" s="2">
         <v>1</v>
       </c>
-      <c r="N95" s="8"/>
+      <c r="N95" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O95" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P95" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P95" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q95" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S95">
         <v>4</v>
@@ -7698,16 +7950,20 @@
       <c r="M96" s="2">
         <v>1</v>
       </c>
-      <c r="N96" s="8"/>
+      <c r="N96" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O96" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P96" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P96" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q96" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R96" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S96">
         <v>4</v>
@@ -7762,16 +8018,20 @@
       <c r="M97" s="2">
         <v>1</v>
       </c>
-      <c r="N97" s="8"/>
+      <c r="N97" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O97" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P97" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P97" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q97" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S97">
         <v>4</v>
@@ -7826,16 +8086,20 @@
       <c r="M98" s="2">
         <v>1</v>
       </c>
-      <c r="N98" s="8"/>
+      <c r="N98" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O98" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P98" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P98" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q98" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S98">
         <v>4</v>
@@ -7890,16 +8154,20 @@
       <c r="M99" s="2">
         <v>1</v>
       </c>
-      <c r="N99" s="8"/>
+      <c r="N99" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O99" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P99" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P99" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q99" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S99">
         <v>4</v>
@@ -7954,16 +8222,20 @@
       <c r="M100" s="2">
         <v>1</v>
       </c>
-      <c r="N100" s="8"/>
+      <c r="N100" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O100" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P100" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P100" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q100" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R100" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S100">
         <v>4</v>
@@ -8018,16 +8290,20 @@
       <c r="M101" s="2">
         <v>1</v>
       </c>
-      <c r="N101" s="8"/>
+      <c r="N101" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O101" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P101" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P101" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q101" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S101">
         <v>4</v>
@@ -8082,16 +8358,20 @@
       <c r="M102" s="2">
         <v>1</v>
       </c>
-      <c r="N102" s="8"/>
+      <c r="N102" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O102" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P102" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P102" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q102" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S102">
         <v>4</v>
@@ -8146,16 +8426,20 @@
       <c r="M103" s="2">
         <v>1</v>
       </c>
-      <c r="N103" s="8"/>
+      <c r="N103" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O103" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P103" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P103" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q103" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R103" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S103">
         <v>4</v>
@@ -8210,16 +8494,20 @@
       <c r="M104" s="2">
         <v>1</v>
       </c>
-      <c r="N104" s="8"/>
+      <c r="N104" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O104" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P104" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P104" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q104" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R104" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S104">
         <v>4</v>
@@ -8274,16 +8562,20 @@
       <c r="M105" s="2">
         <v>1</v>
       </c>
-      <c r="N105" s="8"/>
+      <c r="N105" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O105" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P105" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P105" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q105" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R105" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S105">
         <v>4</v>
@@ -8338,16 +8630,20 @@
       <c r="M106" s="2">
         <v>1</v>
       </c>
-      <c r="N106" s="8"/>
+      <c r="N106" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O106" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P106" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P106" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q106" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R106" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S106">
         <v>4</v>
@@ -8402,16 +8698,20 @@
       <c r="M107" s="2">
         <v>1</v>
       </c>
-      <c r="N107" s="8"/>
+      <c r="N107" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O107" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P107" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P107" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q107" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R107" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S107">
         <v>4</v>
@@ -8466,16 +8766,20 @@
       <c r="M108" s="2">
         <v>1</v>
       </c>
-      <c r="N108" s="8"/>
+      <c r="N108" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="O108" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="P108" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="P108" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="Q108" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R108" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S108">
         <v>4</v>
@@ -8530,16 +8834,20 @@
       <c r="M109" s="2">
         <v>1</v>
       </c>
-      <c r="N109" s="8"/>
+      <c r="N109" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="O109" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="P109" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="P109" s="10" t="s">
+        <v>271</v>
+      </c>
       <c r="Q109" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R109" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S109">
         <v>4</v>
@@ -8594,16 +8902,20 @@
       <c r="M110" s="2">
         <v>1</v>
       </c>
-      <c r="N110" s="8"/>
+      <c r="N110" s="10" t="s">
+        <v>272</v>
+      </c>
       <c r="O110" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P110" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="P110" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="Q110" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R110" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S110">
         <v>4</v>
@@ -8658,16 +8970,20 @@
       <c r="M111" s="2">
         <v>1</v>
       </c>
-      <c r="N111" s="8"/>
+      <c r="N111" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O111" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P111" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P111" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q111" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R111" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S111">
         <v>5</v>
@@ -8722,16 +9038,20 @@
       <c r="M112" s="2">
         <v>1</v>
       </c>
-      <c r="N112" s="8"/>
+      <c r="N112" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O112" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P112" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P112" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q112" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R112" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S112">
         <v>5</v>
@@ -8786,16 +9106,20 @@
       <c r="M113" s="2">
         <v>1</v>
       </c>
-      <c r="N113" s="8"/>
+      <c r="N113" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O113" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P113" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P113" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q113" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R113" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S113">
         <v>5</v>
@@ -8850,16 +9174,20 @@
       <c r="M114" s="2">
         <v>1</v>
       </c>
-      <c r="N114" s="8"/>
+      <c r="N114" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O114" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P114" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P114" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q114" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R114" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S114">
         <v>5</v>
@@ -8914,16 +9242,20 @@
       <c r="M115" s="2">
         <v>1</v>
       </c>
-      <c r="N115" s="8"/>
+      <c r="N115" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O115" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P115" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P115" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q115" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R115" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S115">
         <v>5</v>
@@ -8978,16 +9310,20 @@
       <c r="M116" s="2">
         <v>1</v>
       </c>
-      <c r="N116" s="8"/>
+      <c r="N116" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O116" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P116" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P116" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q116" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R116" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S116">
         <v>5</v>
@@ -9042,16 +9378,20 @@
       <c r="M117" s="2">
         <v>1</v>
       </c>
-      <c r="N117" s="8"/>
+      <c r="N117" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O117" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P117" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q117" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R117" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S117">
         <v>5</v>
@@ -9106,16 +9446,20 @@
       <c r="M118" s="2">
         <v>1</v>
       </c>
-      <c r="N118" s="8"/>
+      <c r="N118" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O118" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P118" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P118" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q118" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R118" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S118">
         <v>5</v>
@@ -9170,16 +9514,20 @@
       <c r="M119" s="2">
         <v>1</v>
       </c>
-      <c r="N119" s="8"/>
+      <c r="N119" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O119" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P119" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P119" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q119" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R119" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S119">
         <v>5</v>
@@ -9234,16 +9582,20 @@
       <c r="M120" s="2">
         <v>1</v>
       </c>
-      <c r="N120" s="8"/>
+      <c r="N120" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O120" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P120" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P120" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q120" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R120" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S120">
         <v>5</v>
@@ -9298,16 +9650,20 @@
       <c r="M121" s="2">
         <v>1</v>
       </c>
-      <c r="N121" s="8"/>
+      <c r="N121" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O121" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P121" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P121" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q121" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R121" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S121">
         <v>5</v>
@@ -9362,16 +9718,20 @@
       <c r="M122" s="2">
         <v>1</v>
       </c>
-      <c r="N122" s="8"/>
+      <c r="N122" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O122" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P122" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P122" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q122" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R122" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S122">
         <v>5</v>
@@ -9426,16 +9786,20 @@
       <c r="M123" s="2">
         <v>1</v>
       </c>
-      <c r="N123" s="8"/>
+      <c r="N123" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O123" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P123" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P123" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q123" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R123" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S123">
         <v>5</v>
@@ -9490,16 +9854,20 @@
       <c r="M124" s="2">
         <v>1</v>
       </c>
-      <c r="N124" s="8"/>
+      <c r="N124" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O124" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P124" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P124" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q124" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R124" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S124">
         <v>5</v>
@@ -9554,16 +9922,20 @@
       <c r="M125" s="2">
         <v>1</v>
       </c>
-      <c r="N125" s="8"/>
+      <c r="N125" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O125" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P125" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P125" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q125" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R125" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S125">
         <v>5</v>
@@ -9618,16 +9990,20 @@
       <c r="M126" s="2">
         <v>1</v>
       </c>
-      <c r="N126" s="8"/>
+      <c r="N126" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O126" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P126" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P126" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q126" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R126" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S126">
         <v>5</v>
@@ -9682,16 +10058,20 @@
       <c r="M127" s="2">
         <v>1</v>
       </c>
-      <c r="N127" s="8"/>
+      <c r="N127" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O127" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P127" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P127" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q127" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R127" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S127">
         <v>5</v>
@@ -9746,16 +10126,20 @@
       <c r="M128" s="2">
         <v>1</v>
       </c>
-      <c r="N128" s="8"/>
+      <c r="N128" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O128" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P128" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P128" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q128" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R128" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S128">
         <v>5</v>
@@ -9810,16 +10194,20 @@
       <c r="M129" s="2">
         <v>1</v>
       </c>
-      <c r="N129" s="8"/>
+      <c r="N129" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O129" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P129" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P129" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q129" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R129" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S129">
         <v>5</v>
@@ -9874,16 +10262,20 @@
       <c r="M130" s="2">
         <v>1</v>
       </c>
-      <c r="N130" s="8"/>
+      <c r="N130" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O130" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P130" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P130" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q130" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R130" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S130">
         <v>5</v>
@@ -9938,16 +10330,20 @@
       <c r="M131" s="2">
         <v>1</v>
       </c>
-      <c r="N131" s="8"/>
+      <c r="N131" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O131" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P131" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P131" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q131" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R131" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S131">
         <v>5</v>
@@ -10002,16 +10398,20 @@
       <c r="M132" s="2">
         <v>1</v>
       </c>
-      <c r="N132" s="8"/>
+      <c r="N132" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O132" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P132" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P132" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q132" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R132" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S132">
         <v>5</v>
@@ -10066,16 +10466,20 @@
       <c r="M133" s="2">
         <v>1</v>
       </c>
-      <c r="N133" s="8"/>
+      <c r="N133" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O133" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P133" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P133" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q133" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S133">
         <v>5</v>
@@ -10130,16 +10534,20 @@
       <c r="M134" s="2">
         <v>1</v>
       </c>
-      <c r="N134" s="8"/>
+      <c r="N134" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O134" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P134" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P134" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q134" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S134">
         <v>5</v>
@@ -10194,16 +10602,20 @@
       <c r="M135" s="2">
         <v>1</v>
       </c>
-      <c r="N135" s="8"/>
+      <c r="N135" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O135" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P135" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P135" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q135" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S135">
         <v>5</v>
@@ -10258,16 +10670,20 @@
       <c r="M136" s="2">
         <v>1</v>
       </c>
-      <c r="N136" s="8"/>
+      <c r="N136" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O136" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P136" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q136" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S136">
         <v>5</v>
@@ -10322,16 +10738,20 @@
       <c r="M137" s="2">
         <v>1</v>
       </c>
-      <c r="N137" s="8"/>
+      <c r="N137" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O137" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P137" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q137" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S137">
         <v>5</v>
@@ -10386,16 +10806,20 @@
       <c r="M138" s="2">
         <v>1</v>
       </c>
-      <c r="N138" s="8"/>
+      <c r="N138" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="O138" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="P138" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="P138" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="Q138" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S138">
         <v>5</v>
@@ -10450,16 +10874,20 @@
       <c r="M139" s="2">
         <v>1</v>
       </c>
-      <c r="N139" s="8"/>
+      <c r="N139" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="O139" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P139" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="P139" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="Q139" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S139">
         <v>5</v>
@@ -10514,16 +10942,20 @@
       <c r="M140" s="2">
         <v>1</v>
       </c>
-      <c r="N140" s="8"/>
+      <c r="N140" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="O140" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="P140" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="P140" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="Q140" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S140">
         <v>5</v>
@@ -10578,16 +11010,20 @@
       <c r="M141" s="2">
         <v>1</v>
       </c>
-      <c r="N141" s="8"/>
+      <c r="N141" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O141" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P141" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P141" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q141" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S141">
         <v>6</v>
@@ -10642,16 +11078,20 @@
       <c r="M142" s="2">
         <v>1</v>
       </c>
-      <c r="N142" s="8"/>
+      <c r="N142" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O142" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P142" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P142" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q142" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R142" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S142">
         <v>6</v>
@@ -10706,16 +11146,20 @@
       <c r="M143" s="2">
         <v>1</v>
       </c>
-      <c r="N143" s="8"/>
+      <c r="N143" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O143" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P143" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P143" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q143" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R143" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S143">
         <v>6</v>
@@ -10770,16 +11214,20 @@
       <c r="M144" s="2">
         <v>1</v>
       </c>
-      <c r="N144" s="8"/>
+      <c r="N144" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O144" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P144" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q144" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R144" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S144">
         <v>6</v>
@@ -10834,16 +11282,20 @@
       <c r="M145" s="2">
         <v>1</v>
       </c>
-      <c r="N145" s="8"/>
+      <c r="N145" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O145" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P145" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q145" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R145" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S145">
         <v>6</v>
@@ -10898,16 +11350,20 @@
       <c r="M146" s="2">
         <v>1</v>
       </c>
-      <c r="N146" s="8"/>
+      <c r="N146" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O146" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P146" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P146" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q146" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R146" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S146">
         <v>6</v>
@@ -10962,16 +11418,20 @@
       <c r="M147" s="2">
         <v>1</v>
       </c>
-      <c r="N147" s="8"/>
+      <c r="N147" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O147" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P147" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P147" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q147" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R147" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S147">
         <v>6</v>
@@ -11026,16 +11486,20 @@
       <c r="M148" s="2">
         <v>1</v>
       </c>
-      <c r="N148" s="8"/>
+      <c r="N148" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O148" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P148" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P148" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q148" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R148" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S148">
         <v>6</v>
@@ -11090,16 +11554,20 @@
       <c r="M149" s="2">
         <v>1</v>
       </c>
-      <c r="N149" s="8"/>
+      <c r="N149" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O149" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P149" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P149" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q149" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R149" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S149">
         <v>6</v>
@@ -11154,16 +11622,20 @@
       <c r="M150" s="2">
         <v>1</v>
       </c>
-      <c r="N150" s="8"/>
+      <c r="N150" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O150" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P150" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P150" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q150" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R150" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S150">
         <v>6</v>
@@ -11218,16 +11690,20 @@
       <c r="M151" s="2">
         <v>1</v>
       </c>
-      <c r="N151" s="8"/>
+      <c r="N151" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O151" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P151" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P151" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q151" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R151" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S151">
         <v>6</v>
@@ -11282,16 +11758,20 @@
       <c r="M152" s="2">
         <v>1</v>
       </c>
-      <c r="N152" s="8"/>
+      <c r="N152" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O152" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P152" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P152" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q152" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R152" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S152">
         <v>6</v>
@@ -11346,16 +11826,20 @@
       <c r="M153" s="2">
         <v>1</v>
       </c>
-      <c r="N153" s="8"/>
+      <c r="N153" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O153" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P153" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P153" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q153" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R153" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S153">
         <v>6</v>
@@ -11410,16 +11894,20 @@
       <c r="M154" s="2">
         <v>1</v>
       </c>
-      <c r="N154" s="8"/>
+      <c r="N154" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O154" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P154" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P154" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q154" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R154" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S154">
         <v>6</v>
@@ -11474,16 +11962,20 @@
       <c r="M155" s="2">
         <v>1</v>
       </c>
-      <c r="N155" s="8"/>
+      <c r="N155" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O155" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P155" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P155" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q155" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S155">
         <v>6</v>
@@ -11538,16 +12030,20 @@
       <c r="M156" s="2">
         <v>1</v>
       </c>
-      <c r="N156" s="8"/>
+      <c r="N156" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O156" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P156" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P156" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q156" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S156">
         <v>6</v>
@@ -11602,16 +12098,20 @@
       <c r="M157" s="2">
         <v>1</v>
       </c>
-      <c r="N157" s="8"/>
+      <c r="N157" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O157" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P157" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P157" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q157" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R157" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S157">
         <v>6</v>
@@ -11666,16 +12166,20 @@
       <c r="M158" s="2">
         <v>1</v>
       </c>
-      <c r="N158" s="8"/>
+      <c r="N158" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O158" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P158" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P158" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q158" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R158" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S158">
         <v>6</v>
@@ -11730,16 +12234,20 @@
       <c r="M159" s="2">
         <v>1</v>
       </c>
-      <c r="N159" s="8"/>
+      <c r="N159" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O159" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P159" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P159" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q159" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R159" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S159">
         <v>6</v>
@@ -11794,16 +12302,20 @@
       <c r="M160" s="2">
         <v>1</v>
       </c>
-      <c r="N160" s="8"/>
+      <c r="N160" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O160" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P160" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P160" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q160" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R160" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S160">
         <v>6</v>
@@ -11858,16 +12370,20 @@
       <c r="M161" s="2">
         <v>1</v>
       </c>
-      <c r="N161" s="8"/>
+      <c r="N161" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O161" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P161" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P161" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q161" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R161" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S161">
         <v>6</v>
@@ -11922,16 +12438,20 @@
       <c r="M162" s="2">
         <v>1</v>
       </c>
-      <c r="N162" s="8"/>
+      <c r="N162" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O162" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P162" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P162" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q162" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R162" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S162">
         <v>6</v>
@@ -11986,16 +12506,20 @@
       <c r="M163" s="2">
         <v>1</v>
       </c>
-      <c r="N163" s="8"/>
+      <c r="N163" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O163" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P163" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P163" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q163" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R163" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S163">
         <v>6</v>
@@ -12050,16 +12574,20 @@
       <c r="M164" s="2">
         <v>1</v>
       </c>
-      <c r="N164" s="8"/>
+      <c r="N164" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O164" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P164" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P164" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q164" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R164" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S164">
         <v>6</v>
@@ -12114,16 +12642,20 @@
       <c r="M165" s="2">
         <v>1</v>
       </c>
-      <c r="N165" s="8"/>
+      <c r="N165" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O165" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P165" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P165" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q165" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R165" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S165">
         <v>6</v>
@@ -12178,16 +12710,20 @@
       <c r="M166" s="2">
         <v>1</v>
       </c>
-      <c r="N166" s="8"/>
+      <c r="N166" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O166" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P166" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P166" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q166" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R166" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S166">
         <v>6</v>
@@ -12242,16 +12778,20 @@
       <c r="M167" s="2">
         <v>1</v>
       </c>
-      <c r="N167" s="8"/>
+      <c r="N167" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O167" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P167" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P167" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q167" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R167" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S167">
         <v>6</v>
@@ -12306,16 +12846,20 @@
       <c r="M168" s="2">
         <v>1</v>
       </c>
-      <c r="N168" s="8"/>
+      <c r="N168" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="O168" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P168" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="P168" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="Q168" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R168" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S168">
         <v>6</v>
@@ -12370,16 +12914,20 @@
       <c r="M169" s="2">
         <v>1</v>
       </c>
-      <c r="N169" s="8"/>
+      <c r="N169" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="O169" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="P169" s="8"/>
+        <v>281</v>
+      </c>
+      <c r="P169" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="Q169" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R169" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S169">
         <v>6</v>
@@ -12434,16 +12982,20 @@
       <c r="M170" s="2">
         <v>1</v>
       </c>
-      <c r="N170" s="8"/>
+      <c r="N170" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="O170" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="P170" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="P170" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="Q170" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R170" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S170">
         <v>6</v>

--- a/nevergiveup/Excel/Stage_关卡表.xlsx
+++ b/nevergiveup/Excel/Stage_关卡表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetaApp\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABDF35B-FE8C-46D8-A45C-5FCE9C435117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048C28D7-6C6A-439F-8995-F17435F5A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33840" yWindow="1992" windowWidth="23040" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,9 +573,6 @@
     <t>15538.79|200233.52|90</t>
   </si>
   <si>
-    <t>9883.00|305855.00|196.01</t>
-  </si>
-  <si>
     <t>10348.29|299135.9|392.2</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>-0.56|0.03|-22.60</t>
   </si>
   <si>
-    <t>4400.88|298307.25|167.82</t>
-  </si>
-  <si>
     <t>-0.56|0.03|14.80</t>
   </si>
   <si>
@@ -603,22 +597,13 @@
     <t>0.50|0.03|47.70</t>
   </si>
   <si>
-    <t>9928.96|294194.09|205.00</t>
-  </si>
-  <si>
     <t>0.65|0.01|88.00</t>
   </si>
   <si>
-    <t>13405.72|295249.69|211.00</t>
-  </si>
-  <si>
     <t>0.10|-0.28|125.90</t>
   </si>
   <si>
     <t>15515.27|298089.12|245.58</t>
-  </si>
-  <si>
-    <t>15573.32|301758.81|209.77</t>
   </si>
   <si>
     <t>-0.56|-0.10|-163.00</t>
@@ -911,13 +896,28 @@
   <si>
     <t>1017|1||1|70||2|40||3|12</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9883.00|305855.00|218.01</t>
+  </si>
+  <si>
+    <t>4400.88|298307.25|177.82</t>
+  </si>
+  <si>
+    <t>9928.96|294194.09|219.00</t>
+  </si>
+  <si>
+    <t>13405.72|295249.69|229.00</t>
+  </si>
+  <si>
+    <t>15573.32|301758.81|224.77</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -1049,7 +1049,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1527,29 +1527,29 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108:F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="71.25" customWidth="1"/>
-    <col min="6" max="7" width="15.625" customWidth="1"/>
-    <col min="11" max="12" width="22.25" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="35.25" customWidth="1"/>
-    <col min="15" max="15" width="26.25" customWidth="1"/>
-    <col min="16" max="16" width="20.375" customWidth="1"/>
-    <col min="17" max="17" width="23.125" customWidth="1"/>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.25" customWidth="1"/>
-    <col min="22" max="22" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="71.19921875" customWidth="1"/>
+    <col min="6" max="7" width="15.59765625" customWidth="1"/>
+    <col min="11" max="12" width="22.19921875" customWidth="1"/>
+    <col min="13" max="13" width="17.19921875" customWidth="1"/>
+    <col min="14" max="14" width="35.19921875" customWidth="1"/>
+    <col min="15" max="15" width="26.19921875" customWidth="1"/>
+    <col min="16" max="16" width="20.3984375" customWidth="1"/>
+    <col min="17" max="17" width="23.09765625" customWidth="1"/>
+    <col min="18" max="18" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.19921875" customWidth="1"/>
+    <col min="22" max="22" width="21.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="16.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="12.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
@@ -1769,7 +1769,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="9.75" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
         <v>56</v>
@@ -1832,7 +1832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="12.75" customHeight="1">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="12.75" customHeight="1">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="12.75" customHeight="1">
       <c r="A8" s="3">
         <v>1003</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="12.75" customHeight="1">
       <c r="A9" s="3">
         <v>2001</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="12.75" customHeight="1">
       <c r="A10" s="3">
         <v>2002</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="12.75" customHeight="1">
       <c r="A11" s="3">
         <v>2003</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.6">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.6">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.6">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.6">
       <c r="A15">
         <v>4001</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.6">
       <c r="A16">
         <v>4002</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15.6">
       <c r="A17">
         <v>4003</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15.6">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15.6">
       <c r="A19">
         <v>5002</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" ht="16.2" thickBot="1">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" ht="16.2" thickBot="1">
       <c r="A21" s="3">
         <v>1004</v>
       </c>
@@ -2851,19 +2851,19 @@
         <v>1</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S21">
         <v>2</v>
@@ -2878,7 +2878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="16.2" thickBot="1">
       <c r="A22" s="3">
         <v>1005</v>
       </c>
@@ -2919,19 +2919,19 @@
         <v>1</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S22">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="16.2" thickBot="1">
       <c r="A23" s="3">
         <v>1006</v>
       </c>
@@ -2987,19 +2987,19 @@
         <v>1</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3014,7 +3014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" ht="16.2" thickBot="1">
       <c r="A24" s="3">
         <v>1007</v>
       </c>
@@ -3055,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3082,7 +3082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="16.2" thickBot="1">
       <c r="A25" s="3">
         <v>1008</v>
       </c>
@@ -3123,19 +3123,19 @@
         <v>1</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3150,7 +3150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" ht="16.2" thickBot="1">
       <c r="A26" s="3">
         <v>1009</v>
       </c>
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S26">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" ht="16.2" thickBot="1">
       <c r="A27" s="3">
         <v>1010</v>
       </c>
@@ -3259,19 +3259,19 @@
         <v>1</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -3286,7 +3286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" ht="16.2" thickBot="1">
       <c r="A28" s="3">
         <v>1011</v>
       </c>
@@ -3327,19 +3327,19 @@
         <v>1</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" ht="16.2" thickBot="1">
       <c r="A29" s="3">
         <v>1012</v>
       </c>
@@ -3395,19 +3395,19 @@
         <v>1</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" ht="16.2" thickBot="1">
       <c r="A30" s="3">
         <v>1013</v>
       </c>
@@ -3463,19 +3463,19 @@
         <v>1</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -3490,7 +3490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" ht="16.2" thickBot="1">
       <c r="A31" s="3">
         <v>1014</v>
       </c>
@@ -3531,19 +3531,19 @@
         <v>1</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -3558,7 +3558,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" ht="16.2" thickBot="1">
       <c r="A32" s="3">
         <v>1015</v>
       </c>
@@ -3599,19 +3599,19 @@
         <v>1</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3626,7 +3626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" ht="16.2" thickBot="1">
       <c r="A33" s="3">
         <v>1016</v>
       </c>
@@ -3667,19 +3667,19 @@
         <v>1</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S33">
         <v>2</v>
@@ -3694,7 +3694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" ht="16.2" thickBot="1">
       <c r="A34" s="3">
         <v>1017</v>
       </c>
@@ -3735,19 +3735,19 @@
         <v>1</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S34">
         <v>2</v>
@@ -3762,7 +3762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" ht="16.2" thickBot="1">
       <c r="A35" s="3">
         <v>1018</v>
       </c>
@@ -3803,19 +3803,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S35">
         <v>2</v>
@@ -3830,7 +3830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" ht="16.2" thickBot="1">
       <c r="A36" s="3">
         <v>1019</v>
       </c>
@@ -3871,19 +3871,19 @@
         <v>1</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S36">
         <v>2</v>
@@ -3898,7 +3898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" ht="16.2" thickBot="1">
       <c r="A37" s="3">
         <v>1020</v>
       </c>
@@ -3939,19 +3939,19 @@
         <v>1</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S37">
         <v>2</v>
@@ -3966,7 +3966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" ht="16.2" thickBot="1">
       <c r="A38" s="3">
         <v>1021</v>
       </c>
@@ -4007,19 +4007,19 @@
         <v>1</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S38">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" ht="16.2" thickBot="1">
       <c r="A39" s="3">
         <v>1022</v>
       </c>
@@ -4075,19 +4075,19 @@
         <v>1</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -4102,7 +4102,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" ht="16.2" thickBot="1">
       <c r="A40" s="3">
         <v>1023</v>
       </c>
@@ -4143,19 +4143,19 @@
         <v>1</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S40">
         <v>2</v>
@@ -4170,7 +4170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22" ht="16.2" thickBot="1">
       <c r="A41" s="3">
         <v>1024</v>
       </c>
@@ -4211,19 +4211,19 @@
         <v>1</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S41">
         <v>2</v>
@@ -4238,7 +4238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22" ht="16.2" thickBot="1">
       <c r="A42" s="3">
         <v>1025</v>
       </c>
@@ -4279,19 +4279,19 @@
         <v>1</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S42">
         <v>2</v>
@@ -4306,7 +4306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22" ht="16.2" thickBot="1">
       <c r="A43" s="3">
         <v>1026</v>
       </c>
@@ -4347,19 +4347,19 @@
         <v>1</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S43">
         <v>2</v>
@@ -4374,7 +4374,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" ht="16.2" thickBot="1">
       <c r="A44" s="3">
         <v>1027</v>
       </c>
@@ -4415,19 +4415,19 @@
         <v>1</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S44">
         <v>2</v>
@@ -4442,7 +4442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" ht="16.2" thickBot="1">
       <c r="A45" s="3">
         <v>1028</v>
       </c>
@@ -4483,19 +4483,19 @@
         <v>1</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S45">
         <v>2</v>
@@ -4510,7 +4510,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" ht="16.2" thickBot="1">
       <c r="A46" s="3">
         <v>1029</v>
       </c>
@@ -4551,19 +4551,19 @@
         <v>1</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S46">
         <v>2</v>
@@ -4578,7 +4578,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22" ht="16.2" thickBot="1">
       <c r="A47" s="3">
         <v>1030</v>
       </c>
@@ -4619,19 +4619,19 @@
         <v>1</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -4646,7 +4646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" ht="16.2" thickBot="1">
       <c r="A48" s="3">
         <v>1031</v>
       </c>
@@ -4687,19 +4687,19 @@
         <v>1</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S48">
         <v>2</v>
@@ -4714,7 +4714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22" ht="16.2" thickBot="1">
       <c r="A49" s="3">
         <v>1032</v>
       </c>
@@ -4755,19 +4755,19 @@
         <v>1</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S49">
         <v>2</v>
@@ -4782,7 +4782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:22" ht="16.2" thickBot="1">
       <c r="A50" s="3">
         <v>1033</v>
       </c>
@@ -4823,19 +4823,19 @@
         <v>1</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S50">
         <v>2</v>
@@ -4850,7 +4850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22" ht="16.2" thickBot="1">
       <c r="A51" s="3">
         <v>2004</v>
       </c>
@@ -4891,19 +4891,19 @@
         <v>1</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S51">
         <v>3</v>
@@ -4918,7 +4918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:22" ht="16.2" thickBot="1">
       <c r="A52" s="3">
         <v>2005</v>
       </c>
@@ -4959,19 +4959,19 @@
         <v>1</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S52">
         <v>3</v>
@@ -4986,7 +4986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:22" ht="16.2" thickBot="1">
       <c r="A53" s="3">
         <v>2006</v>
       </c>
@@ -5027,19 +5027,19 @@
         <v>1</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S53">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22" ht="16.2" thickBot="1">
       <c r="A54" s="3">
         <v>2007</v>
       </c>
@@ -5095,19 +5095,19 @@
         <v>1</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S54">
         <v>3</v>
@@ -5122,7 +5122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:22" ht="16.2" thickBot="1">
       <c r="A55" s="3">
         <v>2008</v>
       </c>
@@ -5163,19 +5163,19 @@
         <v>1</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S55">
         <v>3</v>
@@ -5190,7 +5190,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22" ht="16.2" thickBot="1">
       <c r="A56" s="3">
         <v>2009</v>
       </c>
@@ -5231,19 +5231,19 @@
         <v>1</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -5258,7 +5258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22" ht="16.2" thickBot="1">
       <c r="A57" s="3">
         <v>2010</v>
       </c>
@@ -5299,19 +5299,19 @@
         <v>1</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P57" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S57">
         <v>3</v>
@@ -5326,7 +5326,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22" ht="16.2" thickBot="1">
       <c r="A58" s="3">
         <v>2011</v>
       </c>
@@ -5367,19 +5367,19 @@
         <v>1</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S58">
         <v>3</v>
@@ -5394,7 +5394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22" ht="16.2" thickBot="1">
       <c r="A59" s="3">
         <v>2012</v>
       </c>
@@ -5435,19 +5435,19 @@
         <v>1</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P59" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S59">
         <v>3</v>
@@ -5462,7 +5462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" ht="16.2" thickBot="1">
       <c r="A60" s="3">
         <v>2013</v>
       </c>
@@ -5503,19 +5503,19 @@
         <v>1</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S60">
         <v>3</v>
@@ -5530,7 +5530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" ht="16.2" thickBot="1">
       <c r="A61" s="3">
         <v>2014</v>
       </c>
@@ -5571,19 +5571,19 @@
         <v>1</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S61">
         <v>3</v>
@@ -5598,7 +5598,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22" ht="16.2" thickBot="1">
       <c r="A62" s="3">
         <v>2015</v>
       </c>
@@ -5639,19 +5639,19 @@
         <v>1</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S62">
         <v>3</v>
@@ -5666,7 +5666,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" ht="16.2" thickBot="1">
       <c r="A63" s="3">
         <v>2016</v>
       </c>
@@ -5707,19 +5707,19 @@
         <v>1</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S63">
         <v>3</v>
@@ -5734,7 +5734,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:22" ht="16.2" thickBot="1">
       <c r="A64" s="3">
         <v>2017</v>
       </c>
@@ -5775,19 +5775,19 @@
         <v>1</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S64">
         <v>3</v>
@@ -5802,7 +5802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:22" ht="16.2" thickBot="1">
       <c r="A65" s="3">
         <v>2018</v>
       </c>
@@ -5843,19 +5843,19 @@
         <v>1</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P65" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S65">
         <v>3</v>
@@ -5870,7 +5870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" ht="16.2" thickBot="1">
       <c r="A66" s="3">
         <v>2019</v>
       </c>
@@ -5911,19 +5911,19 @@
         <v>1</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S66">
         <v>3</v>
@@ -5938,7 +5938,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22" ht="16.2" thickBot="1">
       <c r="A67" s="3">
         <v>2020</v>
       </c>
@@ -5979,19 +5979,19 @@
         <v>1</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S67">
         <v>3</v>
@@ -6006,7 +6006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22" ht="16.2" thickBot="1">
       <c r="A68" s="3">
         <v>2021</v>
       </c>
@@ -6047,19 +6047,19 @@
         <v>1</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P68" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -6074,7 +6074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22" ht="16.2" thickBot="1">
       <c r="A69" s="3">
         <v>2022</v>
       </c>
@@ -6115,19 +6115,19 @@
         <v>1</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S69">
         <v>3</v>
@@ -6142,7 +6142,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22" ht="16.2" thickBot="1">
       <c r="A70" s="3">
         <v>2023</v>
       </c>
@@ -6183,19 +6183,19 @@
         <v>1</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S70">
         <v>3</v>
@@ -6210,7 +6210,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22" ht="16.2" thickBot="1">
       <c r="A71" s="3">
         <v>2024</v>
       </c>
@@ -6251,19 +6251,19 @@
         <v>1</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S71">
         <v>3</v>
@@ -6278,7 +6278,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22" ht="16.2" thickBot="1">
       <c r="A72" s="3">
         <v>2025</v>
       </c>
@@ -6319,19 +6319,19 @@
         <v>1</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S72">
         <v>3</v>
@@ -6346,7 +6346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:22" ht="16.2" thickBot="1">
       <c r="A73" s="3">
         <v>2026</v>
       </c>
@@ -6387,19 +6387,19 @@
         <v>1</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P73" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S73">
         <v>3</v>
@@ -6414,7 +6414,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:22" ht="16.2" thickBot="1">
       <c r="A74" s="3">
         <v>2027</v>
       </c>
@@ -6455,19 +6455,19 @@
         <v>1</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P74" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S74">
         <v>3</v>
@@ -6482,7 +6482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" ht="16.2" thickBot="1">
       <c r="A75" s="3">
         <v>2028</v>
       </c>
@@ -6523,19 +6523,19 @@
         <v>1</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P75" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S75">
         <v>3</v>
@@ -6550,7 +6550,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:22" ht="16.2" thickBot="1">
       <c r="A76" s="3">
         <v>2029</v>
       </c>
@@ -6591,19 +6591,19 @@
         <v>1</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P76" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S76">
         <v>3</v>
@@ -6618,7 +6618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" ht="16.2" thickBot="1">
       <c r="A77" s="3">
         <v>2030</v>
       </c>
@@ -6659,19 +6659,19 @@
         <v>1</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O77" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P77" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S77">
         <v>3</v>
@@ -6686,7 +6686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22" ht="16.2" thickBot="1">
       <c r="A78" s="3">
         <v>2031</v>
       </c>
@@ -6727,19 +6727,19 @@
         <v>1</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P78" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S78">
         <v>3</v>
@@ -6754,7 +6754,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" ht="16.2" thickBot="1">
       <c r="A79" s="3">
         <v>2032</v>
       </c>
@@ -6795,19 +6795,19 @@
         <v>1</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P79" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S79">
         <v>3</v>
@@ -6822,7 +6822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" ht="16.2" thickBot="1">
       <c r="A80" s="3">
         <v>2033</v>
       </c>
@@ -6863,19 +6863,19 @@
         <v>1</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S80">
         <v>3</v>
@@ -6890,7 +6890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" ht="16.2" thickBot="1">
       <c r="A81" s="3">
         <v>3004</v>
       </c>
@@ -6907,10 +6907,10 @@
         <v>53</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>102</v>
@@ -6931,25 +6931,25 @@
         <v>1</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O81" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P81" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S81">
         <v>4</v>
       </c>
       <c r="T81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U81">
         <v>434716</v>
@@ -6958,7 +6958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:22" ht="16.2" thickBot="1">
       <c r="A82" s="3">
         <v>3005</v>
       </c>
@@ -6975,10 +6975,10 @@
         <v>53</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>107</v>
@@ -6999,25 +6999,25 @@
         <v>1</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O82" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P82" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S82">
         <v>4</v>
       </c>
       <c r="T82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U82">
         <v>434716</v>
@@ -7026,7 +7026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" ht="16.2" thickBot="1">
       <c r="A83" s="3">
         <v>3006</v>
       </c>
@@ -7043,10 +7043,10 @@
         <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>112</v>
@@ -7067,25 +7067,25 @@
         <v>1</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O83" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P83" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S83">
         <v>4</v>
       </c>
       <c r="T83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U83">
         <v>434716</v>
@@ -7094,7 +7094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" ht="16.2" thickBot="1">
       <c r="A84" s="3">
         <v>3007</v>
       </c>
@@ -7111,10 +7111,10 @@
         <v>53</v>
       </c>
       <c r="F84" t="s">
+        <v>181</v>
+      </c>
+      <c r="G84" t="s">
         <v>182</v>
-      </c>
-      <c r="G84" t="s">
-        <v>183</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>102</v>
@@ -7135,25 +7135,25 @@
         <v>1</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O84" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P84" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S84">
         <v>4</v>
       </c>
       <c r="T84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U84">
         <v>434716</v>
@@ -7162,7 +7162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:22" ht="16.2" thickBot="1">
       <c r="A85" s="3">
         <v>3008</v>
       </c>
@@ -7179,10 +7179,10 @@
         <v>53</v>
       </c>
       <c r="F85" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" t="s">
         <v>182</v>
-      </c>
-      <c r="G85" t="s">
-        <v>183</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>107</v>
@@ -7203,25 +7203,25 @@
         <v>1</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O85" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P85" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S85">
         <v>4</v>
       </c>
       <c r="T85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U85">
         <v>434716</v>
@@ -7230,7 +7230,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:22" ht="16.2" thickBot="1">
       <c r="A86" s="3">
         <v>3009</v>
       </c>
@@ -7247,10 +7247,10 @@
         <v>53</v>
       </c>
       <c r="F86" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86" t="s">
         <v>182</v>
-      </c>
-      <c r="G86" t="s">
-        <v>183</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>112</v>
@@ -7271,25 +7271,25 @@
         <v>1</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O86" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P86" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q86" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R86" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S86">
         <v>4</v>
       </c>
       <c r="T86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U86">
         <v>434716</v>
@@ -7298,7 +7298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:22" ht="16.2" thickBot="1">
       <c r="A87" s="3">
         <v>3010</v>
       </c>
@@ -7315,10 +7315,10 @@
         <v>53</v>
       </c>
       <c r="F87" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" t="s">
         <v>184</v>
-      </c>
-      <c r="G87" t="s">
-        <v>185</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>102</v>
@@ -7339,25 +7339,25 @@
         <v>1</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O87" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P87" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S87">
         <v>4</v>
       </c>
       <c r="T87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U87">
         <v>434716</v>
@@ -7366,7 +7366,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:22" ht="16.2" thickBot="1">
       <c r="A88" s="3">
         <v>3011</v>
       </c>
@@ -7383,10 +7383,10 @@
         <v>53</v>
       </c>
       <c r="F88" t="s">
+        <v>183</v>
+      </c>
+      <c r="G88" t="s">
         <v>184</v>
-      </c>
-      <c r="G88" t="s">
-        <v>185</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>107</v>
@@ -7407,25 +7407,25 @@
         <v>1</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O88" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P88" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S88">
         <v>4</v>
       </c>
       <c r="T88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U88">
         <v>434716</v>
@@ -7434,7 +7434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:22" ht="16.2" thickBot="1">
       <c r="A89" s="3">
         <v>3012</v>
       </c>
@@ -7451,10 +7451,10 @@
         <v>53</v>
       </c>
       <c r="F89" t="s">
+        <v>183</v>
+      </c>
+      <c r="G89" t="s">
         <v>184</v>
-      </c>
-      <c r="G89" t="s">
-        <v>185</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>112</v>
@@ -7475,25 +7475,25 @@
         <v>1</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O89" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S89">
         <v>4</v>
       </c>
       <c r="T89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U89">
         <v>434716</v>
@@ -7502,7 +7502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22" ht="16.2" thickBot="1">
       <c r="A90" s="3">
         <v>3013</v>
       </c>
@@ -7519,10 +7519,10 @@
         <v>53</v>
       </c>
       <c r="F90" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="G90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>102</v>
@@ -7543,25 +7543,25 @@
         <v>1</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S90">
         <v>4</v>
       </c>
       <c r="T90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U90">
         <v>434716</v>
@@ -7570,7 +7570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:22" ht="16.2" thickBot="1">
       <c r="A91" s="3">
         <v>3014</v>
       </c>
@@ -7587,10 +7587,10 @@
         <v>53</v>
       </c>
       <c r="F91" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="G91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>107</v>
@@ -7611,25 +7611,25 @@
         <v>1</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O91" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R91" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S91">
         <v>4</v>
       </c>
       <c r="T91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U91">
         <v>434716</v>
@@ -7638,7 +7638,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:22" ht="16.2" thickBot="1">
       <c r="A92" s="3">
         <v>3015</v>
       </c>
@@ -7655,10 +7655,10 @@
         <v>53</v>
       </c>
       <c r="F92" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="G92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>112</v>
@@ -7679,25 +7679,25 @@
         <v>1</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O92" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S92">
         <v>4</v>
       </c>
       <c r="T92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U92">
         <v>434716</v>
@@ -7706,7 +7706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:22" ht="16.2" thickBot="1">
       <c r="A93" s="3">
         <v>3016</v>
       </c>
@@ -7723,10 +7723,10 @@
         <v>53</v>
       </c>
       <c r="F93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>102</v>
@@ -7747,25 +7747,25 @@
         <v>1</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O93" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S93">
         <v>4</v>
       </c>
       <c r="T93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U93">
         <v>434716</v>
@@ -7774,7 +7774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:22" ht="16.2" thickBot="1">
       <c r="A94" s="3">
         <v>3017</v>
       </c>
@@ -7791,10 +7791,10 @@
         <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>107</v>
@@ -7815,25 +7815,25 @@
         <v>1</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O94" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S94">
         <v>4</v>
       </c>
       <c r="T94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U94">
         <v>434716</v>
@@ -7842,7 +7842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:22" ht="16.2" thickBot="1">
       <c r="A95" s="3">
         <v>3018</v>
       </c>
@@ -7859,10 +7859,10 @@
         <v>53</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>112</v>
@@ -7883,25 +7883,25 @@
         <v>1</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O95" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q95" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S95">
         <v>4</v>
       </c>
       <c r="T95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U95">
         <v>434716</v>
@@ -7910,7 +7910,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22" ht="16.2" thickBot="1">
       <c r="A96" s="3">
         <v>3019</v>
       </c>
@@ -7927,10 +7927,10 @@
         <v>53</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="G96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>102</v>
@@ -7951,25 +7951,25 @@
         <v>1</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O96" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P96" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R96" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S96">
         <v>4</v>
       </c>
       <c r="T96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U96">
         <v>434716</v>
@@ -7978,7 +7978,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:22" ht="16.2" thickBot="1">
       <c r="A97" s="3">
         <v>3020</v>
       </c>
@@ -7995,10 +7995,10 @@
         <v>53</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="G97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>107</v>
@@ -8019,25 +8019,25 @@
         <v>1</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O97" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P97" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S97">
         <v>4</v>
       </c>
       <c r="T97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U97">
         <v>434716</v>
@@ -8046,7 +8046,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:22" ht="16.2" thickBot="1">
       <c r="A98" s="3">
         <v>3021</v>
       </c>
@@ -8063,10 +8063,10 @@
         <v>53</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="G98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>112</v>
@@ -8087,25 +8087,25 @@
         <v>1</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P98" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q98" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S98">
         <v>4</v>
       </c>
       <c r="T98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U98">
         <v>434716</v>
@@ -8114,7 +8114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:22" ht="16.2" thickBot="1">
       <c r="A99" s="3">
         <v>3022</v>
       </c>
@@ -8131,10 +8131,10 @@
         <v>53</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="G99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>102</v>
@@ -8155,25 +8155,25 @@
         <v>1</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O99" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P99" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q99" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S99">
         <v>4</v>
       </c>
       <c r="T99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U99">
         <v>434716</v>
@@ -8182,7 +8182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:22" ht="16.2" thickBot="1">
       <c r="A100" s="3">
         <v>3023</v>
       </c>
@@ -8199,10 +8199,10 @@
         <v>53</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="G100" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>107</v>
@@ -8223,25 +8223,25 @@
         <v>1</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O100" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P100" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q100" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R100" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S100">
         <v>4</v>
       </c>
       <c r="T100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U100">
         <v>434716</v>
@@ -8250,7 +8250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:22" ht="16.2" thickBot="1">
       <c r="A101" s="3">
         <v>3024</v>
       </c>
@@ -8267,10 +8267,10 @@
         <v>53</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="G101" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>112</v>
@@ -8291,25 +8291,25 @@
         <v>1</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O101" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S101">
         <v>4</v>
       </c>
       <c r="T101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U101">
         <v>434716</v>
@@ -8318,7 +8318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:22" ht="16.2" thickBot="1">
       <c r="A102" s="3">
         <v>3025</v>
       </c>
@@ -8335,10 +8335,10 @@
         <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G102" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>102</v>
@@ -8359,25 +8359,25 @@
         <v>1</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O102" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q102" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S102">
         <v>4</v>
       </c>
       <c r="T102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U102">
         <v>434716</v>
@@ -8386,7 +8386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:22" ht="16.2" thickBot="1">
       <c r="A103" s="3">
         <v>3026</v>
       </c>
@@ -8403,10 +8403,10 @@
         <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G103" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>107</v>
@@ -8427,25 +8427,25 @@
         <v>1</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O103" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q103" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R103" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S103">
         <v>4</v>
       </c>
       <c r="T103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U103">
         <v>434716</v>
@@ -8454,7 +8454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:22" ht="16.2" thickBot="1">
       <c r="A104" s="3">
         <v>3027</v>
       </c>
@@ -8471,10 +8471,10 @@
         <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G104" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>112</v>
@@ -8495,25 +8495,25 @@
         <v>1</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O104" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q104" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R104" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S104">
         <v>4</v>
       </c>
       <c r="T104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U104">
         <v>434716</v>
@@ -8522,7 +8522,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:22" ht="16.2" thickBot="1">
       <c r="A105" s="3">
         <v>3028</v>
       </c>
@@ -8539,10 +8539,10 @@
         <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="G105" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>102</v>
@@ -8563,25 +8563,25 @@
         <v>1</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O105" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q105" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R105" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S105">
         <v>4</v>
       </c>
       <c r="T105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U105">
         <v>434716</v>
@@ -8590,7 +8590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:22" ht="16.2" thickBot="1">
       <c r="A106" s="3">
         <v>3029</v>
       </c>
@@ -8607,10 +8607,10 @@
         <v>53</v>
       </c>
       <c r="F106" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="G106" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>107</v>
@@ -8631,25 +8631,25 @@
         <v>1</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O106" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q106" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R106" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S106">
         <v>4</v>
       </c>
       <c r="T106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U106">
         <v>434716</v>
@@ -8658,7 +8658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:22" ht="16.2" thickBot="1">
       <c r="A107" s="3">
         <v>3030</v>
       </c>
@@ -8675,10 +8675,10 @@
         <v>53</v>
       </c>
       <c r="F107" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="G107" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>112</v>
@@ -8699,25 +8699,25 @@
         <v>1</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O107" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q107" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R107" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S107">
         <v>4</v>
       </c>
       <c r="T107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U107">
         <v>434716</v>
@@ -8726,7 +8726,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:22" ht="16.2" thickBot="1">
       <c r="A108" s="3">
         <v>3031</v>
       </c>
@@ -8743,10 +8743,10 @@
         <v>53</v>
       </c>
       <c r="F108" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G108" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>102</v>
@@ -8767,25 +8767,25 @@
         <v>1</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O108" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P108" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q108" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R108" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S108">
         <v>4</v>
       </c>
       <c r="T108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U108">
         <v>434716</v>
@@ -8794,7 +8794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:22" ht="16.2" thickBot="1">
       <c r="A109" s="3">
         <v>3032</v>
       </c>
@@ -8811,10 +8811,10 @@
         <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G109" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>107</v>
@@ -8835,25 +8835,25 @@
         <v>1</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O109" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P109" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q109" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R109" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S109">
         <v>4</v>
       </c>
       <c r="T109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U109">
         <v>434716</v>
@@ -8862,7 +8862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:22" ht="16.2" thickBot="1">
       <c r="A110" s="3">
         <v>3033</v>
       </c>
@@ -8879,10 +8879,10 @@
         <v>53</v>
       </c>
       <c r="F110" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G110" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>112</v>
@@ -8903,25 +8903,25 @@
         <v>1</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O110" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P110" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q110" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R110" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S110">
         <v>4</v>
       </c>
       <c r="T110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U110">
         <v>434716</v>
@@ -8930,7 +8930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:22" ht="16.2" thickBot="1">
       <c r="A111" s="3">
         <v>4004</v>
       </c>
@@ -8947,10 +8947,10 @@
         <v>53</v>
       </c>
       <c r="F111" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>121</v>
@@ -8971,25 +8971,25 @@
         <v>1</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O111" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P111" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q111" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R111" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S111">
         <v>5</v>
       </c>
       <c r="T111" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U111">
         <v>434716</v>
@@ -8998,7 +8998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:22" ht="16.2" thickBot="1">
       <c r="A112" s="3">
         <v>4005</v>
       </c>
@@ -9015,10 +9015,10 @@
         <v>53</v>
       </c>
       <c r="F112" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>123</v>
@@ -9039,25 +9039,25 @@
         <v>1</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O112" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P112" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q112" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R112" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S112">
         <v>5</v>
       </c>
       <c r="T112" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U112">
         <v>434716</v>
@@ -9066,7 +9066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:22" ht="16.2" thickBot="1">
       <c r="A113" s="3">
         <v>4006</v>
       </c>
@@ -9083,10 +9083,10 @@
         <v>53</v>
       </c>
       <c r="F113" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>125</v>
@@ -9107,25 +9107,25 @@
         <v>1</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O113" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P113" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R113" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S113">
         <v>5</v>
       </c>
       <c r="T113" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U113">
         <v>434716</v>
@@ -9134,7 +9134,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:22" ht="16.2" thickBot="1">
       <c r="A114" s="3">
         <v>4007</v>
       </c>
@@ -9151,10 +9151,10 @@
         <v>53</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>121</v>
@@ -9175,25 +9175,25 @@
         <v>1</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O114" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P114" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R114" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S114">
         <v>5</v>
       </c>
       <c r="T114" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U114">
         <v>434716</v>
@@ -9202,7 +9202,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:22" ht="16.2" thickBot="1">
       <c r="A115" s="3">
         <v>4008</v>
       </c>
@@ -9219,10 +9219,10 @@
         <v>53</v>
       </c>
       <c r="F115" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>123</v>
@@ -9243,25 +9243,25 @@
         <v>1</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O115" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P115" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R115" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S115">
         <v>5</v>
       </c>
       <c r="T115" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U115">
         <v>434716</v>
@@ -9270,7 +9270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:22" ht="16.2" thickBot="1">
       <c r="A116" s="3">
         <v>4009</v>
       </c>
@@ -9287,10 +9287,10 @@
         <v>53</v>
       </c>
       <c r="F116" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>125</v>
@@ -9311,25 +9311,25 @@
         <v>1</v>
       </c>
       <c r="N116" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O116" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P116" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q116" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R116" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S116">
         <v>5</v>
       </c>
       <c r="T116" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U116">
         <v>434716</v>
@@ -9338,7 +9338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:22" ht="16.2" thickBot="1">
       <c r="A117" s="3">
         <v>4010</v>
       </c>
@@ -9355,10 +9355,10 @@
         <v>53</v>
       </c>
       <c r="F117" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>121</v>
@@ -9379,25 +9379,25 @@
         <v>1</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O117" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P117" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R117" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S117">
         <v>5</v>
       </c>
       <c r="T117" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U117">
         <v>434716</v>
@@ -9406,7 +9406,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:22" ht="16.2" thickBot="1">
       <c r="A118" s="3">
         <v>4011</v>
       </c>
@@ -9423,10 +9423,10 @@
         <v>53</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>123</v>
@@ -9447,25 +9447,25 @@
         <v>1</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O118" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P118" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R118" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S118">
         <v>5</v>
       </c>
       <c r="T118" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U118">
         <v>434716</v>
@@ -9474,7 +9474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:22" ht="16.2" thickBot="1">
       <c r="A119" s="3">
         <v>4012</v>
       </c>
@@ -9491,10 +9491,10 @@
         <v>53</v>
       </c>
       <c r="F119" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>125</v>
@@ -9515,25 +9515,25 @@
         <v>1</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O119" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P119" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R119" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S119">
         <v>5</v>
       </c>
       <c r="T119" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U119">
         <v>434716</v>
@@ -9542,7 +9542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:22" ht="16.2" thickBot="1">
       <c r="A120" s="3">
         <v>4013</v>
       </c>
@@ -9559,10 +9559,10 @@
         <v>53</v>
       </c>
       <c r="F120" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>121</v>
@@ -9583,25 +9583,25 @@
         <v>1</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P120" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R120" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S120">
         <v>5</v>
       </c>
       <c r="T120" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U120">
         <v>434716</v>
@@ -9610,7 +9610,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:22" ht="16.2" thickBot="1">
       <c r="A121" s="3">
         <v>4014</v>
       </c>
@@ -9627,10 +9627,10 @@
         <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>123</v>
@@ -9651,25 +9651,25 @@
         <v>1</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O121" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P121" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R121" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S121">
         <v>5</v>
       </c>
       <c r="T121" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U121">
         <v>434716</v>
@@ -9678,7 +9678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:22" ht="16.2" thickBot="1">
       <c r="A122" s="3">
         <v>4015</v>
       </c>
@@ -9695,10 +9695,10 @@
         <v>53</v>
       </c>
       <c r="F122" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>125</v>
@@ -9719,25 +9719,25 @@
         <v>1</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O122" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P122" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q122" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R122" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S122">
         <v>5</v>
       </c>
       <c r="T122" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U122">
         <v>434716</v>
@@ -9746,7 +9746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:22" ht="16.2" thickBot="1">
       <c r="A123" s="3">
         <v>4016</v>
       </c>
@@ -9763,10 +9763,10 @@
         <v>53</v>
       </c>
       <c r="F123" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>121</v>
@@ -9787,25 +9787,25 @@
         <v>1</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O123" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P123" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q123" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R123" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S123">
         <v>5</v>
       </c>
       <c r="T123" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U123">
         <v>434716</v>
@@ -9814,7 +9814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:22" ht="16.2" thickBot="1">
       <c r="A124" s="3">
         <v>4017</v>
       </c>
@@ -9831,10 +9831,10 @@
         <v>53</v>
       </c>
       <c r="F124" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>123</v>
@@ -9855,25 +9855,25 @@
         <v>1</v>
       </c>
       <c r="N124" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O124" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P124" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q124" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R124" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S124">
         <v>5</v>
       </c>
       <c r="T124" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U124">
         <v>434716</v>
@@ -9882,7 +9882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:22" ht="16.2" thickBot="1">
       <c r="A125" s="3">
         <v>4018</v>
       </c>
@@ -9899,10 +9899,10 @@
         <v>53</v>
       </c>
       <c r="F125" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>125</v>
@@ -9923,25 +9923,25 @@
         <v>1</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O125" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P125" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q125" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R125" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S125">
         <v>5</v>
       </c>
       <c r="T125" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U125">
         <v>434716</v>
@@ -9950,7 +9950,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:22" ht="16.2" thickBot="1">
       <c r="A126" s="3">
         <v>4019</v>
       </c>
@@ -9967,10 +9967,10 @@
         <v>53</v>
       </c>
       <c r="F126" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>121</v>
@@ -9991,25 +9991,25 @@
         <v>1</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O126" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P126" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q126" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R126" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S126">
         <v>5</v>
       </c>
       <c r="T126" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U126">
         <v>434716</v>
@@ -10018,7 +10018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:22" ht="16.2" thickBot="1">
       <c r="A127" s="3">
         <v>4020</v>
       </c>
@@ -10035,10 +10035,10 @@
         <v>53</v>
       </c>
       <c r="F127" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>123</v>
@@ -10059,25 +10059,25 @@
         <v>1</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P127" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q127" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R127" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S127">
         <v>5</v>
       </c>
       <c r="T127" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U127">
         <v>434716</v>
@@ -10086,7 +10086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:22" ht="16.2" thickBot="1">
       <c r="A128" s="3">
         <v>4021</v>
       </c>
@@ -10103,10 +10103,10 @@
         <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>125</v>
@@ -10127,25 +10127,25 @@
         <v>1</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O128" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P128" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R128" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S128">
         <v>5</v>
       </c>
       <c r="T128" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U128">
         <v>434716</v>
@@ -10154,7 +10154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22" ht="16.2" thickBot="1">
       <c r="A129" s="3">
         <v>4022</v>
       </c>
@@ -10171,10 +10171,10 @@
         <v>53</v>
       </c>
       <c r="F129" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>121</v>
@@ -10195,25 +10195,25 @@
         <v>1</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O129" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P129" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R129" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S129">
         <v>5</v>
       </c>
       <c r="T129" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U129">
         <v>434716</v>
@@ -10222,7 +10222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:22" ht="16.2" thickBot="1">
       <c r="A130" s="3">
         <v>4023</v>
       </c>
@@ -10239,10 +10239,10 @@
         <v>53</v>
       </c>
       <c r="F130" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>123</v>
@@ -10263,25 +10263,25 @@
         <v>1</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O130" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P130" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q130" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R130" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S130">
         <v>5</v>
       </c>
       <c r="T130" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U130">
         <v>434716</v>
@@ -10290,7 +10290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:22" ht="16.2" thickBot="1">
       <c r="A131" s="3">
         <v>4024</v>
       </c>
@@ -10307,10 +10307,10 @@
         <v>53</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>125</v>
@@ -10331,25 +10331,25 @@
         <v>1</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O131" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P131" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q131" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R131" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S131">
         <v>5</v>
       </c>
       <c r="T131" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U131">
         <v>434716</v>
@@ -10358,7 +10358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:22" ht="16.2" thickBot="1">
       <c r="A132" s="3">
         <v>4025</v>
       </c>
@@ -10375,10 +10375,10 @@
         <v>53</v>
       </c>
       <c r="F132" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>121</v>
@@ -10399,25 +10399,25 @@
         <v>1</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O132" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P132" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q132" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R132" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S132">
         <v>5</v>
       </c>
       <c r="T132" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U132">
         <v>434716</v>
@@ -10426,7 +10426,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:22" ht="16.2" thickBot="1">
       <c r="A133" s="3">
         <v>4026</v>
       </c>
@@ -10443,10 +10443,10 @@
         <v>53</v>
       </c>
       <c r="F133" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>123</v>
@@ -10467,25 +10467,25 @@
         <v>1</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O133" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P133" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S133">
         <v>5</v>
       </c>
       <c r="T133" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U133">
         <v>434716</v>
@@ -10494,7 +10494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:22" ht="16.2" thickBot="1">
       <c r="A134" s="3">
         <v>4027</v>
       </c>
@@ -10511,10 +10511,10 @@
         <v>53</v>
       </c>
       <c r="F134" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>125</v>
@@ -10535,25 +10535,25 @@
         <v>1</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O134" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P134" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S134">
         <v>5</v>
       </c>
       <c r="T134" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U134">
         <v>434716</v>
@@ -10562,7 +10562,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:22" ht="16.2" thickBot="1">
       <c r="A135" s="3">
         <v>4028</v>
       </c>
@@ -10579,10 +10579,10 @@
         <v>53</v>
       </c>
       <c r="F135" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>121</v>
@@ -10603,25 +10603,25 @@
         <v>1</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P135" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S135">
         <v>5</v>
       </c>
       <c r="T135" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U135">
         <v>434716</v>
@@ -10630,7 +10630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:22" ht="16.2" thickBot="1">
       <c r="A136" s="3">
         <v>4029</v>
       </c>
@@ -10647,10 +10647,10 @@
         <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>123</v>
@@ -10671,25 +10671,25 @@
         <v>1</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O136" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S136">
         <v>5</v>
       </c>
       <c r="T136" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U136">
         <v>434716</v>
@@ -10698,7 +10698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:22" ht="16.2" thickBot="1">
       <c r="A137" s="3">
         <v>4030</v>
       </c>
@@ -10715,10 +10715,10 @@
         <v>53</v>
       </c>
       <c r="F137" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>125</v>
@@ -10739,25 +10739,25 @@
         <v>1</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O137" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P137" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S137">
         <v>5</v>
       </c>
       <c r="T137" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U137">
         <v>434716</v>
@@ -10766,7 +10766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:22" ht="16.2" thickBot="1">
       <c r="A138" s="3">
         <v>4031</v>
       </c>
@@ -10783,10 +10783,10 @@
         <v>53</v>
       </c>
       <c r="F138" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>121</v>
@@ -10807,25 +10807,25 @@
         <v>1</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O138" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P138" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="R138" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S138">
         <v>5</v>
       </c>
       <c r="T138" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U138">
         <v>434716</v>
@@ -10834,7 +10834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:22" ht="16.2" thickBot="1">
       <c r="A139" s="3">
         <v>4032</v>
       </c>
@@ -10851,10 +10851,10 @@
         <v>53</v>
       </c>
       <c r="F139" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>123</v>
@@ -10875,25 +10875,25 @@
         <v>1</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O139" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P139" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R139" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S139">
         <v>5</v>
       </c>
       <c r="T139" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U139">
         <v>434716</v>
@@ -10902,7 +10902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:22" ht="16.2" thickBot="1">
       <c r="A140" s="3">
         <v>4033</v>
       </c>
@@ -10919,10 +10919,10 @@
         <v>53</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>125</v>
@@ -10943,25 +10943,25 @@
         <v>1</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O140" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P140" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="R140" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S140">
         <v>5</v>
       </c>
       <c r="T140" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="U140">
         <v>434716</v>
@@ -10970,7 +10970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:22" ht="16.2" thickBot="1">
       <c r="A141" s="3">
         <v>5004</v>
       </c>
@@ -10987,10 +10987,10 @@
         <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>129</v>
@@ -11011,25 +11011,25 @@
         <v>1</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O141" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P141" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="R141" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S141">
         <v>6</v>
       </c>
       <c r="T141" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="U141">
         <v>434716</v>
@@ -11038,7 +11038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:22" ht="16.2" thickBot="1">
       <c r="A142" s="3">
         <v>5005</v>
       </c>
@@ -11055,10 +11055,10 @@
         <v>53</v>
       </c>
       <c r="F142" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>131</v>
@@ -11079,25 +11079,25 @@
         <v>1</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="O142" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P142" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="R142" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S142">
         <v>6</v>
       </c>
       <c r="T142" t="s">
- 